--- a/tabele/prvaTabela.xlsx
+++ b/tabele/prvaTabela.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Milos\faks\master\master-rad\tabele\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Faks\master\master-rad\tabele\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17715" windowHeight="8145" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="tsplib" sheetId="1" r:id="rId1"/>
+    <sheet name="random_raw" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="random" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="153">
   <si>
     <t>swiss42</t>
   </si>
@@ -94,15 +95,9 @@
     <t>dantzig42</t>
   </si>
   <si>
-    <t>VNS+SA</t>
-  </si>
-  <si>
     <t>min</t>
   </si>
   <si>
-    <t>avg</t>
-  </si>
-  <si>
     <t>avgGap</t>
   </si>
   <si>
@@ -112,12 +107,6 @@
     <t>opt</t>
   </si>
   <si>
-    <t>17976*</t>
-  </si>
-  <si>
-    <t>27519*</t>
-  </si>
-  <si>
     <t>TRP-Sn-R1</t>
   </si>
   <si>
@@ -467,6 +456,62 @@
   </si>
   <si>
     <t>TRP-S500-R20</t>
+  </si>
+  <si>
+    <t>време (s)</t>
+  </si>
+  <si>
+    <r>
+      <t>57.986</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>VNS + SA</t>
+  </si>
+  <si>
+    <t>мин. реш.</t>
+  </si>
+  <si>
+    <t>опт. реш.</t>
+  </si>
+  <si>
+    <t>инст.</t>
+  </si>
+  <si>
+    <t>пр. реш.</t>
+  </si>
+  <si>
+    <t>GILS-RVND</t>
+  </si>
+  <si>
+    <r>
+      <t>27.519</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>ср. одст. (%)</t>
   </si>
 </sst>
 </file>
@@ -474,10 +519,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,6 +537,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -501,7 +577,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -511,11 +587,204 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -523,8 +792,114 @@
     <border>
       <left/>
       <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -532,24 +907,108 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -831,829 +1290,851 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:N27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
     <col min="11" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+    </row>
+    <row r="2" spans="1:14" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
       <c r="K2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="20">
         <v>12528</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="32">
         <v>0.16</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="16">
         <v>12528</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="8">
         <v>12528</v>
       </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="H4" s="33">
+        <v>0</v>
+      </c>
+      <c r="I4" s="32">
         <v>0.2064</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="3">
         <v>12528</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="3">
         <v>12550.6</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="5">
         <v>0.1804</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="5">
         <v>6.1199999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
+    <row r="5" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="21">
         <v>22327</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="34">
         <v>0.16</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="17">
         <v>22327</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="7">
         <v>22327</v>
       </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="H5" s="35">
+        <v>0</v>
+      </c>
+      <c r="I5" s="34">
         <v>0.2039</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="3">
         <v>22327</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="3">
         <v>22355.599999999999</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="5">
         <v>0.12809999999999999</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="5">
         <v>6.0299999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="6" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="21">
         <v>209320</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="34">
         <v>0.32</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="17">
         <v>209320</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="7">
         <v>209320</v>
       </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="H6" s="35">
+        <v>0</v>
+      </c>
+      <c r="I6" s="34">
         <v>0.28689999999999999</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="3">
         <v>209320</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="3">
         <v>209423.4</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="5">
         <v>4.9397999999999997E-2</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="5">
         <v>9.6699999999999994E-2</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="7" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="21">
         <v>102378</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="34">
         <v>0.33</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="17">
         <v>102378</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="7">
         <v>102378</v>
       </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="H7" s="35">
+        <v>0</v>
+      </c>
+      <c r="I7" s="34">
         <v>0.2717</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="3">
         <v>102378</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="3">
         <v>102785.7</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="5">
         <v>0.39822999999999997</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="5">
         <v>8.6900000000000005E-2</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="8" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="21">
         <v>247926</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="34">
         <v>0.3</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="17">
         <v>247926</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="7">
         <v>248068.7</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="35">
         <v>5.7556999999999997E-2</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="34">
         <v>0.25650000000000001</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="3">
         <v>247926</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="3">
         <v>249115.9</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="5">
         <v>0.47993999999999998</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="5">
         <v>8.2500000000000004E-2</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="9" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="21">
         <v>10178</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="34">
         <v>0.49</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="17">
         <v>10178</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="7">
         <v>10248.5</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="35">
         <v>0.69267000000000001</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="34">
         <v>0.2944</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="3">
         <v>10178</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="3">
         <v>10255.6</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="5">
         <v>0.76243000000000005</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="5">
         <v>9.1899999999999996E-2</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="10" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="21">
         <v>143721</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="34">
         <v>0.46</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="17">
         <v>143721</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="7">
         <v>143862.9</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="35">
         <v>9.8733000000000001E-2</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="34">
         <v>0.33289999999999997</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="3">
         <v>143721</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="3">
         <v>144210.29999999999</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="5">
         <v>0.34044999999999997</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="5">
         <v>0.111</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+    <row r="11" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="21">
         <v>512361</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="34">
         <v>0.78</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="17">
         <v>512361</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="7">
         <v>512361</v>
       </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
+      <c r="H11" s="35">
+        <v>0</v>
+      </c>
+      <c r="I11" s="34">
         <v>0.4587</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="3">
         <v>512361</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="3">
         <v>513313.2</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="5">
         <v>0.18584999999999999</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="5">
         <v>0.14369999999999999</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+    <row r="12" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="21">
         <v>20557</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="34">
         <v>1.65</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="17">
         <v>20557</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="7">
         <v>20557</v>
       </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
+      <c r="H12" s="35">
+        <v>0</v>
+      </c>
+      <c r="I12" s="34">
         <v>0.70130000000000003</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="3">
         <v>20557</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="3">
         <v>20628</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="5">
         <v>0.34538000000000002</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="5">
         <v>0.23480000000000001</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+    <row r="13" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="21">
+        <v>17976</v>
+      </c>
+      <c r="E13" s="34">
         <v>2.64</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="17">
         <v>17976</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="7">
         <v>18069.5</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="35">
         <v>0.52014000000000005</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="34">
         <v>0.87119999999999997</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="3">
         <v>18106</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="3">
         <v>18216.400000000001</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="5">
         <v>1.3372999999999999</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="5">
         <v>0.26</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+    <row r="14" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="21">
         <v>3455242</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="34">
         <v>2.31</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="17">
         <v>3455242</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="7">
         <v>3459378.2</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="35">
         <v>0.11971</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="34">
         <v>0.93810000000000004</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="3">
         <v>3455242</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="3">
         <v>3462056.7</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="5">
         <v>0.19722999999999999</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="5">
         <v>0.32779999999999998</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+    <row r="15" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="21">
         <v>2097170</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="34">
         <v>6.19</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="17">
         <v>2097170</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="7">
         <v>2101268.4</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="35">
         <v>0.19542999999999999</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="34">
         <v>1.6827000000000001</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="3">
         <v>2097170</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="3">
         <v>2103635.1</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="5">
         <v>0.30828</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="5">
         <v>0.56710000000000005</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+    <row r="16" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="3">
-        <v>58288</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="34">
         <v>11.27</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="18">
         <v>57986</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="7">
         <v>58210.5</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="35">
         <v>0.38716</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="34">
         <v>2.1469999999999998</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="3">
         <v>58544</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="3">
         <v>58980.1</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="5">
         <v>1.7143999999999999</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="5">
         <v>0.66639999999999999</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+    <row r="17" spans="3:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="21">
         <v>983128</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="34">
         <v>8.59</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="17">
         <v>983128</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="7">
         <v>992583.6</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="35">
         <v>0.96179000000000003</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="34">
         <v>2.2953999999999999</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="3">
         <v>983128</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="3">
         <v>1002917.1</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="5">
         <v>2.0129000000000001</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="5">
         <v>0.68989999999999996</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="18" spans="3:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="21">
         <v>986008</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="34">
         <v>9.2100000000000009</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="17">
         <v>986008</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="7">
         <v>986008</v>
       </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
+      <c r="H18" s="35">
+        <v>0</v>
+      </c>
+      <c r="I18" s="34">
         <v>2.16</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="3">
         <v>986008</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="3">
         <v>988393.3</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="5">
         <v>0.24190999999999999</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="5">
         <v>0.82410000000000005</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+    <row r="19" spans="3:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="21">
         <v>961324</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="34">
         <v>8.17</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="17">
         <v>961324</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="7">
         <v>961324</v>
       </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
+      <c r="H19" s="35">
+        <v>0</v>
+      </c>
+      <c r="I19" s="34">
         <v>2.1156999999999999</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="3">
         <v>961324</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="3">
         <v>966025.7</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="5">
         <v>0.48909000000000002</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19" s="5">
         <v>0.73429999999999995</v>
       </c>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+    <row r="20" spans="3:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="21">
         <v>976965</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="34">
         <v>8.4600000000000009</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="17">
         <v>976965</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="7">
         <v>977748.3</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="35">
         <v>8.0176999999999998E-2</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="34">
         <v>2.0981000000000001</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="3">
         <v>976965</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="3">
         <v>982686.1</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="5">
         <v>0.58560000000000001</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="5">
         <v>0.77380000000000004</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+    <row r="21" spans="3:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="21">
         <v>971266</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="34">
         <v>8.31</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="17">
         <v>971266</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="7">
         <v>971354.3</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="35">
         <v>9.0912000000000007E-3</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="34">
         <v>2.0272999999999999</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="3">
         <v>971266</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="3">
         <v>974766.1</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="5">
         <v>0.36036000000000001</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="5">
         <v>0.71860000000000002</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+    <row r="22" spans="3:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="21">
         <v>340047</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="34">
         <v>8.52</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="17">
         <v>340047</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="7">
         <v>340578.6</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="35">
         <v>0.15633</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="34">
         <v>1.9510000000000001</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="3">
         <v>340637</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="3">
         <v>341496.9</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="5">
         <v>0.42637999999999998</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N22" s="5">
         <v>0.62949999999999995</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+    <row r="23" spans="3:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23">
+      <c r="D23" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="34">
         <v>12.76</v>
       </c>
-      <c r="F23" s="4">
-        <v>27570</v>
-      </c>
-      <c r="G23" s="4">
+      <c r="F23" s="18">
+        <v>27519</v>
+      </c>
+      <c r="G23" s="7">
         <v>27716.9</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="35">
         <v>0.74109999999999998</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="34">
         <v>2.0960000000000001</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="3">
         <v>27764</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="3">
         <v>28009.200000000001</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="5">
         <v>1.8035000000000001</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N23" s="5">
         <v>0.62870000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+    <row r="24" spans="3:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="21">
         <v>603910</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="34">
         <v>8.42</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="17">
         <v>603910</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="7">
         <v>603910</v>
       </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2">
+      <c r="H24" s="35">
+        <v>0</v>
+      </c>
+      <c r="I24" s="34">
         <v>2.3609</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="3">
         <v>603910</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="3">
         <v>605668.9</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="5">
         <v>0.29125000000000001</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N24" s="5">
         <v>0.76759999999999995</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
+    <row r="25" spans="3:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="23">
         <v>2026626</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="36">
         <v>10.89</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="19">
         <v>2026626</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="9">
         <v>2026626</v>
       </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2">
+      <c r="H25" s="37">
+        <v>0</v>
+      </c>
+      <c r="I25" s="36">
         <v>2.6560999999999999</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="3">
         <v>2026626</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="3">
         <v>2031644</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="5">
         <v>0.24759999999999999</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25" s="5">
         <v>0.93579999999999997</v>
       </c>
     </row>
+    <row r="26" spans="3:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="3:14" x14ac:dyDescent="0.25">
       <c r="K27" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1661,7 +2142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:R134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C70" workbookViewId="0">
       <selection activeCell="F114" sqref="F114:F134"/>
     </sheetView>
   </sheetViews>
@@ -1677,16 +2158,16 @@
   <sheetData>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="7">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3">
         <v>1303</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
         <v>1303</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="3">
         <v>1303</v>
       </c>
       <c r="H4">
@@ -1698,16 +2179,16 @@
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="7">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3">
         <v>1517</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
         <v>1517</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="3">
         <v>1517</v>
       </c>
       <c r="H5">
@@ -1719,16 +2200,16 @@
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="7">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3">
         <v>1233</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
         <v>1233</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="3">
         <v>1233</v>
       </c>
       <c r="H6">
@@ -1740,16 +2221,16 @@
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="7">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3">
         <v>1386</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
         <v>1386</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="3">
         <v>1386</v>
       </c>
       <c r="H7">
@@ -1761,16 +2242,16 @@
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="7">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3">
         <v>978</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
         <v>978</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="3">
         <v>978</v>
       </c>
       <c r="H8">
@@ -1782,16 +2263,16 @@
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="7">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3">
         <v>1477</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
         <v>1477</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="3">
         <v>1477</v>
       </c>
       <c r="H9">
@@ -1803,16 +2284,16 @@
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="7">
+        <v>32</v>
+      </c>
+      <c r="D10" s="3">
         <v>1163</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3">
         <v>1163</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="3">
         <v>1163</v>
       </c>
       <c r="H10">
@@ -1824,16 +2305,16 @@
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="7">
+        <v>33</v>
+      </c>
+      <c r="D11" s="3">
         <v>1234</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3">
         <v>1234</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="3">
         <v>1234</v>
       </c>
       <c r="H11">
@@ -1845,16 +2326,16 @@
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="7">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3">
         <v>1402</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
         <v>1402</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="3">
         <v>1402</v>
       </c>
       <c r="H12">
@@ -1866,16 +2347,16 @@
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="7">
+        <v>35</v>
+      </c>
+      <c r="D13" s="3">
         <v>1388</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3">
         <v>1388</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="3">
         <v>1388</v>
       </c>
       <c r="H13">
@@ -1887,16 +2368,16 @@
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="7">
+        <v>36</v>
+      </c>
+      <c r="D14" s="3">
         <v>1405</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3">
         <v>1405</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="3">
         <v>1405</v>
       </c>
       <c r="H14">
@@ -1908,16 +2389,16 @@
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="7">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3">
         <v>1150</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3">
         <v>1150</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="3">
         <v>1150</v>
       </c>
       <c r="H15">
@@ -1929,16 +2410,16 @@
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="7">
+        <v>38</v>
+      </c>
+      <c r="D16" s="3">
         <v>1531</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3">
         <v>1531</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="3">
         <v>1531</v>
       </c>
       <c r="H16">
@@ -1950,16 +2431,16 @@
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="7">
+        <v>39</v>
+      </c>
+      <c r="D17" s="3">
         <v>1219</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3">
         <v>1219</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="3">
         <v>1219</v>
       </c>
       <c r="H17">
@@ -1971,16 +2452,16 @@
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="7">
+        <v>40</v>
+      </c>
+      <c r="D18" s="3">
         <v>1087</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3">
         <v>1087</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="3">
         <v>1087</v>
       </c>
       <c r="H18">
@@ -1992,16 +2473,16 @@
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="7">
+        <v>41</v>
+      </c>
+      <c r="D19" s="3">
         <v>1264</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3">
         <v>1264</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="3">
         <v>1264</v>
       </c>
       <c r="H19">
@@ -2013,16 +2494,16 @@
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="7">
+        <v>42</v>
+      </c>
+      <c r="D20" s="3">
         <v>1058</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3">
         <v>1058</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="3">
         <v>1058</v>
       </c>
       <c r="H20">
@@ -2034,16 +2515,16 @@
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="7">
+        <v>43</v>
+      </c>
+      <c r="D21" s="3">
         <v>1083</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3">
         <v>1083</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="3">
         <v>1083</v>
       </c>
       <c r="H21">
@@ -2055,16 +2536,16 @@
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="7">
+        <v>44</v>
+      </c>
+      <c r="D22" s="3">
         <v>1394</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3">
         <v>1394</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="3">
         <v>1394</v>
       </c>
       <c r="H22">
@@ -2076,16 +2557,16 @@
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="7">
+        <v>45</v>
+      </c>
+      <c r="D23" s="3">
         <v>951</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3">
         <v>951</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="3">
         <v>951</v>
       </c>
       <c r="H23">
@@ -2096,43 +2577,43 @@
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="D25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>26</v>
+      <c r="I25" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>20</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="3">
         <v>3175</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7">
+      <c r="E26" s="3"/>
+      <c r="F26" s="3">
         <v>3175</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="3">
         <v>3175</v>
       </c>
       <c r="H26" s="2">
@@ -2143,14 +2624,14 @@
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D27" s="7">
+      <c r="D27" s="3">
         <v>3248</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7">
+      <c r="E27" s="3"/>
+      <c r="F27" s="3">
         <v>3248</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="3">
         <v>3248.8</v>
       </c>
       <c r="H27" s="2">
@@ -2161,14 +2642,14 @@
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D28" s="7">
+      <c r="D28" s="3">
         <v>3570</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3">
         <v>3570</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="3">
         <v>3570</v>
       </c>
       <c r="H28" s="2">
@@ -2179,14 +2660,14 @@
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D29" s="7">
+      <c r="D29" s="3">
         <v>2983</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3">
         <v>2983</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="3">
         <v>2983</v>
       </c>
       <c r="H29" s="2">
@@ -2197,14 +2678,14 @@
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D30" s="7">
+      <c r="D30" s="3">
         <v>3248</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7">
+      <c r="E30" s="3"/>
+      <c r="F30" s="3">
         <v>3248</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="3">
         <v>3248</v>
       </c>
       <c r="H30" s="2">
@@ -2215,14 +2696,14 @@
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D31" s="7">
+      <c r="D31" s="3">
         <v>3328</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7">
+      <c r="E31" s="3"/>
+      <c r="F31" s="3">
         <v>3328</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="3">
         <v>3328</v>
       </c>
       <c r="H31" s="2">
@@ -2233,14 +2714,14 @@
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D32" s="7">
+      <c r="D32" s="3">
         <v>2809</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7">
+      <c r="E32" s="3"/>
+      <c r="F32" s="3">
         <v>2809</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="3">
         <v>2809</v>
       </c>
       <c r="H32" s="2">
@@ -2251,14 +2732,14 @@
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D33" s="7">
+      <c r="D33" s="3">
         <v>3461</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7">
+      <c r="E33" s="3"/>
+      <c r="F33" s="3">
         <v>3461</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="3">
         <v>3461</v>
       </c>
       <c r="H33" s="2">
@@ -2269,14 +2750,14 @@
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D34" s="7">
+      <c r="D34" s="3">
         <v>3475</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7">
+      <c r="E34" s="3"/>
+      <c r="F34" s="3">
         <v>3475</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="3">
         <v>3475</v>
       </c>
       <c r="H34" s="2">
@@ -2287,14 +2768,14 @@
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D35" s="7">
+      <c r="D35" s="3">
         <v>3359</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7">
+      <c r="E35" s="3"/>
+      <c r="F35" s="3">
         <v>3359</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="3">
         <v>3359</v>
       </c>
       <c r="H35" s="2">
@@ -2305,14 +2786,14 @@
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D36" s="7">
+      <c r="D36" s="3">
         <v>2916</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7">
+      <c r="E36" s="3"/>
+      <c r="F36" s="3">
         <v>2916</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="3">
         <v>2916</v>
       </c>
       <c r="H36" s="2">
@@ -2323,14 +2804,14 @@
       </c>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D37" s="7">
+      <c r="D37" s="3">
         <v>3314</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7">
+      <c r="E37" s="3"/>
+      <c r="F37" s="3">
         <v>3314</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="3">
         <v>3314</v>
       </c>
       <c r="H37" s="2">
@@ -2341,14 +2822,14 @@
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D38" s="7">
+      <c r="D38" s="3">
         <v>3412</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7">
+      <c r="E38" s="3"/>
+      <c r="F38" s="3">
         <v>3412</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="3">
         <v>3412</v>
       </c>
       <c r="H38" s="2">
@@ -2359,14 +2840,14 @@
       </c>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D39" s="7">
+      <c r="D39" s="3">
         <v>3297</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7">
+      <c r="E39" s="3"/>
+      <c r="F39" s="3">
         <v>3297</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="3">
         <v>3297</v>
       </c>
       <c r="H39" s="2">
@@ -2377,14 +2858,14 @@
       </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D40" s="7">
+      <c r="D40" s="3">
         <v>2862</v>
       </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7">
+      <c r="E40" s="3"/>
+      <c r="F40" s="3">
         <v>2862</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="3">
         <v>2862</v>
       </c>
       <c r="H40" s="2">
@@ -2395,14 +2876,14 @@
       </c>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D41" s="7">
+      <c r="D41" s="3">
         <v>3433</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7">
+      <c r="E41" s="3"/>
+      <c r="F41" s="3">
         <v>3433</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="3">
         <v>3433</v>
       </c>
       <c r="H41" s="2">
@@ -2413,14 +2894,14 @@
       </c>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D42" s="7">
+      <c r="D42" s="3">
         <v>2913</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7">
+      <c r="E42" s="3"/>
+      <c r="F42" s="3">
         <v>2913</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="3">
         <v>2913</v>
       </c>
       <c r="H42" s="2">
@@ -2431,14 +2912,14 @@
       </c>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D43" s="7">
+      <c r="D43" s="3">
         <v>3124</v>
       </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7">
+      <c r="E43" s="3"/>
+      <c r="F43" s="3">
         <v>3124</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="3">
         <v>3124</v>
       </c>
       <c r="H43" s="2">
@@ -2449,14 +2930,14 @@
       </c>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D44" s="7">
+      <c r="D44" s="3">
         <v>3299</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7">
+      <c r="E44" s="3"/>
+      <c r="F44" s="3">
         <v>3299</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="3">
         <v>3299</v>
       </c>
       <c r="H44" s="2">
@@ -2467,14 +2948,14 @@
       </c>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D45" s="7">
+      <c r="D45" s="3">
         <v>2796</v>
       </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7">
+      <c r="E45" s="3"/>
+      <c r="F45" s="3">
         <v>2796</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="3">
         <v>2796</v>
       </c>
       <c r="H45" s="2">
@@ -2485,43 +2966,43 @@
       </c>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D47" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F47" s="7" t="s">
+      <c r="D47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G47" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>26</v>
+      <c r="I47" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>50</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="3">
         <v>12198</v>
       </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7">
+      <c r="E48" s="3"/>
+      <c r="F48" s="3">
         <v>12198</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="3">
         <v>12198</v>
       </c>
       <c r="H48" s="2">
@@ -2532,14 +3013,14 @@
       </c>
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D49" s="7">
+      <c r="D49" s="3">
         <v>11621</v>
       </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7">
+      <c r="E49" s="3"/>
+      <c r="F49" s="3">
         <v>11621</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="3">
         <v>11621</v>
       </c>
       <c r="H49" s="2">
@@ -2550,14 +3031,14 @@
       </c>
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D50" s="7">
+      <c r="D50" s="3">
         <v>12139</v>
       </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7">
+      <c r="E50" s="3"/>
+      <c r="F50" s="3">
         <v>12139</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="3">
         <v>12139</v>
       </c>
       <c r="H50" s="2">
@@ -2568,14 +3049,14 @@
       </c>
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D51" s="7">
+      <c r="D51" s="3">
         <v>13071</v>
       </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7">
+      <c r="E51" s="3"/>
+      <c r="F51" s="3">
         <v>13071</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="3">
         <v>13162.8</v>
       </c>
       <c r="H51" s="2">
@@ -2586,14 +3067,14 @@
       </c>
     </row>
     <row r="52" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D52" s="7">
+      <c r="D52" s="3">
         <v>12126</v>
       </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7">
+      <c r="E52" s="3"/>
+      <c r="F52" s="3">
         <v>12126</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G52" s="3">
         <v>12126</v>
       </c>
       <c r="H52" s="2">
@@ -2604,14 +3085,14 @@
       </c>
     </row>
     <row r="53" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D53" s="7">
+      <c r="D53" s="3">
         <v>12684</v>
       </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7">
+      <c r="E53" s="3"/>
+      <c r="F53" s="3">
         <v>12684</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="3">
         <v>12684.9</v>
       </c>
       <c r="H53" s="2">
@@ -2622,14 +3103,14 @@
       </c>
     </row>
     <row r="54" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D54" s="7">
+      <c r="D54" s="3">
         <v>11176</v>
       </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7">
+      <c r="E54" s="3"/>
+      <c r="F54" s="3">
         <v>11176</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G54" s="3">
         <v>11176</v>
       </c>
       <c r="H54" s="2">
@@ -2640,14 +3121,14 @@
       </c>
     </row>
     <row r="55" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D55" s="7">
+      <c r="D55" s="3">
         <v>12910</v>
       </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7">
+      <c r="E55" s="3"/>
+      <c r="F55" s="3">
         <v>12910</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="3">
         <v>12911.6</v>
       </c>
       <c r="H55" s="2">
@@ -2658,14 +3139,14 @@
       </c>
     </row>
     <row r="56" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D56" s="7">
+      <c r="D56" s="3">
         <v>13149</v>
       </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7">
+      <c r="E56" s="3"/>
+      <c r="F56" s="3">
         <v>13149</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="3">
         <v>13149</v>
       </c>
       <c r="H56" s="2">
@@ -2676,14 +3157,14 @@
       </c>
     </row>
     <row r="57" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D57" s="7">
+      <c r="D57" s="3">
         <v>12892</v>
       </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7">
+      <c r="E57" s="3"/>
+      <c r="F57" s="3">
         <v>12892</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G57" s="3">
         <v>12892</v>
       </c>
       <c r="H57" s="2">
@@ -2694,14 +3175,14 @@
       </c>
     </row>
     <row r="58" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D58" s="7">
+      <c r="D58" s="3">
         <v>12103</v>
       </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7">
+      <c r="E58" s="3"/>
+      <c r="F58" s="3">
         <v>12103</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G58" s="3">
         <v>12106.2</v>
       </c>
       <c r="H58" s="2">
@@ -2712,14 +3193,14 @@
       </c>
     </row>
     <row r="59" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D59" s="7">
+      <c r="D59" s="3">
         <v>10633</v>
       </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7">
+      <c r="E59" s="3"/>
+      <c r="F59" s="3">
         <v>10633</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G59" s="3">
         <v>10633</v>
       </c>
       <c r="H59" s="2">
@@ -2730,14 +3211,14 @@
       </c>
     </row>
     <row r="60" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D60" s="7">
+      <c r="D60" s="3">
         <v>12115</v>
       </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7">
+      <c r="E60" s="3"/>
+      <c r="F60" s="3">
         <v>12115</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G60" s="3">
         <v>12115</v>
       </c>
       <c r="H60" s="2">
@@ -2748,14 +3229,14 @@
       </c>
     </row>
     <row r="61" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D61" s="7">
+      <c r="D61" s="3">
         <v>13117</v>
       </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7">
+      <c r="E61" s="3"/>
+      <c r="F61" s="3">
         <v>13117</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G61" s="3">
         <v>13129</v>
       </c>
       <c r="H61" s="2">
@@ -2766,14 +3247,14 @@
       </c>
     </row>
     <row r="62" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D62" s="7">
+      <c r="D62" s="3">
         <v>11986</v>
       </c>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7">
+      <c r="E62" s="3"/>
+      <c r="F62" s="3">
         <v>11986</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G62" s="3">
         <v>11986</v>
       </c>
       <c r="H62" s="2">
@@ -2784,14 +3265,14 @@
       </c>
     </row>
     <row r="63" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D63" s="7">
+      <c r="D63" s="3">
         <v>12138</v>
       </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7">
+      <c r="E63" s="3"/>
+      <c r="F63" s="3">
         <v>12138</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G63" s="3">
         <v>12138</v>
       </c>
       <c r="H63" s="2">
@@ -2802,14 +3283,14 @@
       </c>
     </row>
     <row r="64" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D64" s="7">
+      <c r="D64" s="3">
         <v>12176</v>
       </c>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7">
+      <c r="E64" s="3"/>
+      <c r="F64" s="3">
         <v>12176</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G64" s="3">
         <v>12205.4</v>
       </c>
       <c r="H64" s="2">
@@ -2820,14 +3301,14 @@
       </c>
     </row>
     <row r="65" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D65" s="7">
+      <c r="D65" s="3">
         <v>13357</v>
       </c>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7">
+      <c r="E65" s="3"/>
+      <c r="F65" s="3">
         <v>13357</v>
       </c>
-      <c r="G65" s="7">
+      <c r="G65" s="3">
         <v>13420.4</v>
       </c>
       <c r="H65" s="2">
@@ -2838,14 +3319,14 @@
       </c>
     </row>
     <row r="66" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D66" s="7">
+      <c r="D66" s="3">
         <v>11430</v>
       </c>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7">
+      <c r="E66" s="3"/>
+      <c r="F66" s="3">
         <v>11430</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G66" s="3">
         <v>11430</v>
       </c>
       <c r="H66" s="2">
@@ -2856,14 +3337,14 @@
       </c>
     </row>
     <row r="67" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D67" s="7">
+      <c r="D67" s="3">
         <v>11935</v>
       </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7">
+      <c r="E67" s="3"/>
+      <c r="F67" s="3">
         <v>11935</v>
       </c>
-      <c r="G67" s="7">
+      <c r="G67" s="3">
         <v>11937.7</v>
       </c>
       <c r="H67" s="2">
@@ -2874,51 +3355,51 @@
       </c>
     </row>
     <row r="68" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
     </row>
     <row r="69" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
     </row>
     <row r="70" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D70" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F70" s="7" t="s">
+      <c r="D70" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H70" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G70" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>26</v>
+      <c r="I70" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>50</v>
-      </c>
-      <c r="D71" s="7">
+        <v>46</v>
+      </c>
+      <c r="D71" s="3">
         <v>32779</v>
       </c>
-      <c r="E71" s="8">
+      <c r="E71" s="4">
         <v>7.05</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="3">
         <v>32779</v>
       </c>
-      <c r="G71" s="7">
+      <c r="G71" s="3">
         <v>32787.800000000003</v>
       </c>
       <c r="H71" s="2">
@@ -2928,7 +3409,7 @@
         <v>1.8647</v>
       </c>
       <c r="M71" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N71" s="1">
         <v>35334</v>
@@ -2940,7 +3421,7 @@
         <v>32779</v>
       </c>
       <c r="Q71" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="R71">
         <v>7.05</v>
@@ -2948,18 +3429,18 @@
     </row>
     <row r="72" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>52</v>
-      </c>
-      <c r="D72" s="7">
+        <v>48</v>
+      </c>
+      <c r="D72" s="3">
         <v>33435</v>
       </c>
-      <c r="E72" s="8">
+      <c r="E72" s="4">
         <v>7.51</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72" s="3">
         <v>33435</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G72" s="3">
         <v>33457</v>
       </c>
       <c r="H72" s="2">
@@ -2969,7 +3450,7 @@
         <v>1.9610000000000001</v>
       </c>
       <c r="M72" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N72" s="1">
         <v>38442</v>
@@ -2981,7 +3462,7 @@
         <v>33435</v>
       </c>
       <c r="Q72" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="R72">
         <v>7.51</v>
@@ -2989,18 +3470,18 @@
     </row>
     <row r="73" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>54</v>
-      </c>
-      <c r="D73" s="7">
+        <v>50</v>
+      </c>
+      <c r="D73" s="3">
         <v>32390</v>
       </c>
-      <c r="E73" s="8">
+      <c r="E73" s="4">
         <v>7.07</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="3">
         <v>32390</v>
       </c>
-      <c r="G73" s="7">
+      <c r="G73" s="3">
         <v>32445.5</v>
       </c>
       <c r="H73" s="2">
@@ -3010,7 +3491,7 @@
         <v>1.9755</v>
       </c>
       <c r="M73" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N73" s="1">
         <v>37642</v>
@@ -3022,7 +3503,7 @@
         <v>32390</v>
       </c>
       <c r="Q73" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R73">
         <v>7.07</v>
@@ -3030,18 +3511,18 @@
     </row>
     <row r="74" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>56</v>
-      </c>
-      <c r="D74" s="7">
+        <v>52</v>
+      </c>
+      <c r="D74" s="3">
         <v>34733</v>
       </c>
-      <c r="E74" s="8">
+      <c r="E74" s="4">
         <v>7.27</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="3">
         <v>34733</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G74" s="3">
         <v>34842.6</v>
       </c>
       <c r="H74" s="2">
@@ -3051,7 +3532,7 @@
         <v>2.0647000000000002</v>
       </c>
       <c r="M74" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N74" s="1">
         <v>37508</v>
@@ -3063,7 +3544,7 @@
         <v>34733</v>
       </c>
       <c r="Q74" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R74">
         <v>7.27</v>
@@ -3071,18 +3552,18 @@
     </row>
     <row r="75" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>58</v>
-      </c>
-      <c r="D75" s="7">
+        <v>54</v>
+      </c>
+      <c r="D75" s="3">
         <v>32598</v>
       </c>
-      <c r="E75" s="8">
+      <c r="E75" s="4">
         <v>8.8699999999999992</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75" s="3">
         <v>32598</v>
       </c>
-      <c r="G75" s="7">
+      <c r="G75" s="3">
         <v>32637.5</v>
       </c>
       <c r="H75" s="2">
@@ -3092,7 +3573,7 @@
         <v>1.9918</v>
       </c>
       <c r="M75" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N75" s="1">
         <v>37215</v>
@@ -3104,7 +3585,7 @@
         <v>32598</v>
       </c>
       <c r="Q75" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="R75">
         <v>8.8699999999999992</v>
@@ -3112,18 +3593,18 @@
     </row>
     <row r="76" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>60</v>
-      </c>
-      <c r="D76" s="7">
+        <v>56</v>
+      </c>
+      <c r="D76" s="3">
         <v>34159</v>
       </c>
-      <c r="E76" s="8">
+      <c r="E76" s="4">
         <v>7.82</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F76" s="3">
         <v>34159</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G76" s="3">
         <v>34335.800000000003</v>
       </c>
       <c r="H76" s="2">
@@ -3133,7 +3614,7 @@
         <v>1.9810000000000001</v>
       </c>
       <c r="M76" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N76" s="1">
         <v>40422</v>
@@ -3145,7 +3626,7 @@
         <v>34159</v>
       </c>
       <c r="Q76" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="R76">
         <v>7.82</v>
@@ -3153,18 +3634,18 @@
     </row>
     <row r="77" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>62</v>
-      </c>
-      <c r="D77" s="7">
+        <v>58</v>
+      </c>
+      <c r="D77" s="3">
         <v>33375</v>
       </c>
-      <c r="E77" s="8">
+      <c r="E77" s="4">
         <v>8.74</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77" s="3">
         <v>33375</v>
       </c>
-      <c r="G77" s="7">
+      <c r="G77" s="3">
         <v>33450.1</v>
       </c>
       <c r="H77" s="2">
@@ -3174,7 +3655,7 @@
         <v>2.0869</v>
       </c>
       <c r="M77" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N77" s="1">
         <v>37367</v>
@@ -3186,7 +3667,7 @@
         <v>33375</v>
       </c>
       <c r="Q77" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="R77">
         <v>8.74</v>
@@ -3194,18 +3675,18 @@
     </row>
     <row r="78" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>64</v>
-      </c>
-      <c r="D78" s="7">
+        <v>60</v>
+      </c>
+      <c r="D78" s="3">
         <v>31780</v>
       </c>
-      <c r="E78" s="8">
+      <c r="E78" s="4">
         <v>7.08</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78" s="3">
         <v>31780</v>
       </c>
-      <c r="G78" s="7">
+      <c r="G78" s="3">
         <v>31829</v>
       </c>
       <c r="H78" s="2">
@@ -3215,7 +3696,7 @@
         <v>2.0030000000000001</v>
       </c>
       <c r="M78" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N78" s="1">
         <v>38086</v>
@@ -3227,7 +3708,7 @@
         <v>31780</v>
       </c>
       <c r="Q78" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="R78">
         <v>7.08</v>
@@ -3235,18 +3716,18 @@
     </row>
     <row r="79" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>66</v>
-      </c>
-      <c r="D79" s="7">
+        <v>62</v>
+      </c>
+      <c r="D79" s="3">
         <v>34167</v>
       </c>
-      <c r="E79" s="8">
+      <c r="E79" s="4">
         <v>7.47</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F79" s="3">
         <v>34167</v>
       </c>
-      <c r="G79" s="7">
+      <c r="G79" s="3">
         <v>34257.699999999997</v>
       </c>
       <c r="H79" s="2">
@@ -3256,7 +3737,7 @@
         <v>1.9253</v>
       </c>
       <c r="M79" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N79" s="1">
         <v>36000</v>
@@ -3268,7 +3749,7 @@
         <v>34167</v>
       </c>
       <c r="Q79" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="R79">
         <v>7.47</v>
@@ -3276,18 +3757,18 @@
     </row>
     <row r="80" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>68</v>
-      </c>
-      <c r="D80" s="7">
+        <v>64</v>
+      </c>
+      <c r="D80" s="3">
         <v>31605</v>
       </c>
-      <c r="E80" s="8">
+      <c r="E80" s="4">
         <v>6.78</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F80" s="3">
         <v>31605</v>
       </c>
-      <c r="G80" s="7">
+      <c r="G80" s="3">
         <v>31605</v>
       </c>
       <c r="H80" s="2">
@@ -3297,7 +3778,7 @@
         <v>1.9679</v>
       </c>
       <c r="M80" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N80" s="1">
         <v>37761</v>
@@ -3309,7 +3790,7 @@
         <v>31605</v>
       </c>
       <c r="Q80" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="R80">
         <v>6.78</v>
@@ -3317,18 +3798,18 @@
     </row>
     <row r="81" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>70</v>
-      </c>
-      <c r="D81" s="7">
+        <v>66</v>
+      </c>
+      <c r="D81" s="3">
         <v>34188</v>
       </c>
-      <c r="E81" s="8">
+      <c r="E81" s="4">
         <v>7.75</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F81" s="3">
         <v>34188</v>
       </c>
-      <c r="G81" s="7">
+      <c r="G81" s="3">
         <v>34419.4</v>
       </c>
       <c r="H81" s="2">
@@ -3338,7 +3819,7 @@
         <v>2.0243000000000002</v>
       </c>
       <c r="M81" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="N81" s="1">
         <v>37220</v>
@@ -3350,7 +3831,7 @@
         <v>34188</v>
       </c>
       <c r="Q81" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R81">
         <v>7.75</v>
@@ -3358,18 +3839,18 @@
     </row>
     <row r="82" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>72</v>
-      </c>
-      <c r="D82" s="7">
+        <v>68</v>
+      </c>
+      <c r="D82" s="3">
         <v>32146</v>
       </c>
-      <c r="E82" s="8">
+      <c r="E82" s="4">
         <v>7.2</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F82" s="3">
         <v>32146</v>
       </c>
-      <c r="G82" s="7">
+      <c r="G82" s="3">
         <v>32260.2</v>
       </c>
       <c r="H82" s="2">
@@ -3379,7 +3860,7 @@
         <v>2.1318999999999999</v>
       </c>
       <c r="M82" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N82" s="1">
         <v>34785</v>
@@ -3391,7 +3872,7 @@
         <v>32146</v>
       </c>
       <c r="Q82" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="R82">
         <v>7.2</v>
@@ -3399,18 +3880,18 @@
     </row>
     <row r="83" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>74</v>
-      </c>
-      <c r="D83" s="7">
+        <v>70</v>
+      </c>
+      <c r="D83" s="3">
         <v>32604</v>
       </c>
-      <c r="E83" s="8">
+      <c r="E83" s="4">
         <v>7.78</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F83" s="3">
         <v>32604</v>
       </c>
-      <c r="G83" s="7">
+      <c r="G83" s="3">
         <v>32848.400000000001</v>
       </c>
       <c r="H83" s="2">
@@ -3420,7 +3901,7 @@
         <v>2.1059999999999999</v>
       </c>
       <c r="M83" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N83" s="1">
         <v>37863</v>
@@ -3432,7 +3913,7 @@
         <v>32604</v>
       </c>
       <c r="Q83" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="R83">
         <v>7.78</v>
@@ -3440,18 +3921,18 @@
     </row>
     <row r="84" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>76</v>
-      </c>
-      <c r="D84" s="7">
+        <v>72</v>
+      </c>
+      <c r="D84" s="3">
         <v>32433</v>
       </c>
-      <c r="E84" s="8">
+      <c r="E84" s="4">
         <v>6.29</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F84" s="3">
         <v>32438</v>
       </c>
-      <c r="G84" s="7">
+      <c r="G84" s="3">
         <v>32438</v>
       </c>
       <c r="H84" s="2">
@@ -3461,7 +3942,7 @@
         <v>2.1533000000000002</v>
       </c>
       <c r="M84" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N84" s="1">
         <v>36362</v>
@@ -3473,7 +3954,7 @@
         <v>32433</v>
       </c>
       <c r="Q84" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="R84">
         <v>6.29</v>
@@ -3481,18 +3962,18 @@
     </row>
     <row r="85" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>78</v>
-      </c>
-      <c r="D85" s="7">
+        <v>74</v>
+      </c>
+      <c r="D85" s="3">
         <v>32574</v>
       </c>
-      <c r="E85" s="8">
+      <c r="E85" s="4">
         <v>7.13</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F85" s="3">
         <v>32574</v>
       </c>
-      <c r="G85" s="7">
+      <c r="G85" s="3">
         <v>32637.5</v>
       </c>
       <c r="H85" s="2">
@@ -3502,7 +3983,7 @@
         <v>1.9423999999999999</v>
       </c>
       <c r="M85" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N85" s="1">
         <v>39381</v>
@@ -3514,7 +3995,7 @@
         <v>32574</v>
       </c>
       <c r="Q85" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="R85">
         <v>7.13</v>
@@ -3522,18 +4003,18 @@
     </row>
     <row r="86" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>80</v>
-      </c>
-      <c r="D86" s="7">
+        <v>76</v>
+      </c>
+      <c r="D86" s="3">
         <v>33566</v>
       </c>
-      <c r="E86" s="8">
+      <c r="E86" s="4">
         <v>7.97</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F86" s="3">
         <v>33566</v>
       </c>
-      <c r="G86" s="7">
+      <c r="G86" s="3">
         <v>33568</v>
       </c>
       <c r="H86" s="2">
@@ -3543,7 +4024,7 @@
         <v>2.1665000000000001</v>
       </c>
       <c r="M86" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N86" s="1">
         <v>39823</v>
@@ -3555,7 +4036,7 @@
         <v>33566</v>
       </c>
       <c r="Q86" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R86">
         <v>7.97</v>
@@ -3563,18 +4044,18 @@
     </row>
     <row r="87" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>82</v>
-      </c>
-      <c r="D87" s="7">
+        <v>78</v>
+      </c>
+      <c r="D87" s="3">
         <v>34198</v>
       </c>
-      <c r="E87" s="8">
+      <c r="E87" s="4">
         <v>9.23</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F87" s="3">
         <v>34198</v>
       </c>
-      <c r="G87" s="7">
+      <c r="G87" s="3">
         <v>34234.1</v>
       </c>
       <c r="H87" s="2">
@@ -3584,7 +4065,7 @@
         <v>2.1856</v>
       </c>
       <c r="M87" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N87" s="1">
         <v>41824</v>
@@ -3596,7 +4077,7 @@
         <v>34198</v>
       </c>
       <c r="Q87" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="R87">
         <v>9.23</v>
@@ -3604,18 +4085,18 @@
     </row>
     <row r="88" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>84</v>
-      </c>
-      <c r="D88" s="7">
+        <v>80</v>
+      </c>
+      <c r="D88" s="3">
         <v>31929</v>
       </c>
-      <c r="E88" s="8">
+      <c r="E88" s="4">
         <v>7.07</v>
       </c>
-      <c r="F88" s="7">
+      <c r="F88" s="3">
         <v>31929</v>
       </c>
-      <c r="G88" s="7">
+      <c r="G88" s="3">
         <v>32076.7</v>
       </c>
       <c r="H88" s="2">
@@ -3625,7 +4106,7 @@
         <v>2.0686</v>
       </c>
       <c r="M88" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N88" s="1">
         <v>39091</v>
@@ -3637,7 +4118,7 @@
         <v>31929</v>
       </c>
       <c r="Q88" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R88">
         <v>7.07</v>
@@ -3645,18 +4126,18 @@
     </row>
     <row r="89" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>86</v>
-      </c>
-      <c r="D89" s="7">
+        <v>82</v>
+      </c>
+      <c r="D89" s="3">
         <v>33463</v>
       </c>
-      <c r="E89" s="8">
+      <c r="E89" s="4">
         <v>8.08</v>
       </c>
-      <c r="F89" s="7">
+      <c r="F89" s="3">
         <v>33463</v>
       </c>
-      <c r="G89" s="7">
+      <c r="G89" s="3">
         <v>33529</v>
       </c>
       <c r="H89" s="2">
@@ -3666,7 +4147,7 @@
         <v>1.9655</v>
       </c>
       <c r="M89" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="N89" s="1">
         <v>39941</v>
@@ -3678,7 +4159,7 @@
         <v>33463</v>
       </c>
       <c r="Q89" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="R89">
         <v>8.08</v>
@@ -3686,18 +4167,18 @@
     </row>
     <row r="90" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
-        <v>88</v>
-      </c>
-      <c r="D90" s="7">
+        <v>84</v>
+      </c>
+      <c r="D90" s="3">
         <v>33632</v>
       </c>
-      <c r="E90" s="8">
+      <c r="E90" s="4">
         <v>8.73</v>
       </c>
-      <c r="F90" s="7">
+      <c r="F90" s="3">
         <v>33632</v>
       </c>
-      <c r="G90" s="7">
+      <c r="G90" s="3">
         <v>33732.300000000003</v>
       </c>
       <c r="H90" s="2">
@@ -3707,7 +4188,7 @@
         <v>1.9918</v>
       </c>
       <c r="M90" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N90" s="1">
         <v>39888</v>
@@ -3719,35 +4200,35 @@
         <v>33632</v>
       </c>
       <c r="Q90" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="R90">
         <v>8.73</v>
       </c>
     </row>
     <row r="92" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D92" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F92" s="7" t="s">
+      <c r="D92" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H92" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G92" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I92" s="7" t="s">
-        <v>26</v>
+      <c r="I92" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D93" s="1">
         <v>88787</v>
@@ -3755,10 +4236,10 @@
       <c r="E93" s="2">
         <v>73.39</v>
       </c>
-      <c r="F93" s="7">
+      <c r="F93" s="3">
         <v>88806</v>
       </c>
-      <c r="G93" s="7">
+      <c r="G93" s="3">
         <v>89272.2</v>
       </c>
       <c r="H93" s="2">
@@ -3767,10 +4248,10 @@
       <c r="I93" s="2">
         <v>20.199000000000002</v>
       </c>
-      <c r="K93" s="7">
+      <c r="K93" s="3">
         <v>89370</v>
       </c>
-      <c r="L93" s="7">
+      <c r="L93" s="3">
         <v>90165.3</v>
       </c>
       <c r="M93" s="2">
@@ -3783,7 +4264,7 @@
     </row>
     <row r="94" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D94" s="1">
         <v>91977</v>
@@ -3791,10 +4272,10 @@
       <c r="E94" s="2">
         <v>68.069999999999993</v>
       </c>
-      <c r="F94" s="7">
+      <c r="F94" s="3">
         <v>92448</v>
       </c>
-      <c r="G94" s="7">
+      <c r="G94" s="3">
         <v>93116.1</v>
       </c>
       <c r="H94" s="2">
@@ -3803,10 +4284,10 @@
       <c r="I94" s="2">
         <v>19.059000000000001</v>
       </c>
-      <c r="K94" s="7">
+      <c r="K94" s="3">
         <v>92118</v>
       </c>
-      <c r="L94" s="7">
+      <c r="L94" s="3">
         <v>93526.7</v>
       </c>
       <c r="M94" s="2">
@@ -3819,7 +4300,7 @@
     </row>
     <row r="95" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D95" s="1">
         <v>92568</v>
@@ -3827,10 +4308,10 @@
       <c r="E95" s="2">
         <v>67.11</v>
       </c>
-      <c r="F95" s="7">
+      <c r="F95" s="3">
         <v>92644</v>
       </c>
-      <c r="G95" s="7">
+      <c r="G95" s="3">
         <v>93203.9</v>
       </c>
       <c r="H95" s="2">
@@ -3839,10 +4320,10 @@
       <c r="I95" s="2">
         <v>19.998000000000001</v>
       </c>
-      <c r="K95" s="7">
+      <c r="K95" s="3">
         <v>93032</v>
       </c>
-      <c r="L95" s="7">
+      <c r="L95" s="3">
         <v>93729.8</v>
       </c>
       <c r="M95" s="2">
@@ -3855,7 +4336,7 @@
     </row>
     <row r="96" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D96" s="1">
         <v>93174</v>
@@ -3863,10 +4344,10 @@
       <c r="E96" s="2">
         <v>72.17</v>
       </c>
-      <c r="F96" s="7">
+      <c r="F96" s="3">
         <v>93345</v>
       </c>
-      <c r="G96" s="7">
+      <c r="G96" s="3">
         <v>93826.8</v>
       </c>
       <c r="H96" s="2">
@@ -3875,10 +4356,10 @@
       <c r="I96" s="2">
         <v>19.456</v>
       </c>
-      <c r="K96" s="7">
+      <c r="K96" s="3">
         <v>94146</v>
       </c>
-      <c r="L96" s="7">
+      <c r="L96" s="3">
         <v>95280.5</v>
       </c>
       <c r="M96" s="2">
@@ -3891,7 +4372,7 @@
     </row>
     <row r="97" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D97" s="1">
         <v>88737</v>
@@ -3899,10 +4380,10 @@
       <c r="E97" s="2">
         <v>70.77</v>
       </c>
-      <c r="F97" s="7">
+      <c r="F97" s="3">
         <v>88737</v>
       </c>
-      <c r="G97" s="7">
+      <c r="G97" s="3">
         <v>89765.5</v>
       </c>
       <c r="H97" s="2">
@@ -3911,10 +4392,10 @@
       <c r="I97" s="2">
         <v>18.058</v>
       </c>
-      <c r="K97" s="7">
+      <c r="K97" s="3">
         <v>89300</v>
       </c>
-      <c r="L97" s="7">
+      <c r="L97" s="3">
         <v>90735.4</v>
       </c>
       <c r="M97" s="2">
@@ -3927,7 +4408,7 @@
     </row>
     <row r="98" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1">
         <v>91589</v>
@@ -3935,10 +4416,10 @@
       <c r="E98" s="2">
         <v>70.52</v>
       </c>
-      <c r="F98" s="7">
+      <c r="F98" s="3">
         <v>91924</v>
       </c>
-      <c r="G98" s="7">
+      <c r="G98" s="3">
         <v>92813.9</v>
       </c>
       <c r="H98" s="2">
@@ -3947,10 +4428,10 @@
       <c r="I98" s="2">
         <v>19.777999999999999</v>
       </c>
-      <c r="K98" s="7">
+      <c r="K98" s="3">
         <v>91746</v>
       </c>
-      <c r="L98" s="7">
+      <c r="L98" s="3">
         <v>93454.2</v>
       </c>
       <c r="M98" s="2">
@@ -3963,7 +4444,7 @@
     </row>
     <row r="99" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D99" s="1">
         <v>92754</v>
@@ -3971,10 +4452,10 @@
       <c r="E99" s="2">
         <v>72.8</v>
       </c>
-      <c r="F99" s="7">
+      <c r="F99" s="3">
         <v>92756</v>
       </c>
-      <c r="G99" s="7">
+      <c r="G99" s="3">
         <v>93846</v>
       </c>
       <c r="H99" s="2">
@@ -3983,10 +4464,10 @@
       <c r="I99" s="2">
         <v>21.488</v>
       </c>
-      <c r="K99" s="7">
+      <c r="K99" s="3">
         <v>94294</v>
       </c>
-      <c r="L99" s="7">
+      <c r="L99" s="3">
         <v>95168.5</v>
       </c>
       <c r="M99" s="2">
@@ -3999,7 +4480,7 @@
     </row>
     <row r="100" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D100" s="1">
         <v>89048</v>
@@ -4007,10 +4488,10 @@
       <c r="E100" s="2">
         <v>75.150000000000006</v>
       </c>
-      <c r="F100" s="7">
+      <c r="F100" s="3">
         <v>89118</v>
       </c>
-      <c r="G100" s="7">
+      <c r="G100" s="3">
         <v>89786</v>
       </c>
       <c r="H100" s="2">
@@ -4019,10 +4500,10 @@
       <c r="I100" s="2">
         <v>19.120999999999999</v>
       </c>
-      <c r="K100" s="7">
+      <c r="K100" s="3">
         <v>89442</v>
       </c>
-      <c r="L100" s="7">
+      <c r="L100" s="3">
         <v>90296.9</v>
       </c>
       <c r="M100" s="2">
@@ -4035,7 +4516,7 @@
     </row>
     <row r="101" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D101" s="1">
         <v>86326</v>
@@ -4043,10 +4524,10 @@
       <c r="E101" s="2">
         <v>65.45</v>
       </c>
-      <c r="F101" s="7">
+      <c r="F101" s="3">
         <v>86326</v>
       </c>
-      <c r="G101" s="7">
+      <c r="G101" s="3">
         <v>86944.9</v>
       </c>
       <c r="H101" s="2">
@@ -4055,10 +4536,10 @@
       <c r="I101" s="2">
         <v>19.318000000000001</v>
       </c>
-      <c r="K101" s="7">
+      <c r="K101" s="3">
         <v>86328</v>
       </c>
-      <c r="L101" s="7">
+      <c r="L101" s="3">
         <v>87758.1</v>
       </c>
       <c r="M101" s="2">
@@ -4071,7 +4552,7 @@
     </row>
     <row r="102" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D102" s="1">
         <v>91552</v>
@@ -4079,10 +4560,10 @@
       <c r="E102" s="2">
         <v>74.25</v>
       </c>
-      <c r="F102" s="7">
+      <c r="F102" s="3">
         <v>91650</v>
       </c>
-      <c r="G102" s="7">
+      <c r="G102" s="3">
         <v>92391.9</v>
       </c>
       <c r="H102" s="2">
@@ -4091,10 +4572,10 @@
       <c r="I102" s="2">
         <v>18.93</v>
       </c>
-      <c r="K102" s="7">
+      <c r="K102" s="3">
         <v>92489</v>
       </c>
-      <c r="L102" s="7">
+      <c r="L102" s="3">
         <v>93113.600000000006</v>
       </c>
       <c r="M102" s="2">
@@ -4107,7 +4588,7 @@
     </row>
     <row r="103" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D103" s="1">
         <v>92655</v>
@@ -4115,10 +4596,10 @@
       <c r="E103" s="2">
         <v>73.150000000000006</v>
       </c>
-      <c r="F103" s="7">
+      <c r="F103" s="3">
         <v>92815</v>
       </c>
-      <c r="G103" s="7">
+      <c r="G103" s="3">
         <v>93300.800000000003</v>
       </c>
       <c r="H103" s="2">
@@ -4127,10 +4608,10 @@
       <c r="I103" s="2">
         <v>19.756</v>
       </c>
-      <c r="K103" s="7">
+      <c r="K103" s="3">
         <v>93226</v>
       </c>
-      <c r="L103" s="7">
+      <c r="L103" s="3">
         <v>93884.800000000003</v>
       </c>
       <c r="M103" s="2">
@@ -4143,7 +4624,7 @@
     </row>
     <row r="104" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D104" s="1">
         <v>91457</v>
@@ -4151,10 +4632,10 @@
       <c r="E104" s="2">
         <v>76.739999999999995</v>
       </c>
-      <c r="F104" s="7">
+      <c r="F104" s="3">
         <v>91666</v>
       </c>
-      <c r="G104" s="7">
+      <c r="G104" s="3">
         <v>92059.9</v>
       </c>
       <c r="H104" s="2">
@@ -4163,10 +4644,10 @@
       <c r="I104" s="2">
         <v>19.119</v>
       </c>
-      <c r="K104" s="7">
+      <c r="K104" s="3">
         <v>92367</v>
       </c>
-      <c r="L104" s="7">
+      <c r="L104" s="3">
         <v>93190.399999999994</v>
       </c>
       <c r="M104" s="2">
@@ -4179,7 +4660,7 @@
     </row>
     <row r="105" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D105" s="1">
         <v>86155</v>
@@ -4187,10 +4668,10 @@
       <c r="E105" s="2">
         <v>72.959999999999994</v>
       </c>
-      <c r="F105" s="7">
+      <c r="F105" s="3">
         <v>86451</v>
       </c>
-      <c r="G105" s="7">
+      <c r="G105" s="3">
         <v>86909.2</v>
       </c>
       <c r="H105" s="2">
@@ -4199,10 +4680,10 @@
       <c r="I105" s="2">
         <v>18.637</v>
       </c>
-      <c r="K105" s="7">
+      <c r="K105" s="3">
         <v>86533</v>
       </c>
-      <c r="L105" s="7">
+      <c r="L105" s="3">
         <v>87442.3</v>
       </c>
       <c r="M105" s="2">
@@ -4215,7 +4696,7 @@
     </row>
     <row r="106" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D106" s="1">
         <v>91882</v>
@@ -4223,10 +4704,10 @@
       <c r="E106" s="2">
         <v>70.94</v>
       </c>
-      <c r="F106" s="7">
+      <c r="F106" s="3">
         <v>91989</v>
       </c>
-      <c r="G106" s="7">
+      <c r="G106" s="3">
         <v>92607.2</v>
       </c>
       <c r="H106" s="2">
@@ -4235,10 +4716,10 @@
       <c r="I106" s="2">
         <v>20.035</v>
       </c>
-      <c r="K106" s="7">
+      <c r="K106" s="3">
         <v>92369</v>
       </c>
-      <c r="L106" s="7">
+      <c r="L106" s="3">
         <v>93959.3</v>
       </c>
       <c r="M106" s="2">
@@ -4251,7 +4732,7 @@
     </row>
     <row r="107" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D107" s="1">
         <v>88912</v>
@@ -4259,10 +4740,10 @@
       <c r="E107" s="2">
         <v>70.41</v>
       </c>
-      <c r="F107" s="7">
+      <c r="F107" s="3">
         <v>88948</v>
       </c>
-      <c r="G107" s="7">
+      <c r="G107" s="3">
         <v>89736.7</v>
       </c>
       <c r="H107" s="2">
@@ -4271,10 +4752,10 @@
       <c r="I107" s="2">
         <v>19.385999999999999</v>
       </c>
-      <c r="K107" s="7">
+      <c r="K107" s="3">
         <v>89233</v>
       </c>
-      <c r="L107" s="7">
+      <c r="L107" s="3">
         <v>90568.2</v>
       </c>
       <c r="M107" s="2">
@@ -4287,7 +4768,7 @@
     </row>
     <row r="108" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D108" s="1">
         <v>89311</v>
@@ -4295,10 +4776,10 @@
       <c r="E108" s="2">
         <v>77.89</v>
       </c>
-      <c r="F108" s="7">
+      <c r="F108" s="3">
         <v>89410</v>
       </c>
-      <c r="G108" s="7">
+      <c r="G108" s="3">
         <v>90866</v>
       </c>
       <c r="H108" s="2">
@@ -4307,10 +4788,10 @@
       <c r="I108" s="2">
         <v>20.718</v>
       </c>
-      <c r="K108" s="7">
+      <c r="K108" s="3">
         <v>90293</v>
       </c>
-      <c r="L108" s="7">
+      <c r="L108" s="3">
         <v>91933.6</v>
       </c>
       <c r="M108" s="2">
@@ -4323,7 +4804,7 @@
     </row>
     <row r="109" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D109" s="1">
         <v>89089</v>
@@ -4331,10 +4812,10 @@
       <c r="E109" s="2">
         <v>71.17</v>
       </c>
-      <c r="F109" s="7">
+      <c r="F109" s="3">
         <v>89194</v>
       </c>
-      <c r="G109" s="7">
+      <c r="G109" s="3">
         <v>89777.3</v>
       </c>
       <c r="H109" s="2">
@@ -4343,10 +4824,10 @@
       <c r="I109" s="2">
         <v>19.792999999999999</v>
       </c>
-      <c r="K109" s="7">
+      <c r="K109" s="3">
         <v>89475</v>
       </c>
-      <c r="L109" s="7">
+      <c r="L109" s="3">
         <v>90737</v>
       </c>
       <c r="M109" s="2">
@@ -4359,7 +4840,7 @@
     </row>
     <row r="110" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D110" s="1">
         <v>93619</v>
@@ -4367,10 +4848,10 @@
       <c r="E110" s="2">
         <v>77.03</v>
       </c>
-      <c r="F110" s="7">
+      <c r="F110" s="3">
         <v>93972</v>
       </c>
-      <c r="G110" s="7">
+      <c r="G110" s="3">
         <v>94696.6</v>
       </c>
       <c r="H110" s="2">
@@ -4379,10 +4860,10 @@
       <c r="I110" s="2">
         <v>19.530999999999999</v>
       </c>
-      <c r="K110" s="7">
+      <c r="K110" s="3">
         <v>94423</v>
       </c>
-      <c r="L110" s="7">
+      <c r="L110" s="3">
         <v>95827.9</v>
       </c>
       <c r="M110" s="2">
@@ -4395,7 +4876,7 @@
     </row>
     <row r="111" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D111" s="1">
         <v>93369</v>
@@ -4403,10 +4884,10 @@
       <c r="E111" s="2">
         <v>71.08</v>
       </c>
-      <c r="F111" s="7">
+      <c r="F111" s="3">
         <v>93676</v>
       </c>
-      <c r="G111" s="7">
+      <c r="G111" s="3">
         <v>94574</v>
       </c>
       <c r="H111" s="2">
@@ -4415,10 +4896,10 @@
       <c r="I111" s="2">
         <v>18.504999999999999</v>
       </c>
-      <c r="K111" s="7">
+      <c r="K111" s="3">
         <v>94041</v>
       </c>
-      <c r="L111" s="7">
+      <c r="L111" s="3">
         <v>95125.8</v>
       </c>
       <c r="M111" s="2">
@@ -4431,7 +4912,7 @@
     </row>
     <row r="112" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D112" s="1">
         <v>86292</v>
@@ -4439,10 +4920,10 @@
       <c r="E112" s="2">
         <v>70.61</v>
       </c>
-      <c r="F112" s="7">
+      <c r="F112" s="3">
         <v>86331</v>
       </c>
-      <c r="G112" s="7">
+      <c r="G112" s="3">
         <v>87346.8</v>
       </c>
       <c r="H112" s="2">
@@ -4451,10 +4932,10 @@
       <c r="I112" s="2">
         <v>20.140999999999998</v>
       </c>
-      <c r="K112" s="7">
+      <c r="K112" s="3">
         <v>87313</v>
       </c>
-      <c r="L112" s="7">
+      <c r="L112" s="3">
         <v>88454.7</v>
       </c>
       <c r="M112" s="2">
@@ -4466,127 +4947,127 @@
       <c r="O112" s="1"/>
     </row>
     <row r="114" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F114" s="10">
+      <c r="F114" s="6">
         <f>F93-K93</f>
         <v>-564</v>
       </c>
     </row>
     <row r="115" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F115" s="10">
+      <c r="F115" s="6">
         <f t="shared" ref="F115:F134" si="0">F94-K94</f>
         <v>330</v>
       </c>
     </row>
     <row r="116" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F116" s="10">
+      <c r="F116" s="6">
         <f t="shared" si="0"/>
         <v>-388</v>
       </c>
     </row>
     <row r="117" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F117" s="10">
+      <c r="F117" s="6">
         <f t="shared" si="0"/>
         <v>-801</v>
       </c>
     </row>
     <row r="118" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F118" s="10">
+      <c r="F118" s="6">
         <f t="shared" si="0"/>
         <v>-563</v>
       </c>
     </row>
     <row r="119" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F119" s="10">
+      <c r="F119" s="6">
         <f t="shared" si="0"/>
         <v>178</v>
       </c>
     </row>
     <row r="120" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F120" s="10">
+      <c r="F120" s="6">
         <f t="shared" si="0"/>
         <v>-1538</v>
       </c>
     </row>
     <row r="121" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F121" s="10">
+      <c r="F121" s="6">
         <f t="shared" si="0"/>
         <v>-324</v>
       </c>
     </row>
     <row r="122" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F122" s="10">
+      <c r="F122" s="6">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
     <row r="123" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F123" s="10">
+      <c r="F123" s="6">
         <f t="shared" si="0"/>
         <v>-839</v>
       </c>
     </row>
     <row r="124" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F124" s="10">
+      <c r="F124" s="6">
         <f t="shared" si="0"/>
         <v>-411</v>
       </c>
     </row>
     <row r="125" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F125" s="10">
+      <c r="F125" s="6">
         <f t="shared" si="0"/>
         <v>-701</v>
       </c>
     </row>
     <row r="126" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F126" s="10">
+      <c r="F126" s="6">
         <f t="shared" si="0"/>
         <v>-82</v>
       </c>
     </row>
     <row r="127" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F127" s="10">
+      <c r="F127" s="6">
         <f t="shared" si="0"/>
         <v>-380</v>
       </c>
     </row>
     <row r="128" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F128" s="10">
+      <c r="F128" s="6">
         <f t="shared" si="0"/>
         <v>-285</v>
       </c>
     </row>
     <row r="129" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F129" s="10">
+      <c r="F129" s="6">
         <f t="shared" si="0"/>
         <v>-883</v>
       </c>
     </row>
     <row r="130" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F130" s="10">
+      <c r="F130" s="6">
         <f t="shared" si="0"/>
         <v>-281</v>
       </c>
     </row>
     <row r="131" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F131" s="10">
+      <c r="F131" s="6">
         <f t="shared" si="0"/>
         <v>-451</v>
       </c>
     </row>
     <row r="132" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F132" s="10">
+      <c r="F132" s="6">
         <f t="shared" si="0"/>
         <v>-365</v>
       </c>
     </row>
     <row r="133" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F133" s="10">
+      <c r="F133" s="6">
         <f t="shared" si="0"/>
         <v>-982</v>
       </c>
     </row>
     <row r="134" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F134" s="10">
+      <c r="F134" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4600,7 +5081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C11:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C15" sqref="C15:C32"/>
     </sheetView>
   </sheetViews>
@@ -4614,7 +5095,7 @@
         <v>1839254.2</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J11">
         <v>1557.48</v>
@@ -4622,7 +5103,7 @@
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H12" s="1">
         <v>2088773</v>
@@ -4631,7 +5112,7 @@
         <v>1815876.4</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L12">
         <v>1597.06</v>
@@ -4639,7 +5120,7 @@
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H13" s="1">
         <v>2216937</v>
@@ -4648,7 +5129,7 @@
         <v>1834031.7</v>
       </c>
       <c r="K13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L13">
         <v>1530.94</v>
@@ -4656,7 +5137,7 @@
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H14" s="1">
         <v>2137187</v>
@@ -4665,18 +5146,18 @@
         <v>1790912.4</v>
       </c>
       <c r="K14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L14">
         <v>1576.91</v>
       </c>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="7">
+      <c r="C15" s="3">
         <v>1833044</v>
       </c>
       <c r="G15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H15" s="1">
         <v>2212936</v>
@@ -4685,18 +5166,18 @@
         <v>1857926.6</v>
       </c>
       <c r="K15" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L15">
         <v>1584.67</v>
       </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="7">
+      <c r="C16" s="3">
         <v>1809266</v>
       </c>
       <c r="G16" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H16" s="1">
         <v>2132165</v>
@@ -4705,18 +5186,18 @@
         <v>1829257.3</v>
       </c>
       <c r="K16" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L16">
         <v>1565.01</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C17" s="7">
+      <c r="C17" s="3">
         <v>1823975</v>
       </c>
       <c r="G17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H17" s="1">
         <v>2141458</v>
@@ -4725,18 +5206,18 @@
         <v>1737024.9</v>
       </c>
       <c r="K17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L17">
         <v>1409.23</v>
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C18" s="7">
+      <c r="C18" s="3">
         <v>1786620</v>
       </c>
       <c r="G18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H18" s="1">
         <v>2163387</v>
@@ -4745,18 +5226,18 @@
         <v>1767366.3</v>
       </c>
       <c r="K18" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L18">
         <v>1621.85</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C19" s="7">
+      <c r="C19" s="3">
         <v>1847999</v>
       </c>
       <c r="G19" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H19" s="1">
         <v>2288538</v>
@@ -4765,18 +5246,18 @@
         <v>1801467.9</v>
       </c>
       <c r="K19" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L19">
         <v>1530.98</v>
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C20" s="7">
+      <c r="C20" s="3">
         <v>1820846</v>
       </c>
       <c r="G20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H20" s="1">
         <v>2081530</v>
@@ -4785,18 +5266,18 @@
         <v>1783847.1</v>
       </c>
       <c r="K20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L20">
         <v>1554.75</v>
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C21" s="7">
+      <c r="C21" s="3">
         <v>1733819</v>
       </c>
       <c r="G21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H21" s="1">
         <v>2080370</v>
@@ -4805,18 +5286,18 @@
         <v>1878049.4</v>
       </c>
       <c r="K21" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L21">
         <v>1598.46</v>
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C22" s="7">
+      <c r="C22" s="3">
         <v>1762741</v>
       </c>
       <c r="G22" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H22" s="1">
         <v>2051683</v>
@@ -4825,18 +5306,18 @@
         <v>1805732.9</v>
       </c>
       <c r="K22" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L22">
         <v>1701.9</v>
       </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C23" s="7">
+      <c r="C23" s="3">
         <v>1797881</v>
       </c>
       <c r="G23" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H23" s="1">
         <v>2035804</v>
@@ -4845,18 +5326,18 @@
         <v>1797532.9</v>
       </c>
       <c r="K23" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L23">
         <v>1623.79</v>
       </c>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C24" s="7">
+      <c r="C24" s="3">
         <v>1774452</v>
       </c>
       <c r="G24" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H24" s="1">
         <v>2142426</v>
@@ -4865,18 +5346,18 @@
         <v>1816484</v>
       </c>
       <c r="K24" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L24">
         <v>1583.7</v>
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C25" s="7">
+      <c r="C25" s="3">
         <v>1873699</v>
       </c>
       <c r="G25" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H25" s="1">
         <v>2117999</v>
@@ -4885,18 +5366,18 @@
         <v>1834443.2</v>
       </c>
       <c r="K25" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L25">
         <v>1549.8</v>
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C26" s="7">
+      <c r="C26" s="3">
         <v>1799171</v>
       </c>
       <c r="G26" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H26" s="1">
         <v>2159400</v>
@@ -4905,18 +5386,18 @@
         <v>1833323.7</v>
       </c>
       <c r="K26" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L26">
         <v>1620.02</v>
       </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C27" s="7">
+      <c r="C27" s="3">
         <v>1791145</v>
       </c>
       <c r="G27" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H27" s="1">
         <v>2009335</v>
@@ -4925,44 +5406,615 @@
         <v>1782763.9</v>
       </c>
       <c r="K27" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L27">
         <v>1602.87</v>
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C28" s="7">
+      <c r="C28" s="3">
         <v>1810188</v>
       </c>
       <c r="G28" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H28" s="1">
         <v>2155026</v>
       </c>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C29" s="7">
+      <c r="C29" s="3">
         <v>1825748</v>
       </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C30" s="7">
+      <c r="C30" s="3">
         <v>1826263</v>
       </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C31" s="7">
+      <c r="C31" s="3">
         <v>1779248</v>
       </c>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C32" s="7">
+      <c r="C32" s="3">
         <v>1820813</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:J27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:10" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="25"/>
+      <c r="E3" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="4:10" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="4:10" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="20">
+        <v>12528</v>
+      </c>
+      <c r="F5" s="32">
+        <v>0.16</v>
+      </c>
+      <c r="G5" s="16">
+        <v>12528</v>
+      </c>
+      <c r="H5" s="8">
+        <v>12528</v>
+      </c>
+      <c r="I5" s="33">
+        <v>0</v>
+      </c>
+      <c r="J5" s="32">
+        <v>0.2064</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="21">
+        <v>22327</v>
+      </c>
+      <c r="F6" s="34">
+        <v>0.16</v>
+      </c>
+      <c r="G6" s="17">
+        <v>22327</v>
+      </c>
+      <c r="H6" s="7">
+        <v>22327</v>
+      </c>
+      <c r="I6" s="35">
+        <v>0</v>
+      </c>
+      <c r="J6" s="34">
+        <v>0.2039</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="21">
+        <v>209320</v>
+      </c>
+      <c r="F7" s="34">
+        <v>0.32</v>
+      </c>
+      <c r="G7" s="17">
+        <v>209320</v>
+      </c>
+      <c r="H7" s="7">
+        <v>209320</v>
+      </c>
+      <c r="I7" s="35">
+        <v>0</v>
+      </c>
+      <c r="J7" s="34">
+        <v>0.28689999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="21">
+        <v>102378</v>
+      </c>
+      <c r="F8" s="34">
+        <v>0.33</v>
+      </c>
+      <c r="G8" s="17">
+        <v>102378</v>
+      </c>
+      <c r="H8" s="7">
+        <v>102378</v>
+      </c>
+      <c r="I8" s="35">
+        <v>0</v>
+      </c>
+      <c r="J8" s="34">
+        <v>0.2717</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="21">
+        <v>247926</v>
+      </c>
+      <c r="F9" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="G9" s="17">
+        <v>247926</v>
+      </c>
+      <c r="H9" s="7">
+        <v>248068.7</v>
+      </c>
+      <c r="I9" s="35">
+        <v>5.7556999999999997E-2</v>
+      </c>
+      <c r="J9" s="34">
+        <v>0.25650000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="21">
+        <v>10178</v>
+      </c>
+      <c r="F10" s="34">
+        <v>0.49</v>
+      </c>
+      <c r="G10" s="17">
+        <v>10178</v>
+      </c>
+      <c r="H10" s="7">
+        <v>10248.5</v>
+      </c>
+      <c r="I10" s="35">
+        <v>0.69267000000000001</v>
+      </c>
+      <c r="J10" s="34">
+        <v>0.2944</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="21">
+        <v>143721</v>
+      </c>
+      <c r="F11" s="34">
+        <v>0.46</v>
+      </c>
+      <c r="G11" s="17">
+        <v>143721</v>
+      </c>
+      <c r="H11" s="7">
+        <v>143862.9</v>
+      </c>
+      <c r="I11" s="35">
+        <v>9.8733000000000001E-2</v>
+      </c>
+      <c r="J11" s="34">
+        <v>0.33289999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="21">
+        <v>512361</v>
+      </c>
+      <c r="F12" s="34">
+        <v>0.78</v>
+      </c>
+      <c r="G12" s="17">
+        <v>512361</v>
+      </c>
+      <c r="H12" s="7">
+        <v>512361</v>
+      </c>
+      <c r="I12" s="35">
+        <v>0</v>
+      </c>
+      <c r="J12" s="34">
+        <v>0.4587</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="21">
+        <v>20557</v>
+      </c>
+      <c r="F13" s="34">
+        <v>1.65</v>
+      </c>
+      <c r="G13" s="17">
+        <v>20557</v>
+      </c>
+      <c r="H13" s="7">
+        <v>20557</v>
+      </c>
+      <c r="I13" s="35">
+        <v>0</v>
+      </c>
+      <c r="J13" s="34">
+        <v>0.70130000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="21">
+        <v>17976</v>
+      </c>
+      <c r="F14" s="34">
+        <v>2.64</v>
+      </c>
+      <c r="G14" s="17">
+        <v>17976</v>
+      </c>
+      <c r="H14" s="7">
+        <v>18069.5</v>
+      </c>
+      <c r="I14" s="35">
+        <v>0.52014000000000005</v>
+      </c>
+      <c r="J14" s="34">
+        <v>0.87119999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="21">
+        <v>3455242</v>
+      </c>
+      <c r="F15" s="34">
+        <v>2.31</v>
+      </c>
+      <c r="G15" s="17">
+        <v>3455242</v>
+      </c>
+      <c r="H15" s="7">
+        <v>3459378.2</v>
+      </c>
+      <c r="I15" s="35">
+        <v>0.11971</v>
+      </c>
+      <c r="J15" s="34">
+        <v>0.93810000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="21">
+        <v>2097170</v>
+      </c>
+      <c r="F16" s="34">
+        <v>6.19</v>
+      </c>
+      <c r="G16" s="17">
+        <v>2097170</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2101268.4</v>
+      </c>
+      <c r="I16" s="35">
+        <v>0.19542999999999999</v>
+      </c>
+      <c r="J16" s="34">
+        <v>1.6827000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="34">
+        <v>11.27</v>
+      </c>
+      <c r="G17" s="18">
+        <v>57986</v>
+      </c>
+      <c r="H17" s="7">
+        <v>58210.5</v>
+      </c>
+      <c r="I17" s="35">
+        <v>0.38716</v>
+      </c>
+      <c r="J17" s="34">
+        <v>2.1469999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="21">
+        <v>983128</v>
+      </c>
+      <c r="F18" s="34">
+        <v>8.59</v>
+      </c>
+      <c r="G18" s="17">
+        <v>983128</v>
+      </c>
+      <c r="H18" s="7">
+        <v>992583.6</v>
+      </c>
+      <c r="I18" s="35">
+        <v>0.96179000000000003</v>
+      </c>
+      <c r="J18" s="34">
+        <v>2.2953999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="21">
+        <v>986008</v>
+      </c>
+      <c r="F19" s="34">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="G19" s="17">
+        <v>986008</v>
+      </c>
+      <c r="H19" s="7">
+        <v>986008</v>
+      </c>
+      <c r="I19" s="35">
+        <v>0</v>
+      </c>
+      <c r="J19" s="34">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="21">
+        <v>961324</v>
+      </c>
+      <c r="F20" s="34">
+        <v>8.17</v>
+      </c>
+      <c r="G20" s="17">
+        <v>961324</v>
+      </c>
+      <c r="H20" s="7">
+        <v>961324</v>
+      </c>
+      <c r="I20" s="35">
+        <v>0</v>
+      </c>
+      <c r="J20" s="34">
+        <v>2.1156999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="21">
+        <v>976965</v>
+      </c>
+      <c r="F21" s="34">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="G21" s="17">
+        <v>976965</v>
+      </c>
+      <c r="H21" s="7">
+        <v>977748.3</v>
+      </c>
+      <c r="I21" s="35">
+        <v>8.0176999999999998E-2</v>
+      </c>
+      <c r="J21" s="34">
+        <v>2.0981000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="21">
+        <v>971266</v>
+      </c>
+      <c r="F22" s="34">
+        <v>8.31</v>
+      </c>
+      <c r="G22" s="17">
+        <v>971266</v>
+      </c>
+      <c r="H22" s="7">
+        <v>971354.3</v>
+      </c>
+      <c r="I22" s="35">
+        <v>9.0912000000000007E-3</v>
+      </c>
+      <c r="J22" s="34">
+        <v>2.0272999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="21">
+        <v>340047</v>
+      </c>
+      <c r="F23" s="34">
+        <v>8.52</v>
+      </c>
+      <c r="G23" s="17">
+        <v>340047</v>
+      </c>
+      <c r="H23" s="7">
+        <v>340578.6</v>
+      </c>
+      <c r="I23" s="35">
+        <v>0.15633</v>
+      </c>
+      <c r="J23" s="34">
+        <v>1.9510000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="34">
+        <v>12.76</v>
+      </c>
+      <c r="G24" s="18">
+        <v>27519</v>
+      </c>
+      <c r="H24" s="7">
+        <v>27716.9</v>
+      </c>
+      <c r="I24" s="35">
+        <v>0.74109999999999998</v>
+      </c>
+      <c r="J24" s="34">
+        <v>2.0960000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="21">
+        <v>603910</v>
+      </c>
+      <c r="F25" s="34">
+        <v>8.42</v>
+      </c>
+      <c r="G25" s="17">
+        <v>603910</v>
+      </c>
+      <c r="H25" s="7">
+        <v>603910</v>
+      </c>
+      <c r="I25" s="35">
+        <v>0</v>
+      </c>
+      <c r="J25" s="34">
+        <v>2.3609</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="23">
+        <v>2026626</v>
+      </c>
+      <c r="F26" s="36">
+        <v>10.89</v>
+      </c>
+      <c r="G26" s="19">
+        <v>2026626</v>
+      </c>
+      <c r="H26" s="9">
+        <v>2026626</v>
+      </c>
+      <c r="I26" s="37">
+        <v>0</v>
+      </c>
+      <c r="J26" s="36">
+        <v>2.6560999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:J3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tabele/prvaTabela.xlsx
+++ b/tabele/prvaTabela.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Faks\master\master-rad\tabele\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Milos\faks\master\master-rad\tabele\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,9 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="tsplib" sheetId="1" r:id="rId1"/>
-    <sheet name="random_raw" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="random" sheetId="4" r:id="rId4"/>
+    <sheet name="tsplib2" sheetId="5" r:id="rId2"/>
+    <sheet name="random_raw" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="random" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="207">
   <si>
     <t>swiss42</t>
   </si>
@@ -459,6 +460,99 @@
   </si>
   <si>
     <t>време (s)</t>
+  </si>
+  <si>
+    <t>VNS + SA</t>
+  </si>
+  <si>
+    <t>мин. реш.</t>
+  </si>
+  <si>
+    <t>опт. реш.</t>
+  </si>
+  <si>
+    <t>инст.</t>
+  </si>
+  <si>
+    <t>пр. реш.</t>
+  </si>
+  <si>
+    <t>GILS-RVND</t>
+  </si>
+  <si>
+    <t>ср. одст. (%)</t>
+  </si>
+  <si>
+    <t>TRP-S10-R1</t>
+  </si>
+  <si>
+    <t>TRP-S10-R2</t>
+  </si>
+  <si>
+    <t>TRP-S10-R3</t>
+  </si>
+  <si>
+    <t>TRP-S10-R4</t>
+  </si>
+  <si>
+    <t>TRP-S10-R5</t>
+  </si>
+  <si>
+    <t>TRP-S10-R6</t>
+  </si>
+  <si>
+    <t>TRP-S10-R7</t>
+  </si>
+  <si>
+    <t>TRP-S10-R8</t>
+  </si>
+  <si>
+    <t>TRP-S10-R9</t>
+  </si>
+  <si>
+    <t>TRP-S10-R10</t>
+  </si>
+  <si>
+    <t>TRP-S10-R11</t>
+  </si>
+  <si>
+    <t>TRP-S10-R12</t>
+  </si>
+  <si>
+    <t>TRP-S10-R13</t>
+  </si>
+  <si>
+    <t>TRP-S10-R14</t>
+  </si>
+  <si>
+    <t>TRP-S10-R15</t>
+  </si>
+  <si>
+    <t>TRP-S10-R16</t>
+  </si>
+  <si>
+    <t>TRP-S10-R17</t>
+  </si>
+  <si>
+    <t>TRP-S10-R18</t>
+  </si>
+  <si>
+    <t>TRP-S10-R19</t>
+  </si>
+  <si>
+    <t>TRP-S10-R20</t>
+  </si>
+  <si>
+    <t>TRP-S30-R</t>
+  </si>
+  <si>
+    <t>TRP-S500-R1</t>
+  </si>
+  <si>
+    <t>TRP-S500-R2</t>
+  </si>
+  <si>
+    <t>TRP-S500-R3</t>
   </si>
   <si>
     <r>
@@ -467,7 +561,7 @@
     <r>
       <rPr>
         <vertAlign val="superscript"/>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -477,31 +571,13 @@
     </r>
   </si>
   <si>
-    <t>VNS + SA</t>
-  </si>
-  <si>
-    <t>мин. реш.</t>
-  </si>
-  <si>
-    <t>опт. реш.</t>
-  </si>
-  <si>
-    <t>инст.</t>
-  </si>
-  <si>
-    <t>пр. реш.</t>
-  </si>
-  <si>
-    <t>GILS-RVND</t>
-  </si>
-  <si>
     <r>
       <t>27.519</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -511,18 +587,106 @@
     </r>
   </si>
   <si>
-    <t>ср. одст. (%)</t>
+    <t>19215.00</t>
+  </si>
+  <si>
+    <t>_x0002_1.73</t>
+  </si>
+  <si>
+    <t>54984.00</t>
+  </si>
+  <si>
+    <t>_x0002_3.53</t>
+  </si>
+  <si>
+    <t>949594.00</t>
+  </si>
+  <si>
+    <t>_x0002_2.79</t>
+  </si>
+  <si>
+    <t>585823.00</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>1,983,475</t>
+  </si>
+  <si>
+    <t>1980767.00</t>
+  </si>
+  <si>
+    <t>_x0002_0.14</t>
+  </si>
+  <si>
+    <t>rat195</t>
+  </si>
+  <si>
+    <t>210335.90</t>
+  </si>
+  <si>
+    <t>_x0002_1.42</t>
+  </si>
+  <si>
+    <t>pr226</t>
+  </si>
+  <si>
+    <t>7,226,554</t>
+  </si>
+  <si>
+    <t>7100308.00</t>
+  </si>
+  <si>
+    <t>_x0002_1.75</t>
+  </si>
+  <si>
+    <t>lin318</t>
+  </si>
+  <si>
+    <t>5,876,537</t>
+  </si>
+  <si>
+    <t>5569819.50</t>
+  </si>
+  <si>
+    <t>_x0002_5.22</t>
+  </si>
+  <si>
+    <t>pr439</t>
+  </si>
+  <si>
+    <t>18,567,170</t>
+  </si>
+  <si>
+    <t>17734922.00</t>
+  </si>
+  <si>
+    <t>_x0002_4.48</t>
+  </si>
+  <si>
+    <t>att532</t>
+  </si>
+  <si>
+    <t>18,448,435</t>
+  </si>
+  <si>
+    <t>5597866.80</t>
+  </si>
+  <si>
+    <t>–</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,15 +702,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -554,15 +719,7 @@
     </font>
     <font>
       <vertAlign val="superscript"/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -577,7 +734,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -904,110 +1061,370 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1292,88 +1709,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" customWidth="1"/>
+    <col min="6" max="7" width="11.7109375" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
     <col min="11" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:14" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
       <c r="K2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="E3" s="28" t="s">
+      <c r="H3" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>143</v>
-      </c>
     </row>
     <row r="4" spans="1:14" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="9">
         <v>12528</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="35">
         <v>0.16</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="38">
         <v>12528</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="33">
         <v>12528</v>
       </c>
-      <c r="H4" s="33">
-        <v>0</v>
-      </c>
-      <c r="I4" s="32">
+      <c r="H4" s="34">
+        <v>0</v>
+      </c>
+      <c r="I4" s="35">
         <v>0.2064</v>
       </c>
       <c r="K4" s="3">
@@ -1390,25 +1807,25 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="21">
+      <c r="C5" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11">
         <v>22327</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="42">
         <v>0.16</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="44">
         <v>22327</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="40">
         <v>22327</v>
       </c>
-      <c r="H5" s="35">
-        <v>0</v>
-      </c>
-      <c r="I5" s="34">
+      <c r="H5" s="41">
+        <v>0</v>
+      </c>
+      <c r="I5" s="42">
         <v>0.2039</v>
       </c>
       <c r="K5" s="3">
@@ -1425,25 +1842,25 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="11">
         <v>209320</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="42">
         <v>0.32</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="44">
         <v>209320</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="40">
         <v>209320</v>
       </c>
-      <c r="H6" s="35">
-        <v>0</v>
-      </c>
-      <c r="I6" s="34">
+      <c r="H6" s="41">
+        <v>0</v>
+      </c>
+      <c r="I6" s="42">
         <v>0.28689999999999999</v>
       </c>
       <c r="K6" s="3">
@@ -1460,25 +1877,25 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="11">
         <v>102378</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="42">
         <v>0.33</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="44">
         <v>102378</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="40">
         <v>102378</v>
       </c>
-      <c r="H7" s="35">
-        <v>0</v>
-      </c>
-      <c r="I7" s="34">
+      <c r="H7" s="41">
+        <v>0</v>
+      </c>
+      <c r="I7" s="42">
         <v>0.2717</v>
       </c>
       <c r="K7" s="3">
@@ -1495,25 +1912,25 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="11">
         <v>247926</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="42">
         <v>0.3</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="44">
         <v>247926</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="40">
         <v>248068.7</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="41">
         <v>5.7556999999999997E-2</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="42">
         <v>0.25650000000000001</v>
       </c>
       <c r="K8" s="3">
@@ -1530,25 +1947,25 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="11">
         <v>10178</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="42">
         <v>0.49</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="44">
         <v>10178</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="40">
         <v>10248.5</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="41">
         <v>0.69267000000000001</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="42">
         <v>0.2944</v>
       </c>
       <c r="K9" s="3">
@@ -1565,25 +1982,25 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="11">
         <v>143721</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="42">
         <v>0.46</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="44">
         <v>143721</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="40">
         <v>143862.9</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="41">
         <v>9.8733000000000001E-2</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="42">
         <v>0.33289999999999997</v>
       </c>
       <c r="K10" s="3">
@@ -1600,25 +2017,25 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="11">
         <v>512361</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="42">
         <v>0.78</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="44">
         <v>512361</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="40">
         <v>512361</v>
       </c>
-      <c r="H11" s="35">
-        <v>0</v>
-      </c>
-      <c r="I11" s="34">
+      <c r="H11" s="41">
+        <v>0</v>
+      </c>
+      <c r="I11" s="42">
         <v>0.4587</v>
       </c>
       <c r="K11" s="3">
@@ -1635,25 +2052,25 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="11">
         <v>20557</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="42">
         <v>1.65</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="44">
         <v>20557</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="40">
         <v>20557</v>
       </c>
-      <c r="H12" s="35">
-        <v>0</v>
-      </c>
-      <c r="I12" s="34">
+      <c r="H12" s="41">
+        <v>0</v>
+      </c>
+      <c r="I12" s="42">
         <v>0.70130000000000003</v>
       </c>
       <c r="K12" s="3">
@@ -1670,25 +2087,25 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="11">
         <v>17976</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="42">
         <v>2.64</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="44">
         <v>17976</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="40">
         <v>18069.5</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="41">
         <v>0.52014000000000005</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="42">
         <v>0.87119999999999997</v>
       </c>
       <c r="K13" s="3">
@@ -1705,25 +2122,25 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="11">
         <v>3455242</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="42">
         <v>2.31</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="44">
         <v>3455242</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="40">
         <v>3459378.2</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="41">
         <v>0.11971</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14" s="42">
         <v>0.93810000000000004</v>
       </c>
       <c r="K14" s="3">
@@ -1740,25 +2157,25 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="11">
         <v>2097170</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="42">
         <v>6.19</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="44">
         <v>2097170</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="40">
         <v>2101268.4</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="41">
         <v>0.19542999999999999</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="42">
         <v>1.6827000000000001</v>
       </c>
       <c r="K15" s="3">
@@ -1775,25 +2192,25 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="E16" s="34">
+      <c r="D16" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="E16" s="42">
         <v>11.27</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="46">
         <v>57986</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="40">
         <v>58210.5</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="41">
         <v>0.38716</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="42">
         <v>2.1469999999999998</v>
       </c>
       <c r="K16" s="3">
@@ -1810,25 +2227,25 @@
       </c>
     </row>
     <row r="17" spans="3:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="11">
         <v>983128</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="42">
         <v>8.59</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="44">
         <v>983128</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="40">
         <v>992583.6</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="41">
         <v>0.96179000000000003</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="42">
         <v>2.2953999999999999</v>
       </c>
       <c r="K17" s="3">
@@ -1845,25 +2262,25 @@
       </c>
     </row>
     <row r="18" spans="3:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="11">
         <v>986008</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="42">
         <v>9.2100000000000009</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="44">
         <v>986008</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="40">
         <v>986008</v>
       </c>
-      <c r="H18" s="35">
-        <v>0</v>
-      </c>
-      <c r="I18" s="34">
+      <c r="H18" s="41">
+        <v>0</v>
+      </c>
+      <c r="I18" s="42">
         <v>2.16</v>
       </c>
       <c r="K18" s="3">
@@ -1880,25 +2297,25 @@
       </c>
     </row>
     <row r="19" spans="3:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="11">
         <v>961324</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="42">
         <v>8.17</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="44">
         <v>961324</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="40">
         <v>961324</v>
       </c>
-      <c r="H19" s="35">
-        <v>0</v>
-      </c>
-      <c r="I19" s="34">
+      <c r="H19" s="41">
+        <v>0</v>
+      </c>
+      <c r="I19" s="42">
         <v>2.1156999999999999</v>
       </c>
       <c r="K19" s="3">
@@ -1915,25 +2332,25 @@
       </c>
     </row>
     <row r="20" spans="3:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="11">
         <v>976965</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="42">
         <v>8.4600000000000009</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="44">
         <v>976965</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="40">
         <v>977748.3</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20" s="41">
         <v>8.0176999999999998E-2</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20" s="42">
         <v>2.0981000000000001</v>
       </c>
       <c r="K20" s="3">
@@ -1950,25 +2367,25 @@
       </c>
     </row>
     <row r="21" spans="3:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="11">
         <v>971266</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="42">
         <v>8.31</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="44">
         <v>971266</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="40">
         <v>971354.3</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H21" s="41">
         <v>9.0912000000000007E-3</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="42">
         <v>2.0272999999999999</v>
       </c>
       <c r="K21" s="3">
@@ -1985,25 +2402,25 @@
       </c>
     </row>
     <row r="22" spans="3:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="11">
         <v>340047</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="42">
         <v>8.52</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="44">
         <v>340047</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="40">
         <v>340578.6</v>
       </c>
-      <c r="H22" s="35">
+      <c r="H22" s="41">
         <v>0.15633</v>
       </c>
-      <c r="I22" s="34">
+      <c r="I22" s="42">
         <v>1.9510000000000001</v>
       </c>
       <c r="K22" s="3">
@@ -2020,25 +2437,25 @@
       </c>
     </row>
     <row r="23" spans="3:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="E23" s="34">
+      <c r="D23" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="42">
         <v>12.76</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="46">
         <v>27519</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="40">
         <v>27716.9</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="41">
         <v>0.74109999999999998</v>
       </c>
-      <c r="I23" s="34">
+      <c r="I23" s="42">
         <v>2.0960000000000001</v>
       </c>
       <c r="K23" s="3">
@@ -2055,25 +2472,25 @@
       </c>
     </row>
     <row r="24" spans="3:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="11">
         <v>603910</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="42">
         <v>8.42</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="44">
         <v>603910</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="40">
         <v>603910</v>
       </c>
-      <c r="H24" s="35">
-        <v>0</v>
-      </c>
-      <c r="I24" s="34">
+      <c r="H24" s="41">
+        <v>0</v>
+      </c>
+      <c r="I24" s="42">
         <v>2.3609</v>
       </c>
       <c r="K24" s="3">
@@ -2090,25 +2507,25 @@
       </c>
     </row>
     <row r="25" spans="3:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="63">
         <v>2026626</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="53">
         <v>10.89</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="64">
         <v>2026626</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="54">
         <v>2026626</v>
       </c>
-      <c r="H25" s="37">
-        <v>0</v>
-      </c>
-      <c r="I25" s="36">
+      <c r="H25" s="55">
+        <v>0</v>
+      </c>
+      <c r="I25" s="53">
         <v>2.6560999999999999</v>
       </c>
       <c r="K25" s="3">
@@ -2140,10 +2557,683 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:S27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:19" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" spans="3:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="85">
+        <v>19215</v>
+      </c>
+      <c r="E6" s="35">
+        <v>1.51</v>
+      </c>
+      <c r="F6" s="86">
+        <v>19710</v>
+      </c>
+      <c r="G6" s="33">
+        <v>19751</v>
+      </c>
+      <c r="H6" s="34">
+        <v>2.7930999999999999</v>
+      </c>
+      <c r="I6" s="35">
+        <v>0.59450000000000003</v>
+      </c>
+      <c r="N6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <v>19.553000000000001</v>
+      </c>
+      <c r="P6" s="1">
+        <v>19215</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>177</v>
+      </c>
+      <c r="R6" t="s">
+        <v>178</v>
+      </c>
+      <c r="S6">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="45">
+        <v>54984</v>
+      </c>
+      <c r="E7" s="42">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="F7" s="46">
+        <v>56573</v>
+      </c>
+      <c r="G7" s="40">
+        <v>56862</v>
+      </c>
+      <c r="H7" s="41">
+        <v>3.4163999999999999</v>
+      </c>
+      <c r="I7" s="42">
+        <v>1.7714000000000001</v>
+      </c>
+      <c r="N7" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7">
+        <v>56.994</v>
+      </c>
+      <c r="P7" s="1">
+        <v>54984</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>179</v>
+      </c>
+      <c r="R7" t="s">
+        <v>180</v>
+      </c>
+      <c r="S7">
+        <v>9.4700000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="45">
+        <v>949594</v>
+      </c>
+      <c r="E8" s="42">
+        <v>6.9</v>
+      </c>
+      <c r="F8" s="46">
+        <v>951609</v>
+      </c>
+      <c r="G8" s="40">
+        <v>951944</v>
+      </c>
+      <c r="H8" s="41">
+        <v>0.24754999999999999</v>
+      </c>
+      <c r="I8" s="42">
+        <v>1.7016</v>
+      </c>
+      <c r="N8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8">
+        <v>976.83</v>
+      </c>
+      <c r="P8" s="1">
+        <v>949594</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>181</v>
+      </c>
+      <c r="R8" t="s">
+        <v>182</v>
+      </c>
+      <c r="S8">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="45">
+        <v>585823</v>
+      </c>
+      <c r="E9" s="42">
+        <v>6.19</v>
+      </c>
+      <c r="F9" s="46">
+        <v>586751</v>
+      </c>
+      <c r="G9" s="40">
+        <v>586751</v>
+      </c>
+      <c r="H9" s="41">
+        <v>0.15841</v>
+      </c>
+      <c r="I9" s="42">
+        <v>1.7516</v>
+      </c>
+      <c r="N9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9">
+        <v>585.82299999999998</v>
+      </c>
+      <c r="P9" s="1">
+        <v>585823</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>183</v>
+      </c>
+      <c r="R9" t="s">
+        <v>184</v>
+      </c>
+      <c r="S9">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="45">
+        <v>1980767</v>
+      </c>
+      <c r="E10" s="42">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="F10" s="46">
+        <v>1981991</v>
+      </c>
+      <c r="G10" s="40">
+        <v>1981995</v>
+      </c>
+      <c r="H10" s="41">
+        <v>6.2042E-2</v>
+      </c>
+      <c r="I10" s="42">
+        <v>2.1337999999999999</v>
+      </c>
+      <c r="N10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" t="s">
+        <v>185</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1980767</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>186</v>
+      </c>
+      <c r="R10" t="s">
+        <v>187</v>
+      </c>
+      <c r="S10">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="45">
+        <v>210191</v>
+      </c>
+      <c r="E11" s="42">
+        <v>75.56</v>
+      </c>
+      <c r="F11" s="46">
+        <v>217104</v>
+      </c>
+      <c r="G11" s="40">
+        <v>218160</v>
+      </c>
+      <c r="H11" s="41">
+        <v>3.7915999999999999</v>
+      </c>
+      <c r="I11" s="42">
+        <v>13.535</v>
+      </c>
+      <c r="N11" t="s">
+        <v>188</v>
+      </c>
+      <c r="O11">
+        <v>213.37100000000001</v>
+      </c>
+      <c r="P11" s="1">
+        <v>210191</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>189</v>
+      </c>
+      <c r="R11" t="s">
+        <v>190</v>
+      </c>
+      <c r="S11">
+        <v>75.56</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="45">
+        <v>7100308</v>
+      </c>
+      <c r="E12" s="42">
+        <v>59.05</v>
+      </c>
+      <c r="F12" s="46">
+        <v>7118051</v>
+      </c>
+      <c r="G12" s="40">
+        <v>7118796</v>
+      </c>
+      <c r="H12" s="41">
+        <v>0.26039000000000001</v>
+      </c>
+      <c r="I12" s="42">
+        <v>25.771000000000001</v>
+      </c>
+      <c r="N12" t="s">
+        <v>191</v>
+      </c>
+      <c r="O12" t="s">
+        <v>192</v>
+      </c>
+      <c r="P12" s="1">
+        <v>7100308</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>193</v>
+      </c>
+      <c r="R12" t="s">
+        <v>194</v>
+      </c>
+      <c r="S12">
+        <v>59.05</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="45">
+        <v>5560679</v>
+      </c>
+      <c r="E13" s="42">
+        <v>220.59</v>
+      </c>
+      <c r="F13" s="46">
+        <v>5569520</v>
+      </c>
+      <c r="G13" s="40">
+        <v>5613412</v>
+      </c>
+      <c r="H13" s="41">
+        <v>0.94833000000000001</v>
+      </c>
+      <c r="I13" s="42">
+        <v>79.346999999999994</v>
+      </c>
+      <c r="N13" t="s">
+        <v>195</v>
+      </c>
+      <c r="O13" t="s">
+        <v>196</v>
+      </c>
+      <c r="P13" s="1">
+        <v>5560679</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>197</v>
+      </c>
+      <c r="R13" t="s">
+        <v>198</v>
+      </c>
+      <c r="S13">
+        <v>220.59</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" s="45">
+        <v>17688561</v>
+      </c>
+      <c r="E14" s="42">
+        <v>553.74</v>
+      </c>
+      <c r="F14" s="46">
+        <v>17800061</v>
+      </c>
+      <c r="G14" s="40">
+        <v>17855062</v>
+      </c>
+      <c r="H14" s="41">
+        <v>0.94128999999999996</v>
+      </c>
+      <c r="I14" s="42">
+        <v>246.79</v>
+      </c>
+      <c r="N14" t="s">
+        <v>199</v>
+      </c>
+      <c r="O14" t="s">
+        <v>200</v>
+      </c>
+      <c r="P14" s="1">
+        <v>17688561</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>201</v>
+      </c>
+      <c r="R14" t="s">
+        <v>202</v>
+      </c>
+      <c r="S14">
+        <v>553.74</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="83" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="48">
+        <v>5581240</v>
+      </c>
+      <c r="E15" s="51">
+        <v>1792.61</v>
+      </c>
+      <c r="F15" s="87">
+        <v>5652178</v>
+      </c>
+      <c r="G15" s="49">
+        <v>5691485</v>
+      </c>
+      <c r="H15" s="50">
+        <f>(G15-D15)/D15*100</f>
+        <v>1.9752778952347509</v>
+      </c>
+      <c r="I15" s="51">
+        <v>0.87119999999999997</v>
+      </c>
+      <c r="N15" t="s">
+        <v>203</v>
+      </c>
+      <c r="O15" t="s">
+        <v>204</v>
+      </c>
+      <c r="P15" s="1">
+        <v>5581240</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>205</v>
+      </c>
+      <c r="R15" t="s">
+        <v>206</v>
+      </c>
+      <c r="S15">
+        <v>1792.61</v>
+      </c>
+    </row>
+    <row r="16" spans="3:19" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+    </row>
+    <row r="17" spans="3:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="60"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+    </row>
+    <row r="18" spans="3:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="60"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="84">
+        <v>19710</v>
+      </c>
+      <c r="I18" s="84">
+        <v>19751</v>
+      </c>
+      <c r="J18" s="5">
+        <v>2.7930999999999999</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0.59450000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="60"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="84">
+        <v>56573</v>
+      </c>
+      <c r="I19" s="84">
+        <v>56862</v>
+      </c>
+      <c r="J19" s="5">
+        <v>3.4163999999999999</v>
+      </c>
+      <c r="K19" s="5">
+        <v>1.7714000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="60"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="84">
+        <v>951609</v>
+      </c>
+      <c r="I20" s="84">
+        <v>951944</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0.24754999999999999</v>
+      </c>
+      <c r="K20" s="5">
+        <v>1.7016</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="84">
+        <v>586751</v>
+      </c>
+      <c r="I21" s="84">
+        <v>586751</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0.15841</v>
+      </c>
+      <c r="K21" s="5">
+        <v>1.7516</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="60"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="84">
+        <v>1981991</v>
+      </c>
+      <c r="I22" s="84">
+        <v>1981995</v>
+      </c>
+      <c r="J22" s="5">
+        <v>6.2042E-2</v>
+      </c>
+      <c r="K22" s="5">
+        <v>2.1337999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="84">
+        <v>217104</v>
+      </c>
+      <c r="I23" s="84">
+        <v>218160</v>
+      </c>
+      <c r="J23" s="5">
+        <v>3.7915999999999999</v>
+      </c>
+      <c r="K23" s="5">
+        <v>13.535</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="60"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="84">
+        <v>7118051</v>
+      </c>
+      <c r="I24" s="84">
+        <v>7118796</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0.26039000000000001</v>
+      </c>
+      <c r="K24" s="5">
+        <v>25.771000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="60"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="84">
+        <v>5569520</v>
+      </c>
+      <c r="I25" s="84">
+        <v>5613412</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0.94833000000000001</v>
+      </c>
+      <c r="K25" s="5">
+        <v>79.346999999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="60"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="84">
+        <v>17800061</v>
+      </c>
+      <c r="I26" s="84">
+        <v>17855062</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0.94128999999999996</v>
+      </c>
+      <c r="K26" s="5">
+        <v>246.79</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="60"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:I4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:R134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C70" workbookViewId="0">
-      <selection activeCell="F114" sqref="F114:F134"/>
+    <sheetView topLeftCell="C106" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114:C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4946,129 +6036,249 @@
       </c>
       <c r="O112" s="1"/>
     </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F114" s="6">
-        <f>F93-K93</f>
-        <v>-564</v>
-      </c>
-    </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F115" s="6">
-        <f t="shared" ref="F115:F134" si="0">F94-K94</f>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F116" s="6">
-        <f t="shared" si="0"/>
-        <v>-388</v>
-      </c>
-    </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F117" s="6">
-        <f t="shared" si="0"/>
-        <v>-801</v>
-      </c>
-    </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F118" s="6">
-        <f t="shared" si="0"/>
-        <v>-563</v>
-      </c>
-    </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F119" s="6">
-        <f t="shared" si="0"/>
-        <v>178</v>
-      </c>
-    </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F120" s="6">
-        <f t="shared" si="0"/>
-        <v>-1538</v>
-      </c>
-    </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F121" s="6">
-        <f t="shared" si="0"/>
-        <v>-324</v>
-      </c>
-    </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F122" s="6">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F123" s="6">
-        <f t="shared" si="0"/>
-        <v>-839</v>
-      </c>
-    </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F124" s="6">
-        <f t="shared" si="0"/>
-        <v>-411</v>
-      </c>
-    </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F125" s="6">
-        <f t="shared" si="0"/>
-        <v>-701</v>
-      </c>
-    </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F126" s="6">
-        <f t="shared" si="0"/>
-        <v>-82</v>
-      </c>
-    </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F127" s="6">
-        <f t="shared" si="0"/>
-        <v>-380</v>
-      </c>
-    </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F128" s="6">
-        <f t="shared" si="0"/>
-        <v>-285</v>
-      </c>
-    </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F129" s="6">
-        <f t="shared" si="0"/>
-        <v>-883</v>
-      </c>
-    </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F130" s="6">
-        <f t="shared" si="0"/>
-        <v>-281</v>
-      </c>
-    </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F131" s="6">
-        <f t="shared" si="0"/>
-        <v>-451</v>
-      </c>
-    </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F132" s="6">
-        <f t="shared" si="0"/>
-        <v>-365</v>
-      </c>
-    </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F133" s="6">
-        <f t="shared" si="0"/>
-        <v>-982</v>
-      </c>
-    </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>172</v>
+      </c>
+      <c r="D114" s="1">
+        <v>1841386</v>
+      </c>
+      <c r="E114">
+        <v>1738.48</v>
+      </c>
+      <c r="F114" s="6"/>
+    </row>
+    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>173</v>
+      </c>
+      <c r="D115" s="1">
+        <v>1816568</v>
+      </c>
+      <c r="E115">
+        <v>1476.13</v>
+      </c>
+      <c r="F115" s="6"/>
+    </row>
+    <row r="116" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>174</v>
+      </c>
+      <c r="D116" s="1">
+        <v>1833044</v>
+      </c>
+      <c r="E116">
+        <v>1557.48</v>
+      </c>
+      <c r="F116" s="6"/>
+    </row>
+    <row r="117" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>110</v>
+      </c>
+      <c r="D117" s="1">
+        <v>1809266</v>
+      </c>
+      <c r="E117">
+        <v>1597.06</v>
+      </c>
+      <c r="F117" s="6"/>
+    </row>
+    <row r="118" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>112</v>
+      </c>
+      <c r="D118" s="1">
+        <v>1823975</v>
+      </c>
+      <c r="E118">
+        <v>1530.94</v>
+      </c>
+      <c r="F118" s="6"/>
+    </row>
+    <row r="119" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>114</v>
+      </c>
+      <c r="D119" s="1">
+        <v>1786620</v>
+      </c>
+      <c r="E119">
+        <v>1576.91</v>
+      </c>
+      <c r="F119" s="6"/>
+    </row>
+    <row r="120" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>116</v>
+      </c>
+      <c r="D120" s="1">
+        <v>1847999</v>
+      </c>
+      <c r="E120">
+        <v>1584.67</v>
+      </c>
+      <c r="F120" s="6"/>
+    </row>
+    <row r="121" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>118</v>
+      </c>
+      <c r="D121" s="1">
+        <v>1820846</v>
+      </c>
+      <c r="E121">
+        <v>1565.01</v>
+      </c>
+      <c r="F121" s="6"/>
+    </row>
+    <row r="122" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>120</v>
+      </c>
+      <c r="D122" s="1">
+        <v>1733819</v>
+      </c>
+      <c r="E122">
+        <v>1409.23</v>
+      </c>
+      <c r="F122" s="6"/>
+    </row>
+    <row r="123" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>122</v>
+      </c>
+      <c r="D123" s="1">
+        <v>1762741</v>
+      </c>
+      <c r="E123">
+        <v>1621.85</v>
+      </c>
+      <c r="F123" s="6"/>
+    </row>
+    <row r="124" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>124</v>
+      </c>
+      <c r="D124" s="1">
+        <v>1797881</v>
+      </c>
+      <c r="E124">
+        <v>1530.98</v>
+      </c>
+      <c r="F124" s="6"/>
+    </row>
+    <row r="125" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>126</v>
+      </c>
+      <c r="D125" s="1">
+        <v>1774452</v>
+      </c>
+      <c r="E125">
+        <v>1554.75</v>
+      </c>
+      <c r="F125" s="6"/>
+    </row>
+    <row r="126" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>128</v>
+      </c>
+      <c r="D126" s="1">
+        <v>1873699</v>
+      </c>
+      <c r="E126">
+        <v>1598.46</v>
+      </c>
+      <c r="F126" s="6"/>
+    </row>
+    <row r="127" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>130</v>
+      </c>
+      <c r="D127" s="1">
+        <v>1799171</v>
+      </c>
+      <c r="E127">
+        <v>1701.9</v>
+      </c>
+      <c r="F127" s="6"/>
+    </row>
+    <row r="128" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>132</v>
+      </c>
+      <c r="D128" s="1">
+        <v>1791145</v>
+      </c>
+      <c r="E128">
+        <v>1623.79</v>
+      </c>
+      <c r="F128" s="6"/>
+    </row>
+    <row r="129" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>134</v>
+      </c>
+      <c r="D129" s="1">
+        <v>1810188</v>
+      </c>
+      <c r="E129">
+        <v>1583.7</v>
+      </c>
+      <c r="F129" s="6"/>
+    </row>
+    <row r="130" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>136</v>
+      </c>
+      <c r="D130" s="1">
+        <v>1825748</v>
+      </c>
+      <c r="E130">
+        <v>1549.8</v>
+      </c>
+      <c r="F130" s="6"/>
+    </row>
+    <row r="131" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>138</v>
+      </c>
+      <c r="D131" s="1">
+        <v>1826263</v>
+      </c>
+      <c r="E131">
+        <v>1620.02</v>
+      </c>
+      <c r="F131" s="6"/>
+    </row>
+    <row r="132" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>140</v>
+      </c>
+      <c r="D132" s="1">
+        <v>1779248</v>
+      </c>
+      <c r="E132">
+        <v>1602.87</v>
+      </c>
+      <c r="F132" s="6"/>
+    </row>
+    <row r="133" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>142</v>
+      </c>
+      <c r="D133" s="1">
+        <v>1820813</v>
+      </c>
+      <c r="E133">
+        <v>1507.96</v>
+      </c>
+      <c r="F133" s="6"/>
+    </row>
+    <row r="134" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F134" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F115:F134" si="0">F113-K113</f>
         <v>0</v>
       </c>
     </row>
@@ -5077,12 +6287,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C11:L32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C32"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5448,573 +6658,3503 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:J27"/>
+  <dimension ref="B2:AC108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="N3" sqref="N3:T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="13"/>
+    <col min="3" max="3" width="8.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="13" customWidth="1"/>
+    <col min="5" max="7" width="12.7109375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="13" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" style="13" customWidth="1"/>
+    <col min="11" max="13" width="9.140625" style="13"/>
+    <col min="14" max="14" width="13.7109375" style="13" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="13" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="13" customWidth="1"/>
+    <col min="17" max="18" width="12.7109375" style="13" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" style="13" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="13" customWidth="1"/>
+    <col min="21" max="22" width="9.140625" style="13"/>
+    <col min="23" max="23" width="11.42578125" style="13" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" style="13" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" style="13" customWidth="1"/>
+    <col min="26" max="27" width="12.7109375" style="13" customWidth="1"/>
+    <col min="28" max="28" width="10.85546875" style="13" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" style="13" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="4:10" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="25"/>
-      <c r="E3" s="10" t="s">
+    <row r="2" spans="4:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:29" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="18"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="18"/>
+    </row>
+    <row r="4" spans="4:29" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="H4" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="11" t="s">
+      <c r="I4" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="J4" s="28"/>
+      <c r="N4" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="O4" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12"/>
-    </row>
-    <row r="4" spans="4:10" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="38" t="s">
+      <c r="P4" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="R4" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="S4" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="T4" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="W4" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="X4" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y4" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="Z4" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA4" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB4" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC4" s="27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="4:29" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1303</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1303</v>
+      </c>
+      <c r="G5" s="33">
+        <v>1303</v>
+      </c>
+      <c r="H5" s="34">
+        <v>0</v>
+      </c>
+      <c r="I5" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="J5" s="36"/>
+      <c r="N5" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="68">
+        <v>32779</v>
+      </c>
+      <c r="P5" s="35">
+        <v>7.05</v>
+      </c>
+      <c r="Q5" s="70">
+        <v>32779</v>
+      </c>
+      <c r="R5" s="33">
+        <v>32787.800000000003</v>
+      </c>
+      <c r="S5" s="34">
+        <v>2.6845999999999998E-2</v>
+      </c>
+      <c r="T5" s="35">
+        <v>1.8647</v>
+      </c>
+      <c r="W5" s="37"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="35"/>
+    </row>
+    <row r="6" spans="4:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1517</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1517</v>
+      </c>
+      <c r="G6" s="40">
+        <v>1517</v>
+      </c>
+      <c r="H6" s="41">
+        <v>0</v>
+      </c>
+      <c r="I6" s="42">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="J6" s="36"/>
+      <c r="N6" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="12">
+        <v>33435</v>
+      </c>
+      <c r="P6" s="42">
+        <v>7.51</v>
+      </c>
+      <c r="Q6" s="71">
+        <v>33435</v>
+      </c>
+      <c r="R6" s="40">
+        <v>33457</v>
+      </c>
+      <c r="S6" s="41">
+        <v>6.5798999999999996E-2</v>
+      </c>
+      <c r="T6" s="42">
+        <v>1.9610000000000001</v>
+      </c>
+      <c r="W6" s="43"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="42"/>
+    </row>
+    <row r="7" spans="4:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1233</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1233</v>
+      </c>
+      <c r="G7" s="40">
+        <v>1233</v>
+      </c>
+      <c r="H7" s="41">
+        <v>0</v>
+      </c>
+      <c r="I7" s="42">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="J7" s="36"/>
+      <c r="N7" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="12">
+        <v>32390</v>
+      </c>
+      <c r="P7" s="42">
+        <v>7.07</v>
+      </c>
+      <c r="Q7" s="71">
+        <v>32390</v>
+      </c>
+      <c r="R7" s="40">
+        <v>32445.5</v>
+      </c>
+      <c r="S7" s="41">
+        <v>0.17135</v>
+      </c>
+      <c r="T7" s="42">
+        <v>1.9755</v>
+      </c>
+      <c r="W7" s="43"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="42"/>
+    </row>
+    <row r="8" spans="4:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1386</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1386</v>
+      </c>
+      <c r="G8" s="40">
+        <v>1386</v>
+      </c>
+      <c r="H8" s="41">
+        <v>0</v>
+      </c>
+      <c r="I8" s="42">
+        <v>4.07E-2</v>
+      </c>
+      <c r="J8" s="36"/>
+      <c r="N8" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="12">
+        <v>34733</v>
+      </c>
+      <c r="P8" s="42">
+        <v>7.27</v>
+      </c>
+      <c r="Q8" s="71">
+        <v>34733</v>
+      </c>
+      <c r="R8" s="40">
+        <v>34842.6</v>
+      </c>
+      <c r="S8" s="41">
+        <v>0.31555</v>
+      </c>
+      <c r="T8" s="42">
+        <v>2.0647000000000002</v>
+      </c>
+      <c r="W8" s="43"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="41"/>
+      <c r="AC8" s="42"/>
+    </row>
+    <row r="9" spans="4:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="10">
+        <v>978</v>
+      </c>
+      <c r="F9" s="11">
+        <v>978</v>
+      </c>
+      <c r="G9" s="40">
+        <v>978</v>
+      </c>
+      <c r="H9" s="41">
+        <v>0</v>
+      </c>
+      <c r="I9" s="42">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="J9" s="36"/>
+      <c r="N9" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" s="12">
+        <v>32598</v>
+      </c>
+      <c r="P9" s="42">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="Q9" s="71">
+        <v>32598</v>
+      </c>
+      <c r="R9" s="40">
+        <v>32637.5</v>
+      </c>
+      <c r="S9" s="41">
+        <v>0.12117</v>
+      </c>
+      <c r="T9" s="42">
+        <v>1.9918</v>
+      </c>
+      <c r="W9" s="43"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="42"/>
+    </row>
+    <row r="10" spans="4:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1477</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1477</v>
+      </c>
+      <c r="G10" s="40">
+        <v>1477</v>
+      </c>
+      <c r="H10" s="41">
+        <v>0</v>
+      </c>
+      <c r="I10" s="42">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="J10" s="36"/>
+      <c r="N10" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" s="12">
+        <v>34159</v>
+      </c>
+      <c r="P10" s="42">
+        <v>7.82</v>
+      </c>
+      <c r="Q10" s="71">
+        <v>34159</v>
+      </c>
+      <c r="R10" s="40">
+        <v>34335.800000000003</v>
+      </c>
+      <c r="S10" s="41">
+        <v>0.51758000000000004</v>
+      </c>
+      <c r="T10" s="42">
+        <v>1.9810000000000001</v>
+      </c>
+      <c r="W10" s="43"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="42"/>
+    </row>
+    <row r="11" spans="4:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1163</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1163</v>
+      </c>
+      <c r="G11" s="40">
+        <v>1163</v>
+      </c>
+      <c r="H11" s="41">
+        <v>0</v>
+      </c>
+      <c r="I11" s="42">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="J11" s="36"/>
+      <c r="N11" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" s="12">
+        <v>33375</v>
+      </c>
+      <c r="P11" s="42">
+        <v>8.74</v>
+      </c>
+      <c r="Q11" s="71">
+        <v>33375</v>
+      </c>
+      <c r="R11" s="40">
+        <v>33450.1</v>
+      </c>
+      <c r="S11" s="41">
+        <v>0.22502</v>
+      </c>
+      <c r="T11" s="42">
+        <v>2.0869</v>
+      </c>
+      <c r="W11" s="43"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="42"/>
+    </row>
+    <row r="12" spans="4:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1234</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1234</v>
+      </c>
+      <c r="G12" s="40">
+        <v>1234</v>
+      </c>
+      <c r="H12" s="41">
+        <v>0</v>
+      </c>
+      <c r="I12" s="42">
+        <v>3.9E-2</v>
+      </c>
+      <c r="J12" s="36"/>
+      <c r="N12" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12" s="12">
+        <v>31780</v>
+      </c>
+      <c r="P12" s="42">
+        <v>7.08</v>
+      </c>
+      <c r="Q12" s="71">
+        <v>31780</v>
+      </c>
+      <c r="R12" s="40">
+        <v>31829</v>
+      </c>
+      <c r="S12" s="41">
+        <v>0.15418999999999999</v>
+      </c>
+      <c r="T12" s="42">
+        <v>2.0030000000000001</v>
+      </c>
+      <c r="W12" s="43"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="41"/>
+      <c r="AC12" s="42"/>
+    </row>
+    <row r="13" spans="4:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1402</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1402</v>
+      </c>
+      <c r="G13" s="40">
+        <v>1402</v>
+      </c>
+      <c r="H13" s="41">
+        <v>0</v>
+      </c>
+      <c r="I13" s="42">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="J13" s="36"/>
+      <c r="N13" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="O13" s="12">
+        <v>34167</v>
+      </c>
+      <c r="P13" s="42">
+        <v>7.47</v>
+      </c>
+      <c r="Q13" s="71">
+        <v>34167</v>
+      </c>
+      <c r="R13" s="40">
+        <v>34257.699999999997</v>
+      </c>
+      <c r="S13" s="41">
+        <v>0.26545999999999997</v>
+      </c>
+      <c r="T13" s="42">
+        <v>1.9253</v>
+      </c>
+      <c r="W13" s="43"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="42"/>
+    </row>
+    <row r="14" spans="4:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1388</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1388</v>
+      </c>
+      <c r="G14" s="40">
+        <v>1388</v>
+      </c>
+      <c r="H14" s="41">
+        <v>0</v>
+      </c>
+      <c r="I14" s="42">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="J14" s="36"/>
+      <c r="N14" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="O14" s="12">
+        <v>31605</v>
+      </c>
+      <c r="P14" s="42">
+        <v>6.78</v>
+      </c>
+      <c r="Q14" s="71">
+        <v>31605</v>
+      </c>
+      <c r="R14" s="40">
+        <v>31605</v>
+      </c>
+      <c r="S14" s="41">
+        <v>0</v>
+      </c>
+      <c r="T14" s="42">
+        <v>1.9679</v>
+      </c>
+      <c r="W14" s="43"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="41"/>
+      <c r="AC14" s="42"/>
+    </row>
+    <row r="15" spans="4:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1405</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1405</v>
+      </c>
+      <c r="G15" s="40">
+        <v>1405</v>
+      </c>
+      <c r="H15" s="41">
+        <v>0</v>
+      </c>
+      <c r="I15" s="42">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="J15" s="36"/>
+      <c r="N15" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="O15" s="12">
+        <v>34188</v>
+      </c>
+      <c r="P15" s="42">
+        <v>7.75</v>
+      </c>
+      <c r="Q15" s="71">
+        <v>34188</v>
+      </c>
+      <c r="R15" s="40">
+        <v>34419.4</v>
+      </c>
+      <c r="S15" s="41">
+        <v>0.67684999999999995</v>
+      </c>
+      <c r="T15" s="42">
+        <v>2.0243000000000002</v>
+      </c>
+      <c r="W15" s="43"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="41"/>
+      <c r="AC15" s="42"/>
+    </row>
+    <row r="16" spans="4:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1150</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1150</v>
+      </c>
+      <c r="G16" s="40">
+        <v>1150</v>
+      </c>
+      <c r="H16" s="41">
+        <v>0</v>
+      </c>
+      <c r="I16" s="42">
+        <v>4.0899999999999999E-2</v>
+      </c>
+      <c r="J16" s="36"/>
+      <c r="N16" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="O16" s="12">
+        <v>32146</v>
+      </c>
+      <c r="P16" s="42">
+        <v>7.2</v>
+      </c>
+      <c r="Q16" s="71">
+        <v>32146</v>
+      </c>
+      <c r="R16" s="40">
+        <v>32260.2</v>
+      </c>
+      <c r="S16" s="41">
+        <v>0.35525000000000001</v>
+      </c>
+      <c r="T16" s="42">
+        <v>2.1318999999999999</v>
+      </c>
+      <c r="W16" s="43"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="44"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="41"/>
+      <c r="AC16" s="42"/>
+    </row>
+    <row r="17" spans="2:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1531</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1531</v>
+      </c>
+      <c r="G17" s="40">
+        <v>1531</v>
+      </c>
+      <c r="H17" s="41">
+        <v>0</v>
+      </c>
+      <c r="I17" s="42">
+        <v>4.24E-2</v>
+      </c>
+      <c r="J17" s="36"/>
+      <c r="N17" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="O17" s="12">
+        <v>32604</v>
+      </c>
+      <c r="P17" s="42">
+        <v>7.78</v>
+      </c>
+      <c r="Q17" s="71">
+        <v>32604</v>
+      </c>
+      <c r="R17" s="40">
+        <v>32848.400000000001</v>
+      </c>
+      <c r="S17" s="41">
+        <v>0.74960000000000004</v>
+      </c>
+      <c r="T17" s="42">
+        <v>2.1059999999999999</v>
+      </c>
+      <c r="W17" s="43"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="41"/>
+      <c r="AC17" s="42"/>
+    </row>
+    <row r="18" spans="2:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" s="10">
+        <v>1219</v>
+      </c>
+      <c r="F18" s="11">
+        <v>1219</v>
+      </c>
+      <c r="G18" s="40">
+        <v>1219</v>
+      </c>
+      <c r="H18" s="41">
+        <v>0</v>
+      </c>
+      <c r="I18" s="42">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="J18" s="36"/>
+      <c r="N18" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="O18" s="12">
+        <v>32433</v>
+      </c>
+      <c r="P18" s="42">
+        <v>6.29</v>
+      </c>
+      <c r="Q18" s="71">
+        <v>32438</v>
+      </c>
+      <c r="R18" s="40">
+        <v>32438</v>
+      </c>
+      <c r="S18" s="41">
+        <v>1.5415999999999999E-2</v>
+      </c>
+      <c r="T18" s="42">
+        <v>2.1533000000000002</v>
+      </c>
+      <c r="W18" s="43"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="42"/>
+    </row>
+    <row r="19" spans="2:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1087</v>
+      </c>
+      <c r="F19" s="11">
+        <v>1087</v>
+      </c>
+      <c r="G19" s="40">
+        <v>1087</v>
+      </c>
+      <c r="H19" s="41">
+        <v>0</v>
+      </c>
+      <c r="I19" s="42">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="J19" s="36"/>
+      <c r="N19" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="O19" s="12">
+        <v>32574</v>
+      </c>
+      <c r="P19" s="42">
+        <v>7.13</v>
+      </c>
+      <c r="Q19" s="71">
+        <v>32574</v>
+      </c>
+      <c r="R19" s="40">
+        <v>32637.5</v>
+      </c>
+      <c r="S19" s="41">
+        <v>0.19494</v>
+      </c>
+      <c r="T19" s="42">
+        <v>1.9423999999999999</v>
+      </c>
+      <c r="W19" s="43"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="41"/>
+      <c r="AC19" s="42"/>
+    </row>
+    <row r="20" spans="2:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1264</v>
+      </c>
+      <c r="F20" s="11">
+        <v>1264</v>
+      </c>
+      <c r="G20" s="40">
+        <v>1264</v>
+      </c>
+      <c r="H20" s="41">
+        <v>0</v>
+      </c>
+      <c r="I20" s="42">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="J20" s="36"/>
+      <c r="N20" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="O20" s="12">
+        <v>33566</v>
+      </c>
+      <c r="P20" s="42">
+        <v>7.97</v>
+      </c>
+      <c r="Q20" s="71">
+        <v>33566</v>
+      </c>
+      <c r="R20" s="40">
+        <v>33568</v>
+      </c>
+      <c r="S20" s="41">
+        <v>5.9584E-3</v>
+      </c>
+      <c r="T20" s="42">
+        <v>2.1665000000000001</v>
+      </c>
+      <c r="W20" s="43"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="41"/>
+      <c r="AC20" s="42"/>
+    </row>
+    <row r="21" spans="2:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1058</v>
+      </c>
+      <c r="F21" s="11">
+        <v>1058</v>
+      </c>
+      <c r="G21" s="40">
+        <v>1058</v>
+      </c>
+      <c r="H21" s="41">
+        <v>0</v>
+      </c>
+      <c r="I21" s="42">
+        <v>0.04</v>
+      </c>
+      <c r="J21" s="36"/>
+      <c r="N21" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O21" s="12">
+        <v>34198</v>
+      </c>
+      <c r="P21" s="42">
+        <v>9.23</v>
+      </c>
+      <c r="Q21" s="71">
+        <v>34198</v>
+      </c>
+      <c r="R21" s="40">
+        <v>34234.1</v>
+      </c>
+      <c r="S21" s="41">
+        <v>0.10556</v>
+      </c>
+      <c r="T21" s="42">
+        <v>2.1856</v>
+      </c>
+      <c r="W21" s="43"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="40"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="42"/>
+    </row>
+    <row r="22" spans="2:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1083</v>
+      </c>
+      <c r="F22" s="11">
+        <v>1083</v>
+      </c>
+      <c r="G22" s="40">
+        <v>1083</v>
+      </c>
+      <c r="H22" s="41">
+        <v>0</v>
+      </c>
+      <c r="I22" s="42">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="J22" s="36"/>
+      <c r="N22" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="O22" s="12">
+        <v>31929</v>
+      </c>
+      <c r="P22" s="42">
+        <v>7.07</v>
+      </c>
+      <c r="Q22" s="71">
+        <v>31929</v>
+      </c>
+      <c r="R22" s="40">
+        <v>32076.7</v>
+      </c>
+      <c r="S22" s="41">
+        <v>0.46259</v>
+      </c>
+      <c r="T22" s="42">
+        <v>2.0686</v>
+      </c>
+      <c r="W22" s="43"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="41"/>
+      <c r="AC22" s="42"/>
+    </row>
+    <row r="23" spans="2:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="E23" s="10">
+        <v>1394</v>
+      </c>
+      <c r="F23" s="11">
+        <v>1394</v>
+      </c>
+      <c r="G23" s="40">
+        <v>1394</v>
+      </c>
+      <c r="H23" s="41">
+        <v>0</v>
+      </c>
+      <c r="I23" s="42">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="J23" s="36"/>
+      <c r="N23" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="O23" s="12">
+        <v>33463</v>
+      </c>
+      <c r="P23" s="42">
+        <v>8.08</v>
+      </c>
+      <c r="Q23" s="71">
+        <v>33463</v>
+      </c>
+      <c r="R23" s="40">
+        <v>33529</v>
+      </c>
+      <c r="S23" s="41">
+        <v>0.19722999999999999</v>
+      </c>
+      <c r="T23" s="42">
+        <v>1.9655</v>
+      </c>
+      <c r="W23" s="43"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="41"/>
+      <c r="AC23" s="42"/>
+    </row>
+    <row r="24" spans="2:29" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" s="65">
+        <v>951</v>
+      </c>
+      <c r="F24" s="66">
+        <v>951</v>
+      </c>
+      <c r="G24" s="49">
+        <v>951</v>
+      </c>
+      <c r="H24" s="50">
+        <v>0</v>
+      </c>
+      <c r="I24" s="51">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="J24" s="36"/>
+      <c r="N24" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="O24" s="69">
+        <v>33632</v>
+      </c>
+      <c r="P24" s="53">
+        <v>8.73</v>
+      </c>
+      <c r="Q24" s="72">
+        <v>33632</v>
+      </c>
+      <c r="R24" s="54">
+        <v>33732.300000000003</v>
+      </c>
+      <c r="S24" s="55">
+        <v>0.29823</v>
+      </c>
+      <c r="T24" s="53">
+        <v>1.9918</v>
+      </c>
+      <c r="W24" s="43"/>
+      <c r="X24" s="45"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="46"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="41"/>
+      <c r="AC24" s="42"/>
+    </row>
+    <row r="25" spans="2:29" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="56"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="36"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="44"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="41"/>
+      <c r="AC25" s="42"/>
+    </row>
+    <row r="26" spans="2:29" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="W26" s="52"/>
+      <c r="X26" s="63"/>
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="64"/>
+      <c r="AA26" s="54"/>
+      <c r="AB26" s="55"/>
+      <c r="AC26" s="53"/>
+    </row>
+    <row r="27" spans="2:29" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="18"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="18"/>
+    </row>
+    <row r="28" spans="2:29" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="F28" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="I28" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="N28" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="O28" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="P28" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q28" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="R28" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="S28" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="T28" s="27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" s="13">
+        <v>1</v>
+      </c>
+      <c r="D29" s="32" t="str">
+        <f>"TRP-S30-R"&amp;C29</f>
+        <v>TRP-S30-R1</v>
+      </c>
+      <c r="E29" s="8">
+        <v>3175</v>
+      </c>
+      <c r="F29" s="9">
+        <v>3175</v>
+      </c>
+      <c r="G29" s="33">
+        <v>3175</v>
+      </c>
+      <c r="H29" s="34">
+        <v>0</v>
+      </c>
+      <c r="I29" s="35">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="N29" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="O29" s="68">
+        <v>88787</v>
+      </c>
+      <c r="P29" s="35">
+        <v>73.39</v>
+      </c>
+      <c r="Q29" s="70">
+        <v>88806</v>
+      </c>
+      <c r="R29" s="33">
+        <v>89272.2</v>
+      </c>
+      <c r="S29" s="34">
+        <v>0.54647999999999997</v>
+      </c>
+      <c r="T29" s="35">
+        <v>20.199000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="2:29" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="13">
+        <f>C29+1</f>
+        <v>2</v>
+      </c>
+      <c r="D30" s="39" t="str">
+        <f t="shared" ref="D30:D48" si="0">"TRP-S30-R"&amp;C30</f>
+        <v>TRP-S30-R2</v>
+      </c>
+      <c r="E30" s="10">
+        <v>3248</v>
+      </c>
+      <c r="F30" s="11">
+        <v>3248</v>
+      </c>
+      <c r="G30" s="40">
+        <v>3248.8</v>
+      </c>
+      <c r="H30" s="41">
+        <v>2.4631E-2</v>
+      </c>
+      <c r="I30" s="42">
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="N30" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="O30" s="12">
+        <v>91977</v>
+      </c>
+      <c r="P30" s="42">
+        <v>68.069999999999993</v>
+      </c>
+      <c r="Q30" s="71">
+        <v>92448</v>
+      </c>
+      <c r="R30" s="40">
+        <v>93116.1</v>
+      </c>
+      <c r="S30" s="41">
+        <v>1.2384999999999999</v>
+      </c>
+      <c r="T30" s="42">
+        <v>19.059000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:29" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" s="13">
+        <f t="shared" ref="C31:C48" si="1">C30+1</f>
+        <v>3</v>
+      </c>
+      <c r="D31" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>TRP-S30-R3</v>
+      </c>
+      <c r="E31" s="10">
+        <v>3570</v>
+      </c>
+      <c r="F31" s="11">
+        <v>3570</v>
+      </c>
+      <c r="G31" s="40">
+        <v>3570</v>
+      </c>
+      <c r="H31" s="41">
+        <v>0</v>
+      </c>
+      <c r="I31" s="42">
+        <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="N31" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="O31" s="12">
+        <v>92568</v>
+      </c>
+      <c r="P31" s="42">
+        <v>67.11</v>
+      </c>
+      <c r="Q31" s="12">
+        <v>92568</v>
+      </c>
+      <c r="R31" s="40">
+        <v>93203.9</v>
+      </c>
+      <c r="S31" s="41">
+        <v>0.68694999999999995</v>
+      </c>
+      <c r="T31" s="42">
+        <v>19.998000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D32" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>TRP-S30-R4</v>
+      </c>
+      <c r="E32" s="10">
+        <v>2983</v>
+      </c>
+      <c r="F32" s="11">
+        <v>2983</v>
+      </c>
+      <c r="G32" s="40">
+        <v>2983</v>
+      </c>
+      <c r="H32" s="41">
+        <v>0</v>
+      </c>
+      <c r="I32" s="42">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="N32" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="O32" s="12">
+        <v>93174</v>
+      </c>
+      <c r="P32" s="42">
+        <v>72.17</v>
+      </c>
+      <c r="Q32" s="12">
+        <v>93174</v>
+      </c>
+      <c r="R32" s="40">
+        <v>93826.8</v>
+      </c>
+      <c r="S32" s="41">
+        <v>0.70062000000000002</v>
+      </c>
+      <c r="T32" s="42">
+        <v>19.456</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" s="13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D33" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>TRP-S30-R5</v>
+      </c>
+      <c r="E33" s="10">
+        <v>3248</v>
+      </c>
+      <c r="F33" s="11">
+        <v>3248</v>
+      </c>
+      <c r="G33" s="40">
+        <v>3248</v>
+      </c>
+      <c r="H33" s="41">
+        <v>0</v>
+      </c>
+      <c r="I33" s="42">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="N33" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="O33" s="12">
+        <v>88737</v>
+      </c>
+      <c r="P33" s="42">
+        <v>70.77</v>
+      </c>
+      <c r="Q33" s="71">
+        <v>88737</v>
+      </c>
+      <c r="R33" s="40">
+        <v>89765.5</v>
+      </c>
+      <c r="S33" s="41">
+        <v>1.159</v>
+      </c>
+      <c r="T33" s="42">
+        <v>18.058</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D34" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>TRP-S30-R6</v>
+      </c>
+      <c r="E34" s="10">
+        <v>3328</v>
+      </c>
+      <c r="F34" s="11">
+        <v>3328</v>
+      </c>
+      <c r="G34" s="40">
+        <v>3328</v>
+      </c>
+      <c r="H34" s="41">
+        <v>0</v>
+      </c>
+      <c r="I34" s="42">
+        <v>6.4600000000000005E-2</v>
+      </c>
+      <c r="N34" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="O34" s="12">
+        <v>91589</v>
+      </c>
+      <c r="P34" s="42">
+        <v>70.52</v>
+      </c>
+      <c r="Q34" s="12">
+        <v>91589</v>
+      </c>
+      <c r="R34" s="40">
+        <v>92813.9</v>
+      </c>
+      <c r="S34" s="41">
+        <v>1.3373999999999999</v>
+      </c>
+      <c r="T34" s="42">
+        <v>19.777999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" s="13">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D35" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>TRP-S30-R7</v>
+      </c>
+      <c r="E35" s="10">
+        <v>2809</v>
+      </c>
+      <c r="F35" s="11">
+        <v>2809</v>
+      </c>
+      <c r="G35" s="40">
+        <v>2809</v>
+      </c>
+      <c r="H35" s="41">
+        <v>0</v>
+      </c>
+      <c r="I35" s="42">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="N35" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="O35" s="12">
+        <v>92754</v>
+      </c>
+      <c r="P35" s="42">
+        <v>72.8</v>
+      </c>
+      <c r="Q35" s="71">
+        <v>92756</v>
+      </c>
+      <c r="R35" s="40">
+        <v>93846</v>
+      </c>
+      <c r="S35" s="41">
+        <v>1.1773</v>
+      </c>
+      <c r="T35" s="42">
+        <v>21.488</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="13">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D36" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>TRP-S30-R8</v>
+      </c>
+      <c r="E36" s="10">
+        <v>3461</v>
+      </c>
+      <c r="F36" s="11">
+        <v>3461</v>
+      </c>
+      <c r="G36" s="40">
+        <v>3461</v>
+      </c>
+      <c r="H36" s="41">
+        <v>0</v>
+      </c>
+      <c r="I36" s="42">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="N36" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="O36" s="12">
+        <v>89048</v>
+      </c>
+      <c r="P36" s="42">
+        <v>75.150000000000006</v>
+      </c>
+      <c r="Q36" s="71">
+        <v>89118</v>
+      </c>
+      <c r="R36" s="40">
+        <v>89786</v>
+      </c>
+      <c r="S36" s="41">
+        <v>0.82877000000000001</v>
+      </c>
+      <c r="T36" s="42">
+        <v>19.120999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="13">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D37" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>TRP-S30-R9</v>
+      </c>
+      <c r="E37" s="10">
+        <v>3475</v>
+      </c>
+      <c r="F37" s="11">
+        <v>3475</v>
+      </c>
+      <c r="G37" s="40">
+        <v>3475</v>
+      </c>
+      <c r="H37" s="41">
+        <v>0</v>
+      </c>
+      <c r="I37" s="42">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="N37" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="O37" s="12">
+        <v>86326</v>
+      </c>
+      <c r="P37" s="42">
+        <v>65.45</v>
+      </c>
+      <c r="Q37" s="71">
+        <v>86326</v>
+      </c>
+      <c r="R37" s="40">
+        <v>86944.9</v>
+      </c>
+      <c r="S37" s="41">
+        <v>0.71692999999999996</v>
+      </c>
+      <c r="T37" s="42">
+        <v>19.318000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" s="13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D38" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>TRP-S30-R10</v>
+      </c>
+      <c r="E38" s="10">
+        <v>3359</v>
+      </c>
+      <c r="F38" s="11">
+        <v>3359</v>
+      </c>
+      <c r="G38" s="40">
+        <v>3359</v>
+      </c>
+      <c r="H38" s="41">
+        <v>0</v>
+      </c>
+      <c r="I38" s="42">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="N38" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="O38" s="12">
+        <v>91552</v>
+      </c>
+      <c r="P38" s="42">
+        <v>74.25</v>
+      </c>
+      <c r="Q38" s="71">
+        <v>91650</v>
+      </c>
+      <c r="R38" s="40">
+        <v>92391.9</v>
+      </c>
+      <c r="S38" s="41">
+        <v>0.91739999999999999</v>
+      </c>
+      <c r="T38" s="42">
+        <v>18.93</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D39" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>TRP-S30-R11</v>
+      </c>
+      <c r="E39" s="10">
+        <v>2916</v>
+      </c>
+      <c r="F39" s="11">
+        <v>2916</v>
+      </c>
+      <c r="G39" s="40">
+        <v>2916</v>
+      </c>
+      <c r="H39" s="41">
+        <v>0</v>
+      </c>
+      <c r="I39" s="42">
+        <v>6.4899999999999999E-2</v>
+      </c>
+      <c r="N39" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="O39" s="12">
+        <v>92655</v>
+      </c>
+      <c r="P39" s="42">
+        <v>73.150000000000006</v>
+      </c>
+      <c r="Q39" s="71">
+        <v>92815</v>
+      </c>
+      <c r="R39" s="40">
+        <v>93300.800000000003</v>
+      </c>
+      <c r="S39" s="41">
+        <v>0.69699</v>
+      </c>
+      <c r="T39" s="42">
+        <v>19.756</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" s="13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D40" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>TRP-S30-R12</v>
+      </c>
+      <c r="E40" s="10">
+        <v>3314</v>
+      </c>
+      <c r="F40" s="11">
+        <v>3314</v>
+      </c>
+      <c r="G40" s="40">
+        <v>3314</v>
+      </c>
+      <c r="H40" s="41">
+        <v>0</v>
+      </c>
+      <c r="I40" s="42">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="N40" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="O40" s="12">
+        <v>91457</v>
+      </c>
+      <c r="P40" s="42">
+        <v>76.739999999999995</v>
+      </c>
+      <c r="Q40" s="12">
+        <v>91457</v>
+      </c>
+      <c r="R40" s="40">
+        <v>92059.9</v>
+      </c>
+      <c r="S40" s="41">
+        <v>0.65922000000000003</v>
+      </c>
+      <c r="T40" s="42">
+        <v>19.119</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="13">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D41" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>TRP-S30-R13</v>
+      </c>
+      <c r="E41" s="10">
+        <v>3412</v>
+      </c>
+      <c r="F41" s="11">
+        <v>3412</v>
+      </c>
+      <c r="G41" s="40">
+        <v>3412</v>
+      </c>
+      <c r="H41" s="41">
+        <v>0</v>
+      </c>
+      <c r="I41" s="42">
+        <v>6.59E-2</v>
+      </c>
+      <c r="N41" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="O41" s="12">
+        <v>86155</v>
+      </c>
+      <c r="P41" s="42">
+        <v>72.959999999999994</v>
+      </c>
+      <c r="Q41" s="12">
+        <v>86155</v>
+      </c>
+      <c r="R41" s="40">
+        <v>86909.2</v>
+      </c>
+      <c r="S41" s="41">
+        <v>0.87539999999999996</v>
+      </c>
+      <c r="T41" s="42">
+        <v>18.637</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="13">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D42" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>TRP-S30-R14</v>
+      </c>
+      <c r="E42" s="10">
+        <v>3297</v>
+      </c>
+      <c r="F42" s="11">
+        <v>3297</v>
+      </c>
+      <c r="G42" s="40">
+        <v>3297</v>
+      </c>
+      <c r="H42" s="41">
+        <v>0</v>
+      </c>
+      <c r="I42" s="42">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="N42" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="O42" s="12">
+        <v>91882</v>
+      </c>
+      <c r="P42" s="42">
+        <v>70.94</v>
+      </c>
+      <c r="Q42" s="71">
+        <v>91989</v>
+      </c>
+      <c r="R42" s="40">
+        <v>92607.2</v>
+      </c>
+      <c r="S42" s="41">
+        <v>0.78927000000000003</v>
+      </c>
+      <c r="T42" s="42">
+        <v>20.035</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="13">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D43" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>TRP-S30-R15</v>
+      </c>
+      <c r="E43" s="10">
+        <v>2862</v>
+      </c>
+      <c r="F43" s="11">
+        <v>2862</v>
+      </c>
+      <c r="G43" s="40">
+        <v>2862</v>
+      </c>
+      <c r="H43" s="41">
+        <v>0</v>
+      </c>
+      <c r="I43" s="42">
+        <v>6.2899999999999998E-2</v>
+      </c>
+      <c r="N43" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="O43" s="12">
+        <v>88912</v>
+      </c>
+      <c r="P43" s="42">
+        <v>70.41</v>
+      </c>
+      <c r="Q43" s="12">
+        <v>91589</v>
+      </c>
+      <c r="R43" s="40">
+        <v>89736.7</v>
+      </c>
+      <c r="S43" s="41">
+        <v>0.92754999999999999</v>
+      </c>
+      <c r="T43" s="42">
+        <v>19.385999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" s="13">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D44" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>TRP-S30-R16</v>
+      </c>
+      <c r="E44" s="10">
+        <v>3433</v>
+      </c>
+      <c r="F44" s="11">
+        <v>3433</v>
+      </c>
+      <c r="G44" s="40">
+        <v>3433</v>
+      </c>
+      <c r="H44" s="41">
+        <v>0</v>
+      </c>
+      <c r="I44" s="42">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="N44" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="O44" s="12">
+        <v>89311</v>
+      </c>
+      <c r="P44" s="42">
+        <v>77.89</v>
+      </c>
+      <c r="Q44" s="12">
+        <v>89311</v>
+      </c>
+      <c r="R44" s="40">
+        <v>90866</v>
+      </c>
+      <c r="S44" s="41">
+        <v>1.7411000000000001</v>
+      </c>
+      <c r="T44" s="42">
+        <v>20.718</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="13">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D45" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>TRP-S30-R17</v>
+      </c>
+      <c r="E45" s="10">
+        <v>2913</v>
+      </c>
+      <c r="F45" s="11">
+        <v>2913</v>
+      </c>
+      <c r="G45" s="40">
+        <v>2913</v>
+      </c>
+      <c r="H45" s="41">
+        <v>0</v>
+      </c>
+      <c r="I45" s="42">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="N45" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="O45" s="12">
+        <v>89089</v>
+      </c>
+      <c r="P45" s="42">
+        <v>71.17</v>
+      </c>
+      <c r="Q45" s="12">
+        <v>89089</v>
+      </c>
+      <c r="R45" s="40">
+        <v>89777.3</v>
+      </c>
+      <c r="S45" s="41">
+        <v>0.77259999999999995</v>
+      </c>
+      <c r="T45" s="42">
+        <v>19.792999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" s="13">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D46" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>TRP-S30-R18</v>
+      </c>
+      <c r="E46" s="10">
+        <v>3124</v>
+      </c>
+      <c r="F46" s="11">
+        <v>3124</v>
+      </c>
+      <c r="G46" s="40">
+        <v>3124</v>
+      </c>
+      <c r="H46" s="41">
+        <v>0</v>
+      </c>
+      <c r="I46" s="42">
+        <v>6.4299999999999996E-2</v>
+      </c>
+      <c r="N46" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="O46" s="12">
+        <v>93619</v>
+      </c>
+      <c r="P46" s="42">
+        <v>77.03</v>
+      </c>
+      <c r="Q46" s="71">
+        <v>93972</v>
+      </c>
+      <c r="R46" s="40">
+        <v>94696.6</v>
+      </c>
+      <c r="S46" s="41">
+        <v>1.151</v>
+      </c>
+      <c r="T46" s="42">
+        <v>19.530999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" s="13">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D47" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>TRP-S30-R19</v>
+      </c>
+      <c r="E47" s="10">
+        <v>3299</v>
+      </c>
+      <c r="F47" s="11">
+        <v>3299</v>
+      </c>
+      <c r="G47" s="40">
+        <v>3299</v>
+      </c>
+      <c r="H47" s="41">
+        <v>0</v>
+      </c>
+      <c r="I47" s="42">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="N47" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="O47" s="12">
+        <v>93369</v>
+      </c>
+      <c r="P47" s="42">
+        <v>71.08</v>
+      </c>
+      <c r="Q47" s="71">
+        <v>93676</v>
+      </c>
+      <c r="R47" s="40">
+        <v>94574</v>
+      </c>
+      <c r="S47" s="41">
+        <v>1.2906</v>
+      </c>
+      <c r="T47" s="42">
+        <v>18.504999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="13">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D48" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>TRP-S30-R20</v>
+      </c>
+      <c r="E48" s="67">
+        <v>2796</v>
+      </c>
+      <c r="F48" s="63">
+        <v>2796</v>
+      </c>
+      <c r="G48" s="54">
+        <v>2796</v>
+      </c>
+      <c r="H48" s="55">
+        <v>0</v>
+      </c>
+      <c r="I48" s="53">
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="N48" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="O48" s="69">
+        <v>86292</v>
+      </c>
+      <c r="P48" s="53">
+        <v>70.61</v>
+      </c>
+      <c r="Q48" s="72">
+        <v>86331</v>
+      </c>
+      <c r="R48" s="54">
+        <v>87346.8</v>
+      </c>
+      <c r="S48" s="55">
+        <v>1.2223999999999999</v>
+      </c>
+      <c r="T48" s="53">
+        <v>20.140999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="2:20" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D51" s="14"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="18"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="I4" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="J4" s="31" t="s">
+      <c r="P51" s="22"/>
+      <c r="Q51" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="R51" s="17"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="18"/>
+    </row>
+    <row r="52" spans="2:20" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D52" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="G52" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="H52" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="I52" s="27" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="5" spans="4:10" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="20">
-        <v>12528</v>
-      </c>
-      <c r="F5" s="32">
-        <v>0.16</v>
-      </c>
-      <c r="G5" s="16">
-        <v>12528</v>
-      </c>
-      <c r="H5" s="8">
-        <v>12528</v>
-      </c>
-      <c r="I5" s="33">
-        <v>0</v>
-      </c>
-      <c r="J5" s="32">
-        <v>0.2064</v>
-      </c>
-    </row>
-    <row r="6" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="21">
-        <v>22327</v>
-      </c>
-      <c r="F6" s="34">
-        <v>0.16</v>
-      </c>
-      <c r="G6" s="17">
-        <v>22327</v>
-      </c>
-      <c r="H6" s="7">
-        <v>22327</v>
-      </c>
-      <c r="I6" s="35">
-        <v>0</v>
-      </c>
-      <c r="J6" s="34">
-        <v>0.2039</v>
-      </c>
-    </row>
-    <row r="7" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="14" t="s">
+      <c r="N52" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="O52" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="P52" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q52" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="R52" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="S52" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="T52" s="27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="13">
         <v>1</v>
       </c>
-      <c r="E7" s="21">
-        <v>209320</v>
-      </c>
-      <c r="F7" s="34">
-        <v>0.32</v>
-      </c>
-      <c r="G7" s="17">
-        <v>209320</v>
-      </c>
-      <c r="H7" s="7">
-        <v>209320</v>
-      </c>
-      <c r="I7" s="35">
-        <v>0</v>
-      </c>
-      <c r="J7" s="34">
-        <v>0.28689999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="14" t="s">
+      <c r="D53" s="32" t="str">
+        <f>"TRP-S50-R"&amp;B53</f>
+        <v>TRP-S50-R1</v>
+      </c>
+      <c r="E53" s="8">
+        <v>12198</v>
+      </c>
+      <c r="F53" s="9">
+        <v>12198</v>
+      </c>
+      <c r="G53" s="33">
+        <v>12198</v>
+      </c>
+      <c r="H53" s="34">
+        <v>0</v>
+      </c>
+      <c r="I53" s="35">
+        <v>0.29870000000000002</v>
+      </c>
+      <c r="N53" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="O53" s="68">
+        <v>1841386</v>
+      </c>
+      <c r="P53" s="35">
+        <v>1738.48</v>
+      </c>
+      <c r="Q53" s="79">
+        <v>1871090</v>
+      </c>
+      <c r="R53" s="80">
+        <v>1889007.8</v>
+      </c>
+      <c r="S53" s="75">
+        <v>2.5861999999999998</v>
+      </c>
+      <c r="T53" s="76">
+        <v>483.38</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="13">
+        <f>B53+1</f>
         <v>2</v>
       </c>
-      <c r="E8" s="21">
-        <v>102378</v>
-      </c>
-      <c r="F8" s="34">
-        <v>0.33</v>
-      </c>
-      <c r="G8" s="17">
-        <v>102378</v>
-      </c>
-      <c r="H8" s="7">
-        <v>102378</v>
-      </c>
-      <c r="I8" s="35">
-        <v>0</v>
-      </c>
-      <c r="J8" s="34">
-        <v>0.2717</v>
-      </c>
-    </row>
-    <row r="9" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="14" t="s">
+      <c r="D54" s="39" t="str">
+        <f t="shared" ref="D54:D72" si="2">"TRP-S50-R"&amp;B54</f>
+        <v>TRP-S50-R2</v>
+      </c>
+      <c r="E54" s="10">
+        <v>11621</v>
+      </c>
+      <c r="F54" s="11">
+        <v>11621</v>
+      </c>
+      <c r="G54" s="40">
+        <v>11621</v>
+      </c>
+      <c r="H54" s="41">
+        <v>0</v>
+      </c>
+      <c r="I54" s="42">
+        <v>0.30330000000000001</v>
+      </c>
+      <c r="N54" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="O54" s="12">
+        <v>1816568</v>
+      </c>
+      <c r="P54" s="42">
+        <v>1476.13</v>
+      </c>
+      <c r="Q54" s="81">
+        <v>1835543</v>
+      </c>
+      <c r="R54" s="82">
+        <v>1847731.8</v>
+      </c>
+      <c r="S54" s="77">
+        <v>1.7155</v>
+      </c>
+      <c r="T54" s="78">
+        <v>525.37</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="13">
+        <f t="shared" ref="B55:B72" si="3">B54+1</f>
         <v>3</v>
       </c>
-      <c r="E9" s="21">
-        <v>247926</v>
-      </c>
-      <c r="F9" s="34">
-        <v>0.3</v>
-      </c>
-      <c r="G9" s="17">
-        <v>247926</v>
-      </c>
-      <c r="H9" s="7">
-        <v>248068.7</v>
-      </c>
-      <c r="I9" s="35">
-        <v>5.7556999999999997E-2</v>
-      </c>
-      <c r="J9" s="34">
-        <v>0.25650000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="14" t="s">
+      <c r="D55" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>TRP-S50-R3</v>
+      </c>
+      <c r="E55" s="10">
+        <v>12139</v>
+      </c>
+      <c r="F55" s="11">
+        <v>12139</v>
+      </c>
+      <c r="G55" s="40">
+        <v>12139</v>
+      </c>
+      <c r="H55" s="41">
+        <v>0</v>
+      </c>
+      <c r="I55" s="42">
+        <v>0.29530000000000001</v>
+      </c>
+      <c r="N55" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="O55" s="12">
+        <v>1833044</v>
+      </c>
+      <c r="P55" s="42">
+        <v>1557.48</v>
+      </c>
+      <c r="Q55" s="81">
+        <v>1845870</v>
+      </c>
+      <c r="R55" s="82">
+        <v>1866665.9</v>
+      </c>
+      <c r="S55" s="77">
+        <v>1.8342000000000001</v>
+      </c>
+      <c r="T55" s="78">
+        <v>513.5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="13">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="E10" s="21">
-        <v>10178</v>
-      </c>
-      <c r="F10" s="34">
-        <v>0.49</v>
-      </c>
-      <c r="G10" s="17">
-        <v>10178</v>
-      </c>
-      <c r="H10" s="7">
-        <v>10248.5</v>
-      </c>
-      <c r="I10" s="35">
-        <v>0.69267000000000001</v>
-      </c>
-      <c r="J10" s="34">
-        <v>0.2944</v>
-      </c>
-    </row>
-    <row r="11" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="14" t="s">
+      <c r="D56" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>TRP-S50-R4</v>
+      </c>
+      <c r="E56" s="10">
+        <v>13071</v>
+      </c>
+      <c r="F56" s="11">
+        <v>13071</v>
+      </c>
+      <c r="G56" s="40">
+        <v>13162.8</v>
+      </c>
+      <c r="H56" s="41">
+        <v>0.70232000000000006</v>
+      </c>
+      <c r="I56" s="42">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="N56" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="O56" s="12">
+        <v>1809266</v>
+      </c>
+      <c r="P56" s="42">
+        <v>1597.06</v>
+      </c>
+      <c r="Q56" s="81">
+        <v>1821669</v>
+      </c>
+      <c r="R56" s="82">
+        <v>1846249.8</v>
+      </c>
+      <c r="S56" s="77">
+        <v>2.0440999999999998</v>
+      </c>
+      <c r="T56" s="78">
+        <v>489.95</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="13">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="E11" s="21">
-        <v>143721</v>
-      </c>
-      <c r="F11" s="34">
-        <v>0.46</v>
-      </c>
-      <c r="G11" s="17">
-        <v>143721</v>
-      </c>
-      <c r="H11" s="7">
-        <v>143862.9</v>
-      </c>
-      <c r="I11" s="35">
-        <v>9.8733000000000001E-2</v>
-      </c>
-      <c r="J11" s="34">
-        <v>0.33289999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="14" t="s">
+      <c r="D57" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>TRP-S50-R5</v>
+      </c>
+      <c r="E57" s="10">
+        <v>12126</v>
+      </c>
+      <c r="F57" s="11">
+        <v>12126</v>
+      </c>
+      <c r="G57" s="40">
+        <v>12126</v>
+      </c>
+      <c r="H57" s="41">
+        <v>0</v>
+      </c>
+      <c r="I57" s="42">
+        <v>0.29039999999999999</v>
+      </c>
+      <c r="N57" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="O57" s="12">
+        <v>1823975</v>
+      </c>
+      <c r="P57" s="42">
+        <v>1530.94</v>
+      </c>
+      <c r="Q57" s="81">
+        <v>1842106</v>
+      </c>
+      <c r="R57" s="82">
+        <v>1864734.9</v>
+      </c>
+      <c r="S57" s="77">
+        <v>2.2347000000000001</v>
+      </c>
+      <c r="T57" s="78">
+        <v>463.15</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="13">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="E12" s="21">
-        <v>512361</v>
-      </c>
-      <c r="F12" s="34">
-        <v>0.78</v>
-      </c>
-      <c r="G12" s="17">
-        <v>512361</v>
-      </c>
-      <c r="H12" s="7">
-        <v>512361</v>
-      </c>
-      <c r="I12" s="35">
-        <v>0</v>
-      </c>
-      <c r="J12" s="34">
-        <v>0.4587</v>
-      </c>
-    </row>
-    <row r="13" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="14" t="s">
+      <c r="D58" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>TRP-S50-R6</v>
+      </c>
+      <c r="E58" s="10">
+        <v>12684</v>
+      </c>
+      <c r="F58" s="11">
+        <v>12684</v>
+      </c>
+      <c r="G58" s="40">
+        <v>12684.9</v>
+      </c>
+      <c r="H58" s="41">
+        <v>7.0955999999999997E-3</v>
+      </c>
+      <c r="I58" s="42">
+        <v>0.30249999999999999</v>
+      </c>
+      <c r="N58" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="O58" s="12">
+        <v>1786620</v>
+      </c>
+      <c r="P58" s="42">
+        <v>1576.91</v>
+      </c>
+      <c r="Q58" s="81">
+        <v>1812489</v>
+      </c>
+      <c r="R58" s="82">
+        <v>1826810.3</v>
+      </c>
+      <c r="S58" s="77">
+        <v>2.2494999999999998</v>
+      </c>
+      <c r="T58" s="78">
+        <v>510.18</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="13">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="E13" s="21">
-        <v>20557</v>
-      </c>
-      <c r="F13" s="34">
-        <v>1.65</v>
-      </c>
-      <c r="G13" s="17">
-        <v>20557</v>
-      </c>
-      <c r="H13" s="7">
-        <v>20557</v>
-      </c>
-      <c r="I13" s="35">
-        <v>0</v>
-      </c>
-      <c r="J13" s="34">
-        <v>0.70130000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="14" t="s">
+      <c r="D59" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>TRP-S50-R7</v>
+      </c>
+      <c r="E59" s="10">
+        <v>11176</v>
+      </c>
+      <c r="F59" s="11">
+        <v>11176</v>
+      </c>
+      <c r="G59" s="40">
+        <v>11176</v>
+      </c>
+      <c r="H59" s="41">
+        <v>0</v>
+      </c>
+      <c r="I59" s="42">
+        <v>0.31230000000000002</v>
+      </c>
+      <c r="N59" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="O59" s="12">
+        <v>1847999</v>
+      </c>
+      <c r="P59" s="42">
+        <v>1584.67</v>
+      </c>
+      <c r="Q59" s="81">
+        <v>1875923</v>
+      </c>
+      <c r="R59" s="82">
+        <v>1901249.5</v>
+      </c>
+      <c r="S59" s="77">
+        <v>2.8815</v>
+      </c>
+      <c r="T59" s="78">
+        <v>458.71</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="13">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="E14" s="21">
-        <v>17976</v>
-      </c>
-      <c r="F14" s="34">
-        <v>2.64</v>
-      </c>
-      <c r="G14" s="17">
-        <v>17976</v>
-      </c>
-      <c r="H14" s="7">
-        <v>18069.5</v>
-      </c>
-      <c r="I14" s="35">
-        <v>0.52014000000000005</v>
-      </c>
-      <c r="J14" s="34">
-        <v>0.87119999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="14" t="s">
+      <c r="D60" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>TRP-S50-R8</v>
+      </c>
+      <c r="E60" s="10">
+        <v>12910</v>
+      </c>
+      <c r="F60" s="11">
+        <v>12910</v>
+      </c>
+      <c r="G60" s="40">
+        <v>12911.6</v>
+      </c>
+      <c r="H60" s="41">
+        <v>1.2393E-2</v>
+      </c>
+      <c r="I60" s="42">
+        <v>0.30249999999999999</v>
+      </c>
+      <c r="N60" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="O60" s="12">
+        <v>1820846</v>
+      </c>
+      <c r="P60" s="42">
+        <v>1565.01</v>
+      </c>
+      <c r="Q60" s="81">
+        <v>1844134</v>
+      </c>
+      <c r="R60" s="82">
+        <v>1864047.4</v>
+      </c>
+      <c r="S60" s="77">
+        <v>2.3725999999999998</v>
+      </c>
+      <c r="T60" s="78">
+        <v>477.74</v>
+      </c>
+    </row>
+    <row r="61" spans="2:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="13">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="E15" s="21">
-        <v>3455242</v>
-      </c>
-      <c r="F15" s="34">
-        <v>2.31</v>
-      </c>
-      <c r="G15" s="17">
-        <v>3455242</v>
-      </c>
-      <c r="H15" s="7">
-        <v>3459378.2</v>
-      </c>
-      <c r="I15" s="35">
-        <v>0.11971</v>
-      </c>
-      <c r="J15" s="34">
-        <v>0.93810000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="14" t="s">
+      <c r="D61" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>TRP-S50-R9</v>
+      </c>
+      <c r="E61" s="10">
+        <v>13149</v>
+      </c>
+      <c r="F61" s="11">
+        <v>13149</v>
+      </c>
+      <c r="G61" s="40">
+        <v>13149</v>
+      </c>
+      <c r="H61" s="41">
+        <v>0</v>
+      </c>
+      <c r="I61" s="42">
+        <v>0.28949999999999998</v>
+      </c>
+      <c r="N61" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="O61" s="12">
+        <v>1733819</v>
+      </c>
+      <c r="P61" s="42">
+        <v>1409.23</v>
+      </c>
+      <c r="Q61" s="81">
+        <v>1751823</v>
+      </c>
+      <c r="R61" s="82">
+        <v>1764178.6</v>
+      </c>
+      <c r="S61" s="77">
+        <v>1.7509999999999999</v>
+      </c>
+      <c r="T61" s="78">
+        <v>478.03</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="13">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="E16" s="21">
-        <v>2097170</v>
-      </c>
-      <c r="F16" s="34">
-        <v>6.19</v>
-      </c>
-      <c r="G16" s="17">
-        <v>2097170</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2101268.4</v>
-      </c>
-      <c r="I16" s="35">
-        <v>0.19542999999999999</v>
-      </c>
-      <c r="J16" s="34">
-        <v>1.6827000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="14" t="s">
+      <c r="D62" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>TRP-S50-R10</v>
+      </c>
+      <c r="E62" s="10">
+        <v>12892</v>
+      </c>
+      <c r="F62" s="11">
+        <v>12892</v>
+      </c>
+      <c r="G62" s="40">
+        <v>12892</v>
+      </c>
+      <c r="H62" s="41">
+        <v>0</v>
+      </c>
+      <c r="I62" s="42">
+        <v>0.32379999999999998</v>
+      </c>
+      <c r="N62" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="O62" s="12">
+        <v>1762741</v>
+      </c>
+      <c r="P62" s="42">
+        <v>1621.85</v>
+      </c>
+      <c r="Q62" s="81">
+        <v>1797515</v>
+      </c>
+      <c r="R62" s="82">
+        <v>1804639.1</v>
+      </c>
+      <c r="S62" s="77">
+        <v>2.3769</v>
+      </c>
+      <c r="T62" s="78">
+        <v>455.73</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="13">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="E17" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="F17" s="34">
-        <v>11.27</v>
-      </c>
-      <c r="G17" s="18">
-        <v>57986</v>
-      </c>
-      <c r="H17" s="7">
-        <v>58210.5</v>
-      </c>
-      <c r="I17" s="35">
-        <v>0.38716</v>
-      </c>
-      <c r="J17" s="34">
-        <v>2.1469999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="14" t="s">
+      <c r="D63" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>TRP-S50-R11</v>
+      </c>
+      <c r="E63" s="10">
+        <v>12103</v>
+      </c>
+      <c r="F63" s="11">
+        <v>12103</v>
+      </c>
+      <c r="G63" s="40">
+        <v>12106.2</v>
+      </c>
+      <c r="H63" s="41">
+        <v>2.6440000000000002E-2</v>
+      </c>
+      <c r="I63" s="42">
+        <v>0.29530000000000001</v>
+      </c>
+      <c r="N63" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="O63" s="12">
+        <v>1797881</v>
+      </c>
+      <c r="P63" s="42">
+        <v>1530.98</v>
+      </c>
+      <c r="Q63" s="81">
+        <v>1810796</v>
+      </c>
+      <c r="R63" s="82">
+        <v>1830966.2</v>
+      </c>
+      <c r="S63" s="77">
+        <v>1.8402000000000001</v>
+      </c>
+      <c r="T63" s="78">
+        <v>471.39</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="13">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="E18" s="21">
-        <v>983128</v>
-      </c>
-      <c r="F18" s="34">
-        <v>8.59</v>
-      </c>
-      <c r="G18" s="17">
-        <v>983128</v>
-      </c>
-      <c r="H18" s="7">
-        <v>992583.6</v>
-      </c>
-      <c r="I18" s="35">
-        <v>0.96179000000000003</v>
-      </c>
-      <c r="J18" s="34">
-        <v>2.2953999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="14" t="s">
+      <c r="D64" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>TRP-S50-R12</v>
+      </c>
+      <c r="E64" s="10">
+        <v>10633</v>
+      </c>
+      <c r="F64" s="11">
+        <v>10633</v>
+      </c>
+      <c r="G64" s="40">
+        <v>10633</v>
+      </c>
+      <c r="H64" s="41">
+        <v>0</v>
+      </c>
+      <c r="I64" s="42">
+        <v>0.3075</v>
+      </c>
+      <c r="N64" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="O64" s="12">
+        <v>1774452</v>
+      </c>
+      <c r="P64" s="42">
+        <v>1554.75</v>
+      </c>
+      <c r="Q64" s="81">
+        <v>1795137</v>
+      </c>
+      <c r="R64" s="82">
+        <v>1820156.2</v>
+      </c>
+      <c r="S64" s="77">
+        <v>2.5756999999999999</v>
+      </c>
+      <c r="T64" s="78">
+        <v>489.39</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="13">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="E19" s="21">
-        <v>986008</v>
-      </c>
-      <c r="F19" s="34">
-        <v>9.2100000000000009</v>
-      </c>
-      <c r="G19" s="17">
-        <v>986008</v>
-      </c>
-      <c r="H19" s="7">
-        <v>986008</v>
-      </c>
-      <c r="I19" s="35">
-        <v>0</v>
-      </c>
-      <c r="J19" s="34">
-        <v>2.16</v>
-      </c>
-    </row>
-    <row r="20" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="14" t="s">
+      <c r="D65" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>TRP-S50-R13</v>
+      </c>
+      <c r="E65" s="10">
+        <v>12115</v>
+      </c>
+      <c r="F65" s="11">
+        <v>12115</v>
+      </c>
+      <c r="G65" s="40">
+        <v>12115</v>
+      </c>
+      <c r="H65" s="41">
+        <v>0</v>
+      </c>
+      <c r="I65" s="42">
+        <v>0.29820000000000002</v>
+      </c>
+      <c r="N65" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="O65" s="12">
+        <v>1873699</v>
+      </c>
+      <c r="P65" s="42">
+        <v>1598.46</v>
+      </c>
+      <c r="Q65" s="81">
+        <v>1900017</v>
+      </c>
+      <c r="R65" s="82">
+        <v>1909468.8</v>
+      </c>
+      <c r="S65" s="77">
+        <v>1.9090472909469476</v>
+      </c>
+      <c r="T65" s="78">
+        <v>457.19</v>
+      </c>
+      <c r="V65" s="74"/>
+      <c r="W65" s="74"/>
+    </row>
+    <row r="66" spans="2:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="13">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="E20" s="21">
-        <v>961324</v>
-      </c>
-      <c r="F20" s="34">
-        <v>8.17</v>
-      </c>
-      <c r="G20" s="17">
-        <v>961324</v>
-      </c>
-      <c r="H20" s="7">
-        <v>961324</v>
-      </c>
-      <c r="I20" s="35">
-        <v>0</v>
-      </c>
-      <c r="J20" s="34">
-        <v>2.1156999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="14" t="s">
+      <c r="D66" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>TRP-S50-R14</v>
+      </c>
+      <c r="E66" s="10">
+        <v>13117</v>
+      </c>
+      <c r="F66" s="11">
+        <v>13117</v>
+      </c>
+      <c r="G66" s="40">
+        <v>13129</v>
+      </c>
+      <c r="H66" s="41">
+        <v>9.1483999999999996E-2</v>
+      </c>
+      <c r="I66" s="42">
+        <v>0.2893</v>
+      </c>
+      <c r="N66" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="O66" s="12">
+        <v>1799171</v>
+      </c>
+      <c r="P66" s="42">
+        <v>1701.9</v>
+      </c>
+      <c r="Q66" s="71">
+        <v>1822190</v>
+      </c>
+      <c r="R66" s="40">
+        <v>1829656</v>
+      </c>
+      <c r="S66" s="41">
+        <v>1.6943914725170646</v>
+      </c>
+      <c r="T66" s="42">
+        <v>460.45</v>
+      </c>
+      <c r="V66" s="74"/>
+      <c r="W66" s="74"/>
+    </row>
+    <row r="67" spans="2:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="13">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="E21" s="21">
-        <v>976965</v>
-      </c>
-      <c r="F21" s="34">
-        <v>8.4600000000000009</v>
-      </c>
-      <c r="G21" s="17">
-        <v>976965</v>
-      </c>
-      <c r="H21" s="7">
-        <v>977748.3</v>
-      </c>
-      <c r="I21" s="35">
-        <v>8.0176999999999998E-2</v>
-      </c>
-      <c r="J21" s="34">
-        <v>2.0981000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="14" t="s">
+      <c r="D67" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>TRP-S50-R15</v>
+      </c>
+      <c r="E67" s="10">
+        <v>11986</v>
+      </c>
+      <c r="F67" s="11">
+        <v>11986</v>
+      </c>
+      <c r="G67" s="40">
+        <v>11986</v>
+      </c>
+      <c r="H67" s="41">
+        <v>0</v>
+      </c>
+      <c r="I67" s="42">
+        <v>0.32050000000000001</v>
+      </c>
+      <c r="N67" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="O67" s="12">
+        <v>1791145</v>
+      </c>
+      <c r="P67" s="42">
+        <v>1623.79</v>
+      </c>
+      <c r="Q67" s="71">
+        <v>1801765</v>
+      </c>
+      <c r="R67" s="40">
+        <v>1823544</v>
+      </c>
+      <c r="S67" s="41">
+        <v>1.8088429468301002</v>
+      </c>
+      <c r="T67" s="42">
+        <v>476.89</v>
+      </c>
+      <c r="V67" s="74"/>
+      <c r="W67" s="74"/>
+    </row>
+    <row r="68" spans="2:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="13">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="E22" s="21">
-        <v>971266</v>
-      </c>
-      <c r="F22" s="34">
-        <v>8.31</v>
-      </c>
-      <c r="G22" s="17">
-        <v>971266</v>
-      </c>
-      <c r="H22" s="7">
-        <v>971354.3</v>
-      </c>
-      <c r="I22" s="35">
-        <v>9.0912000000000007E-3</v>
-      </c>
-      <c r="J22" s="34">
-        <v>2.0272999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="14" t="s">
+      <c r="D68" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>TRP-S50-R16</v>
+      </c>
+      <c r="E68" s="10">
+        <v>12138</v>
+      </c>
+      <c r="F68" s="11">
+        <v>12138</v>
+      </c>
+      <c r="G68" s="40">
+        <v>12138</v>
+      </c>
+      <c r="H68" s="41">
+        <v>0</v>
+      </c>
+      <c r="I68" s="42">
+        <v>0.3095</v>
+      </c>
+      <c r="N68" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="O68" s="12">
+        <v>1810188</v>
+      </c>
+      <c r="P68" s="42">
+        <v>1583.7</v>
+      </c>
+      <c r="Q68" s="71">
+        <v>1834573</v>
+      </c>
+      <c r="R68" s="40">
+        <v>1840784</v>
+      </c>
+      <c r="S68" s="41">
+        <v>1.6902111824849131</v>
+      </c>
+      <c r="T68" s="42">
+        <v>451.12</v>
+      </c>
+      <c r="V68" s="74"/>
+      <c r="W68" s="74"/>
+    </row>
+    <row r="69" spans="2:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="13">
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="E23" s="21">
-        <v>340047</v>
-      </c>
-      <c r="F23" s="34">
-        <v>8.52</v>
-      </c>
-      <c r="G23" s="17">
-        <v>340047</v>
-      </c>
-      <c r="H23" s="7">
-        <v>340578.6</v>
-      </c>
-      <c r="I23" s="35">
-        <v>0.15633</v>
-      </c>
-      <c r="J23" s="34">
-        <v>1.9510000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="14" t="s">
+      <c r="D69" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>TRP-S50-R17</v>
+      </c>
+      <c r="E69" s="10">
+        <v>12176</v>
+      </c>
+      <c r="F69" s="11">
+        <v>12176</v>
+      </c>
+      <c r="G69" s="40">
+        <v>12205.4</v>
+      </c>
+      <c r="H69" s="41">
+        <v>0.24146000000000001</v>
+      </c>
+      <c r="I69" s="42">
+        <v>0.32779999999999998</v>
+      </c>
+      <c r="N69" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="O69" s="12">
+        <v>1825748</v>
+      </c>
+      <c r="P69" s="42">
+        <v>1549.8</v>
+      </c>
+      <c r="Q69" s="71">
+        <v>1857894</v>
+      </c>
+      <c r="R69" s="40">
+        <v>1871635</v>
+      </c>
+      <c r="S69" s="41">
+        <v>2.5133260449963521</v>
+      </c>
+      <c r="T69" s="42">
+        <v>488.32</v>
+      </c>
+      <c r="V69" s="74"/>
+      <c r="W69" s="74"/>
+    </row>
+    <row r="70" spans="2:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="13">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="E24" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="F24" s="34">
-        <v>12.76</v>
-      </c>
-      <c r="G24" s="18">
-        <v>27519</v>
-      </c>
-      <c r="H24" s="7">
-        <v>27716.9</v>
-      </c>
-      <c r="I24" s="35">
-        <v>0.74109999999999998</v>
-      </c>
-      <c r="J24" s="34">
-        <v>2.0960000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="4:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="14" t="s">
+      <c r="D70" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>TRP-S50-R18</v>
+      </c>
+      <c r="E70" s="10">
+        <v>13357</v>
+      </c>
+      <c r="F70" s="11">
+        <v>13357</v>
+      </c>
+      <c r="G70" s="40">
+        <v>13420.4</v>
+      </c>
+      <c r="H70" s="41">
+        <v>0.47466000000000003</v>
+      </c>
+      <c r="I70" s="42">
+        <v>0.30780000000000002</v>
+      </c>
+      <c r="N70" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="O70" s="12">
+        <v>1826263</v>
+      </c>
+      <c r="P70" s="42">
+        <v>1620.02</v>
+      </c>
+      <c r="Q70" s="71">
+        <v>1864287</v>
+      </c>
+      <c r="R70" s="40">
+        <v>1876765</v>
+      </c>
+      <c r="S70" s="41">
+        <v>2.7653191243539399</v>
+      </c>
+      <c r="T70" s="42">
+        <v>497.81</v>
+      </c>
+      <c r="V70" s="74"/>
+      <c r="W70" s="74"/>
+    </row>
+    <row r="71" spans="2:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="13">
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="E25" s="21">
-        <v>603910</v>
-      </c>
-      <c r="F25" s="34">
-        <v>8.42</v>
-      </c>
-      <c r="G25" s="17">
-        <v>603910</v>
-      </c>
-      <c r="H25" s="7">
-        <v>603910</v>
-      </c>
-      <c r="I25" s="35">
-        <v>0</v>
-      </c>
-      <c r="J25" s="34">
-        <v>2.3609</v>
-      </c>
-    </row>
-    <row r="26" spans="4:10" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="15" t="s">
+      <c r="D71" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>TRP-S50-R19</v>
+      </c>
+      <c r="E71" s="10">
+        <v>11430</v>
+      </c>
+      <c r="F71" s="11">
+        <v>11430</v>
+      </c>
+      <c r="G71" s="40">
+        <v>11430</v>
+      </c>
+      <c r="H71" s="41">
+        <v>0</v>
+      </c>
+      <c r="I71" s="42">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="N71" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="O71" s="12">
+        <v>1779248</v>
+      </c>
+      <c r="P71" s="42">
+        <v>1602.87</v>
+      </c>
+      <c r="Q71" s="71">
+        <v>1825407</v>
+      </c>
+      <c r="R71" s="40">
+        <v>1828812</v>
+      </c>
+      <c r="S71" s="41">
+        <v>2.7856712498763523</v>
+      </c>
+      <c r="T71" s="42">
+        <v>501.49</v>
+      </c>
+      <c r="V71" s="74"/>
+      <c r="W71" s="74"/>
+    </row>
+    <row r="72" spans="2:23" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="13">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="E26" s="23">
-        <v>2026626</v>
-      </c>
-      <c r="F26" s="36">
-        <v>10.89</v>
-      </c>
-      <c r="G26" s="19">
-        <v>2026626</v>
-      </c>
-      <c r="H26" s="9">
-        <v>2026626</v>
-      </c>
-      <c r="I26" s="37">
-        <v>0</v>
-      </c>
-      <c r="J26" s="36">
-        <v>2.6560999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="4:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="D72" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v>TRP-S50-R20</v>
+      </c>
+      <c r="E72" s="67">
+        <v>11935</v>
+      </c>
+      <c r="F72" s="63">
+        <v>11935</v>
+      </c>
+      <c r="G72" s="54">
+        <v>11937.7</v>
+      </c>
+      <c r="H72" s="55">
+        <v>2.2623000000000001E-2</v>
+      </c>
+      <c r="I72" s="53">
+        <v>0.30020000000000002</v>
+      </c>
+      <c r="N72" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="O72" s="69">
+        <v>1820813</v>
+      </c>
+      <c r="P72" s="53">
+        <v>1507.96</v>
+      </c>
+      <c r="Q72" s="72">
+        <v>1847916</v>
+      </c>
+      <c r="R72" s="54">
+        <v>1849547</v>
+      </c>
+      <c r="S72" s="55">
+        <v>1.5780862724508227</v>
+      </c>
+      <c r="T72" s="53">
+        <v>455.57</v>
+      </c>
+      <c r="V72" s="74"/>
+      <c r="W72" s="74"/>
+    </row>
+    <row r="73" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="S73" s="73"/>
+    </row>
+    <row r="89" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D89" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E89" s="13">
+        <v>1303</v>
+      </c>
+      <c r="F89" s="13">
+        <v>3175</v>
+      </c>
+      <c r="G89" s="13">
+        <v>12.198</v>
+      </c>
+    </row>
+    <row r="90" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D90" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E90" s="13">
+        <v>1517</v>
+      </c>
+      <c r="F90" s="13">
+        <v>3248</v>
+      </c>
+      <c r="G90" s="13">
+        <v>11.621</v>
+      </c>
+    </row>
+    <row r="91" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D91" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E91" s="13">
+        <v>1233</v>
+      </c>
+      <c r="F91" s="13">
+        <v>3570</v>
+      </c>
+      <c r="G91" s="13">
+        <v>12.138999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D92" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E92" s="13">
+        <v>1386</v>
+      </c>
+      <c r="F92" s="13">
+        <v>2983</v>
+      </c>
+      <c r="G92" s="13">
+        <v>13.071</v>
+      </c>
+    </row>
+    <row r="93" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D93" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E93" s="13">
+        <v>978</v>
+      </c>
+      <c r="F93" s="13">
+        <v>3248</v>
+      </c>
+      <c r="G93" s="13">
+        <v>12.125999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D94" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E94" s="13">
+        <v>1477</v>
+      </c>
+      <c r="F94" s="13">
+        <v>3328</v>
+      </c>
+      <c r="G94" s="13">
+        <v>12.683999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D95" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E95" s="13">
+        <v>1163</v>
+      </c>
+      <c r="F95" s="13">
+        <v>2809</v>
+      </c>
+      <c r="G95" s="13">
+        <v>11.176</v>
+      </c>
+    </row>
+    <row r="96" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D96" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E96" s="13">
+        <v>1234</v>
+      </c>
+      <c r="F96" s="13">
+        <v>3461</v>
+      </c>
+      <c r="G96" s="13">
+        <v>12.91</v>
+      </c>
+    </row>
+    <row r="97" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D97" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E97" s="13">
+        <v>1402</v>
+      </c>
+      <c r="F97" s="13">
+        <v>3475</v>
+      </c>
+      <c r="G97" s="13">
+        <v>13.148999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D98" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E98" s="13">
+        <v>1388</v>
+      </c>
+      <c r="F98" s="13">
+        <v>3359</v>
+      </c>
+      <c r="G98" s="13">
+        <v>12.891999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D99" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E99" s="13">
+        <v>1405</v>
+      </c>
+      <c r="F99" s="13">
+        <v>2916</v>
+      </c>
+      <c r="G99" s="13">
+        <v>12.103</v>
+      </c>
+    </row>
+    <row r="100" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D100" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E100" s="13">
+        <v>1150</v>
+      </c>
+      <c r="F100" s="13">
+        <v>3314</v>
+      </c>
+      <c r="G100" s="13">
+        <v>10.632999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D101" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E101" s="13">
+        <v>1531</v>
+      </c>
+      <c r="F101" s="13">
+        <v>3412</v>
+      </c>
+      <c r="G101" s="13">
+        <v>12.115</v>
+      </c>
+    </row>
+    <row r="102" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D102" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E102" s="13">
+        <v>1219</v>
+      </c>
+      <c r="F102" s="13">
+        <v>3297</v>
+      </c>
+      <c r="G102" s="13">
+        <v>13.117000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D103" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E103" s="13">
+        <v>1087</v>
+      </c>
+      <c r="F103" s="13">
+        <v>2862</v>
+      </c>
+      <c r="G103" s="13">
+        <v>11.986000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D104" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E104" s="13">
+        <v>1264</v>
+      </c>
+      <c r="F104" s="13">
+        <v>3433</v>
+      </c>
+      <c r="G104" s="13">
+        <v>12.138</v>
+      </c>
+    </row>
+    <row r="105" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D105" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E105" s="13">
+        <v>1058</v>
+      </c>
+      <c r="F105" s="13">
+        <v>2913</v>
+      </c>
+      <c r="G105" s="13">
+        <v>12.176</v>
+      </c>
+    </row>
+    <row r="106" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D106" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E106" s="13">
+        <v>1083</v>
+      </c>
+      <c r="F106" s="13">
+        <v>3124</v>
+      </c>
+      <c r="G106" s="13">
+        <v>13.356999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D107" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E107" s="13">
+        <v>1394</v>
+      </c>
+      <c r="F107" s="13">
+        <v>3299</v>
+      </c>
+      <c r="G107" s="13">
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="108" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D108" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E108" s="13">
+        <v>951</v>
+      </c>
+      <c r="F108" s="13">
+        <v>2796</v>
+      </c>
+      <c r="G108" s="13">
+        <v>11.935</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:J3"/>
+  <mergeCells count="14">
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tabele/prvaTabela.xlsx
+++ b/tabele/prvaTabela.xlsx
@@ -684,7 +684,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1232,31 +1232,10 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1402,7 +1381,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1425,6 +1404,27 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1733,64 +1733,64 @@
         <v>108</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="82"/>
       <c r="K2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="20" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="9">
         <v>12528</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="28">
         <v>0.16</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="31">
         <v>12528</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="26">
         <v>12528</v>
       </c>
-      <c r="H4" s="34">
-        <v>0</v>
-      </c>
-      <c r="I4" s="35">
+      <c r="H4" s="27">
+        <v>0</v>
+      </c>
+      <c r="I4" s="28">
         <v>0.2064</v>
       </c>
       <c r="K4" s="3">
@@ -1807,25 +1807,25 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="36" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="11">
         <v>22327</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="35">
         <v>0.16</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="37">
         <v>22327</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="33">
         <v>22327</v>
       </c>
-      <c r="H5" s="41">
-        <v>0</v>
-      </c>
-      <c r="I5" s="42">
+      <c r="H5" s="34">
+        <v>0</v>
+      </c>
+      <c r="I5" s="35">
         <v>0.2039</v>
       </c>
       <c r="K5" s="3">
@@ -1842,25 +1842,25 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="36" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="11">
         <v>209320</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="35">
         <v>0.32</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="37">
         <v>209320</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="33">
         <v>209320</v>
       </c>
-      <c r="H6" s="41">
-        <v>0</v>
-      </c>
-      <c r="I6" s="42">
+      <c r="H6" s="34">
+        <v>0</v>
+      </c>
+      <c r="I6" s="35">
         <v>0.28689999999999999</v>
       </c>
       <c r="K6" s="3">
@@ -1877,25 +1877,25 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="36" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="11">
         <v>102378</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="35">
         <v>0.33</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="37">
         <v>102378</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="33">
         <v>102378</v>
       </c>
-      <c r="H7" s="41">
-        <v>0</v>
-      </c>
-      <c r="I7" s="42">
+      <c r="H7" s="34">
+        <v>0</v>
+      </c>
+      <c r="I7" s="35">
         <v>0.2717</v>
       </c>
       <c r="K7" s="3">
@@ -1912,25 +1912,25 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="36" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="11">
         <v>247926</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="35">
         <v>0.3</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="37">
         <v>247926</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="33">
         <v>248068.7</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="34">
         <v>5.7556999999999997E-2</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="35">
         <v>0.25650000000000001</v>
       </c>
       <c r="K8" s="3">
@@ -1947,25 +1947,25 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="36" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="11">
         <v>10178</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="35">
         <v>0.49</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="37">
         <v>10178</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="33">
         <v>10248.5</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="34">
         <v>0.69267000000000001</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="35">
         <v>0.2944</v>
       </c>
       <c r="K9" s="3">
@@ -1982,25 +1982,25 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="36" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="11">
         <v>143721</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="35">
         <v>0.46</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="37">
         <v>143721</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="33">
         <v>143862.9</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="34">
         <v>9.8733000000000001E-2</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="35">
         <v>0.33289999999999997</v>
       </c>
       <c r="K10" s="3">
@@ -2017,25 +2017,25 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="36" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="11">
         <v>512361</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="35">
         <v>0.78</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="37">
         <v>512361</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="33">
         <v>512361</v>
       </c>
-      <c r="H11" s="41">
-        <v>0</v>
-      </c>
-      <c r="I11" s="42">
+      <c r="H11" s="34">
+        <v>0</v>
+      </c>
+      <c r="I11" s="35">
         <v>0.4587</v>
       </c>
       <c r="K11" s="3">
@@ -2052,25 +2052,25 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="11">
         <v>20557</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="35">
         <v>1.65</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="37">
         <v>20557</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="33">
         <v>20557</v>
       </c>
-      <c r="H12" s="41">
-        <v>0</v>
-      </c>
-      <c r="I12" s="42">
+      <c r="H12" s="34">
+        <v>0</v>
+      </c>
+      <c r="I12" s="35">
         <v>0.70130000000000003</v>
       </c>
       <c r="K12" s="3">
@@ -2087,25 +2087,25 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="36" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="11">
         <v>17976</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="35">
         <v>2.64</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="37">
         <v>17976</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="33">
         <v>18069.5</v>
       </c>
-      <c r="H13" s="41">
+      <c r="H13" s="34">
         <v>0.52014000000000005</v>
       </c>
-      <c r="I13" s="42">
+      <c r="I13" s="35">
         <v>0.87119999999999997</v>
       </c>
       <c r="K13" s="3">
@@ -2122,25 +2122,25 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="11">
         <v>3455242</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="35">
         <v>2.31</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="37">
         <v>3455242</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="33">
         <v>3459378.2</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="34">
         <v>0.11971</v>
       </c>
-      <c r="I14" s="42">
+      <c r="I14" s="35">
         <v>0.93810000000000004</v>
       </c>
       <c r="K14" s="3">
@@ -2157,25 +2157,25 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="36" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="11">
         <v>2097170</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="35">
         <v>6.19</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="37">
         <v>2097170</v>
       </c>
-      <c r="G15" s="40">
+      <c r="G15" s="33">
         <v>2101268.4</v>
       </c>
-      <c r="H15" s="41">
+      <c r="H15" s="34">
         <v>0.19542999999999999</v>
       </c>
-      <c r="I15" s="42">
+      <c r="I15" s="35">
         <v>1.6827000000000001</v>
       </c>
       <c r="K15" s="3">
@@ -2192,25 +2192,25 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="35">
         <v>11.27</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16" s="39">
         <v>57986</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="33">
         <v>58210.5</v>
       </c>
-      <c r="H16" s="41">
+      <c r="H16" s="34">
         <v>0.38716</v>
       </c>
-      <c r="I16" s="42">
+      <c r="I16" s="35">
         <v>2.1469999999999998</v>
       </c>
       <c r="K16" s="3">
@@ -2227,25 +2227,25 @@
       </c>
     </row>
     <row r="17" spans="3:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="36" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="11">
         <v>983128</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="35">
         <v>8.59</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="37">
         <v>983128</v>
       </c>
-      <c r="G17" s="40">
+      <c r="G17" s="33">
         <v>992583.6</v>
       </c>
-      <c r="H17" s="41">
+      <c r="H17" s="34">
         <v>0.96179000000000003</v>
       </c>
-      <c r="I17" s="42">
+      <c r="I17" s="35">
         <v>2.2953999999999999</v>
       </c>
       <c r="K17" s="3">
@@ -2262,25 +2262,25 @@
       </c>
     </row>
     <row r="18" spans="3:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="36" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="11">
         <v>986008</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="35">
         <v>9.2100000000000009</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="37">
         <v>986008</v>
       </c>
-      <c r="G18" s="40">
+      <c r="G18" s="33">
         <v>986008</v>
       </c>
-      <c r="H18" s="41">
-        <v>0</v>
-      </c>
-      <c r="I18" s="42">
+      <c r="H18" s="34">
+        <v>0</v>
+      </c>
+      <c r="I18" s="35">
         <v>2.16</v>
       </c>
       <c r="K18" s="3">
@@ -2297,25 +2297,25 @@
       </c>
     </row>
     <row r="19" spans="3:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="11">
         <v>961324</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="35">
         <v>8.17</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="37">
         <v>961324</v>
       </c>
-      <c r="G19" s="40">
+      <c r="G19" s="33">
         <v>961324</v>
       </c>
-      <c r="H19" s="41">
-        <v>0</v>
-      </c>
-      <c r="I19" s="42">
+      <c r="H19" s="34">
+        <v>0</v>
+      </c>
+      <c r="I19" s="35">
         <v>2.1156999999999999</v>
       </c>
       <c r="K19" s="3">
@@ -2332,25 +2332,25 @@
       </c>
     </row>
     <row r="20" spans="3:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="36" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="11">
         <v>976965</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="35">
         <v>8.4600000000000009</v>
       </c>
-      <c r="F20" s="44">
+      <c r="F20" s="37">
         <v>976965</v>
       </c>
-      <c r="G20" s="40">
+      <c r="G20" s="33">
         <v>977748.3</v>
       </c>
-      <c r="H20" s="41">
+      <c r="H20" s="34">
         <v>8.0176999999999998E-2</v>
       </c>
-      <c r="I20" s="42">
+      <c r="I20" s="35">
         <v>2.0981000000000001</v>
       </c>
       <c r="K20" s="3">
@@ -2367,25 +2367,25 @@
       </c>
     </row>
     <row r="21" spans="3:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="11">
         <v>971266</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="35">
         <v>8.31</v>
       </c>
-      <c r="F21" s="44">
+      <c r="F21" s="37">
         <v>971266</v>
       </c>
-      <c r="G21" s="40">
+      <c r="G21" s="33">
         <v>971354.3</v>
       </c>
-      <c r="H21" s="41">
+      <c r="H21" s="34">
         <v>9.0912000000000007E-3</v>
       </c>
-      <c r="I21" s="42">
+      <c r="I21" s="35">
         <v>2.0272999999999999</v>
       </c>
       <c r="K21" s="3">
@@ -2402,25 +2402,25 @@
       </c>
     </row>
     <row r="22" spans="3:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="36" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="11">
         <v>340047</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="35">
         <v>8.52</v>
       </c>
-      <c r="F22" s="44">
+      <c r="F22" s="37">
         <v>340047</v>
       </c>
-      <c r="G22" s="40">
+      <c r="G22" s="33">
         <v>340578.6</v>
       </c>
-      <c r="H22" s="41">
+      <c r="H22" s="34">
         <v>0.15633</v>
       </c>
-      <c r="I22" s="42">
+      <c r="I22" s="35">
         <v>1.9510000000000001</v>
       </c>
       <c r="K22" s="3">
@@ -2437,25 +2437,25 @@
       </c>
     </row>
     <row r="23" spans="3:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="D23" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="35">
         <v>12.76</v>
       </c>
-      <c r="F23" s="46">
+      <c r="F23" s="39">
         <v>27519</v>
       </c>
-      <c r="G23" s="40">
+      <c r="G23" s="33">
         <v>27716.9</v>
       </c>
-      <c r="H23" s="41">
+      <c r="H23" s="34">
         <v>0.74109999999999998</v>
       </c>
-      <c r="I23" s="42">
+      <c r="I23" s="35">
         <v>2.0960000000000001</v>
       </c>
       <c r="K23" s="3">
@@ -2472,25 +2472,25 @@
       </c>
     </row>
     <row r="24" spans="3:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="36" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="11">
         <v>603910</v>
       </c>
-      <c r="E24" s="42">
+      <c r="E24" s="35">
         <v>8.42</v>
       </c>
-      <c r="F24" s="44">
+      <c r="F24" s="37">
         <v>603910</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="33">
         <v>603910</v>
       </c>
-      <c r="H24" s="41">
-        <v>0</v>
-      </c>
-      <c r="I24" s="42">
+      <c r="H24" s="34">
+        <v>0</v>
+      </c>
+      <c r="I24" s="35">
         <v>2.3609</v>
       </c>
       <c r="K24" s="3">
@@ -2507,25 +2507,25 @@
       </c>
     </row>
     <row r="25" spans="3:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="63">
+      <c r="D25" s="56">
         <v>2026626</v>
       </c>
-      <c r="E25" s="53">
+      <c r="E25" s="46">
         <v>10.89</v>
       </c>
-      <c r="F25" s="64">
+      <c r="F25" s="57">
         <v>2026626</v>
       </c>
-      <c r="G25" s="54">
+      <c r="G25" s="47">
         <v>2026626</v>
       </c>
-      <c r="H25" s="55">
-        <v>0</v>
-      </c>
-      <c r="I25" s="53">
+      <c r="H25" s="48">
+        <v>0</v>
+      </c>
+      <c r="I25" s="46">
         <v>2.6560999999999999</v>
       </c>
       <c r="K25" s="3">
@@ -2560,7 +2560,7 @@
   <dimension ref="C3:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="C4" sqref="C4:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2575,61 +2575,61 @@
   <sheetData>
     <row r="3" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:19" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="20"/>
-      <c r="D4" s="21" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="17" t="s">
+      <c r="E4" s="84"/>
+      <c r="F4" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="82"/>
     </row>
     <row r="5" spans="3:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="20" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="6" spans="3:19" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="85">
+      <c r="D6" s="78">
         <v>19215</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="28">
         <v>1.51</v>
       </c>
-      <c r="F6" s="86">
+      <c r="F6" s="79">
         <v>19710</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="26">
         <v>19751</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="27">
         <v>2.7930999999999999</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="28">
         <v>0.59450000000000003</v>
       </c>
       <c r="N6" t="s">
@@ -2652,25 +2652,25 @@
       </c>
     </row>
     <row r="7" spans="3:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="38">
         <v>54984</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="35">
         <v>9.4700000000000006</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="39">
         <v>56573</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="33">
         <v>56862</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="34">
         <v>3.4163999999999999</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="35">
         <v>1.7714000000000001</v>
       </c>
       <c r="N7" t="s">
@@ -2693,25 +2693,25 @@
       </c>
     </row>
     <row r="8" spans="3:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="38">
         <v>949594</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="35">
         <v>6.9</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="39">
         <v>951609</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="33">
         <v>951944</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="34">
         <v>0.24754999999999999</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="35">
         <v>1.7016</v>
       </c>
       <c r="N8" t="s">
@@ -2734,25 +2734,25 @@
       </c>
     </row>
     <row r="9" spans="3:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="38">
         <v>585823</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="35">
         <v>6.19</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="39">
         <v>586751</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="33">
         <v>586751</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="34">
         <v>0.15841</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="35">
         <v>1.7516</v>
       </c>
       <c r="N9" t="s">
@@ -2775,25 +2775,25 @@
       </c>
     </row>
     <row r="10" spans="3:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="38">
         <v>1980767</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="35">
         <v>8.1300000000000008</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="39">
         <v>1981991</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="33">
         <v>1981995</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="34">
         <v>6.2042E-2</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="35">
         <v>2.1337999999999999</v>
       </c>
       <c r="N10" t="s">
@@ -2816,25 +2816,25 @@
       </c>
     </row>
     <row r="11" spans="3:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="38">
         <v>210191</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="35">
         <v>75.56</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="39">
         <v>217104</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="33">
         <v>218160</v>
       </c>
-      <c r="H11" s="41">
+      <c r="H11" s="34">
         <v>3.7915999999999999</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="35">
         <v>13.535</v>
       </c>
       <c r="N11" t="s">
@@ -2857,25 +2857,25 @@
       </c>
     </row>
     <row r="12" spans="3:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="38">
         <v>7100308</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="35">
         <v>59.05</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="39">
         <v>7118051</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="33">
         <v>7118796</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H12" s="34">
         <v>0.26039000000000001</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12" s="35">
         <v>25.771000000000001</v>
       </c>
       <c r="N12" t="s">
@@ -2898,25 +2898,25 @@
       </c>
     </row>
     <row r="13" spans="3:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="38">
         <v>5560679</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="35">
         <v>220.59</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="39">
         <v>5569520</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="33">
         <v>5613412</v>
       </c>
-      <c r="H13" s="41">
+      <c r="H13" s="34">
         <v>0.94833000000000001</v>
       </c>
-      <c r="I13" s="42">
+      <c r="I13" s="35">
         <v>79.346999999999994</v>
       </c>
       <c r="N13" t="s">
@@ -2939,25 +2939,25 @@
       </c>
     </row>
     <row r="14" spans="3:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="38">
         <v>17688561</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="35">
         <v>553.74</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="39">
         <v>17800061</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="33">
         <v>17855062</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="34">
         <v>0.94128999999999996</v>
       </c>
-      <c r="I14" s="42">
+      <c r="I14" s="35">
         <v>246.79</v>
       </c>
       <c r="N14" t="s">
@@ -2980,27 +2980,27 @@
       </c>
     </row>
     <row r="15" spans="3:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="76" t="s">
         <v>203</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="41">
         <v>5581240</v>
       </c>
-      <c r="E15" s="51">
+      <c r="E15" s="44">
         <v>1792.61</v>
       </c>
-      <c r="F15" s="87">
+      <c r="F15" s="80">
         <v>5652178</v>
       </c>
-      <c r="G15" s="49">
+      <c r="G15" s="42">
         <v>5691485</v>
       </c>
-      <c r="H15" s="50">
+      <c r="H15" s="43">
         <f>(G15-D15)/D15*100</f>
         <v>1.9752778952347509</v>
       </c>
-      <c r="I15" s="51">
-        <v>0.87119999999999997</v>
+      <c r="I15" s="44">
+        <v>601.87120000000004</v>
       </c>
       <c r="N15" t="s">
         <v>203</v>
@@ -3022,33 +3022,33 @@
       </c>
     </row>
     <row r="16" spans="3:19" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
     </row>
     <row r="17" spans="3:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="60"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
     </row>
     <row r="18" spans="3:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="60"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="84">
+      <c r="C18" s="53"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="77">
         <v>19710</v>
       </c>
-      <c r="I18" s="84">
+      <c r="I18" s="77">
         <v>19751</v>
       </c>
       <c r="J18" s="5">
@@ -3059,15 +3059,15 @@
       </c>
     </row>
     <row r="19" spans="3:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="60"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="84">
+      <c r="C19" s="53"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="77">
         <v>56573</v>
       </c>
-      <c r="I19" s="84">
+      <c r="I19" s="77">
         <v>56862</v>
       </c>
       <c r="J19" s="5">
@@ -3078,15 +3078,15 @@
       </c>
     </row>
     <row r="20" spans="3:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="60"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="84">
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="77">
         <v>951609</v>
       </c>
-      <c r="I20" s="84">
+      <c r="I20" s="77">
         <v>951944</v>
       </c>
       <c r="J20" s="5">
@@ -3097,15 +3097,15 @@
       </c>
     </row>
     <row r="21" spans="3:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="60"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="84">
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="77">
         <v>586751</v>
       </c>
-      <c r="I21" s="84">
+      <c r="I21" s="77">
         <v>586751</v>
       </c>
       <c r="J21" s="5">
@@ -3116,15 +3116,15 @@
       </c>
     </row>
     <row r="22" spans="3:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="60"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="84">
+      <c r="C22" s="53"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="77">
         <v>1981991</v>
       </c>
-      <c r="I22" s="84">
+      <c r="I22" s="77">
         <v>1981995</v>
       </c>
       <c r="J22" s="5">
@@ -3135,15 +3135,15 @@
       </c>
     </row>
     <row r="23" spans="3:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="60"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="84">
+      <c r="C23" s="53"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="77">
         <v>217104</v>
       </c>
-      <c r="I23" s="84">
+      <c r="I23" s="77">
         <v>218160</v>
       </c>
       <c r="J23" s="5">
@@ -3154,15 +3154,15 @@
       </c>
     </row>
     <row r="24" spans="3:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="60"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="84">
+      <c r="C24" s="53"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="77">
         <v>7118051</v>
       </c>
-      <c r="I24" s="84">
+      <c r="I24" s="77">
         <v>7118796</v>
       </c>
       <c r="J24" s="5">
@@ -3173,15 +3173,15 @@
       </c>
     </row>
     <row r="25" spans="3:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="60"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="84">
+      <c r="C25" s="53"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="77">
         <v>5569520</v>
       </c>
-      <c r="I25" s="84">
+      <c r="I25" s="77">
         <v>5613412</v>
       </c>
       <c r="J25" s="5">
@@ -3192,15 +3192,15 @@
       </c>
     </row>
     <row r="26" spans="3:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="60"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="84">
+      <c r="C26" s="53"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="77">
         <v>17800061</v>
       </c>
-      <c r="I26" s="84">
+      <c r="I26" s="77">
         <v>17855062</v>
       </c>
       <c r="J26" s="5">
@@ -3211,13 +3211,13 @@
       </c>
     </row>
     <row r="27" spans="3:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="60"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6278,7 +6278,7 @@
     </row>
     <row r="134" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F134" s="6">
-        <f t="shared" ref="F115:F134" si="0">F113-K113</f>
+        <f t="shared" ref="F134" si="0">F113-K113</f>
         <v>0</v>
       </c>
     </row>
@@ -6693,103 +6693,103 @@
   <sheetData>
     <row r="2" spans="4:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:29" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="21" t="s">
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="14"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="17" t="s">
+      <c r="P3" s="84"/>
+      <c r="Q3" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="18"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="21" t="s">
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="82"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="17" t="s">
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="18"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="82"/>
     </row>
     <row r="4" spans="4:29" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="N4" s="23" t="s">
+      <c r="J4" s="21"/>
+      <c r="N4" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="O4" s="29" t="s">
+      <c r="O4" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="P4" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="Q4" s="31" t="s">
+      <c r="Q4" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="R4" s="26" t="s">
+      <c r="R4" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="S4" s="26" t="s">
+      <c r="S4" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="T4" s="27" t="s">
+      <c r="T4" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="W4" s="23" t="s">
+      <c r="W4" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="X4" s="29" t="s">
+      <c r="X4" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="Y4" s="30" t="s">
+      <c r="Y4" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="Z4" s="31" t="s">
+      <c r="Z4" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="AA4" s="26" t="s">
+      <c r="AA4" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="AB4" s="26" t="s">
+      <c r="AB4" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="AC4" s="27" t="s">
+      <c r="AC4" s="20" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="5" spans="4:29" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="25" t="s">
         <v>151</v>
       </c>
       <c r="E5" s="8">
@@ -6798,47 +6798,47 @@
       <c r="F5" s="9">
         <v>1303</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="26">
         <v>1303</v>
       </c>
-      <c r="H5" s="34">
-        <v>0</v>
-      </c>
-      <c r="I5" s="35">
+      <c r="H5" s="27">
+        <v>0</v>
+      </c>
+      <c r="I5" s="28">
         <v>0.04</v>
       </c>
-      <c r="J5" s="36"/>
-      <c r="N5" s="37" t="s">
+      <c r="J5" s="29"/>
+      <c r="N5" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="68">
+      <c r="O5" s="61">
         <v>32779</v>
       </c>
-      <c r="P5" s="35">
+      <c r="P5" s="28">
         <v>7.05</v>
       </c>
-      <c r="Q5" s="70">
+      <c r="Q5" s="63">
         <v>32779</v>
       </c>
-      <c r="R5" s="33">
+      <c r="R5" s="26">
         <v>32787.800000000003</v>
       </c>
-      <c r="S5" s="34">
+      <c r="S5" s="27">
         <v>2.6845999999999998E-2</v>
       </c>
-      <c r="T5" s="35">
+      <c r="T5" s="28">
         <v>1.8647</v>
       </c>
-      <c r="W5" s="37"/>
+      <c r="W5" s="30"/>
       <c r="X5" s="9"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="35"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="28"/>
     </row>
     <row r="6" spans="4:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="32" t="s">
         <v>152</v>
       </c>
       <c r="E6" s="10">
@@ -6847,47 +6847,47 @@
       <c r="F6" s="11">
         <v>1517</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="33">
         <v>1517</v>
       </c>
-      <c r="H6" s="41">
-        <v>0</v>
-      </c>
-      <c r="I6" s="42">
+      <c r="H6" s="34">
+        <v>0</v>
+      </c>
+      <c r="I6" s="35">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="N6" s="43" t="s">
+      <c r="J6" s="29"/>
+      <c r="N6" s="36" t="s">
         <v>48</v>
       </c>
       <c r="O6" s="12">
         <v>33435</v>
       </c>
-      <c r="P6" s="42">
+      <c r="P6" s="35">
         <v>7.51</v>
       </c>
-      <c r="Q6" s="71">
+      <c r="Q6" s="64">
         <v>33435</v>
       </c>
-      <c r="R6" s="40">
+      <c r="R6" s="33">
         <v>33457</v>
       </c>
-      <c r="S6" s="41">
+      <c r="S6" s="34">
         <v>6.5798999999999996E-2</v>
       </c>
-      <c r="T6" s="42">
+      <c r="T6" s="35">
         <v>1.9610000000000001</v>
       </c>
-      <c r="W6" s="43"/>
+      <c r="W6" s="36"/>
       <c r="X6" s="11"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="44"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="41"/>
-      <c r="AC6" s="42"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="35"/>
     </row>
     <row r="7" spans="4:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="32" t="s">
         <v>153</v>
       </c>
       <c r="E7" s="10">
@@ -6896,47 +6896,47 @@
       <c r="F7" s="11">
         <v>1233</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="33">
         <v>1233</v>
       </c>
-      <c r="H7" s="41">
-        <v>0</v>
-      </c>
-      <c r="I7" s="42">
+      <c r="H7" s="34">
+        <v>0</v>
+      </c>
+      <c r="I7" s="35">
         <v>3.8699999999999998E-2</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="N7" s="43" t="s">
+      <c r="J7" s="29"/>
+      <c r="N7" s="36" t="s">
         <v>50</v>
       </c>
       <c r="O7" s="12">
         <v>32390</v>
       </c>
-      <c r="P7" s="42">
+      <c r="P7" s="35">
         <v>7.07</v>
       </c>
-      <c r="Q7" s="71">
+      <c r="Q7" s="64">
         <v>32390</v>
       </c>
-      <c r="R7" s="40">
+      <c r="R7" s="33">
         <v>32445.5</v>
       </c>
-      <c r="S7" s="41">
+      <c r="S7" s="34">
         <v>0.17135</v>
       </c>
-      <c r="T7" s="42">
+      <c r="T7" s="35">
         <v>1.9755</v>
       </c>
-      <c r="W7" s="43"/>
+      <c r="W7" s="36"/>
       <c r="X7" s="11"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="42"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="35"/>
     </row>
     <row r="8" spans="4:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="32" t="s">
         <v>154</v>
       </c>
       <c r="E8" s="10">
@@ -6945,47 +6945,47 @@
       <c r="F8" s="11">
         <v>1386</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="33">
         <v>1386</v>
       </c>
-      <c r="H8" s="41">
-        <v>0</v>
-      </c>
-      <c r="I8" s="42">
+      <c r="H8" s="34">
+        <v>0</v>
+      </c>
+      <c r="I8" s="35">
         <v>4.07E-2</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="N8" s="43" t="s">
+      <c r="J8" s="29"/>
+      <c r="N8" s="36" t="s">
         <v>52</v>
       </c>
       <c r="O8" s="12">
         <v>34733</v>
       </c>
-      <c r="P8" s="42">
+      <c r="P8" s="35">
         <v>7.27</v>
       </c>
-      <c r="Q8" s="71">
+      <c r="Q8" s="64">
         <v>34733</v>
       </c>
-      <c r="R8" s="40">
+      <c r="R8" s="33">
         <v>34842.6</v>
       </c>
-      <c r="S8" s="41">
+      <c r="S8" s="34">
         <v>0.31555</v>
       </c>
-      <c r="T8" s="42">
+      <c r="T8" s="35">
         <v>2.0647000000000002</v>
       </c>
-      <c r="W8" s="43"/>
+      <c r="W8" s="36"/>
       <c r="X8" s="11"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="41"/>
-      <c r="AC8" s="42"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="35"/>
     </row>
     <row r="9" spans="4:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="32" t="s">
         <v>155</v>
       </c>
       <c r="E9" s="10">
@@ -6994,47 +6994,47 @@
       <c r="F9" s="11">
         <v>978</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="33">
         <v>978</v>
       </c>
-      <c r="H9" s="41">
-        <v>0</v>
-      </c>
-      <c r="I9" s="42">
+      <c r="H9" s="34">
+        <v>0</v>
+      </c>
+      <c r="I9" s="35">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="J9" s="36"/>
-      <c r="N9" s="43" t="s">
+      <c r="J9" s="29"/>
+      <c r="N9" s="36" t="s">
         <v>54</v>
       </c>
       <c r="O9" s="12">
         <v>32598</v>
       </c>
-      <c r="P9" s="42">
+      <c r="P9" s="35">
         <v>8.8699999999999992</v>
       </c>
-      <c r="Q9" s="71">
+      <c r="Q9" s="64">
         <v>32598</v>
       </c>
-      <c r="R9" s="40">
+      <c r="R9" s="33">
         <v>32637.5</v>
       </c>
-      <c r="S9" s="41">
+      <c r="S9" s="34">
         <v>0.12117</v>
       </c>
-      <c r="T9" s="42">
+      <c r="T9" s="35">
         <v>1.9918</v>
       </c>
-      <c r="W9" s="43"/>
+      <c r="W9" s="36"/>
       <c r="X9" s="11"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="42"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="35"/>
     </row>
     <row r="10" spans="4:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="32" t="s">
         <v>156</v>
       </c>
       <c r="E10" s="10">
@@ -7043,47 +7043,47 @@
       <c r="F10" s="11">
         <v>1477</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="33">
         <v>1477</v>
       </c>
-      <c r="H10" s="41">
-        <v>0</v>
-      </c>
-      <c r="I10" s="42">
+      <c r="H10" s="34">
+        <v>0</v>
+      </c>
+      <c r="I10" s="35">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="J10" s="36"/>
-      <c r="N10" s="43" t="s">
+      <c r="J10" s="29"/>
+      <c r="N10" s="36" t="s">
         <v>56</v>
       </c>
       <c r="O10" s="12">
         <v>34159</v>
       </c>
-      <c r="P10" s="42">
+      <c r="P10" s="35">
         <v>7.82</v>
       </c>
-      <c r="Q10" s="71">
+      <c r="Q10" s="64">
         <v>34159</v>
       </c>
-      <c r="R10" s="40">
+      <c r="R10" s="33">
         <v>34335.800000000003</v>
       </c>
-      <c r="S10" s="41">
+      <c r="S10" s="34">
         <v>0.51758000000000004</v>
       </c>
-      <c r="T10" s="42">
+      <c r="T10" s="35">
         <v>1.9810000000000001</v>
       </c>
-      <c r="W10" s="43"/>
+      <c r="W10" s="36"/>
       <c r="X10" s="11"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="44"/>
-      <c r="AA10" s="40"/>
-      <c r="AB10" s="41"/>
-      <c r="AC10" s="42"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="35"/>
     </row>
     <row r="11" spans="4:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="32" t="s">
         <v>157</v>
       </c>
       <c r="E11" s="10">
@@ -7092,47 +7092,47 @@
       <c r="F11" s="11">
         <v>1163</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="33">
         <v>1163</v>
       </c>
-      <c r="H11" s="41">
-        <v>0</v>
-      </c>
-      <c r="I11" s="42">
+      <c r="H11" s="34">
+        <v>0</v>
+      </c>
+      <c r="I11" s="35">
         <v>4.1300000000000003E-2</v>
       </c>
-      <c r="J11" s="36"/>
-      <c r="N11" s="43" t="s">
+      <c r="J11" s="29"/>
+      <c r="N11" s="36" t="s">
         <v>58</v>
       </c>
       <c r="O11" s="12">
         <v>33375</v>
       </c>
-      <c r="P11" s="42">
+      <c r="P11" s="35">
         <v>8.74</v>
       </c>
-      <c r="Q11" s="71">
+      <c r="Q11" s="64">
         <v>33375</v>
       </c>
-      <c r="R11" s="40">
+      <c r="R11" s="33">
         <v>33450.1</v>
       </c>
-      <c r="S11" s="41">
+      <c r="S11" s="34">
         <v>0.22502</v>
       </c>
-      <c r="T11" s="42">
+      <c r="T11" s="35">
         <v>2.0869</v>
       </c>
-      <c r="W11" s="43"/>
+      <c r="W11" s="36"/>
       <c r="X11" s="11"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="44"/>
-      <c r="AA11" s="40"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="42"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="35"/>
     </row>
     <row r="12" spans="4:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="32" t="s">
         <v>158</v>
       </c>
       <c r="E12" s="10">
@@ -7141,47 +7141,47 @@
       <c r="F12" s="11">
         <v>1234</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="33">
         <v>1234</v>
       </c>
-      <c r="H12" s="41">
-        <v>0</v>
-      </c>
-      <c r="I12" s="42">
+      <c r="H12" s="34">
+        <v>0</v>
+      </c>
+      <c r="I12" s="35">
         <v>3.9E-2</v>
       </c>
-      <c r="J12" s="36"/>
-      <c r="N12" s="43" t="s">
+      <c r="J12" s="29"/>
+      <c r="N12" s="36" t="s">
         <v>60</v>
       </c>
       <c r="O12" s="12">
         <v>31780</v>
       </c>
-      <c r="P12" s="42">
+      <c r="P12" s="35">
         <v>7.08</v>
       </c>
-      <c r="Q12" s="71">
+      <c r="Q12" s="64">
         <v>31780</v>
       </c>
-      <c r="R12" s="40">
+      <c r="R12" s="33">
         <v>31829</v>
       </c>
-      <c r="S12" s="41">
+      <c r="S12" s="34">
         <v>0.15418999999999999</v>
       </c>
-      <c r="T12" s="42">
+      <c r="T12" s="35">
         <v>2.0030000000000001</v>
       </c>
-      <c r="W12" s="43"/>
+      <c r="W12" s="36"/>
       <c r="X12" s="11"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="44"/>
-      <c r="AA12" s="40"/>
-      <c r="AB12" s="41"/>
-      <c r="AC12" s="42"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="35"/>
     </row>
     <row r="13" spans="4:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="32" t="s">
         <v>159</v>
       </c>
       <c r="E13" s="10">
@@ -7190,47 +7190,47 @@
       <c r="F13" s="11">
         <v>1402</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="33">
         <v>1402</v>
       </c>
-      <c r="H13" s="41">
-        <v>0</v>
-      </c>
-      <c r="I13" s="42">
+      <c r="H13" s="34">
+        <v>0</v>
+      </c>
+      <c r="I13" s="35">
         <v>4.0399999999999998E-2</v>
       </c>
-      <c r="J13" s="36"/>
-      <c r="N13" s="43" t="s">
+      <c r="J13" s="29"/>
+      <c r="N13" s="36" t="s">
         <v>62</v>
       </c>
       <c r="O13" s="12">
         <v>34167</v>
       </c>
-      <c r="P13" s="42">
+      <c r="P13" s="35">
         <v>7.47</v>
       </c>
-      <c r="Q13" s="71">
+      <c r="Q13" s="64">
         <v>34167</v>
       </c>
-      <c r="R13" s="40">
+      <c r="R13" s="33">
         <v>34257.699999999997</v>
       </c>
-      <c r="S13" s="41">
+      <c r="S13" s="34">
         <v>0.26545999999999997</v>
       </c>
-      <c r="T13" s="42">
+      <c r="T13" s="35">
         <v>1.9253</v>
       </c>
-      <c r="W13" s="43"/>
+      <c r="W13" s="36"/>
       <c r="X13" s="11"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="44"/>
-      <c r="AA13" s="40"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="42"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="33"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="35"/>
     </row>
     <row r="14" spans="4:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="32" t="s">
         <v>160</v>
       </c>
       <c r="E14" s="10">
@@ -7239,47 +7239,47 @@
       <c r="F14" s="11">
         <v>1388</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="33">
         <v>1388</v>
       </c>
-      <c r="H14" s="41">
-        <v>0</v>
-      </c>
-      <c r="I14" s="42">
+      <c r="H14" s="34">
+        <v>0</v>
+      </c>
+      <c r="I14" s="35">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="J14" s="36"/>
-      <c r="N14" s="43" t="s">
+      <c r="J14" s="29"/>
+      <c r="N14" s="36" t="s">
         <v>64</v>
       </c>
       <c r="O14" s="12">
         <v>31605</v>
       </c>
-      <c r="P14" s="42">
+      <c r="P14" s="35">
         <v>6.78</v>
       </c>
-      <c r="Q14" s="71">
+      <c r="Q14" s="64">
         <v>31605</v>
       </c>
-      <c r="R14" s="40">
+      <c r="R14" s="33">
         <v>31605</v>
       </c>
-      <c r="S14" s="41">
-        <v>0</v>
-      </c>
-      <c r="T14" s="42">
+      <c r="S14" s="34">
+        <v>0</v>
+      </c>
+      <c r="T14" s="35">
         <v>1.9679</v>
       </c>
-      <c r="W14" s="43"/>
+      <c r="W14" s="36"/>
       <c r="X14" s="11"/>
-      <c r="Y14" s="42"/>
-      <c r="Z14" s="44"/>
-      <c r="AA14" s="40"/>
-      <c r="AB14" s="41"/>
-      <c r="AC14" s="42"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="35"/>
     </row>
     <row r="15" spans="4:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="32" t="s">
         <v>161</v>
       </c>
       <c r="E15" s="10">
@@ -7288,47 +7288,47 @@
       <c r="F15" s="11">
         <v>1405</v>
       </c>
-      <c r="G15" s="40">
+      <c r="G15" s="33">
         <v>1405</v>
       </c>
-      <c r="H15" s="41">
-        <v>0</v>
-      </c>
-      <c r="I15" s="42">
+      <c r="H15" s="34">
+        <v>0</v>
+      </c>
+      <c r="I15" s="35">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="J15" s="36"/>
-      <c r="N15" s="43" t="s">
+      <c r="J15" s="29"/>
+      <c r="N15" s="36" t="s">
         <v>66</v>
       </c>
       <c r="O15" s="12">
         <v>34188</v>
       </c>
-      <c r="P15" s="42">
+      <c r="P15" s="35">
         <v>7.75</v>
       </c>
-      <c r="Q15" s="71">
+      <c r="Q15" s="64">
         <v>34188</v>
       </c>
-      <c r="R15" s="40">
+      <c r="R15" s="33">
         <v>34419.4</v>
       </c>
-      <c r="S15" s="41">
+      <c r="S15" s="34">
         <v>0.67684999999999995</v>
       </c>
-      <c r="T15" s="42">
+      <c r="T15" s="35">
         <v>2.0243000000000002</v>
       </c>
-      <c r="W15" s="43"/>
+      <c r="W15" s="36"/>
       <c r="X15" s="11"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="41"/>
-      <c r="AC15" s="42"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="35"/>
     </row>
     <row r="16" spans="4:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="32" t="s">
         <v>162</v>
       </c>
       <c r="E16" s="10">
@@ -7337,47 +7337,47 @@
       <c r="F16" s="11">
         <v>1150</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="33">
         <v>1150</v>
       </c>
-      <c r="H16" s="41">
-        <v>0</v>
-      </c>
-      <c r="I16" s="42">
+      <c r="H16" s="34">
+        <v>0</v>
+      </c>
+      <c r="I16" s="35">
         <v>4.0899999999999999E-2</v>
       </c>
-      <c r="J16" s="36"/>
-      <c r="N16" s="43" t="s">
+      <c r="J16" s="29"/>
+      <c r="N16" s="36" t="s">
         <v>68</v>
       </c>
       <c r="O16" s="12">
         <v>32146</v>
       </c>
-      <c r="P16" s="42">
+      <c r="P16" s="35">
         <v>7.2</v>
       </c>
-      <c r="Q16" s="71">
+      <c r="Q16" s="64">
         <v>32146</v>
       </c>
-      <c r="R16" s="40">
+      <c r="R16" s="33">
         <v>32260.2</v>
       </c>
-      <c r="S16" s="41">
+      <c r="S16" s="34">
         <v>0.35525000000000001</v>
       </c>
-      <c r="T16" s="42">
+      <c r="T16" s="35">
         <v>2.1318999999999999</v>
       </c>
-      <c r="W16" s="43"/>
+      <c r="W16" s="36"/>
       <c r="X16" s="11"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="44"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="41"/>
-      <c r="AC16" s="42"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="35"/>
     </row>
     <row r="17" spans="2:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="32" t="s">
         <v>163</v>
       </c>
       <c r="E17" s="10">
@@ -7386,47 +7386,47 @@
       <c r="F17" s="11">
         <v>1531</v>
       </c>
-      <c r="G17" s="40">
+      <c r="G17" s="33">
         <v>1531</v>
       </c>
-      <c r="H17" s="41">
-        <v>0</v>
-      </c>
-      <c r="I17" s="42">
+      <c r="H17" s="34">
+        <v>0</v>
+      </c>
+      <c r="I17" s="35">
         <v>4.24E-2</v>
       </c>
-      <c r="J17" s="36"/>
-      <c r="N17" s="43" t="s">
+      <c r="J17" s="29"/>
+      <c r="N17" s="36" t="s">
         <v>70</v>
       </c>
       <c r="O17" s="12">
         <v>32604</v>
       </c>
-      <c r="P17" s="42">
+      <c r="P17" s="35">
         <v>7.78</v>
       </c>
-      <c r="Q17" s="71">
+      <c r="Q17" s="64">
         <v>32604</v>
       </c>
-      <c r="R17" s="40">
+      <c r="R17" s="33">
         <v>32848.400000000001</v>
       </c>
-      <c r="S17" s="41">
+      <c r="S17" s="34">
         <v>0.74960000000000004</v>
       </c>
-      <c r="T17" s="42">
+      <c r="T17" s="35">
         <v>2.1059999999999999</v>
       </c>
-      <c r="W17" s="43"/>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="46"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="41"/>
-      <c r="AC17" s="42"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="35"/>
     </row>
     <row r="18" spans="2:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="32" t="s">
         <v>164</v>
       </c>
       <c r="E18" s="10">
@@ -7435,47 +7435,47 @@
       <c r="F18" s="11">
         <v>1219</v>
       </c>
-      <c r="G18" s="40">
+      <c r="G18" s="33">
         <v>1219</v>
       </c>
-      <c r="H18" s="41">
-        <v>0</v>
-      </c>
-      <c r="I18" s="42">
+      <c r="H18" s="34">
+        <v>0</v>
+      </c>
+      <c r="I18" s="35">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="J18" s="36"/>
-      <c r="N18" s="43" t="s">
+      <c r="J18" s="29"/>
+      <c r="N18" s="36" t="s">
         <v>72</v>
       </c>
       <c r="O18" s="12">
         <v>32433</v>
       </c>
-      <c r="P18" s="42">
+      <c r="P18" s="35">
         <v>6.29</v>
       </c>
-      <c r="Q18" s="71">
+      <c r="Q18" s="64">
         <v>32438</v>
       </c>
-      <c r="R18" s="40">
+      <c r="R18" s="33">
         <v>32438</v>
       </c>
-      <c r="S18" s="41">
+      <c r="S18" s="34">
         <v>1.5415999999999999E-2</v>
       </c>
-      <c r="T18" s="42">
+      <c r="T18" s="35">
         <v>2.1533000000000002</v>
       </c>
-      <c r="W18" s="43"/>
+      <c r="W18" s="36"/>
       <c r="X18" s="11"/>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="44"/>
-      <c r="AA18" s="40"/>
-      <c r="AB18" s="41"/>
-      <c r="AC18" s="42"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="35"/>
     </row>
     <row r="19" spans="2:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="32" t="s">
         <v>165</v>
       </c>
       <c r="E19" s="10">
@@ -7484,47 +7484,47 @@
       <c r="F19" s="11">
         <v>1087</v>
       </c>
-      <c r="G19" s="40">
+      <c r="G19" s="33">
         <v>1087</v>
       </c>
-      <c r="H19" s="41">
-        <v>0</v>
-      </c>
-      <c r="I19" s="42">
+      <c r="H19" s="34">
+        <v>0</v>
+      </c>
+      <c r="I19" s="35">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="J19" s="36"/>
-      <c r="N19" s="43" t="s">
+      <c r="J19" s="29"/>
+      <c r="N19" s="36" t="s">
         <v>74</v>
       </c>
       <c r="O19" s="12">
         <v>32574</v>
       </c>
-      <c r="P19" s="42">
+      <c r="P19" s="35">
         <v>7.13</v>
       </c>
-      <c r="Q19" s="71">
+      <c r="Q19" s="64">
         <v>32574</v>
       </c>
-      <c r="R19" s="40">
+      <c r="R19" s="33">
         <v>32637.5</v>
       </c>
-      <c r="S19" s="41">
+      <c r="S19" s="34">
         <v>0.19494</v>
       </c>
-      <c r="T19" s="42">
+      <c r="T19" s="35">
         <v>1.9423999999999999</v>
       </c>
-      <c r="W19" s="43"/>
+      <c r="W19" s="36"/>
       <c r="X19" s="11"/>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="44"/>
-      <c r="AA19" s="40"/>
-      <c r="AB19" s="41"/>
-      <c r="AC19" s="42"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="35"/>
     </row>
     <row r="20" spans="2:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="32" t="s">
         <v>166</v>
       </c>
       <c r="E20" s="10">
@@ -7533,47 +7533,47 @@
       <c r="F20" s="11">
         <v>1264</v>
       </c>
-      <c r="G20" s="40">
+      <c r="G20" s="33">
         <v>1264</v>
       </c>
-      <c r="H20" s="41">
-        <v>0</v>
-      </c>
-      <c r="I20" s="42">
+      <c r="H20" s="34">
+        <v>0</v>
+      </c>
+      <c r="I20" s="35">
         <v>3.9800000000000002E-2</v>
       </c>
-      <c r="J20" s="36"/>
-      <c r="N20" s="43" t="s">
+      <c r="J20" s="29"/>
+      <c r="N20" s="36" t="s">
         <v>76</v>
       </c>
       <c r="O20" s="12">
         <v>33566</v>
       </c>
-      <c r="P20" s="42">
+      <c r="P20" s="35">
         <v>7.97</v>
       </c>
-      <c r="Q20" s="71">
+      <c r="Q20" s="64">
         <v>33566</v>
       </c>
-      <c r="R20" s="40">
+      <c r="R20" s="33">
         <v>33568</v>
       </c>
-      <c r="S20" s="41">
+      <c r="S20" s="34">
         <v>5.9584E-3</v>
       </c>
-      <c r="T20" s="42">
+      <c r="T20" s="35">
         <v>2.1665000000000001</v>
       </c>
-      <c r="W20" s="43"/>
+      <c r="W20" s="36"/>
       <c r="X20" s="11"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="40"/>
-      <c r="AB20" s="41"/>
-      <c r="AC20" s="42"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="33"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="35"/>
     </row>
     <row r="21" spans="2:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="32" t="s">
         <v>167</v>
       </c>
       <c r="E21" s="10">
@@ -7582,47 +7582,47 @@
       <c r="F21" s="11">
         <v>1058</v>
       </c>
-      <c r="G21" s="40">
+      <c r="G21" s="33">
         <v>1058</v>
       </c>
-      <c r="H21" s="41">
-        <v>0</v>
-      </c>
-      <c r="I21" s="42">
+      <c r="H21" s="34">
+        <v>0</v>
+      </c>
+      <c r="I21" s="35">
         <v>0.04</v>
       </c>
-      <c r="J21" s="36"/>
-      <c r="N21" s="43" t="s">
+      <c r="J21" s="29"/>
+      <c r="N21" s="36" t="s">
         <v>78</v>
       </c>
       <c r="O21" s="12">
         <v>34198</v>
       </c>
-      <c r="P21" s="42">
+      <c r="P21" s="35">
         <v>9.23</v>
       </c>
-      <c r="Q21" s="71">
+      <c r="Q21" s="64">
         <v>34198</v>
       </c>
-      <c r="R21" s="40">
+      <c r="R21" s="33">
         <v>34234.1</v>
       </c>
-      <c r="S21" s="41">
+      <c r="S21" s="34">
         <v>0.10556</v>
       </c>
-      <c r="T21" s="42">
+      <c r="T21" s="35">
         <v>2.1856</v>
       </c>
-      <c r="W21" s="43"/>
+      <c r="W21" s="36"/>
       <c r="X21" s="11"/>
-      <c r="Y21" s="42"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="40"/>
-      <c r="AB21" s="41"/>
-      <c r="AC21" s="42"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="37"/>
+      <c r="AA21" s="33"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="35"/>
     </row>
     <row r="22" spans="2:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="32" t="s">
         <v>168</v>
       </c>
       <c r="E22" s="10">
@@ -7631,47 +7631,47 @@
       <c r="F22" s="11">
         <v>1083</v>
       </c>
-      <c r="G22" s="40">
+      <c r="G22" s="33">
         <v>1083</v>
       </c>
-      <c r="H22" s="41">
-        <v>0</v>
-      </c>
-      <c r="I22" s="42">
+      <c r="H22" s="34">
+        <v>0</v>
+      </c>
+      <c r="I22" s="35">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="J22" s="36"/>
-      <c r="N22" s="43" t="s">
+      <c r="J22" s="29"/>
+      <c r="N22" s="36" t="s">
         <v>80</v>
       </c>
       <c r="O22" s="12">
         <v>31929</v>
       </c>
-      <c r="P22" s="42">
+      <c r="P22" s="35">
         <v>7.07</v>
       </c>
-      <c r="Q22" s="71">
+      <c r="Q22" s="64">
         <v>31929</v>
       </c>
-      <c r="R22" s="40">
+      <c r="R22" s="33">
         <v>32076.7</v>
       </c>
-      <c r="S22" s="41">
+      <c r="S22" s="34">
         <v>0.46259</v>
       </c>
-      <c r="T22" s="42">
+      <c r="T22" s="35">
         <v>2.0686</v>
       </c>
-      <c r="W22" s="43"/>
+      <c r="W22" s="36"/>
       <c r="X22" s="11"/>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="44"/>
-      <c r="AA22" s="40"/>
-      <c r="AB22" s="41"/>
-      <c r="AC22" s="42"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="37"/>
+      <c r="AA22" s="33"/>
+      <c r="AB22" s="34"/>
+      <c r="AC22" s="35"/>
     </row>
     <row r="23" spans="2:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="32" t="s">
         <v>169</v>
       </c>
       <c r="E23" s="10">
@@ -7680,210 +7680,210 @@
       <c r="F23" s="11">
         <v>1394</v>
       </c>
-      <c r="G23" s="40">
+      <c r="G23" s="33">
         <v>1394</v>
       </c>
-      <c r="H23" s="41">
-        <v>0</v>
-      </c>
-      <c r="I23" s="42">
+      <c r="H23" s="34">
+        <v>0</v>
+      </c>
+      <c r="I23" s="35">
         <v>4.0500000000000001E-2</v>
       </c>
-      <c r="J23" s="36"/>
-      <c r="N23" s="43" t="s">
+      <c r="J23" s="29"/>
+      <c r="N23" s="36" t="s">
         <v>82</v>
       </c>
       <c r="O23" s="12">
         <v>33463</v>
       </c>
-      <c r="P23" s="42">
+      <c r="P23" s="35">
         <v>8.08</v>
       </c>
-      <c r="Q23" s="71">
+      <c r="Q23" s="64">
         <v>33463</v>
       </c>
-      <c r="R23" s="40">
+      <c r="R23" s="33">
         <v>33529</v>
       </c>
-      <c r="S23" s="41">
+      <c r="S23" s="34">
         <v>0.19722999999999999</v>
       </c>
-      <c r="T23" s="42">
+      <c r="T23" s="35">
         <v>1.9655</v>
       </c>
-      <c r="W23" s="43"/>
+      <c r="W23" s="36"/>
       <c r="X23" s="11"/>
-      <c r="Y23" s="42"/>
-      <c r="Z23" s="44"/>
-      <c r="AA23" s="40"/>
-      <c r="AB23" s="41"/>
-      <c r="AC23" s="42"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="37"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="35"/>
     </row>
     <row r="24" spans="2:29" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="E24" s="65">
+      <c r="E24" s="58">
         <v>951</v>
       </c>
-      <c r="F24" s="66">
+      <c r="F24" s="59">
         <v>951</v>
       </c>
-      <c r="G24" s="49">
+      <c r="G24" s="42">
         <v>951</v>
       </c>
-      <c r="H24" s="50">
-        <v>0</v>
-      </c>
-      <c r="I24" s="51">
+      <c r="H24" s="43">
+        <v>0</v>
+      </c>
+      <c r="I24" s="44">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="J24" s="36"/>
-      <c r="N24" s="52" t="s">
+      <c r="J24" s="29"/>
+      <c r="N24" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="O24" s="69">
+      <c r="O24" s="62">
         <v>33632</v>
       </c>
-      <c r="P24" s="53">
+      <c r="P24" s="46">
         <v>8.73</v>
       </c>
-      <c r="Q24" s="72">
+      <c r="Q24" s="65">
         <v>33632</v>
       </c>
-      <c r="R24" s="54">
+      <c r="R24" s="47">
         <v>33732.300000000003</v>
       </c>
-      <c r="S24" s="55">
+      <c r="S24" s="48">
         <v>0.29823</v>
       </c>
-      <c r="T24" s="53">
+      <c r="T24" s="46">
         <v>1.9918</v>
       </c>
-      <c r="W24" s="43"/>
-      <c r="X24" s="45"/>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="46"/>
-      <c r="AA24" s="40"/>
-      <c r="AB24" s="41"/>
-      <c r="AC24" s="42"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="35"/>
     </row>
     <row r="25" spans="2:29" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="56"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="36"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="62"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="W25" s="43"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="29"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="W25" s="36"/>
       <c r="X25" s="11"/>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="44"/>
-      <c r="AA25" s="40"/>
-      <c r="AB25" s="41"/>
-      <c r="AC25" s="42"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="37"/>
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="35"/>
     </row>
     <row r="26" spans="2:29" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="60"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="62"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="63"/>
-      <c r="Y26" s="53"/>
-      <c r="Z26" s="64"/>
-      <c r="AA26" s="54"/>
-      <c r="AB26" s="55"/>
-      <c r="AC26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="46"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="47"/>
+      <c r="AB26" s="48"/>
+      <c r="AC26" s="46"/>
     </row>
     <row r="27" spans="2:29" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="16" t="s">
+      <c r="D27" s="85"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="18"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="21" t="s">
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="82"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="17" t="s">
+      <c r="P27" s="84"/>
+      <c r="Q27" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="18"/>
+      <c r="R27" s="81"/>
+      <c r="S27" s="81"/>
+      <c r="T27" s="82"/>
     </row>
     <row r="28" spans="2:29" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="H28" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="I28" s="27" t="s">
+      <c r="I28" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="N28" s="23" t="s">
+      <c r="N28" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="O28" s="29" t="s">
+      <c r="O28" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="P28" s="30" t="s">
+      <c r="P28" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="Q28" s="31" t="s">
+      <c r="Q28" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="R28" s="26" t="s">
+      <c r="R28" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="S28" s="26" t="s">
+      <c r="S28" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="T28" s="27" t="s">
+      <c r="T28" s="20" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="29" spans="2:29" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="25" t="s">
         <v>171</v>
       </c>
       <c r="C29" s="13">
         <v>1</v>
       </c>
-      <c r="D29" s="32" t="str">
+      <c r="D29" s="25" t="str">
         <f>"TRP-S30-R"&amp;C29</f>
         <v>TRP-S30-R1</v>
       </c>
@@ -7893,46 +7893,46 @@
       <c r="F29" s="9">
         <v>3175</v>
       </c>
-      <c r="G29" s="33">
+      <c r="G29" s="26">
         <v>3175</v>
       </c>
-      <c r="H29" s="34">
-        <v>0</v>
-      </c>
-      <c r="I29" s="35">
+      <c r="H29" s="27">
+        <v>0</v>
+      </c>
+      <c r="I29" s="28">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="N29" s="37" t="s">
+      <c r="N29" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="O29" s="68">
+      <c r="O29" s="61">
         <v>88787</v>
       </c>
-      <c r="P29" s="35">
+      <c r="P29" s="28">
         <v>73.39</v>
       </c>
-      <c r="Q29" s="70">
+      <c r="Q29" s="63">
         <v>88806</v>
       </c>
-      <c r="R29" s="33">
+      <c r="R29" s="26">
         <v>89272.2</v>
       </c>
-      <c r="S29" s="34">
+      <c r="S29" s="27">
         <v>0.54647999999999997</v>
       </c>
-      <c r="T29" s="35">
+      <c r="T29" s="28">
         <v>20.199000000000002</v>
       </c>
     </row>
     <row r="30" spans="2:29" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="25" t="s">
         <v>171</v>
       </c>
       <c r="C30" s="13">
         <f>C29+1</f>
         <v>2</v>
       </c>
-      <c r="D30" s="39" t="str">
+      <c r="D30" s="32" t="str">
         <f t="shared" ref="D30:D48" si="0">"TRP-S30-R"&amp;C30</f>
         <v>TRP-S30-R2</v>
       </c>
@@ -7942,46 +7942,46 @@
       <c r="F30" s="11">
         <v>3248</v>
       </c>
-      <c r="G30" s="40">
+      <c r="G30" s="33">
         <v>3248.8</v>
       </c>
-      <c r="H30" s="41">
+      <c r="H30" s="34">
         <v>2.4631E-2</v>
       </c>
-      <c r="I30" s="42">
+      <c r="I30" s="35">
         <v>5.1900000000000002E-2</v>
       </c>
-      <c r="N30" s="43" t="s">
+      <c r="N30" s="36" t="s">
         <v>87</v>
       </c>
       <c r="O30" s="12">
         <v>91977</v>
       </c>
-      <c r="P30" s="42">
+      <c r="P30" s="35">
         <v>68.069999999999993</v>
       </c>
-      <c r="Q30" s="71">
+      <c r="Q30" s="64">
         <v>92448</v>
       </c>
-      <c r="R30" s="40">
+      <c r="R30" s="33">
         <v>93116.1</v>
       </c>
-      <c r="S30" s="41">
+      <c r="S30" s="34">
         <v>1.2384999999999999</v>
       </c>
-      <c r="T30" s="42">
+      <c r="T30" s="35">
         <v>19.059000000000001</v>
       </c>
     </row>
     <row r="31" spans="2:29" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="25" t="s">
         <v>171</v>
       </c>
       <c r="C31" s="13">
         <f t="shared" ref="C31:C48" si="1">C30+1</f>
         <v>3</v>
       </c>
-      <c r="D31" s="39" t="str">
+      <c r="D31" s="32" t="str">
         <f t="shared" si="0"/>
         <v>TRP-S30-R3</v>
       </c>
@@ -7991,46 +7991,46 @@
       <c r="F31" s="11">
         <v>3570</v>
       </c>
-      <c r="G31" s="40">
+      <c r="G31" s="33">
         <v>3570</v>
       </c>
-      <c r="H31" s="41">
-        <v>0</v>
-      </c>
-      <c r="I31" s="42">
+      <c r="H31" s="34">
+        <v>0</v>
+      </c>
+      <c r="I31" s="35">
         <v>6.5299999999999997E-2</v>
       </c>
-      <c r="N31" s="43" t="s">
+      <c r="N31" s="36" t="s">
         <v>88</v>
       </c>
       <c r="O31" s="12">
         <v>92568</v>
       </c>
-      <c r="P31" s="42">
+      <c r="P31" s="35">
         <v>67.11</v>
       </c>
       <c r="Q31" s="12">
         <v>92568</v>
       </c>
-      <c r="R31" s="40">
+      <c r="R31" s="33">
         <v>93203.9</v>
       </c>
-      <c r="S31" s="41">
+      <c r="S31" s="34">
         <v>0.68694999999999995</v>
       </c>
-      <c r="T31" s="42">
+      <c r="T31" s="35">
         <v>19.998000000000001</v>
       </c>
     </row>
     <row r="32" spans="2:29" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="25" t="s">
         <v>171</v>
       </c>
       <c r="C32" s="13">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D32" s="39" t="str">
+      <c r="D32" s="32" t="str">
         <f t="shared" si="0"/>
         <v>TRP-S30-R4</v>
       </c>
@@ -8040,46 +8040,46 @@
       <c r="F32" s="11">
         <v>2983</v>
       </c>
-      <c r="G32" s="40">
+      <c r="G32" s="33">
         <v>2983</v>
       </c>
-      <c r="H32" s="41">
-        <v>0</v>
-      </c>
-      <c r="I32" s="42">
+      <c r="H32" s="34">
+        <v>0</v>
+      </c>
+      <c r="I32" s="35">
         <v>6.5500000000000003E-2</v>
       </c>
-      <c r="N32" s="43" t="s">
+      <c r="N32" s="36" t="s">
         <v>89</v>
       </c>
       <c r="O32" s="12">
         <v>93174</v>
       </c>
-      <c r="P32" s="42">
+      <c r="P32" s="35">
         <v>72.17</v>
       </c>
       <c r="Q32" s="12">
         <v>93174</v>
       </c>
-      <c r="R32" s="40">
+      <c r="R32" s="33">
         <v>93826.8</v>
       </c>
-      <c r="S32" s="41">
+      <c r="S32" s="34">
         <v>0.70062000000000002</v>
       </c>
-      <c r="T32" s="42">
+      <c r="T32" s="35">
         <v>19.456</v>
       </c>
     </row>
     <row r="33" spans="2:20" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="25" t="s">
         <v>171</v>
       </c>
       <c r="C33" s="13">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D33" s="39" t="str">
+      <c r="D33" s="32" t="str">
         <f t="shared" si="0"/>
         <v>TRP-S30-R5</v>
       </c>
@@ -8089,46 +8089,46 @@
       <c r="F33" s="11">
         <v>3248</v>
       </c>
-      <c r="G33" s="40">
+      <c r="G33" s="33">
         <v>3248</v>
       </c>
-      <c r="H33" s="41">
-        <v>0</v>
-      </c>
-      <c r="I33" s="42">
+      <c r="H33" s="34">
+        <v>0</v>
+      </c>
+      <c r="I33" s="35">
         <v>6.4500000000000002E-2</v>
       </c>
-      <c r="N33" s="43" t="s">
+      <c r="N33" s="36" t="s">
         <v>90</v>
       </c>
       <c r="O33" s="12">
         <v>88737</v>
       </c>
-      <c r="P33" s="42">
+      <c r="P33" s="35">
         <v>70.77</v>
       </c>
-      <c r="Q33" s="71">
+      <c r="Q33" s="64">
         <v>88737</v>
       </c>
-      <c r="R33" s="40">
+      <c r="R33" s="33">
         <v>89765.5</v>
       </c>
-      <c r="S33" s="41">
+      <c r="S33" s="34">
         <v>1.159</v>
       </c>
-      <c r="T33" s="42">
+      <c r="T33" s="35">
         <v>18.058</v>
       </c>
     </row>
     <row r="34" spans="2:20" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="25" t="s">
         <v>171</v>
       </c>
       <c r="C34" s="13">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D34" s="39" t="str">
+      <c r="D34" s="32" t="str">
         <f t="shared" si="0"/>
         <v>TRP-S30-R6</v>
       </c>
@@ -8138,46 +8138,46 @@
       <c r="F34" s="11">
         <v>3328</v>
       </c>
-      <c r="G34" s="40">
+      <c r="G34" s="33">
         <v>3328</v>
       </c>
-      <c r="H34" s="41">
-        <v>0</v>
-      </c>
-      <c r="I34" s="42">
+      <c r="H34" s="34">
+        <v>0</v>
+      </c>
+      <c r="I34" s="35">
         <v>6.4600000000000005E-2</v>
       </c>
-      <c r="N34" s="43" t="s">
+      <c r="N34" s="36" t="s">
         <v>91</v>
       </c>
       <c r="O34" s="12">
         <v>91589</v>
       </c>
-      <c r="P34" s="42">
+      <c r="P34" s="35">
         <v>70.52</v>
       </c>
       <c r="Q34" s="12">
         <v>91589</v>
       </c>
-      <c r="R34" s="40">
+      <c r="R34" s="33">
         <v>92813.9</v>
       </c>
-      <c r="S34" s="41">
+      <c r="S34" s="34">
         <v>1.3373999999999999</v>
       </c>
-      <c r="T34" s="42">
+      <c r="T34" s="35">
         <v>19.777999999999999</v>
       </c>
     </row>
     <row r="35" spans="2:20" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="25" t="s">
         <v>171</v>
       </c>
       <c r="C35" s="13">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D35" s="39" t="str">
+      <c r="D35" s="32" t="str">
         <f t="shared" si="0"/>
         <v>TRP-S30-R7</v>
       </c>
@@ -8187,46 +8187,46 @@
       <c r="F35" s="11">
         <v>2809</v>
       </c>
-      <c r="G35" s="40">
+      <c r="G35" s="33">
         <v>2809</v>
       </c>
-      <c r="H35" s="41">
-        <v>0</v>
-      </c>
-      <c r="I35" s="42">
+      <c r="H35" s="34">
+        <v>0</v>
+      </c>
+      <c r="I35" s="35">
         <v>6.4399999999999999E-2</v>
       </c>
-      <c r="N35" s="43" t="s">
+      <c r="N35" s="36" t="s">
         <v>92</v>
       </c>
       <c r="O35" s="12">
         <v>92754</v>
       </c>
-      <c r="P35" s="42">
+      <c r="P35" s="35">
         <v>72.8</v>
       </c>
-      <c r="Q35" s="71">
+      <c r="Q35" s="64">
         <v>92756</v>
       </c>
-      <c r="R35" s="40">
+      <c r="R35" s="33">
         <v>93846</v>
       </c>
-      <c r="S35" s="41">
+      <c r="S35" s="34">
         <v>1.1773</v>
       </c>
-      <c r="T35" s="42">
+      <c r="T35" s="35">
         <v>21.488</v>
       </c>
     </row>
     <row r="36" spans="2:20" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="25" t="s">
         <v>171</v>
       </c>
       <c r="C36" s="13">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D36" s="39" t="str">
+      <c r="D36" s="32" t="str">
         <f t="shared" si="0"/>
         <v>TRP-S30-R8</v>
       </c>
@@ -8236,46 +8236,46 @@
       <c r="F36" s="11">
         <v>3461</v>
       </c>
-      <c r="G36" s="40">
+      <c r="G36" s="33">
         <v>3461</v>
       </c>
-      <c r="H36" s="41">
-        <v>0</v>
-      </c>
-      <c r="I36" s="42">
+      <c r="H36" s="34">
+        <v>0</v>
+      </c>
+      <c r="I36" s="35">
         <v>6.3200000000000006E-2</v>
       </c>
-      <c r="N36" s="43" t="s">
+      <c r="N36" s="36" t="s">
         <v>93</v>
       </c>
       <c r="O36" s="12">
         <v>89048</v>
       </c>
-      <c r="P36" s="42">
+      <c r="P36" s="35">
         <v>75.150000000000006</v>
       </c>
-      <c r="Q36" s="71">
+      <c r="Q36" s="64">
         <v>89118</v>
       </c>
-      <c r="R36" s="40">
+      <c r="R36" s="33">
         <v>89786</v>
       </c>
-      <c r="S36" s="41">
+      <c r="S36" s="34">
         <v>0.82877000000000001</v>
       </c>
-      <c r="T36" s="42">
+      <c r="T36" s="35">
         <v>19.120999999999999</v>
       </c>
     </row>
     <row r="37" spans="2:20" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="25" t="s">
         <v>171</v>
       </c>
       <c r="C37" s="13">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D37" s="39" t="str">
+      <c r="D37" s="32" t="str">
         <f t="shared" si="0"/>
         <v>TRP-S30-R9</v>
       </c>
@@ -8285,46 +8285,46 @@
       <c r="F37" s="11">
         <v>3475</v>
       </c>
-      <c r="G37" s="40">
+      <c r="G37" s="33">
         <v>3475</v>
       </c>
-      <c r="H37" s="41">
-        <v>0</v>
-      </c>
-      <c r="I37" s="42">
+      <c r="H37" s="34">
+        <v>0</v>
+      </c>
+      <c r="I37" s="35">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="N37" s="43" t="s">
+      <c r="N37" s="36" t="s">
         <v>94</v>
       </c>
       <c r="O37" s="12">
         <v>86326</v>
       </c>
-      <c r="P37" s="42">
+      <c r="P37" s="35">
         <v>65.45</v>
       </c>
-      <c r="Q37" s="71">
+      <c r="Q37" s="64">
         <v>86326</v>
       </c>
-      <c r="R37" s="40">
+      <c r="R37" s="33">
         <v>86944.9</v>
       </c>
-      <c r="S37" s="41">
+      <c r="S37" s="34">
         <v>0.71692999999999996</v>
       </c>
-      <c r="T37" s="42">
+      <c r="T37" s="35">
         <v>19.318000000000001</v>
       </c>
     </row>
     <row r="38" spans="2:20" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="25" t="s">
         <v>171</v>
       </c>
       <c r="C38" s="13">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D38" s="39" t="str">
+      <c r="D38" s="32" t="str">
         <f t="shared" si="0"/>
         <v>TRP-S30-R10</v>
       </c>
@@ -8334,46 +8334,46 @@
       <c r="F38" s="11">
         <v>3359</v>
       </c>
-      <c r="G38" s="40">
+      <c r="G38" s="33">
         <v>3359</v>
       </c>
-      <c r="H38" s="41">
-        <v>0</v>
-      </c>
-      <c r="I38" s="42">
+      <c r="H38" s="34">
+        <v>0</v>
+      </c>
+      <c r="I38" s="35">
         <v>6.1199999999999997E-2</v>
       </c>
-      <c r="N38" s="43" t="s">
+      <c r="N38" s="36" t="s">
         <v>95</v>
       </c>
       <c r="O38" s="12">
         <v>91552</v>
       </c>
-      <c r="P38" s="42">
+      <c r="P38" s="35">
         <v>74.25</v>
       </c>
-      <c r="Q38" s="71">
+      <c r="Q38" s="64">
         <v>91650</v>
       </c>
-      <c r="R38" s="40">
+      <c r="R38" s="33">
         <v>92391.9</v>
       </c>
-      <c r="S38" s="41">
+      <c r="S38" s="34">
         <v>0.91739999999999999</v>
       </c>
-      <c r="T38" s="42">
+      <c r="T38" s="35">
         <v>18.93</v>
       </c>
     </row>
     <row r="39" spans="2:20" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="25" t="s">
         <v>171</v>
       </c>
       <c r="C39" s="13">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D39" s="39" t="str">
+      <c r="D39" s="32" t="str">
         <f t="shared" si="0"/>
         <v>TRP-S30-R11</v>
       </c>
@@ -8383,46 +8383,46 @@
       <c r="F39" s="11">
         <v>2916</v>
       </c>
-      <c r="G39" s="40">
+      <c r="G39" s="33">
         <v>2916</v>
       </c>
-      <c r="H39" s="41">
-        <v>0</v>
-      </c>
-      <c r="I39" s="42">
+      <c r="H39" s="34">
+        <v>0</v>
+      </c>
+      <c r="I39" s="35">
         <v>6.4899999999999999E-2</v>
       </c>
-      <c r="N39" s="43" t="s">
+      <c r="N39" s="36" t="s">
         <v>96</v>
       </c>
       <c r="O39" s="12">
         <v>92655</v>
       </c>
-      <c r="P39" s="42">
+      <c r="P39" s="35">
         <v>73.150000000000006</v>
       </c>
-      <c r="Q39" s="71">
+      <c r="Q39" s="64">
         <v>92815</v>
       </c>
-      <c r="R39" s="40">
+      <c r="R39" s="33">
         <v>93300.800000000003</v>
       </c>
-      <c r="S39" s="41">
+      <c r="S39" s="34">
         <v>0.69699</v>
       </c>
-      <c r="T39" s="42">
+      <c r="T39" s="35">
         <v>19.756</v>
       </c>
     </row>
     <row r="40" spans="2:20" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="25" t="s">
         <v>171</v>
       </c>
       <c r="C40" s="13">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D40" s="39" t="str">
+      <c r="D40" s="32" t="str">
         <f t="shared" si="0"/>
         <v>TRP-S30-R12</v>
       </c>
@@ -8432,46 +8432,46 @@
       <c r="F40" s="11">
         <v>3314</v>
       </c>
-      <c r="G40" s="40">
+      <c r="G40" s="33">
         <v>3314</v>
       </c>
-      <c r="H40" s="41">
-        <v>0</v>
-      </c>
-      <c r="I40" s="42">
+      <c r="H40" s="34">
+        <v>0</v>
+      </c>
+      <c r="I40" s="35">
         <v>6.6799999999999998E-2</v>
       </c>
-      <c r="N40" s="43" t="s">
+      <c r="N40" s="36" t="s">
         <v>97</v>
       </c>
       <c r="O40" s="12">
         <v>91457</v>
       </c>
-      <c r="P40" s="42">
+      <c r="P40" s="35">
         <v>76.739999999999995</v>
       </c>
       <c r="Q40" s="12">
         <v>91457</v>
       </c>
-      <c r="R40" s="40">
+      <c r="R40" s="33">
         <v>92059.9</v>
       </c>
-      <c r="S40" s="41">
+      <c r="S40" s="34">
         <v>0.65922000000000003</v>
       </c>
-      <c r="T40" s="42">
+      <c r="T40" s="35">
         <v>19.119</v>
       </c>
     </row>
     <row r="41" spans="2:20" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="25" t="s">
         <v>171</v>
       </c>
       <c r="C41" s="13">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D41" s="39" t="str">
+      <c r="D41" s="32" t="str">
         <f t="shared" si="0"/>
         <v>TRP-S30-R13</v>
       </c>
@@ -8481,46 +8481,46 @@
       <c r="F41" s="11">
         <v>3412</v>
       </c>
-      <c r="G41" s="40">
+      <c r="G41" s="33">
         <v>3412</v>
       </c>
-      <c r="H41" s="41">
-        <v>0</v>
-      </c>
-      <c r="I41" s="42">
+      <c r="H41" s="34">
+        <v>0</v>
+      </c>
+      <c r="I41" s="35">
         <v>6.59E-2</v>
       </c>
-      <c r="N41" s="43" t="s">
+      <c r="N41" s="36" t="s">
         <v>98</v>
       </c>
       <c r="O41" s="12">
         <v>86155</v>
       </c>
-      <c r="P41" s="42">
+      <c r="P41" s="35">
         <v>72.959999999999994</v>
       </c>
       <c r="Q41" s="12">
         <v>86155</v>
       </c>
-      <c r="R41" s="40">
+      <c r="R41" s="33">
         <v>86909.2</v>
       </c>
-      <c r="S41" s="41">
+      <c r="S41" s="34">
         <v>0.87539999999999996</v>
       </c>
-      <c r="T41" s="42">
+      <c r="T41" s="35">
         <v>18.637</v>
       </c>
     </row>
     <row r="42" spans="2:20" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="25" t="s">
         <v>171</v>
       </c>
       <c r="C42" s="13">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="D42" s="39" t="str">
+      <c r="D42" s="32" t="str">
         <f t="shared" si="0"/>
         <v>TRP-S30-R14</v>
       </c>
@@ -8530,46 +8530,46 @@
       <c r="F42" s="11">
         <v>3297</v>
       </c>
-      <c r="G42" s="40">
+      <c r="G42" s="33">
         <v>3297</v>
       </c>
-      <c r="H42" s="41">
-        <v>0</v>
-      </c>
-      <c r="I42" s="42">
+      <c r="H42" s="34">
+        <v>0</v>
+      </c>
+      <c r="I42" s="35">
         <v>6.3600000000000004E-2</v>
       </c>
-      <c r="N42" s="43" t="s">
+      <c r="N42" s="36" t="s">
         <v>99</v>
       </c>
       <c r="O42" s="12">
         <v>91882</v>
       </c>
-      <c r="P42" s="42">
+      <c r="P42" s="35">
         <v>70.94</v>
       </c>
-      <c r="Q42" s="71">
+      <c r="Q42" s="64">
         <v>91989</v>
       </c>
-      <c r="R42" s="40">
+      <c r="R42" s="33">
         <v>92607.2</v>
       </c>
-      <c r="S42" s="41">
+      <c r="S42" s="34">
         <v>0.78927000000000003</v>
       </c>
-      <c r="T42" s="42">
+      <c r="T42" s="35">
         <v>20.035</v>
       </c>
     </row>
     <row r="43" spans="2:20" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="25" t="s">
         <v>171</v>
       </c>
       <c r="C43" s="13">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D43" s="39" t="str">
+      <c r="D43" s="32" t="str">
         <f t="shared" si="0"/>
         <v>TRP-S30-R15</v>
       </c>
@@ -8579,46 +8579,46 @@
       <c r="F43" s="11">
         <v>2862</v>
       </c>
-      <c r="G43" s="40">
+      <c r="G43" s="33">
         <v>2862</v>
       </c>
-      <c r="H43" s="41">
-        <v>0</v>
-      </c>
-      <c r="I43" s="42">
+      <c r="H43" s="34">
+        <v>0</v>
+      </c>
+      <c r="I43" s="35">
         <v>6.2899999999999998E-2</v>
       </c>
-      <c r="N43" s="43" t="s">
+      <c r="N43" s="36" t="s">
         <v>100</v>
       </c>
       <c r="O43" s="12">
         <v>88912</v>
       </c>
-      <c r="P43" s="42">
+      <c r="P43" s="35">
         <v>70.41</v>
       </c>
       <c r="Q43" s="12">
         <v>91589</v>
       </c>
-      <c r="R43" s="40">
+      <c r="R43" s="33">
         <v>89736.7</v>
       </c>
-      <c r="S43" s="41">
+      <c r="S43" s="34">
         <v>0.92754999999999999</v>
       </c>
-      <c r="T43" s="42">
+      <c r="T43" s="35">
         <v>19.385999999999999</v>
       </c>
     </row>
     <row r="44" spans="2:20" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="25" t="s">
         <v>171</v>
       </c>
       <c r="C44" s="13">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D44" s="39" t="str">
+      <c r="D44" s="32" t="str">
         <f t="shared" si="0"/>
         <v>TRP-S30-R16</v>
       </c>
@@ -8628,46 +8628,46 @@
       <c r="F44" s="11">
         <v>3433</v>
       </c>
-      <c r="G44" s="40">
+      <c r="G44" s="33">
         <v>3433</v>
       </c>
-      <c r="H44" s="41">
-        <v>0</v>
-      </c>
-      <c r="I44" s="42">
+      <c r="H44" s="34">
+        <v>0</v>
+      </c>
+      <c r="I44" s="35">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="N44" s="43" t="s">
+      <c r="N44" s="36" t="s">
         <v>101</v>
       </c>
       <c r="O44" s="12">
         <v>89311</v>
       </c>
-      <c r="P44" s="42">
+      <c r="P44" s="35">
         <v>77.89</v>
       </c>
       <c r="Q44" s="12">
         <v>89311</v>
       </c>
-      <c r="R44" s="40">
+      <c r="R44" s="33">
         <v>90866</v>
       </c>
-      <c r="S44" s="41">
+      <c r="S44" s="34">
         <v>1.7411000000000001</v>
       </c>
-      <c r="T44" s="42">
+      <c r="T44" s="35">
         <v>20.718</v>
       </c>
     </row>
     <row r="45" spans="2:20" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="25" t="s">
         <v>171</v>
       </c>
       <c r="C45" s="13">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D45" s="39" t="str">
+      <c r="D45" s="32" t="str">
         <f t="shared" si="0"/>
         <v>TRP-S30-R17</v>
       </c>
@@ -8677,46 +8677,46 @@
       <c r="F45" s="11">
         <v>2913</v>
       </c>
-      <c r="G45" s="40">
+      <c r="G45" s="33">
         <v>2913</v>
       </c>
-      <c r="H45" s="41">
-        <v>0</v>
-      </c>
-      <c r="I45" s="42">
+      <c r="H45" s="34">
+        <v>0</v>
+      </c>
+      <c r="I45" s="35">
         <v>6.0400000000000002E-2</v>
       </c>
-      <c r="N45" s="43" t="s">
+      <c r="N45" s="36" t="s">
         <v>102</v>
       </c>
       <c r="O45" s="12">
         <v>89089</v>
       </c>
-      <c r="P45" s="42">
+      <c r="P45" s="35">
         <v>71.17</v>
       </c>
       <c r="Q45" s="12">
         <v>89089</v>
       </c>
-      <c r="R45" s="40">
+      <c r="R45" s="33">
         <v>89777.3</v>
       </c>
-      <c r="S45" s="41">
+      <c r="S45" s="34">
         <v>0.77259999999999995</v>
       </c>
-      <c r="T45" s="42">
+      <c r="T45" s="35">
         <v>19.792999999999999</v>
       </c>
     </row>
     <row r="46" spans="2:20" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="25" t="s">
         <v>171</v>
       </c>
       <c r="C46" s="13">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="D46" s="39" t="str">
+      <c r="D46" s="32" t="str">
         <f t="shared" si="0"/>
         <v>TRP-S30-R18</v>
       </c>
@@ -8726,46 +8726,46 @@
       <c r="F46" s="11">
         <v>3124</v>
       </c>
-      <c r="G46" s="40">
+      <c r="G46" s="33">
         <v>3124</v>
       </c>
-      <c r="H46" s="41">
-        <v>0</v>
-      </c>
-      <c r="I46" s="42">
+      <c r="H46" s="34">
+        <v>0</v>
+      </c>
+      <c r="I46" s="35">
         <v>6.4299999999999996E-2</v>
       </c>
-      <c r="N46" s="43" t="s">
+      <c r="N46" s="36" t="s">
         <v>103</v>
       </c>
       <c r="O46" s="12">
         <v>93619</v>
       </c>
-      <c r="P46" s="42">
+      <c r="P46" s="35">
         <v>77.03</v>
       </c>
-      <c r="Q46" s="71">
+      <c r="Q46" s="64">
         <v>93972</v>
       </c>
-      <c r="R46" s="40">
+      <c r="R46" s="33">
         <v>94696.6</v>
       </c>
-      <c r="S46" s="41">
+      <c r="S46" s="34">
         <v>1.151</v>
       </c>
-      <c r="T46" s="42">
+      <c r="T46" s="35">
         <v>19.530999999999999</v>
       </c>
     </row>
     <row r="47" spans="2:20" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="25" t="s">
         <v>171</v>
       </c>
       <c r="C47" s="13">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="D47" s="39" t="str">
+      <c r="D47" s="32" t="str">
         <f t="shared" si="0"/>
         <v>TRP-S30-R19</v>
       </c>
@@ -8775,147 +8775,147 @@
       <c r="F47" s="11">
         <v>3299</v>
       </c>
-      <c r="G47" s="40">
+      <c r="G47" s="33">
         <v>3299</v>
       </c>
-      <c r="H47" s="41">
-        <v>0</v>
-      </c>
-      <c r="I47" s="42">
+      <c r="H47" s="34">
+        <v>0</v>
+      </c>
+      <c r="I47" s="35">
         <v>6.5699999999999995E-2</v>
       </c>
-      <c r="N47" s="43" t="s">
+      <c r="N47" s="36" t="s">
         <v>104</v>
       </c>
       <c r="O47" s="12">
         <v>93369</v>
       </c>
-      <c r="P47" s="42">
+      <c r="P47" s="35">
         <v>71.08</v>
       </c>
-      <c r="Q47" s="71">
+      <c r="Q47" s="64">
         <v>93676</v>
       </c>
-      <c r="R47" s="40">
+      <c r="R47" s="33">
         <v>94574</v>
       </c>
-      <c r="S47" s="41">
+      <c r="S47" s="34">
         <v>1.2906</v>
       </c>
-      <c r="T47" s="42">
+      <c r="T47" s="35">
         <v>18.504999999999999</v>
       </c>
     </row>
     <row r="48" spans="2:20" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="25" t="s">
         <v>171</v>
       </c>
       <c r="C48" s="13">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="D48" s="47" t="str">
+      <c r="D48" s="40" t="str">
         <f t="shared" si="0"/>
         <v>TRP-S30-R20</v>
       </c>
-      <c r="E48" s="67">
+      <c r="E48" s="60">
         <v>2796</v>
       </c>
-      <c r="F48" s="63">
+      <c r="F48" s="56">
         <v>2796</v>
       </c>
-      <c r="G48" s="54">
+      <c r="G48" s="47">
         <v>2796</v>
       </c>
-      <c r="H48" s="55">
-        <v>0</v>
-      </c>
-      <c r="I48" s="53">
+      <c r="H48" s="48">
+        <v>0</v>
+      </c>
+      <c r="I48" s="46">
         <v>6.5600000000000006E-2</v>
       </c>
-      <c r="N48" s="52" t="s">
+      <c r="N48" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="O48" s="69">
+      <c r="O48" s="62">
         <v>86292</v>
       </c>
-      <c r="P48" s="53">
+      <c r="P48" s="46">
         <v>70.61</v>
       </c>
-      <c r="Q48" s="72">
+      <c r="Q48" s="65">
         <v>86331</v>
       </c>
-      <c r="R48" s="54">
+      <c r="R48" s="47">
         <v>87346.8</v>
       </c>
-      <c r="S48" s="55">
+      <c r="S48" s="48">
         <v>1.2223999999999999</v>
       </c>
-      <c r="T48" s="53">
+      <c r="T48" s="46">
         <v>20.140999999999998</v>
       </c>
     </row>
     <row r="49" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="2:20" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D51" s="14"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="16" t="s">
+      <c r="D51" s="85"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="18"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="21" t="s">
+      <c r="G51" s="81"/>
+      <c r="H51" s="81"/>
+      <c r="I51" s="82"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="17" t="s">
+      <c r="P51" s="84"/>
+      <c r="Q51" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="R51" s="17"/>
-      <c r="S51" s="17"/>
-      <c r="T51" s="18"/>
+      <c r="R51" s="81"/>
+      <c r="S51" s="81"/>
+      <c r="T51" s="82"/>
     </row>
     <row r="52" spans="2:20" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D52" s="23" t="s">
+      <c r="D52" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="E52" s="24" t="s">
+      <c r="E52" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="F52" s="25" t="s">
+      <c r="F52" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="G52" s="26" t="s">
+      <c r="G52" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="H52" s="26" t="s">
+      <c r="H52" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="I52" s="27" t="s">
+      <c r="I52" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="N52" s="23" t="s">
+      <c r="N52" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="O52" s="29" t="s">
+      <c r="O52" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="P52" s="30" t="s">
+      <c r="P52" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="Q52" s="31" t="s">
+      <c r="Q52" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="R52" s="26" t="s">
+      <c r="R52" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="S52" s="26" t="s">
+      <c r="S52" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="T52" s="27" t="s">
+      <c r="T52" s="20" t="s">
         <v>143</v>
       </c>
     </row>
@@ -8923,7 +8923,7 @@
       <c r="B53" s="13">
         <v>1</v>
       </c>
-      <c r="D53" s="32" t="str">
+      <c r="D53" s="25" t="str">
         <f>"TRP-S50-R"&amp;B53</f>
         <v>TRP-S50-R1</v>
       </c>
@@ -8933,34 +8933,34 @@
       <c r="F53" s="9">
         <v>12198</v>
       </c>
-      <c r="G53" s="33">
+      <c r="G53" s="26">
         <v>12198</v>
       </c>
-      <c r="H53" s="34">
-        <v>0</v>
-      </c>
-      <c r="I53" s="35">
+      <c r="H53" s="27">
+        <v>0</v>
+      </c>
+      <c r="I53" s="28">
         <v>0.29870000000000002</v>
       </c>
-      <c r="N53" s="37" t="s">
+      <c r="N53" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="O53" s="68">
+      <c r="O53" s="61">
         <v>1841386</v>
       </c>
-      <c r="P53" s="35">
+      <c r="P53" s="28">
         <v>1738.48</v>
       </c>
-      <c r="Q53" s="79">
+      <c r="Q53" s="72">
         <v>1871090</v>
       </c>
-      <c r="R53" s="80">
+      <c r="R53" s="73">
         <v>1889007.8</v>
       </c>
-      <c r="S53" s="75">
+      <c r="S53" s="68">
         <v>2.5861999999999998</v>
       </c>
-      <c r="T53" s="76">
+      <c r="T53" s="69">
         <v>483.38</v>
       </c>
     </row>
@@ -8969,7 +8969,7 @@
         <f>B53+1</f>
         <v>2</v>
       </c>
-      <c r="D54" s="39" t="str">
+      <c r="D54" s="32" t="str">
         <f t="shared" ref="D54:D72" si="2">"TRP-S50-R"&amp;B54</f>
         <v>TRP-S50-R2</v>
       </c>
@@ -8979,34 +8979,34 @@
       <c r="F54" s="11">
         <v>11621</v>
       </c>
-      <c r="G54" s="40">
+      <c r="G54" s="33">
         <v>11621</v>
       </c>
-      <c r="H54" s="41">
-        <v>0</v>
-      </c>
-      <c r="I54" s="42">
+      <c r="H54" s="34">
+        <v>0</v>
+      </c>
+      <c r="I54" s="35">
         <v>0.30330000000000001</v>
       </c>
-      <c r="N54" s="43" t="s">
+      <c r="N54" s="36" t="s">
         <v>173</v>
       </c>
       <c r="O54" s="12">
         <v>1816568</v>
       </c>
-      <c r="P54" s="42">
+      <c r="P54" s="35">
         <v>1476.13</v>
       </c>
-      <c r="Q54" s="81">
+      <c r="Q54" s="74">
         <v>1835543</v>
       </c>
-      <c r="R54" s="82">
+      <c r="R54" s="75">
         <v>1847731.8</v>
       </c>
-      <c r="S54" s="77">
+      <c r="S54" s="70">
         <v>1.7155</v>
       </c>
-      <c r="T54" s="78">
+      <c r="T54" s="71">
         <v>525.37</v>
       </c>
     </row>
@@ -9015,7 +9015,7 @@
         <f t="shared" ref="B55:B72" si="3">B54+1</f>
         <v>3</v>
       </c>
-      <c r="D55" s="39" t="str">
+      <c r="D55" s="32" t="str">
         <f t="shared" si="2"/>
         <v>TRP-S50-R3</v>
       </c>
@@ -9025,34 +9025,34 @@
       <c r="F55" s="11">
         <v>12139</v>
       </c>
-      <c r="G55" s="40">
+      <c r="G55" s="33">
         <v>12139</v>
       </c>
-      <c r="H55" s="41">
-        <v>0</v>
-      </c>
-      <c r="I55" s="42">
+      <c r="H55" s="34">
+        <v>0</v>
+      </c>
+      <c r="I55" s="35">
         <v>0.29530000000000001</v>
       </c>
-      <c r="N55" s="43" t="s">
+      <c r="N55" s="36" t="s">
         <v>174</v>
       </c>
       <c r="O55" s="12">
         <v>1833044</v>
       </c>
-      <c r="P55" s="42">
+      <c r="P55" s="35">
         <v>1557.48</v>
       </c>
-      <c r="Q55" s="81">
+      <c r="Q55" s="74">
         <v>1845870</v>
       </c>
-      <c r="R55" s="82">
+      <c r="R55" s="75">
         <v>1866665.9</v>
       </c>
-      <c r="S55" s="77">
+      <c r="S55" s="70">
         <v>1.8342000000000001</v>
       </c>
-      <c r="T55" s="78">
+      <c r="T55" s="71">
         <v>513.5</v>
       </c>
     </row>
@@ -9061,7 +9061,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="D56" s="39" t="str">
+      <c r="D56" s="32" t="str">
         <f t="shared" si="2"/>
         <v>TRP-S50-R4</v>
       </c>
@@ -9071,34 +9071,34 @@
       <c r="F56" s="11">
         <v>13071</v>
       </c>
-      <c r="G56" s="40">
+      <c r="G56" s="33">
         <v>13162.8</v>
       </c>
-      <c r="H56" s="41">
+      <c r="H56" s="34">
         <v>0.70232000000000006</v>
       </c>
-      <c r="I56" s="42">
+      <c r="I56" s="35">
         <v>0.29699999999999999</v>
       </c>
-      <c r="N56" s="43" t="s">
+      <c r="N56" s="36" t="s">
         <v>110</v>
       </c>
       <c r="O56" s="12">
         <v>1809266</v>
       </c>
-      <c r="P56" s="42">
+      <c r="P56" s="35">
         <v>1597.06</v>
       </c>
-      <c r="Q56" s="81">
+      <c r="Q56" s="74">
         <v>1821669</v>
       </c>
-      <c r="R56" s="82">
+      <c r="R56" s="75">
         <v>1846249.8</v>
       </c>
-      <c r="S56" s="77">
+      <c r="S56" s="70">
         <v>2.0440999999999998</v>
       </c>
-      <c r="T56" s="78">
+      <c r="T56" s="71">
         <v>489.95</v>
       </c>
     </row>
@@ -9107,7 +9107,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="D57" s="39" t="str">
+      <c r="D57" s="32" t="str">
         <f t="shared" si="2"/>
         <v>TRP-S50-R5</v>
       </c>
@@ -9117,34 +9117,34 @@
       <c r="F57" s="11">
         <v>12126</v>
       </c>
-      <c r="G57" s="40">
+      <c r="G57" s="33">
         <v>12126</v>
       </c>
-      <c r="H57" s="41">
-        <v>0</v>
-      </c>
-      <c r="I57" s="42">
+      <c r="H57" s="34">
+        <v>0</v>
+      </c>
+      <c r="I57" s="35">
         <v>0.29039999999999999</v>
       </c>
-      <c r="N57" s="43" t="s">
+      <c r="N57" s="36" t="s">
         <v>112</v>
       </c>
       <c r="O57" s="12">
         <v>1823975</v>
       </c>
-      <c r="P57" s="42">
+      <c r="P57" s="35">
         <v>1530.94</v>
       </c>
-      <c r="Q57" s="81">
+      <c r="Q57" s="74">
         <v>1842106</v>
       </c>
-      <c r="R57" s="82">
+      <c r="R57" s="75">
         <v>1864734.9</v>
       </c>
-      <c r="S57" s="77">
+      <c r="S57" s="70">
         <v>2.2347000000000001</v>
       </c>
-      <c r="T57" s="78">
+      <c r="T57" s="71">
         <v>463.15</v>
       </c>
     </row>
@@ -9153,7 +9153,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="D58" s="39" t="str">
+      <c r="D58" s="32" t="str">
         <f t="shared" si="2"/>
         <v>TRP-S50-R6</v>
       </c>
@@ -9163,34 +9163,34 @@
       <c r="F58" s="11">
         <v>12684</v>
       </c>
-      <c r="G58" s="40">
+      <c r="G58" s="33">
         <v>12684.9</v>
       </c>
-      <c r="H58" s="41">
+      <c r="H58" s="34">
         <v>7.0955999999999997E-3</v>
       </c>
-      <c r="I58" s="42">
+      <c r="I58" s="35">
         <v>0.30249999999999999</v>
       </c>
-      <c r="N58" s="43" t="s">
+      <c r="N58" s="36" t="s">
         <v>114</v>
       </c>
       <c r="O58" s="12">
         <v>1786620</v>
       </c>
-      <c r="P58" s="42">
+      <c r="P58" s="35">
         <v>1576.91</v>
       </c>
-      <c r="Q58" s="81">
+      <c r="Q58" s="74">
         <v>1812489</v>
       </c>
-      <c r="R58" s="82">
+      <c r="R58" s="75">
         <v>1826810.3</v>
       </c>
-      <c r="S58" s="77">
+      <c r="S58" s="70">
         <v>2.2494999999999998</v>
       </c>
-      <c r="T58" s="78">
+      <c r="T58" s="71">
         <v>510.18</v>
       </c>
     </row>
@@ -9199,7 +9199,7 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="D59" s="39" t="str">
+      <c r="D59" s="32" t="str">
         <f t="shared" si="2"/>
         <v>TRP-S50-R7</v>
       </c>
@@ -9209,34 +9209,34 @@
       <c r="F59" s="11">
         <v>11176</v>
       </c>
-      <c r="G59" s="40">
+      <c r="G59" s="33">
         <v>11176</v>
       </c>
-      <c r="H59" s="41">
-        <v>0</v>
-      </c>
-      <c r="I59" s="42">
+      <c r="H59" s="34">
+        <v>0</v>
+      </c>
+      <c r="I59" s="35">
         <v>0.31230000000000002</v>
       </c>
-      <c r="N59" s="43" t="s">
+      <c r="N59" s="36" t="s">
         <v>116</v>
       </c>
       <c r="O59" s="12">
         <v>1847999</v>
       </c>
-      <c r="P59" s="42">
+      <c r="P59" s="35">
         <v>1584.67</v>
       </c>
-      <c r="Q59" s="81">
+      <c r="Q59" s="74">
         <v>1875923</v>
       </c>
-      <c r="R59" s="82">
+      <c r="R59" s="75">
         <v>1901249.5</v>
       </c>
-      <c r="S59" s="77">
+      <c r="S59" s="70">
         <v>2.8815</v>
       </c>
-      <c r="T59" s="78">
+      <c r="T59" s="71">
         <v>458.71</v>
       </c>
     </row>
@@ -9245,7 +9245,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="D60" s="39" t="str">
+      <c r="D60" s="32" t="str">
         <f t="shared" si="2"/>
         <v>TRP-S50-R8</v>
       </c>
@@ -9255,34 +9255,34 @@
       <c r="F60" s="11">
         <v>12910</v>
       </c>
-      <c r="G60" s="40">
+      <c r="G60" s="33">
         <v>12911.6</v>
       </c>
-      <c r="H60" s="41">
+      <c r="H60" s="34">
         <v>1.2393E-2</v>
       </c>
-      <c r="I60" s="42">
+      <c r="I60" s="35">
         <v>0.30249999999999999</v>
       </c>
-      <c r="N60" s="43" t="s">
+      <c r="N60" s="36" t="s">
         <v>118</v>
       </c>
       <c r="O60" s="12">
         <v>1820846</v>
       </c>
-      <c r="P60" s="42">
+      <c r="P60" s="35">
         <v>1565.01</v>
       </c>
-      <c r="Q60" s="81">
+      <c r="Q60" s="74">
         <v>1844134</v>
       </c>
-      <c r="R60" s="82">
+      <c r="R60" s="75">
         <v>1864047.4</v>
       </c>
-      <c r="S60" s="77">
+      <c r="S60" s="70">
         <v>2.3725999999999998</v>
       </c>
-      <c r="T60" s="78">
+      <c r="T60" s="71">
         <v>477.74</v>
       </c>
     </row>
@@ -9291,7 +9291,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="D61" s="39" t="str">
+      <c r="D61" s="32" t="str">
         <f t="shared" si="2"/>
         <v>TRP-S50-R9</v>
       </c>
@@ -9301,34 +9301,34 @@
       <c r="F61" s="11">
         <v>13149</v>
       </c>
-      <c r="G61" s="40">
+      <c r="G61" s="33">
         <v>13149</v>
       </c>
-      <c r="H61" s="41">
-        <v>0</v>
-      </c>
-      <c r="I61" s="42">
+      <c r="H61" s="34">
+        <v>0</v>
+      </c>
+      <c r="I61" s="35">
         <v>0.28949999999999998</v>
       </c>
-      <c r="N61" s="43" t="s">
+      <c r="N61" s="36" t="s">
         <v>120</v>
       </c>
       <c r="O61" s="12">
         <v>1733819</v>
       </c>
-      <c r="P61" s="42">
+      <c r="P61" s="35">
         <v>1409.23</v>
       </c>
-      <c r="Q61" s="81">
+      <c r="Q61" s="74">
         <v>1751823</v>
       </c>
-      <c r="R61" s="82">
+      <c r="R61" s="75">
         <v>1764178.6</v>
       </c>
-      <c r="S61" s="77">
+      <c r="S61" s="70">
         <v>1.7509999999999999</v>
       </c>
-      <c r="T61" s="78">
+      <c r="T61" s="71">
         <v>478.03</v>
       </c>
     </row>
@@ -9337,7 +9337,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="D62" s="39" t="str">
+      <c r="D62" s="32" t="str">
         <f t="shared" si="2"/>
         <v>TRP-S50-R10</v>
       </c>
@@ -9347,34 +9347,34 @@
       <c r="F62" s="11">
         <v>12892</v>
       </c>
-      <c r="G62" s="40">
+      <c r="G62" s="33">
         <v>12892</v>
       </c>
-      <c r="H62" s="41">
-        <v>0</v>
-      </c>
-      <c r="I62" s="42">
+      <c r="H62" s="34">
+        <v>0</v>
+      </c>
+      <c r="I62" s="35">
         <v>0.32379999999999998</v>
       </c>
-      <c r="N62" s="43" t="s">
+      <c r="N62" s="36" t="s">
         <v>122</v>
       </c>
       <c r="O62" s="12">
         <v>1762741</v>
       </c>
-      <c r="P62" s="42">
+      <c r="P62" s="35">
         <v>1621.85</v>
       </c>
-      <c r="Q62" s="81">
+      <c r="Q62" s="74">
         <v>1797515</v>
       </c>
-      <c r="R62" s="82">
+      <c r="R62" s="75">
         <v>1804639.1</v>
       </c>
-      <c r="S62" s="77">
+      <c r="S62" s="70">
         <v>2.3769</v>
       </c>
-      <c r="T62" s="78">
+      <c r="T62" s="71">
         <v>455.73</v>
       </c>
     </row>
@@ -9383,7 +9383,7 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="D63" s="39" t="str">
+      <c r="D63" s="32" t="str">
         <f t="shared" si="2"/>
         <v>TRP-S50-R11</v>
       </c>
@@ -9393,34 +9393,34 @@
       <c r="F63" s="11">
         <v>12103</v>
       </c>
-      <c r="G63" s="40">
+      <c r="G63" s="33">
         <v>12106.2</v>
       </c>
-      <c r="H63" s="41">
+      <c r="H63" s="34">
         <v>2.6440000000000002E-2</v>
       </c>
-      <c r="I63" s="42">
+      <c r="I63" s="35">
         <v>0.29530000000000001</v>
       </c>
-      <c r="N63" s="43" t="s">
+      <c r="N63" s="36" t="s">
         <v>124</v>
       </c>
       <c r="O63" s="12">
         <v>1797881</v>
       </c>
-      <c r="P63" s="42">
+      <c r="P63" s="35">
         <v>1530.98</v>
       </c>
-      <c r="Q63" s="81">
+      <c r="Q63" s="74">
         <v>1810796</v>
       </c>
-      <c r="R63" s="82">
+      <c r="R63" s="75">
         <v>1830966.2</v>
       </c>
-      <c r="S63" s="77">
+      <c r="S63" s="70">
         <v>1.8402000000000001</v>
       </c>
-      <c r="T63" s="78">
+      <c r="T63" s="71">
         <v>471.39</v>
       </c>
     </row>
@@ -9429,7 +9429,7 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="D64" s="39" t="str">
+      <c r="D64" s="32" t="str">
         <f t="shared" si="2"/>
         <v>TRP-S50-R12</v>
       </c>
@@ -9439,34 +9439,34 @@
       <c r="F64" s="11">
         <v>10633</v>
       </c>
-      <c r="G64" s="40">
+      <c r="G64" s="33">
         <v>10633</v>
       </c>
-      <c r="H64" s="41">
-        <v>0</v>
-      </c>
-      <c r="I64" s="42">
+      <c r="H64" s="34">
+        <v>0</v>
+      </c>
+      <c r="I64" s="35">
         <v>0.3075</v>
       </c>
-      <c r="N64" s="43" t="s">
+      <c r="N64" s="36" t="s">
         <v>126</v>
       </c>
       <c r="O64" s="12">
         <v>1774452</v>
       </c>
-      <c r="P64" s="42">
+      <c r="P64" s="35">
         <v>1554.75</v>
       </c>
-      <c r="Q64" s="81">
+      <c r="Q64" s="74">
         <v>1795137</v>
       </c>
-      <c r="R64" s="82">
+      <c r="R64" s="75">
         <v>1820156.2</v>
       </c>
-      <c r="S64" s="77">
+      <c r="S64" s="70">
         <v>2.5756999999999999</v>
       </c>
-      <c r="T64" s="78">
+      <c r="T64" s="71">
         <v>489.39</v>
       </c>
     </row>
@@ -9475,7 +9475,7 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="D65" s="39" t="str">
+      <c r="D65" s="32" t="str">
         <f t="shared" si="2"/>
         <v>TRP-S50-R13</v>
       </c>
@@ -9485,45 +9485,45 @@
       <c r="F65" s="11">
         <v>12115</v>
       </c>
-      <c r="G65" s="40">
+      <c r="G65" s="33">
         <v>12115</v>
       </c>
-      <c r="H65" s="41">
-        <v>0</v>
-      </c>
-      <c r="I65" s="42">
+      <c r="H65" s="34">
+        <v>0</v>
+      </c>
+      <c r="I65" s="35">
         <v>0.29820000000000002</v>
       </c>
-      <c r="N65" s="43" t="s">
+      <c r="N65" s="36" t="s">
         <v>128</v>
       </c>
       <c r="O65" s="12">
         <v>1873699</v>
       </c>
-      <c r="P65" s="42">
+      <c r="P65" s="35">
         <v>1598.46</v>
       </c>
-      <c r="Q65" s="81">
+      <c r="Q65" s="74">
         <v>1900017</v>
       </c>
-      <c r="R65" s="82">
+      <c r="R65" s="75">
         <v>1909468.8</v>
       </c>
-      <c r="S65" s="77">
+      <c r="S65" s="70">
         <v>1.9090472909469476</v>
       </c>
-      <c r="T65" s="78">
+      <c r="T65" s="71">
         <v>457.19</v>
       </c>
-      <c r="V65" s="74"/>
-      <c r="W65" s="74"/>
+      <c r="V65" s="67"/>
+      <c r="W65" s="67"/>
     </row>
     <row r="66" spans="2:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="13">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="D66" s="39" t="str">
+      <c r="D66" s="32" t="str">
         <f t="shared" si="2"/>
         <v>TRP-S50-R14</v>
       </c>
@@ -9533,45 +9533,45 @@
       <c r="F66" s="11">
         <v>13117</v>
       </c>
-      <c r="G66" s="40">
+      <c r="G66" s="33">
         <v>13129</v>
       </c>
-      <c r="H66" s="41">
+      <c r="H66" s="34">
         <v>9.1483999999999996E-2</v>
       </c>
-      <c r="I66" s="42">
+      <c r="I66" s="35">
         <v>0.2893</v>
       </c>
-      <c r="N66" s="43" t="s">
+      <c r="N66" s="36" t="s">
         <v>130</v>
       </c>
       <c r="O66" s="12">
         <v>1799171</v>
       </c>
-      <c r="P66" s="42">
+      <c r="P66" s="35">
         <v>1701.9</v>
       </c>
-      <c r="Q66" s="71">
+      <c r="Q66" s="64">
         <v>1822190</v>
       </c>
-      <c r="R66" s="40">
+      <c r="R66" s="33">
         <v>1829656</v>
       </c>
-      <c r="S66" s="41">
+      <c r="S66" s="34">
         <v>1.6943914725170646</v>
       </c>
-      <c r="T66" s="42">
+      <c r="T66" s="35">
         <v>460.45</v>
       </c>
-      <c r="V66" s="74"/>
-      <c r="W66" s="74"/>
+      <c r="V66" s="67"/>
+      <c r="W66" s="67"/>
     </row>
     <row r="67" spans="2:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="13">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="D67" s="39" t="str">
+      <c r="D67" s="32" t="str">
         <f t="shared" si="2"/>
         <v>TRP-S50-R15</v>
       </c>
@@ -9581,45 +9581,45 @@
       <c r="F67" s="11">
         <v>11986</v>
       </c>
-      <c r="G67" s="40">
+      <c r="G67" s="33">
         <v>11986</v>
       </c>
-      <c r="H67" s="41">
-        <v>0</v>
-      </c>
-      <c r="I67" s="42">
+      <c r="H67" s="34">
+        <v>0</v>
+      </c>
+      <c r="I67" s="35">
         <v>0.32050000000000001</v>
       </c>
-      <c r="N67" s="43" t="s">
+      <c r="N67" s="36" t="s">
         <v>132</v>
       </c>
       <c r="O67" s="12">
         <v>1791145</v>
       </c>
-      <c r="P67" s="42">
+      <c r="P67" s="35">
         <v>1623.79</v>
       </c>
-      <c r="Q67" s="71">
+      <c r="Q67" s="64">
         <v>1801765</v>
       </c>
-      <c r="R67" s="40">
+      <c r="R67" s="33">
         <v>1823544</v>
       </c>
-      <c r="S67" s="41">
+      <c r="S67" s="34">
         <v>1.8088429468301002</v>
       </c>
-      <c r="T67" s="42">
+      <c r="T67" s="35">
         <v>476.89</v>
       </c>
-      <c r="V67" s="74"/>
-      <c r="W67" s="74"/>
+      <c r="V67" s="67"/>
+      <c r="W67" s="67"/>
     </row>
     <row r="68" spans="2:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="13">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="D68" s="39" t="str">
+      <c r="D68" s="32" t="str">
         <f t="shared" si="2"/>
         <v>TRP-S50-R16</v>
       </c>
@@ -9629,45 +9629,45 @@
       <c r="F68" s="11">
         <v>12138</v>
       </c>
-      <c r="G68" s="40">
+      <c r="G68" s="33">
         <v>12138</v>
       </c>
-      <c r="H68" s="41">
-        <v>0</v>
-      </c>
-      <c r="I68" s="42">
+      <c r="H68" s="34">
+        <v>0</v>
+      </c>
+      <c r="I68" s="35">
         <v>0.3095</v>
       </c>
-      <c r="N68" s="43" t="s">
+      <c r="N68" s="36" t="s">
         <v>134</v>
       </c>
       <c r="O68" s="12">
         <v>1810188</v>
       </c>
-      <c r="P68" s="42">
+      <c r="P68" s="35">
         <v>1583.7</v>
       </c>
-      <c r="Q68" s="71">
+      <c r="Q68" s="64">
         <v>1834573</v>
       </c>
-      <c r="R68" s="40">
+      <c r="R68" s="33">
         <v>1840784</v>
       </c>
-      <c r="S68" s="41">
+      <c r="S68" s="34">
         <v>1.6902111824849131</v>
       </c>
-      <c r="T68" s="42">
+      <c r="T68" s="35">
         <v>451.12</v>
       </c>
-      <c r="V68" s="74"/>
-      <c r="W68" s="74"/>
+      <c r="V68" s="67"/>
+      <c r="W68" s="67"/>
     </row>
     <row r="69" spans="2:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="13">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="D69" s="39" t="str">
+      <c r="D69" s="32" t="str">
         <f t="shared" si="2"/>
         <v>TRP-S50-R17</v>
       </c>
@@ -9677,45 +9677,45 @@
       <c r="F69" s="11">
         <v>12176</v>
       </c>
-      <c r="G69" s="40">
+      <c r="G69" s="33">
         <v>12205.4</v>
       </c>
-      <c r="H69" s="41">
+      <c r="H69" s="34">
         <v>0.24146000000000001</v>
       </c>
-      <c r="I69" s="42">
+      <c r="I69" s="35">
         <v>0.32779999999999998</v>
       </c>
-      <c r="N69" s="43" t="s">
+      <c r="N69" s="36" t="s">
         <v>136</v>
       </c>
       <c r="O69" s="12">
         <v>1825748</v>
       </c>
-      <c r="P69" s="42">
+      <c r="P69" s="35">
         <v>1549.8</v>
       </c>
-      <c r="Q69" s="71">
+      <c r="Q69" s="64">
         <v>1857894</v>
       </c>
-      <c r="R69" s="40">
+      <c r="R69" s="33">
         <v>1871635</v>
       </c>
-      <c r="S69" s="41">
+      <c r="S69" s="34">
         <v>2.5133260449963521</v>
       </c>
-      <c r="T69" s="42">
+      <c r="T69" s="35">
         <v>488.32</v>
       </c>
-      <c r="V69" s="74"/>
-      <c r="W69" s="74"/>
+      <c r="V69" s="67"/>
+      <c r="W69" s="67"/>
     </row>
     <row r="70" spans="2:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="13">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="D70" s="39" t="str">
+      <c r="D70" s="32" t="str">
         <f t="shared" si="2"/>
         <v>TRP-S50-R18</v>
       </c>
@@ -9725,45 +9725,45 @@
       <c r="F70" s="11">
         <v>13357</v>
       </c>
-      <c r="G70" s="40">
+      <c r="G70" s="33">
         <v>13420.4</v>
       </c>
-      <c r="H70" s="41">
+      <c r="H70" s="34">
         <v>0.47466000000000003</v>
       </c>
-      <c r="I70" s="42">
+      <c r="I70" s="35">
         <v>0.30780000000000002</v>
       </c>
-      <c r="N70" s="43" t="s">
+      <c r="N70" s="36" t="s">
         <v>138</v>
       </c>
       <c r="O70" s="12">
         <v>1826263</v>
       </c>
-      <c r="P70" s="42">
+      <c r="P70" s="35">
         <v>1620.02</v>
       </c>
-      <c r="Q70" s="71">
+      <c r="Q70" s="64">
         <v>1864287</v>
       </c>
-      <c r="R70" s="40">
+      <c r="R70" s="33">
         <v>1876765</v>
       </c>
-      <c r="S70" s="41">
+      <c r="S70" s="34">
         <v>2.7653191243539399</v>
       </c>
-      <c r="T70" s="42">
+      <c r="T70" s="35">
         <v>497.81</v>
       </c>
-      <c r="V70" s="74"/>
-      <c r="W70" s="74"/>
+      <c r="V70" s="67"/>
+      <c r="W70" s="67"/>
     </row>
     <row r="71" spans="2:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="13">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="D71" s="39" t="str">
+      <c r="D71" s="32" t="str">
         <f t="shared" si="2"/>
         <v>TRP-S50-R19</v>
       </c>
@@ -9773,89 +9773,89 @@
       <c r="F71" s="11">
         <v>11430</v>
       </c>
-      <c r="G71" s="40">
+      <c r="G71" s="33">
         <v>11430</v>
       </c>
-      <c r="H71" s="41">
-        <v>0</v>
-      </c>
-      <c r="I71" s="42">
+      <c r="H71" s="34">
+        <v>0</v>
+      </c>
+      <c r="I71" s="35">
         <v>0.32600000000000001</v>
       </c>
-      <c r="N71" s="43" t="s">
+      <c r="N71" s="36" t="s">
         <v>140</v>
       </c>
       <c r="O71" s="12">
         <v>1779248</v>
       </c>
-      <c r="P71" s="42">
+      <c r="P71" s="35">
         <v>1602.87</v>
       </c>
-      <c r="Q71" s="71">
+      <c r="Q71" s="64">
         <v>1825407</v>
       </c>
-      <c r="R71" s="40">
+      <c r="R71" s="33">
         <v>1828812</v>
       </c>
-      <c r="S71" s="41">
+      <c r="S71" s="34">
         <v>2.7856712498763523</v>
       </c>
-      <c r="T71" s="42">
+      <c r="T71" s="35">
         <v>501.49</v>
       </c>
-      <c r="V71" s="74"/>
-      <c r="W71" s="74"/>
+      <c r="V71" s="67"/>
+      <c r="W71" s="67"/>
     </row>
     <row r="72" spans="2:23" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="13">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="D72" s="47" t="str">
+      <c r="D72" s="40" t="str">
         <f t="shared" si="2"/>
         <v>TRP-S50-R20</v>
       </c>
-      <c r="E72" s="67">
+      <c r="E72" s="60">
         <v>11935</v>
       </c>
-      <c r="F72" s="63">
+      <c r="F72" s="56">
         <v>11935</v>
       </c>
-      <c r="G72" s="54">
+      <c r="G72" s="47">
         <v>11937.7</v>
       </c>
-      <c r="H72" s="55">
+      <c r="H72" s="48">
         <v>2.2623000000000001E-2</v>
       </c>
-      <c r="I72" s="53">
+      <c r="I72" s="46">
         <v>0.30020000000000002</v>
       </c>
-      <c r="N72" s="52" t="s">
+      <c r="N72" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="O72" s="69">
+      <c r="O72" s="62">
         <v>1820813</v>
       </c>
-      <c r="P72" s="53">
+      <c r="P72" s="46">
         <v>1507.96</v>
       </c>
-      <c r="Q72" s="72">
+      <c r="Q72" s="65">
         <v>1847916</v>
       </c>
-      <c r="R72" s="54">
+      <c r="R72" s="47">
         <v>1849547</v>
       </c>
-      <c r="S72" s="55">
+      <c r="S72" s="48">
         <v>1.5780862724508227</v>
       </c>
-      <c r="T72" s="53">
+      <c r="T72" s="46">
         <v>455.57</v>
       </c>
-      <c r="V72" s="74"/>
-      <c r="W72" s="74"/>
+      <c r="V72" s="67"/>
+      <c r="W72" s="67"/>
     </row>
     <row r="73" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="S73" s="73"/>
+      <c r="S73" s="66"/>
     </row>
     <row r="89" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D89" s="13" t="s">
@@ -10139,12 +10139,7 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="F27:I27"/>
@@ -10152,7 +10147,12 @@
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="Q51:T51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/tabele/prvaTabela.xlsx
+++ b/tabele/prvaTabela.xlsx
@@ -1709,8 +1709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2560,7 +2560,7 @@
   <dimension ref="C3:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:I15"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3045,18 +3045,10 @@
       <c r="E18" s="29"/>
       <c r="F18" s="55"/>
       <c r="G18" s="55"/>
-      <c r="H18" s="77">
-        <v>19710</v>
-      </c>
-      <c r="I18" s="77">
-        <v>19751</v>
-      </c>
-      <c r="J18" s="5">
-        <v>2.7930999999999999</v>
-      </c>
-      <c r="K18" s="5">
-        <v>0.59450000000000003</v>
-      </c>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" spans="3:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="53"/>
@@ -3064,18 +3056,10 @@
       <c r="E19" s="29"/>
       <c r="F19" s="54"/>
       <c r="G19" s="55"/>
-      <c r="H19" s="77">
-        <v>56573</v>
-      </c>
-      <c r="I19" s="77">
-        <v>56862</v>
-      </c>
-      <c r="J19" s="5">
-        <v>3.4163999999999999</v>
-      </c>
-      <c r="K19" s="5">
-        <v>1.7714000000000001</v>
-      </c>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
     </row>
     <row r="20" spans="3:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="53"/>
@@ -3083,18 +3067,10 @@
       <c r="E20" s="29"/>
       <c r="F20" s="54"/>
       <c r="G20" s="55"/>
-      <c r="H20" s="77">
-        <v>951609</v>
-      </c>
-      <c r="I20" s="77">
-        <v>951944</v>
-      </c>
-      <c r="J20" s="5">
-        <v>0.24754999999999999</v>
-      </c>
-      <c r="K20" s="5">
-        <v>1.7016</v>
-      </c>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
     </row>
     <row r="21" spans="3:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="53"/>
@@ -3102,18 +3078,10 @@
       <c r="E21" s="29"/>
       <c r="F21" s="54"/>
       <c r="G21" s="55"/>
-      <c r="H21" s="77">
-        <v>586751</v>
-      </c>
-      <c r="I21" s="77">
-        <v>586751</v>
-      </c>
-      <c r="J21" s="5">
-        <v>0.15841</v>
-      </c>
-      <c r="K21" s="5">
-        <v>1.7516</v>
-      </c>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
     </row>
     <row r="22" spans="3:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="53"/>
@@ -3121,18 +3089,10 @@
       <c r="E22" s="29"/>
       <c r="F22" s="54"/>
       <c r="G22" s="55"/>
-      <c r="H22" s="77">
-        <v>1981991</v>
-      </c>
-      <c r="I22" s="77">
-        <v>1981995</v>
-      </c>
-      <c r="J22" s="5">
-        <v>6.2042E-2</v>
-      </c>
-      <c r="K22" s="5">
-        <v>2.1337999999999999</v>
-      </c>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="3:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="53"/>
@@ -3140,18 +3100,10 @@
       <c r="E23" s="29"/>
       <c r="F23" s="54"/>
       <c r="G23" s="55"/>
-      <c r="H23" s="77">
-        <v>217104</v>
-      </c>
-      <c r="I23" s="77">
-        <v>218160</v>
-      </c>
-      <c r="J23" s="5">
-        <v>3.7915999999999999</v>
-      </c>
-      <c r="K23" s="5">
-        <v>13.535</v>
-      </c>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
     </row>
     <row r="24" spans="3:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="53"/>
@@ -3159,18 +3111,10 @@
       <c r="E24" s="29"/>
       <c r="F24" s="54"/>
       <c r="G24" s="55"/>
-      <c r="H24" s="77">
-        <v>7118051</v>
-      </c>
-      <c r="I24" s="77">
-        <v>7118796</v>
-      </c>
-      <c r="J24" s="5">
-        <v>0.26039000000000001</v>
-      </c>
-      <c r="K24" s="5">
-        <v>25.771000000000001</v>
-      </c>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
     </row>
     <row r="25" spans="3:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="53"/>
@@ -3178,18 +3122,10 @@
       <c r="E25" s="29"/>
       <c r="F25" s="55"/>
       <c r="G25" s="55"/>
-      <c r="H25" s="77">
-        <v>5569520</v>
-      </c>
-      <c r="I25" s="77">
-        <v>5613412</v>
-      </c>
-      <c r="J25" s="5">
-        <v>0.94833000000000001</v>
-      </c>
-      <c r="K25" s="5">
-        <v>79.346999999999994</v>
-      </c>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
     </row>
     <row r="26" spans="3:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="53"/>
@@ -3197,18 +3133,10 @@
       <c r="E26" s="29"/>
       <c r="F26" s="54"/>
       <c r="G26" s="55"/>
-      <c r="H26" s="77">
-        <v>17800061</v>
-      </c>
-      <c r="I26" s="77">
-        <v>17855062</v>
-      </c>
-      <c r="J26" s="5">
-        <v>0.94128999999999996</v>
-      </c>
-      <c r="K26" s="5">
-        <v>246.79</v>
-      </c>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
     </row>
     <row r="27" spans="3:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="53"/>
@@ -6662,8 +6590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AC108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:T24"/>
+    <sheetView topLeftCell="J43" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tabele/prvaTabela.xlsx
+++ b/tabele/prvaTabela.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17715" windowHeight="8145" tabRatio="601" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17715" windowHeight="8145" tabRatio="601" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="tsplib" sheetId="1" r:id="rId1"/>
@@ -1137,9 +1137,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1162,15 +1159,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1274,8 +1262,20 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1499,11 +1499,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1008688304"/>
-        <c:axId val="-1008684496"/>
+        <c:axId val="-646868112"/>
+        <c:axId val="-646878992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1008688304"/>
+        <c:axId val="-646868112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1602,7 +1602,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1008684496"/>
+        <c:crossAx val="-646878992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1610,7 +1610,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1008684496"/>
+        <c:axId val="-646878992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2500"/>
@@ -1735,7 +1735,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1008688304"/>
+        <c:crossAx val="-646868112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1842,7 +1842,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1928,7 +1931,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2016,11 +2019,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1221045216"/>
-        <c:axId val="-1221040864"/>
+        <c:axId val="-646867568"/>
+        <c:axId val="-646881168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1221045216"/>
+        <c:axId val="-646867568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2119,7 +2122,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1221040864"/>
+        <c:crossAx val="-646881168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2127,7 +2130,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1221040864"/>
+        <c:axId val="-646881168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2500"/>
@@ -2252,7 +2255,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1221045216"/>
+        <c:crossAx val="-646867568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3457,16 +3460,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>517277</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>43708</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>629337</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>110943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>682668</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>165013</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>135043</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>13002</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4028,64 +4031,64 @@
         <v>108</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="59"/>
+      <c r="F2" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
       <c r="K2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="18" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="22">
         <v>12528</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="20">
         <v>0.16</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="22">
         <v>12528</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="23">
         <v>12528</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="20">
         <v>0</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="20">
         <v>0.2064</v>
       </c>
       <c r="K4" s="3">
@@ -4102,25 +4105,25 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="22">
         <v>22327</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <v>0.16</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="22">
         <v>22327</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="23">
         <v>22327</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="20">
         <v>0</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="20">
         <v>0.2039</v>
       </c>
       <c r="K5" s="3">
@@ -4137,25 +4140,25 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <v>209320</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>0.32</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="22">
         <v>209320</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="23">
         <v>209320</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="20">
         <v>0</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="20">
         <v>0.28689999999999999</v>
       </c>
       <c r="K6" s="3">
@@ -4172,25 +4175,25 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="22">
         <v>102378</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="20">
         <v>0.33</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="22">
         <v>102378</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="23">
         <v>102378</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="20">
         <v>0</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="20">
         <v>0.2717</v>
       </c>
       <c r="K7" s="3">
@@ -4207,25 +4210,25 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="22">
         <v>247926</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="20">
         <v>0.3</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="22">
         <v>247926</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="23">
         <v>248068.7</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="20">
         <v>5.7556999999999997E-2</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="20">
         <v>0.25650000000000001</v>
       </c>
       <c r="K8" s="3">
@@ -4242,25 +4245,25 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="22">
         <v>10178</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <v>0.49</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="22">
         <v>10178</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="23">
         <v>10248.5</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="20">
         <v>0.69267000000000001</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="20">
         <v>0.2944</v>
       </c>
       <c r="K9" s="3">
@@ -4277,25 +4280,25 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="22">
         <v>143721</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="20">
         <v>0.46</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="22">
         <v>143721</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="23">
         <v>143862.9</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="20">
         <v>9.8733000000000001E-2</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="20">
         <v>0.33289999999999997</v>
       </c>
       <c r="K10" s="3">
@@ -4312,25 +4315,25 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="22">
         <v>512361</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="20">
         <v>0.78</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="22">
         <v>512361</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="23">
         <v>512361</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="20">
         <v>0</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="20">
         <v>0.4587</v>
       </c>
       <c r="K11" s="3">
@@ -4347,25 +4350,25 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="22">
         <v>20557</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="20">
         <v>1.65</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="22">
         <v>20557</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="23">
         <v>20557</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="20">
         <v>0</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="20">
         <v>0.70130000000000003</v>
       </c>
       <c r="K12" s="3">
@@ -4382,25 +4385,25 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="22">
         <v>17976</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="20">
         <v>2.64</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="22">
         <v>17976</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="23">
         <v>18069.5</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="20">
         <v>0.52014000000000005</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="20">
         <v>0.87119999999999997</v>
       </c>
       <c r="K13" s="3">
@@ -4417,25 +4420,25 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="22">
         <v>3455242</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="20">
         <v>2.31</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="22">
         <v>3455242</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="23">
         <v>3459378.2</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="20">
         <v>0.11971</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="20">
         <v>0.93810000000000004</v>
       </c>
       <c r="K14" s="3">
@@ -4452,25 +4455,25 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="22">
         <v>2097170</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <v>6.19</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="22">
         <v>2097170</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="23">
         <v>2101268.4</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="20">
         <v>0.19542999999999999</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="20">
         <v>1.6827000000000001</v>
       </c>
       <c r="K15" s="3">
@@ -4487,25 +4490,25 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <v>11.27</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="23">
         <v>57986</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="23">
         <v>58210.5</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="20">
         <v>0.38716</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="20">
         <v>2.1469999999999998</v>
       </c>
       <c r="K16" s="3">
@@ -4522,25 +4525,25 @@
       </c>
     </row>
     <row r="17" spans="3:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="22">
         <v>983128</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="20">
         <v>8.59</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="22">
         <v>983128</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="23">
         <v>992583.6</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="20">
         <v>0.96179000000000003</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="20">
         <v>2.2953999999999999</v>
       </c>
       <c r="K17" s="3">
@@ -4557,25 +4560,25 @@
       </c>
     </row>
     <row r="18" spans="3:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="22">
         <v>986008</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="20">
         <v>9.2100000000000009</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="22">
         <v>986008</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="23">
         <v>986008</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="20">
         <v>0</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="20">
         <v>2.16</v>
       </c>
       <c r="K18" s="3">
@@ -4592,25 +4595,25 @@
       </c>
     </row>
     <row r="19" spans="3:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="22">
         <v>961324</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="20">
         <v>8.17</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="22">
         <v>961324</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="23">
         <v>961324</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="20">
         <v>0</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="20">
         <v>2.1156999999999999</v>
       </c>
       <c r="K19" s="3">
@@ -4627,25 +4630,25 @@
       </c>
     </row>
     <row r="20" spans="3:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="22">
         <v>976965</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="20">
         <v>8.4600000000000009</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="22">
         <v>976965</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="23">
         <v>977748.3</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="20">
         <v>8.0176999999999998E-2</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="20">
         <v>2.0981000000000001</v>
       </c>
       <c r="K20" s="3">
@@ -4662,25 +4665,25 @@
       </c>
     </row>
     <row r="21" spans="3:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="22">
         <v>971266</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="20">
         <v>8.31</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="22">
         <v>971266</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="23">
         <v>971354.3</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="20">
         <v>9.0912000000000007E-3</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="20">
         <v>2.0272999999999999</v>
       </c>
       <c r="K21" s="3">
@@ -4697,25 +4700,25 @@
       </c>
     </row>
     <row r="22" spans="3:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="22">
         <v>340047</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="20">
         <v>8.52</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="22">
         <v>340047</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="23">
         <v>340578.6</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="20">
         <v>0.15633</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="20">
         <v>1.9510000000000001</v>
       </c>
       <c r="K22" s="3">
@@ -4732,25 +4735,25 @@
       </c>
     </row>
     <row r="23" spans="3:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="20">
         <v>12.76</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="23">
         <v>27519</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="23">
         <v>27716.9</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="20">
         <v>0.74109999999999998</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="20">
         <v>2.0960000000000001</v>
       </c>
       <c r="K23" s="3">
@@ -4767,25 +4770,25 @@
       </c>
     </row>
     <row r="24" spans="3:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="22">
         <v>603910</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="20">
         <v>8.42</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="22">
         <v>603910</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="23">
         <v>603910</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="20">
         <v>0</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="20">
         <v>2.3609</v>
       </c>
       <c r="K24" s="3">
@@ -4802,25 +4805,25 @@
       </c>
     </row>
     <row r="25" spans="3:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="22">
         <v>2026626</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="20">
         <v>10.89</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="22">
         <v>2026626</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="23">
         <v>2026626</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="20">
         <v>0</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="20">
         <v>2.6560999999999999</v>
       </c>
       <c r="K25" s="3">
@@ -4853,7 +4856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
@@ -4868,60 +4871,60 @@
   <sheetData>
     <row r="4" spans="3:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="16"/>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17" t="s">
+      <c r="E4" s="59"/>
+      <c r="F4" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
     </row>
     <row r="5" spans="3:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="18" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="6" spans="3:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="23">
         <v>19215</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>1.51</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="23">
         <v>19710</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="23">
         <v>19751</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="20">
         <v>2.7930999999999999</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="20">
         <v>0.59450000000000003</v>
       </c>
       <c r="N6" t="s">
@@ -4944,25 +4947,25 @@
       </c>
     </row>
     <row r="7" spans="3:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="23">
         <v>54984</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="20">
         <v>9.4700000000000006</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="23">
         <v>56573</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="23">
         <v>56862</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="20">
         <v>3.4163999999999999</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="20">
         <v>1.7714000000000001</v>
       </c>
       <c r="N7" t="s">
@@ -4985,25 +4988,25 @@
       </c>
     </row>
     <row r="8" spans="3:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="23">
         <v>949594</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="20">
         <v>6.9</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="23">
         <v>951609</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="23">
         <v>951944</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="20">
         <v>0.24754999999999999</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="20">
         <v>1.7016</v>
       </c>
       <c r="N8" t="s">
@@ -5026,25 +5029,25 @@
       </c>
     </row>
     <row r="9" spans="3:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="23">
         <v>585823</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <v>6.19</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="23">
         <v>586751</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="23">
         <v>586751</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="20">
         <v>0.15841</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="20">
         <v>1.7516</v>
       </c>
       <c r="N9" t="s">
@@ -5067,25 +5070,25 @@
       </c>
     </row>
     <row r="10" spans="3:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="23">
         <v>1980767</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="20">
         <v>8.1300000000000008</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="23">
         <v>1981991</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="23">
         <v>1981995</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="20">
         <v>6.2042E-2</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="20">
         <v>2.1337999999999999</v>
       </c>
       <c r="N10" t="s">
@@ -5108,25 +5111,25 @@
       </c>
     </row>
     <row r="11" spans="3:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="23">
         <v>210191</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="20">
         <v>75.56</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="23">
         <v>217104</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="23">
         <v>218160</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="20">
         <v>3.7915999999999999</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="20">
         <v>13.535</v>
       </c>
       <c r="N11" t="s">
@@ -5149,25 +5152,25 @@
       </c>
     </row>
     <row r="12" spans="3:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="23">
         <v>7100308</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="20">
         <v>59.05</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="23">
         <v>7118051</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="23">
         <v>7118796</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="20">
         <v>0.26039000000000001</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="20">
         <v>25.771000000000001</v>
       </c>
       <c r="N12" t="s">
@@ -5190,25 +5193,25 @@
       </c>
     </row>
     <row r="13" spans="3:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="23">
         <v>5560679</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="20">
         <v>220.59</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="23">
         <v>5569520</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="23">
         <v>5613412</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="20">
         <v>0.94833000000000001</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="20">
         <v>79.346999999999994</v>
       </c>
       <c r="N13" t="s">
@@ -5231,25 +5234,25 @@
       </c>
     </row>
     <row r="14" spans="3:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="23">
         <v>17688561</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="20">
         <v>553.74</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="23">
         <v>17800061</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="23">
         <v>17855062</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="20">
         <v>0.94128999999999996</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="20">
         <v>246.79</v>
       </c>
       <c r="N14" t="s">
@@ -5272,26 +5275,26 @@
       </c>
     </row>
     <row r="15" spans="3:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="23">
         <v>5581240</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <v>1792.61</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="23">
         <v>5652178</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="23">
         <v>5691485</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="20">
         <f>(G15-D15)/D15*100</f>
         <v>1.9752778952347509</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="20">
         <v>601.87120000000004</v>
       </c>
       <c r="N15" t="s">
@@ -9376,129 +9379,129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AC108"/>
   <sheetViews>
-    <sheetView topLeftCell="N36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y32" sqref="Y32"/>
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y36" sqref="Y36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="25"/>
-    <col min="3" max="3" width="8.7109375" style="25" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="25" customWidth="1"/>
-    <col min="5" max="7" width="12.7109375" style="25" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="25" customWidth="1"/>
-    <col min="9" max="10" width="10.7109375" style="25" customWidth="1"/>
-    <col min="11" max="13" width="9.140625" style="25"/>
-    <col min="14" max="14" width="13.7109375" style="25" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="25" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="25" customWidth="1"/>
-    <col min="17" max="18" width="12.7109375" style="25" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="25" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" style="25" customWidth="1"/>
-    <col min="21" max="22" width="9.140625" style="25"/>
-    <col min="23" max="23" width="11.42578125" style="25" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" style="25" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" style="25" customWidth="1"/>
-    <col min="26" max="27" width="12.7109375" style="25" customWidth="1"/>
-    <col min="28" max="28" width="10.85546875" style="25" customWidth="1"/>
-    <col min="29" max="29" width="10.7109375" style="25" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="25"/>
+    <col min="1" max="2" width="9.140625" style="24"/>
+    <col min="3" max="3" width="8.7109375" style="24" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="24" customWidth="1"/>
+    <col min="5" max="7" width="12.7109375" style="24" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="24" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" style="24" customWidth="1"/>
+    <col min="11" max="13" width="9.140625" style="24"/>
+    <col min="14" max="14" width="13.7109375" style="24" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="24" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="24" customWidth="1"/>
+    <col min="17" max="18" width="12.7109375" style="24" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="24" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="24" customWidth="1"/>
+    <col min="21" max="22" width="9.140625" style="24"/>
+    <col min="23" max="23" width="11.42578125" style="24" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" style="24" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" style="24" customWidth="1"/>
+    <col min="26" max="27" width="12.7109375" style="24" customWidth="1"/>
+    <col min="28" max="28" width="10.85546875" style="24" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" style="24" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:29" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="4:29" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="17" t="s">
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="29"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="25"/>
       <c r="N3" s="16"/>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17" t="s">
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
       <c r="W3" s="13"/>
-      <c r="X3" s="26" t="s">
+      <c r="X3" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="27" t="s">
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="28"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="62"/>
     </row>
     <row r="4" spans="4:29" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="J4" s="29"/>
-      <c r="N4" s="18" t="s">
+      <c r="J4" s="25"/>
+      <c r="N4" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="P4" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="R4" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="S4" s="18" t="s">
+      <c r="S4" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="T4" s="19" t="s">
+      <c r="T4" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="W4" s="30" t="s">
+      <c r="W4" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="X4" s="33" t="s">
+      <c r="X4" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="Y4" s="34" t="s">
+      <c r="Y4" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="Z4" s="35" t="s">
+      <c r="Z4" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="AA4" s="31" t="s">
+      <c r="AA4" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="AB4" s="31" t="s">
+      <c r="AB4" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="AC4" s="32" t="s">
+      <c r="AC4" s="28" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9506,1143 +9509,1143 @@
       <c r="D5" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>1303</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="22">
         <v>1303</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="23">
         <v>1303</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="20">
         <v>0</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="20">
         <v>0.04</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="N5" s="20" t="s">
+      <c r="J5" s="36"/>
+      <c r="N5" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="23">
         <v>32779</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P5" s="20">
         <v>7.05</v>
       </c>
-      <c r="Q5" s="24">
+      <c r="Q5" s="23">
         <v>32779</v>
       </c>
-      <c r="R5" s="24">
+      <c r="R5" s="23">
         <v>32787.800000000003</v>
       </c>
-      <c r="S5" s="21">
+      <c r="S5" s="20">
         <v>2.6845999999999998E-2</v>
       </c>
-      <c r="T5" s="21">
+      <c r="T5" s="20">
         <v>1.8647</v>
       </c>
-      <c r="W5" s="41"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="37"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="39"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="35"/>
     </row>
     <row r="6" spans="4:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>1517</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="22">
         <v>1517</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="23">
         <v>1517</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="20">
         <v>0</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="20">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="J6" s="40"/>
-      <c r="N6" s="20" t="s">
+      <c r="J6" s="36"/>
+      <c r="N6" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="23">
         <v>33435</v>
       </c>
-      <c r="P6" s="21">
+      <c r="P6" s="20">
         <v>7.51</v>
       </c>
-      <c r="Q6" s="24">
+      <c r="Q6" s="23">
         <v>33435</v>
       </c>
-      <c r="R6" s="24">
+      <c r="R6" s="23">
         <v>33457</v>
       </c>
-      <c r="S6" s="21">
+      <c r="S6" s="20">
         <v>6.5798999999999996E-2</v>
       </c>
-      <c r="T6" s="21">
+      <c r="T6" s="20">
         <v>1.9610000000000001</v>
       </c>
-      <c r="W6" s="45"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="44"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="44"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="40"/>
     </row>
     <row r="7" spans="4:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <v>1233</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="22">
         <v>1233</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="23">
         <v>1233</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="20">
         <v>0</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="20">
         <v>3.8699999999999998E-2</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="N7" s="20" t="s">
+      <c r="J7" s="36"/>
+      <c r="N7" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="23">
         <v>32390</v>
       </c>
-      <c r="P7" s="21">
+      <c r="P7" s="20">
         <v>7.07</v>
       </c>
-      <c r="Q7" s="24">
+      <c r="Q7" s="23">
         <v>32390</v>
       </c>
-      <c r="R7" s="24">
+      <c r="R7" s="23">
         <v>32445.5</v>
       </c>
-      <c r="S7" s="21">
+      <c r="S7" s="20">
         <v>0.17135</v>
       </c>
-      <c r="T7" s="21">
+      <c r="T7" s="20">
         <v>1.9755</v>
       </c>
-      <c r="W7" s="45"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="44"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="40"/>
     </row>
     <row r="8" spans="4:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D8" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <v>1386</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="22">
         <v>1386</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="23">
         <v>1386</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="20">
         <v>0</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="20">
         <v>4.07E-2</v>
       </c>
-      <c r="J8" s="40"/>
-      <c r="N8" s="20" t="s">
+      <c r="J8" s="36"/>
+      <c r="N8" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="23">
         <v>34733</v>
       </c>
-      <c r="P8" s="21">
+      <c r="P8" s="20">
         <v>7.27</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q8" s="23">
         <v>34733</v>
       </c>
-      <c r="R8" s="24">
+      <c r="R8" s="23">
         <v>34842.6</v>
       </c>
-      <c r="S8" s="21">
+      <c r="S8" s="20">
         <v>0.31555</v>
       </c>
-      <c r="T8" s="21">
+      <c r="T8" s="20">
         <v>2.0647000000000002</v>
       </c>
-      <c r="W8" s="45"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="44"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="40"/>
     </row>
     <row r="9" spans="4:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <v>978</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="22">
         <v>978</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="23">
         <v>978</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="20">
         <v>0</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="20">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="J9" s="40"/>
-      <c r="N9" s="20" t="s">
+      <c r="J9" s="36"/>
+      <c r="N9" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="23">
         <v>32598</v>
       </c>
-      <c r="P9" s="21">
+      <c r="P9" s="20">
         <v>8.8699999999999992</v>
       </c>
-      <c r="Q9" s="24">
+      <c r="Q9" s="23">
         <v>32598</v>
       </c>
-      <c r="R9" s="24">
+      <c r="R9" s="23">
         <v>32637.5</v>
       </c>
-      <c r="S9" s="21">
+      <c r="S9" s="20">
         <v>0.12117</v>
       </c>
-      <c r="T9" s="21">
+      <c r="T9" s="20">
         <v>1.9918</v>
       </c>
-      <c r="W9" s="45"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="44"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="40"/>
     </row>
     <row r="10" spans="4:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D10" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <v>1477</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="22">
         <v>1477</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="23">
         <v>1477</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="20">
         <v>0</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="20">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="J10" s="40"/>
-      <c r="N10" s="20" t="s">
+      <c r="J10" s="36"/>
+      <c r="N10" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="23">
         <v>34159</v>
       </c>
-      <c r="P10" s="21">
+      <c r="P10" s="20">
         <v>7.82</v>
       </c>
-      <c r="Q10" s="24">
+      <c r="Q10" s="23">
         <v>34159</v>
       </c>
-      <c r="R10" s="24">
+      <c r="R10" s="23">
         <v>34335.800000000003</v>
       </c>
-      <c r="S10" s="21">
+      <c r="S10" s="20">
         <v>0.51758000000000004</v>
       </c>
-      <c r="T10" s="21">
+      <c r="T10" s="20">
         <v>1.9810000000000001</v>
       </c>
-      <c r="W10" s="45"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="44"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="40"/>
     </row>
     <row r="11" spans="4:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <v>1163</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="22">
         <v>1163</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="23">
         <v>1163</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="20">
         <v>0</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="20">
         <v>4.1300000000000003E-2</v>
       </c>
-      <c r="J11" s="40"/>
-      <c r="N11" s="20" t="s">
+      <c r="J11" s="36"/>
+      <c r="N11" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="23">
         <v>33375</v>
       </c>
-      <c r="P11" s="21">
+      <c r="P11" s="20">
         <v>8.74</v>
       </c>
-      <c r="Q11" s="24">
+      <c r="Q11" s="23">
         <v>33375</v>
       </c>
-      <c r="R11" s="24">
+      <c r="R11" s="23">
         <v>33450.1</v>
       </c>
-      <c r="S11" s="21">
+      <c r="S11" s="20">
         <v>0.22502</v>
       </c>
-      <c r="T11" s="21">
+      <c r="T11" s="20">
         <v>2.0869</v>
       </c>
-      <c r="W11" s="45"/>
-      <c r="X11" s="46"/>
-      <c r="Y11" s="44"/>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="44"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="40"/>
     </row>
     <row r="12" spans="4:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D12" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <v>1234</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="22">
         <v>1234</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="23">
         <v>1234</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="20">
         <v>0</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="20">
         <v>3.9E-2</v>
       </c>
-      <c r="J12" s="40"/>
-      <c r="N12" s="20" t="s">
+      <c r="J12" s="36"/>
+      <c r="N12" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="O12" s="24">
+      <c r="O12" s="23">
         <v>31780</v>
       </c>
-      <c r="P12" s="21">
+      <c r="P12" s="20">
         <v>7.08</v>
       </c>
-      <c r="Q12" s="24">
+      <c r="Q12" s="23">
         <v>31780</v>
       </c>
-      <c r="R12" s="24">
+      <c r="R12" s="23">
         <v>31829</v>
       </c>
-      <c r="S12" s="21">
+      <c r="S12" s="20">
         <v>0.15418999999999999</v>
       </c>
-      <c r="T12" s="21">
+      <c r="T12" s="20">
         <v>2.0030000000000001</v>
       </c>
-      <c r="W12" s="45"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="44"/>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="44"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="40"/>
     </row>
     <row r="13" spans="4:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D13" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="22">
         <v>1402</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="22">
         <v>1402</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="23">
         <v>1402</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="20">
         <v>0</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="20">
         <v>4.0399999999999998E-2</v>
       </c>
-      <c r="J13" s="40"/>
-      <c r="N13" s="20" t="s">
+      <c r="J13" s="36"/>
+      <c r="N13" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="O13" s="24">
+      <c r="O13" s="23">
         <v>34167</v>
       </c>
-      <c r="P13" s="21">
+      <c r="P13" s="20">
         <v>7.47</v>
       </c>
-      <c r="Q13" s="24">
+      <c r="Q13" s="23">
         <v>34167</v>
       </c>
-      <c r="R13" s="24">
+      <c r="R13" s="23">
         <v>34257.699999999997</v>
       </c>
-      <c r="S13" s="21">
+      <c r="S13" s="20">
         <v>0.26545999999999997</v>
       </c>
-      <c r="T13" s="21">
+      <c r="T13" s="20">
         <v>1.9253</v>
       </c>
-      <c r="W13" s="45"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="44"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="44"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="40"/>
     </row>
     <row r="14" spans="4:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D14" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="22">
         <v>1388</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="22">
         <v>1388</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="23">
         <v>1388</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="20">
         <v>0</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="20">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="J14" s="40"/>
-      <c r="N14" s="20" t="s">
+      <c r="J14" s="36"/>
+      <c r="N14" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="O14" s="24">
+      <c r="O14" s="23">
         <v>31605</v>
       </c>
-      <c r="P14" s="21">
+      <c r="P14" s="20">
         <v>6.78</v>
       </c>
-      <c r="Q14" s="24">
+      <c r="Q14" s="23">
         <v>31605</v>
       </c>
-      <c r="R14" s="24">
+      <c r="R14" s="23">
         <v>31605</v>
       </c>
-      <c r="S14" s="21">
+      <c r="S14" s="20">
         <v>0</v>
       </c>
-      <c r="T14" s="21">
+      <c r="T14" s="20">
         <v>1.9679</v>
       </c>
-      <c r="W14" s="45"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="44"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="44"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="40"/>
     </row>
     <row r="15" spans="4:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D15" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="22">
         <v>1405</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="22">
         <v>1405</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="23">
         <v>1405</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="20">
         <v>0</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="20">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="J15" s="40"/>
-      <c r="N15" s="20" t="s">
+      <c r="J15" s="36"/>
+      <c r="N15" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="O15" s="24">
+      <c r="O15" s="23">
         <v>34188</v>
       </c>
-      <c r="P15" s="21">
+      <c r="P15" s="20">
         <v>7.75</v>
       </c>
-      <c r="Q15" s="24">
+      <c r="Q15" s="23">
         <v>34188</v>
       </c>
-      <c r="R15" s="24">
+      <c r="R15" s="23">
         <v>34419.4</v>
       </c>
-      <c r="S15" s="21">
+      <c r="S15" s="20">
         <v>0.67684999999999995</v>
       </c>
-      <c r="T15" s="21">
+      <c r="T15" s="20">
         <v>2.0243000000000002</v>
       </c>
-      <c r="W15" s="45"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="47"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="21"/>
-      <c r="AC15" s="44"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="40"/>
     </row>
     <row r="16" spans="4:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D16" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="22">
         <v>1150</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="22">
         <v>1150</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="23">
         <v>1150</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="20">
         <v>0</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="20">
         <v>4.0899999999999999E-2</v>
       </c>
-      <c r="J16" s="40"/>
-      <c r="N16" s="20" t="s">
+      <c r="J16" s="36"/>
+      <c r="N16" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="O16" s="24">
+      <c r="O16" s="23">
         <v>32146</v>
       </c>
-      <c r="P16" s="21">
+      <c r="P16" s="20">
         <v>7.2</v>
       </c>
-      <c r="Q16" s="24">
+      <c r="Q16" s="23">
         <v>32146</v>
       </c>
-      <c r="R16" s="24">
+      <c r="R16" s="23">
         <v>32260.2</v>
       </c>
-      <c r="S16" s="21">
+      <c r="S16" s="20">
         <v>0.35525000000000001</v>
       </c>
-      <c r="T16" s="21">
+      <c r="T16" s="20">
         <v>2.1318999999999999</v>
       </c>
-      <c r="W16" s="45"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="44"/>
-      <c r="Z16" s="47"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="21"/>
-      <c r="AC16" s="44"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="40"/>
     </row>
     <row r="17" spans="2:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D17" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <v>1531</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="22">
         <v>1531</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="23">
         <v>1531</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="20">
         <v>0</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="20">
         <v>4.24E-2</v>
       </c>
-      <c r="J17" s="40"/>
-      <c r="N17" s="20" t="s">
+      <c r="J17" s="36"/>
+      <c r="N17" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="O17" s="24">
+      <c r="O17" s="23">
         <v>32604</v>
       </c>
-      <c r="P17" s="21">
+      <c r="P17" s="20">
         <v>7.78</v>
       </c>
-      <c r="Q17" s="24">
+      <c r="Q17" s="23">
         <v>32604</v>
       </c>
-      <c r="R17" s="24">
+      <c r="R17" s="23">
         <v>32848.400000000001</v>
       </c>
-      <c r="S17" s="21">
+      <c r="S17" s="20">
         <v>0.74960000000000004</v>
       </c>
-      <c r="T17" s="21">
+      <c r="T17" s="20">
         <v>2.1059999999999999</v>
       </c>
-      <c r="W17" s="45"/>
-      <c r="X17" s="48"/>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="49"/>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="21"/>
-      <c r="AC17" s="44"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="40"/>
     </row>
     <row r="18" spans="2:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="22">
         <v>1219</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="22">
         <v>1219</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="23">
         <v>1219</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="20">
         <v>0</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="20">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="J18" s="40"/>
-      <c r="N18" s="20" t="s">
+      <c r="J18" s="36"/>
+      <c r="N18" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="O18" s="24">
+      <c r="O18" s="23">
         <v>32433</v>
       </c>
-      <c r="P18" s="21">
+      <c r="P18" s="20">
         <v>6.29</v>
       </c>
-      <c r="Q18" s="24">
+      <c r="Q18" s="23">
         <v>32438</v>
       </c>
-      <c r="R18" s="24">
+      <c r="R18" s="23">
         <v>32438</v>
       </c>
-      <c r="S18" s="21">
+      <c r="S18" s="20">
         <v>1.5415999999999999E-2</v>
       </c>
-      <c r="T18" s="21">
+      <c r="T18" s="20">
         <v>2.1533000000000002</v>
       </c>
-      <c r="W18" s="45"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="44"/>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="21"/>
-      <c r="AC18" s="44"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="43"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="40"/>
     </row>
     <row r="19" spans="2:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D19" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="22">
         <v>1087</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="22">
         <v>1087</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="23">
         <v>1087</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="20">
         <v>0</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="20">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="J19" s="40"/>
-      <c r="N19" s="20" t="s">
+      <c r="J19" s="36"/>
+      <c r="N19" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="O19" s="24">
+      <c r="O19" s="23">
         <v>32574</v>
       </c>
-      <c r="P19" s="21">
+      <c r="P19" s="20">
         <v>7.13</v>
       </c>
-      <c r="Q19" s="24">
+      <c r="Q19" s="23">
         <v>32574</v>
       </c>
-      <c r="R19" s="24">
+      <c r="R19" s="23">
         <v>32637.5</v>
       </c>
-      <c r="S19" s="21">
+      <c r="S19" s="20">
         <v>0.19494</v>
       </c>
-      <c r="T19" s="21">
+      <c r="T19" s="20">
         <v>1.9423999999999999</v>
       </c>
-      <c r="W19" s="45"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="44"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="22"/>
-      <c r="AB19" s="21"/>
-      <c r="AC19" s="44"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="40"/>
     </row>
     <row r="20" spans="2:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="22">
         <v>1264</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="22">
         <v>1264</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="23">
         <v>1264</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="20">
         <v>0</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="20">
         <v>3.9800000000000002E-2</v>
       </c>
-      <c r="J20" s="40"/>
-      <c r="N20" s="20" t="s">
+      <c r="J20" s="36"/>
+      <c r="N20" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="O20" s="24">
+      <c r="O20" s="23">
         <v>33566</v>
       </c>
-      <c r="P20" s="21">
+      <c r="P20" s="20">
         <v>7.97</v>
       </c>
-      <c r="Q20" s="24">
+      <c r="Q20" s="23">
         <v>33566</v>
       </c>
-      <c r="R20" s="24">
+      <c r="R20" s="23">
         <v>33568</v>
       </c>
-      <c r="S20" s="21">
+      <c r="S20" s="20">
         <v>5.9584E-3</v>
       </c>
-      <c r="T20" s="21">
+      <c r="T20" s="20">
         <v>2.1665000000000001</v>
       </c>
-      <c r="W20" s="45"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="21"/>
-      <c r="AC20" s="44"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="40"/>
     </row>
     <row r="21" spans="2:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D21" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="22">
         <v>1058</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="22">
         <v>1058</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="23">
         <v>1058</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="20">
         <v>0</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="20">
         <v>0.04</v>
       </c>
-      <c r="J21" s="40"/>
-      <c r="N21" s="20" t="s">
+      <c r="J21" s="36"/>
+      <c r="N21" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="O21" s="24">
+      <c r="O21" s="23">
         <v>34198</v>
       </c>
-      <c r="P21" s="21">
+      <c r="P21" s="20">
         <v>9.23</v>
       </c>
-      <c r="Q21" s="24">
+      <c r="Q21" s="23">
         <v>34198</v>
       </c>
-      <c r="R21" s="24">
+      <c r="R21" s="23">
         <v>34234.1</v>
       </c>
-      <c r="S21" s="21">
+      <c r="S21" s="20">
         <v>0.10556</v>
       </c>
-      <c r="T21" s="21">
+      <c r="T21" s="20">
         <v>2.1856</v>
       </c>
-      <c r="W21" s="45"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="22"/>
-      <c r="AB21" s="21"/>
-      <c r="AC21" s="44"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="40"/>
     </row>
     <row r="22" spans="2:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D22" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="22">
         <v>1083</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="22">
         <v>1083</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="23">
         <v>1083</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="20">
         <v>0</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="20">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="J22" s="40"/>
-      <c r="N22" s="20" t="s">
+      <c r="J22" s="36"/>
+      <c r="N22" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="O22" s="24">
+      <c r="O22" s="23">
         <v>31929</v>
       </c>
-      <c r="P22" s="21">
+      <c r="P22" s="20">
         <v>7.07</v>
       </c>
-      <c r="Q22" s="24">
+      <c r="Q22" s="23">
         <v>31929</v>
       </c>
-      <c r="R22" s="24">
+      <c r="R22" s="23">
         <v>32076.7</v>
       </c>
-      <c r="S22" s="21">
+      <c r="S22" s="20">
         <v>0.46259</v>
       </c>
-      <c r="T22" s="21">
+      <c r="T22" s="20">
         <v>2.0686</v>
       </c>
-      <c r="W22" s="45"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="44"/>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="21"/>
-      <c r="AC22" s="44"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="40"/>
     </row>
     <row r="23" spans="2:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D23" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="22">
         <v>1394</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="22">
         <v>1394</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="23">
         <v>1394</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="20">
         <v>0</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="20">
         <v>4.0500000000000001E-2</v>
       </c>
-      <c r="J23" s="40"/>
-      <c r="N23" s="20" t="s">
+      <c r="J23" s="36"/>
+      <c r="N23" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="O23" s="24">
+      <c r="O23" s="23">
         <v>33463</v>
       </c>
-      <c r="P23" s="21">
+      <c r="P23" s="20">
         <v>8.08</v>
       </c>
-      <c r="Q23" s="24">
+      <c r="Q23" s="23">
         <v>33463</v>
       </c>
-      <c r="R23" s="24">
+      <c r="R23" s="23">
         <v>33529</v>
       </c>
-      <c r="S23" s="21">
+      <c r="S23" s="20">
         <v>0.19722999999999999</v>
       </c>
-      <c r="T23" s="21">
+      <c r="T23" s="20">
         <v>1.9655</v>
       </c>
-      <c r="W23" s="45"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="44"/>
-      <c r="Z23" s="47"/>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="21"/>
-      <c r="AC23" s="44"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="40"/>
     </row>
     <row r="24" spans="2:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D24" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="22">
         <v>951</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="22">
         <v>951</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="23">
         <v>951</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="20">
         <v>0</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="20">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="J24" s="40"/>
-      <c r="N24" s="20" t="s">
+      <c r="J24" s="36"/>
+      <c r="N24" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="O24" s="24">
+      <c r="O24" s="23">
         <v>33632</v>
       </c>
-      <c r="P24" s="21">
+      <c r="P24" s="20">
         <v>8.73</v>
       </c>
-      <c r="Q24" s="24">
+      <c r="Q24" s="23">
         <v>33632</v>
       </c>
-      <c r="R24" s="24">
+      <c r="R24" s="23">
         <v>33732.300000000003</v>
       </c>
-      <c r="S24" s="21">
+      <c r="S24" s="20">
         <v>0.29823</v>
       </c>
-      <c r="T24" s="21">
+      <c r="T24" s="20">
         <v>1.9918</v>
       </c>
-      <c r="W24" s="45"/>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="44"/>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="44"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="44"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="45"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="40"/>
     </row>
     <row r="25" spans="2:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D25" s="53"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="44"/>
-      <c r="Z25" s="47"/>
-      <c r="AA25" s="22"/>
-      <c r="AB25" s="21"/>
-      <c r="AC25" s="44"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="40"/>
     </row>
     <row r="26" spans="2:29" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="53"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="W26" s="50"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="51"/>
-      <c r="Z26" s="57"/>
-      <c r="AA26" s="58"/>
-      <c r="AB26" s="52"/>
-      <c r="AC26" s="51"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="52"/>
+      <c r="Y26" s="47"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="54"/>
+      <c r="AB26" s="48"/>
+      <c r="AC26" s="47"/>
     </row>
     <row r="27" spans="2:29" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="17" t="s">
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
       <c r="N27" s="16"/>
-      <c r="O27" s="17" t="s">
+      <c r="O27" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17" t="s">
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
     </row>
     <row r="28" spans="2:29" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="H28" s="18" t="s">
+      <c r="H28" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="I28" s="19" t="s">
+      <c r="I28" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="N28" s="18" t="s">
+      <c r="N28" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="O28" s="18" t="s">
+      <c r="O28" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="P28" s="19" t="s">
+      <c r="P28" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="Q28" s="18" t="s">
+      <c r="Q28" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="R28" s="18" t="s">
+      <c r="R28" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="S28" s="18" t="s">
+      <c r="S28" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="T28" s="19" t="s">
+      <c r="T28" s="18" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="29" spans="2:29" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="24">
         <v>1</v>
       </c>
       <c r="D29" s="16" t="str">
         <f>"TRP-S30-R"&amp;C29</f>
         <v>TRP-S30-R1</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="22">
         <v>3175</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="22">
         <v>3175</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="23">
         <v>3175</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="20">
         <v>0</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29" s="20">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="N29" s="20" t="s">
+      <c r="N29" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="O29" s="24">
+      <c r="O29" s="23">
         <v>88787</v>
       </c>
-      <c r="P29" s="21">
+      <c r="P29" s="20">
         <v>73.39</v>
       </c>
-      <c r="Q29" s="24">
+      <c r="Q29" s="23">
         <v>88806</v>
       </c>
-      <c r="R29" s="24">
+      <c r="R29" s="23">
         <v>89272.2</v>
       </c>
-      <c r="S29" s="21">
+      <c r="S29" s="20">
         <v>0.54647999999999997</v>
       </c>
-      <c r="T29" s="21">
+      <c r="T29" s="20">
         <v>20.199000000000002</v>
       </c>
     </row>
     <row r="30" spans="2:29" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="24">
         <f>C29+1</f>
         <v>2</v>
       </c>
@@ -10650,48 +10653,48 @@
         <f t="shared" ref="D30:D48" si="0">"TRP-S30-R"&amp;C30</f>
         <v>TRP-S30-R2</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="22">
         <v>3248</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="22">
         <v>3248</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="23">
         <v>3248.8</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="20">
         <v>2.4631E-2</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="20">
         <v>5.1900000000000002E-2</v>
       </c>
-      <c r="N30" s="20" t="s">
+      <c r="N30" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="O30" s="24">
+      <c r="O30" s="23">
         <v>91977</v>
       </c>
-      <c r="P30" s="21">
+      <c r="P30" s="20">
         <v>68.069999999999993</v>
       </c>
-      <c r="Q30" s="24">
+      <c r="Q30" s="23">
         <v>92448</v>
       </c>
-      <c r="R30" s="24">
+      <c r="R30" s="23">
         <v>93116.1</v>
       </c>
-      <c r="S30" s="21">
+      <c r="S30" s="20">
         <v>1.2384999999999999</v>
       </c>
-      <c r="T30" s="21">
+      <c r="T30" s="20">
         <v>19.059000000000001</v>
       </c>
     </row>
     <row r="31" spans="2:29" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="24">
         <f t="shared" ref="C31:C48" si="1">C30+1</f>
         <v>3</v>
       </c>
@@ -10699,48 +10702,48 @@
         <f t="shared" si="0"/>
         <v>TRP-S30-R3</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="22">
         <v>3570</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="22">
         <v>3570</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="23">
         <v>3570</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="20">
         <v>0</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="20">
         <v>6.5299999999999997E-2</v>
       </c>
-      <c r="N31" s="20" t="s">
+      <c r="N31" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="O31" s="24">
+      <c r="O31" s="23">
         <v>92568</v>
       </c>
-      <c r="P31" s="21">
+      <c r="P31" s="20">
         <v>67.11</v>
       </c>
-      <c r="Q31" s="24">
+      <c r="Q31" s="23">
         <v>92568</v>
       </c>
-      <c r="R31" s="24">
+      <c r="R31" s="23">
         <v>93203.9</v>
       </c>
-      <c r="S31" s="21">
+      <c r="S31" s="20">
         <v>0.68694999999999995</v>
       </c>
-      <c r="T31" s="21">
+      <c r="T31" s="20">
         <v>19.998000000000001</v>
       </c>
     </row>
     <row r="32" spans="2:29" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="24">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -10748,48 +10751,48 @@
         <f t="shared" si="0"/>
         <v>TRP-S30-R4</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="22">
         <v>2983</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="22">
         <v>2983</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G32" s="23">
         <v>2983</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="20">
         <v>0</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="20">
         <v>6.5500000000000003E-2</v>
       </c>
-      <c r="N32" s="20" t="s">
+      <c r="N32" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="O32" s="24">
+      <c r="O32" s="23">
         <v>93174</v>
       </c>
-      <c r="P32" s="21">
+      <c r="P32" s="20">
         <v>72.17</v>
       </c>
-      <c r="Q32" s="24">
+      <c r="Q32" s="23">
         <v>93174</v>
       </c>
-      <c r="R32" s="24">
+      <c r="R32" s="23">
         <v>93826.8</v>
       </c>
-      <c r="S32" s="21">
+      <c r="S32" s="20">
         <v>0.70062000000000002</v>
       </c>
-      <c r="T32" s="21">
+      <c r="T32" s="20">
         <v>19.456</v>
       </c>
     </row>
     <row r="33" spans="2:20" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="24">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -10797,48 +10800,48 @@
         <f t="shared" si="0"/>
         <v>TRP-S30-R5</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="22">
         <v>3248</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="22">
         <v>3248</v>
       </c>
-      <c r="G33" s="24">
+      <c r="G33" s="23">
         <v>3248</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="20">
         <v>0</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I33" s="20">
         <v>6.4500000000000002E-2</v>
       </c>
-      <c r="N33" s="20" t="s">
+      <c r="N33" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="O33" s="24">
+      <c r="O33" s="23">
         <v>88737</v>
       </c>
-      <c r="P33" s="21">
+      <c r="P33" s="20">
         <v>70.77</v>
       </c>
-      <c r="Q33" s="24">
+      <c r="Q33" s="23">
         <v>88737</v>
       </c>
-      <c r="R33" s="24">
+      <c r="R33" s="23">
         <v>89765.5</v>
       </c>
-      <c r="S33" s="21">
+      <c r="S33" s="20">
         <v>1.159</v>
       </c>
-      <c r="T33" s="21">
+      <c r="T33" s="20">
         <v>18.058</v>
       </c>
     </row>
     <row r="34" spans="2:20" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="C34" s="25">
+      <c r="C34" s="24">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -10846,48 +10849,48 @@
         <f t="shared" si="0"/>
         <v>TRP-S30-R6</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="22">
         <v>3328</v>
       </c>
-      <c r="F34" s="23">
+      <c r="F34" s="22">
         <v>3328</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="23">
         <v>3328</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="20">
         <v>0</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="20">
         <v>6.4600000000000005E-2</v>
       </c>
-      <c r="N34" s="20" t="s">
+      <c r="N34" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="O34" s="24">
+      <c r="O34" s="23">
         <v>91589</v>
       </c>
-      <c r="P34" s="21">
+      <c r="P34" s="20">
         <v>70.52</v>
       </c>
-      <c r="Q34" s="24">
+      <c r="Q34" s="23">
         <v>91589</v>
       </c>
-      <c r="R34" s="24">
+      <c r="R34" s="23">
         <v>92813.9</v>
       </c>
-      <c r="S34" s="21">
+      <c r="S34" s="20">
         <v>1.3373999999999999</v>
       </c>
-      <c r="T34" s="21">
+      <c r="T34" s="20">
         <v>19.777999999999999</v>
       </c>
     </row>
     <row r="35" spans="2:20" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="C35" s="25">
+      <c r="C35" s="24">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -10895,48 +10898,48 @@
         <f t="shared" si="0"/>
         <v>TRP-S30-R7</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="22">
         <v>2809</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="22">
         <v>2809</v>
       </c>
-      <c r="G35" s="24">
+      <c r="G35" s="23">
         <v>2809</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H35" s="20">
         <v>0</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I35" s="20">
         <v>6.4399999999999999E-2</v>
       </c>
-      <c r="N35" s="20" t="s">
+      <c r="N35" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="O35" s="24">
+      <c r="O35" s="23">
         <v>92754</v>
       </c>
-      <c r="P35" s="21">
+      <c r="P35" s="20">
         <v>72.8</v>
       </c>
-      <c r="Q35" s="24">
+      <c r="Q35" s="23">
         <v>92756</v>
       </c>
-      <c r="R35" s="24">
+      <c r="R35" s="23">
         <v>93846</v>
       </c>
-      <c r="S35" s="21">
+      <c r="S35" s="20">
         <v>1.1773</v>
       </c>
-      <c r="T35" s="21">
+      <c r="T35" s="20">
         <v>21.488</v>
       </c>
     </row>
     <row r="36" spans="2:20" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="C36" s="25">
+      <c r="C36" s="24">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -10944,48 +10947,48 @@
         <f t="shared" si="0"/>
         <v>TRP-S30-R8</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="22">
         <v>3461</v>
       </c>
-      <c r="F36" s="23">
+      <c r="F36" s="22">
         <v>3461</v>
       </c>
-      <c r="G36" s="24">
+      <c r="G36" s="23">
         <v>3461</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="20">
         <v>0</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36" s="20">
         <v>6.3200000000000006E-2</v>
       </c>
-      <c r="N36" s="20" t="s">
+      <c r="N36" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="O36" s="24">
+      <c r="O36" s="23">
         <v>89048</v>
       </c>
-      <c r="P36" s="21">
+      <c r="P36" s="20">
         <v>75.150000000000006</v>
       </c>
-      <c r="Q36" s="24">
+      <c r="Q36" s="23">
         <v>89118</v>
       </c>
-      <c r="R36" s="24">
+      <c r="R36" s="23">
         <v>89786</v>
       </c>
-      <c r="S36" s="21">
+      <c r="S36" s="20">
         <v>0.82877000000000001</v>
       </c>
-      <c r="T36" s="21">
+      <c r="T36" s="20">
         <v>19.120999999999999</v>
       </c>
     </row>
     <row r="37" spans="2:20" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="C37" s="25">
+      <c r="C37" s="24">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -10993,48 +10996,48 @@
         <f t="shared" si="0"/>
         <v>TRP-S30-R9</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="22">
         <v>3475</v>
       </c>
-      <c r="F37" s="23">
+      <c r="F37" s="22">
         <v>3475</v>
       </c>
-      <c r="G37" s="24">
+      <c r="G37" s="23">
         <v>3475</v>
       </c>
-      <c r="H37" s="21">
+      <c r="H37" s="20">
         <v>0</v>
       </c>
-      <c r="I37" s="21">
+      <c r="I37" s="20">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="N37" s="20" t="s">
+      <c r="N37" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="O37" s="24">
+      <c r="O37" s="23">
         <v>86326</v>
       </c>
-      <c r="P37" s="21">
+      <c r="P37" s="20">
         <v>65.45</v>
       </c>
-      <c r="Q37" s="24">
+      <c r="Q37" s="23">
         <v>86326</v>
       </c>
-      <c r="R37" s="24">
+      <c r="R37" s="23">
         <v>86944.9</v>
       </c>
-      <c r="S37" s="21">
+      <c r="S37" s="20">
         <v>0.71692999999999996</v>
       </c>
-      <c r="T37" s="21">
+      <c r="T37" s="20">
         <v>19.318000000000001</v>
       </c>
     </row>
     <row r="38" spans="2:20" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="C38" s="25">
+      <c r="C38" s="24">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -11042,48 +11045,48 @@
         <f t="shared" si="0"/>
         <v>TRP-S30-R10</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="22">
         <v>3359</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F38" s="22">
         <v>3359</v>
       </c>
-      <c r="G38" s="24">
+      <c r="G38" s="23">
         <v>3359</v>
       </c>
-      <c r="H38" s="21">
+      <c r="H38" s="20">
         <v>0</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I38" s="20">
         <v>6.1199999999999997E-2</v>
       </c>
-      <c r="N38" s="20" t="s">
+      <c r="N38" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="O38" s="24">
+      <c r="O38" s="23">
         <v>91552</v>
       </c>
-      <c r="P38" s="21">
+      <c r="P38" s="20">
         <v>74.25</v>
       </c>
-      <c r="Q38" s="24">
+      <c r="Q38" s="23">
         <v>91650</v>
       </c>
-      <c r="R38" s="24">
+      <c r="R38" s="23">
         <v>92391.9</v>
       </c>
-      <c r="S38" s="21">
+      <c r="S38" s="20">
         <v>0.91739999999999999</v>
       </c>
-      <c r="T38" s="21">
+      <c r="T38" s="20">
         <v>18.93</v>
       </c>
     </row>
     <row r="39" spans="2:20" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="C39" s="25">
+      <c r="C39" s="24">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -11091,48 +11094,48 @@
         <f t="shared" si="0"/>
         <v>TRP-S30-R11</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="22">
         <v>2916</v>
       </c>
-      <c r="F39" s="23">
+      <c r="F39" s="22">
         <v>2916</v>
       </c>
-      <c r="G39" s="24">
+      <c r="G39" s="23">
         <v>2916</v>
       </c>
-      <c r="H39" s="21">
+      <c r="H39" s="20">
         <v>0</v>
       </c>
-      <c r="I39" s="21">
+      <c r="I39" s="20">
         <v>6.4899999999999999E-2</v>
       </c>
-      <c r="N39" s="20" t="s">
+      <c r="N39" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="O39" s="24">
+      <c r="O39" s="23">
         <v>92655</v>
       </c>
-      <c r="P39" s="21">
+      <c r="P39" s="20">
         <v>73.150000000000006</v>
       </c>
-      <c r="Q39" s="24">
+      <c r="Q39" s="23">
         <v>92815</v>
       </c>
-      <c r="R39" s="24">
+      <c r="R39" s="23">
         <v>93300.800000000003</v>
       </c>
-      <c r="S39" s="21">
+      <c r="S39" s="20">
         <v>0.69699</v>
       </c>
-      <c r="T39" s="21">
+      <c r="T39" s="20">
         <v>19.756</v>
       </c>
     </row>
     <row r="40" spans="2:20" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="C40" s="25">
+      <c r="C40" s="24">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -11140,48 +11143,48 @@
         <f t="shared" si="0"/>
         <v>TRP-S30-R12</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="22">
         <v>3314</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F40" s="22">
         <v>3314</v>
       </c>
-      <c r="G40" s="24">
+      <c r="G40" s="23">
         <v>3314</v>
       </c>
-      <c r="H40" s="21">
+      <c r="H40" s="20">
         <v>0</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I40" s="20">
         <v>6.6799999999999998E-2</v>
       </c>
-      <c r="N40" s="20" t="s">
+      <c r="N40" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="O40" s="24">
+      <c r="O40" s="23">
         <v>91457</v>
       </c>
-      <c r="P40" s="21">
+      <c r="P40" s="20">
         <v>76.739999999999995</v>
       </c>
-      <c r="Q40" s="24">
+      <c r="Q40" s="23">
         <v>91457</v>
       </c>
-      <c r="R40" s="24">
+      <c r="R40" s="23">
         <v>92059.9</v>
       </c>
-      <c r="S40" s="21">
+      <c r="S40" s="20">
         <v>0.65922000000000003</v>
       </c>
-      <c r="T40" s="21">
+      <c r="T40" s="20">
         <v>19.119</v>
       </c>
     </row>
     <row r="41" spans="2:20" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="C41" s="25">
+      <c r="C41" s="24">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -11189,48 +11192,48 @@
         <f t="shared" si="0"/>
         <v>TRP-S30-R13</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="22">
         <v>3412</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="22">
         <v>3412</v>
       </c>
-      <c r="G41" s="24">
+      <c r="G41" s="23">
         <v>3412</v>
       </c>
-      <c r="H41" s="21">
+      <c r="H41" s="20">
         <v>0</v>
       </c>
-      <c r="I41" s="21">
+      <c r="I41" s="20">
         <v>6.59E-2</v>
       </c>
-      <c r="N41" s="20" t="s">
+      <c r="N41" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="O41" s="24">
+      <c r="O41" s="23">
         <v>86155</v>
       </c>
-      <c r="P41" s="21">
+      <c r="P41" s="20">
         <v>72.959999999999994</v>
       </c>
-      <c r="Q41" s="24">
+      <c r="Q41" s="23">
         <v>86155</v>
       </c>
-      <c r="R41" s="24">
+      <c r="R41" s="23">
         <v>86909.2</v>
       </c>
-      <c r="S41" s="21">
+      <c r="S41" s="20">
         <v>0.87539999999999996</v>
       </c>
-      <c r="T41" s="21">
+      <c r="T41" s="20">
         <v>18.637</v>
       </c>
     </row>
     <row r="42" spans="2:20" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="C42" s="25">
+      <c r="C42" s="24">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -11238,48 +11241,48 @@
         <f t="shared" si="0"/>
         <v>TRP-S30-R14</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="22">
         <v>3297</v>
       </c>
-      <c r="F42" s="23">
+      <c r="F42" s="22">
         <v>3297</v>
       </c>
-      <c r="G42" s="24">
+      <c r="G42" s="23">
         <v>3297</v>
       </c>
-      <c r="H42" s="21">
+      <c r="H42" s="20">
         <v>0</v>
       </c>
-      <c r="I42" s="21">
+      <c r="I42" s="20">
         <v>6.3600000000000004E-2</v>
       </c>
-      <c r="N42" s="20" t="s">
+      <c r="N42" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="O42" s="24">
+      <c r="O42" s="23">
         <v>91882</v>
       </c>
-      <c r="P42" s="21">
+      <c r="P42" s="20">
         <v>70.94</v>
       </c>
-      <c r="Q42" s="24">
+      <c r="Q42" s="23">
         <v>91989</v>
       </c>
-      <c r="R42" s="24">
+      <c r="R42" s="23">
         <v>92607.2</v>
       </c>
-      <c r="S42" s="21">
+      <c r="S42" s="20">
         <v>0.78927000000000003</v>
       </c>
-      <c r="T42" s="21">
+      <c r="T42" s="20">
         <v>20.035</v>
       </c>
     </row>
     <row r="43" spans="2:20" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="C43" s="25">
+      <c r="C43" s="24">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -11287,48 +11290,48 @@
         <f t="shared" si="0"/>
         <v>TRP-S30-R15</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="22">
         <v>2862</v>
       </c>
-      <c r="F43" s="23">
+      <c r="F43" s="22">
         <v>2862</v>
       </c>
-      <c r="G43" s="24">
+      <c r="G43" s="23">
         <v>2862</v>
       </c>
-      <c r="H43" s="21">
+      <c r="H43" s="20">
         <v>0</v>
       </c>
-      <c r="I43" s="21">
+      <c r="I43" s="20">
         <v>6.2899999999999998E-2</v>
       </c>
-      <c r="N43" s="20" t="s">
+      <c r="N43" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="O43" s="24">
+      <c r="O43" s="23">
         <v>88912</v>
       </c>
-      <c r="P43" s="21">
+      <c r="P43" s="20">
         <v>70.41</v>
       </c>
-      <c r="Q43" s="24">
+      <c r="Q43" s="23">
         <v>91589</v>
       </c>
-      <c r="R43" s="24">
+      <c r="R43" s="23">
         <v>89736.7</v>
       </c>
-      <c r="S43" s="21">
+      <c r="S43" s="20">
         <v>0.92754999999999999</v>
       </c>
-      <c r="T43" s="21">
+      <c r="T43" s="20">
         <v>19.385999999999999</v>
       </c>
     </row>
     <row r="44" spans="2:20" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="C44" s="25">
+      <c r="C44" s="24">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -11336,48 +11339,48 @@
         <f t="shared" si="0"/>
         <v>TRP-S30-R16</v>
       </c>
-      <c r="E44" s="23">
+      <c r="E44" s="22">
         <v>3433</v>
       </c>
-      <c r="F44" s="23">
+      <c r="F44" s="22">
         <v>3433</v>
       </c>
-      <c r="G44" s="24">
+      <c r="G44" s="23">
         <v>3433</v>
       </c>
-      <c r="H44" s="21">
+      <c r="H44" s="20">
         <v>0</v>
       </c>
-      <c r="I44" s="21">
+      <c r="I44" s="20">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="N44" s="20" t="s">
+      <c r="N44" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="O44" s="24">
+      <c r="O44" s="23">
         <v>89311</v>
       </c>
-      <c r="P44" s="21">
+      <c r="P44" s="20">
         <v>77.89</v>
       </c>
-      <c r="Q44" s="24">
+      <c r="Q44" s="23">
         <v>89311</v>
       </c>
-      <c r="R44" s="24">
+      <c r="R44" s="23">
         <v>90866</v>
       </c>
-      <c r="S44" s="21">
+      <c r="S44" s="20">
         <v>1.7411000000000001</v>
       </c>
-      <c r="T44" s="21">
+      <c r="T44" s="20">
         <v>20.718</v>
       </c>
     </row>
     <row r="45" spans="2:20" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="C45" s="25">
+      <c r="C45" s="24">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -11385,48 +11388,48 @@
         <f t="shared" si="0"/>
         <v>TRP-S30-R17</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="22">
         <v>2913</v>
       </c>
-      <c r="F45" s="23">
+      <c r="F45" s="22">
         <v>2913</v>
       </c>
-      <c r="G45" s="24">
+      <c r="G45" s="23">
         <v>2913</v>
       </c>
-      <c r="H45" s="21">
+      <c r="H45" s="20">
         <v>0</v>
       </c>
-      <c r="I45" s="21">
+      <c r="I45" s="20">
         <v>6.0400000000000002E-2</v>
       </c>
-      <c r="N45" s="20" t="s">
+      <c r="N45" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="O45" s="24">
+      <c r="O45" s="23">
         <v>89089</v>
       </c>
-      <c r="P45" s="21">
+      <c r="P45" s="20">
         <v>71.17</v>
       </c>
-      <c r="Q45" s="24">
+      <c r="Q45" s="23">
         <v>89089</v>
       </c>
-      <c r="R45" s="24">
+      <c r="R45" s="23">
         <v>89777.3</v>
       </c>
-      <c r="S45" s="21">
+      <c r="S45" s="20">
         <v>0.77259999999999995</v>
       </c>
-      <c r="T45" s="21">
+      <c r="T45" s="20">
         <v>19.792999999999999</v>
       </c>
     </row>
     <row r="46" spans="2:20" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="C46" s="25">
+      <c r="C46" s="24">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -11434,48 +11437,48 @@
         <f t="shared" si="0"/>
         <v>TRP-S30-R18</v>
       </c>
-      <c r="E46" s="23">
+      <c r="E46" s="22">
         <v>3124</v>
       </c>
-      <c r="F46" s="23">
+      <c r="F46" s="22">
         <v>3124</v>
       </c>
-      <c r="G46" s="24">
+      <c r="G46" s="23">
         <v>3124</v>
       </c>
-      <c r="H46" s="21">
+      <c r="H46" s="20">
         <v>0</v>
       </c>
-      <c r="I46" s="21">
+      <c r="I46" s="20">
         <v>6.4299999999999996E-2</v>
       </c>
-      <c r="N46" s="20" t="s">
+      <c r="N46" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="O46" s="24">
+      <c r="O46" s="23">
         <v>93619</v>
       </c>
-      <c r="P46" s="21">
+      <c r="P46" s="20">
         <v>77.03</v>
       </c>
-      <c r="Q46" s="24">
+      <c r="Q46" s="23">
         <v>93972</v>
       </c>
-      <c r="R46" s="24">
+      <c r="R46" s="23">
         <v>94696.6</v>
       </c>
-      <c r="S46" s="21">
+      <c r="S46" s="20">
         <v>1.151</v>
       </c>
-      <c r="T46" s="21">
+      <c r="T46" s="20">
         <v>19.530999999999999</v>
       </c>
     </row>
     <row r="47" spans="2:20" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="C47" s="25">
+      <c r="C47" s="24">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
@@ -11483,48 +11486,48 @@
         <f t="shared" si="0"/>
         <v>TRP-S30-R19</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="22">
         <v>3299</v>
       </c>
-      <c r="F47" s="23">
+      <c r="F47" s="22">
         <v>3299</v>
       </c>
-      <c r="G47" s="24">
+      <c r="G47" s="23">
         <v>3299</v>
       </c>
-      <c r="H47" s="21">
+      <c r="H47" s="20">
         <v>0</v>
       </c>
-      <c r="I47" s="21">
+      <c r="I47" s="20">
         <v>6.5699999999999995E-2</v>
       </c>
-      <c r="N47" s="20" t="s">
+      <c r="N47" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="O47" s="24">
+      <c r="O47" s="23">
         <v>93369</v>
       </c>
-      <c r="P47" s="21">
+      <c r="P47" s="20">
         <v>71.08</v>
       </c>
-      <c r="Q47" s="24">
+      <c r="Q47" s="23">
         <v>93676</v>
       </c>
-      <c r="R47" s="24">
+      <c r="R47" s="23">
         <v>94574</v>
       </c>
-      <c r="S47" s="21">
+      <c r="S47" s="20">
         <v>1.2906</v>
       </c>
-      <c r="T47" s="21">
+      <c r="T47" s="20">
         <v>18.504999999999999</v>
       </c>
     </row>
     <row r="48" spans="2:20" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="C48" s="25">
+      <c r="C48" s="24">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -11532,152 +11535,152 @@
         <f t="shared" si="0"/>
         <v>TRP-S30-R20</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="22">
         <v>2796</v>
       </c>
-      <c r="F48" s="23">
+      <c r="F48" s="22">
         <v>2796</v>
       </c>
-      <c r="G48" s="24">
+      <c r="G48" s="23">
         <v>2796</v>
       </c>
-      <c r="H48" s="21">
+      <c r="H48" s="20">
         <v>0</v>
       </c>
-      <c r="I48" s="21">
+      <c r="I48" s="20">
         <v>6.5600000000000006E-2</v>
       </c>
-      <c r="N48" s="20" t="s">
+      <c r="N48" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="O48" s="24">
+      <c r="O48" s="23">
         <v>86292</v>
       </c>
-      <c r="P48" s="21">
+      <c r="P48" s="20">
         <v>70.61</v>
       </c>
-      <c r="Q48" s="24">
+      <c r="Q48" s="23">
         <v>86331</v>
       </c>
-      <c r="R48" s="24">
+      <c r="R48" s="23">
         <v>87346.8</v>
       </c>
-      <c r="S48" s="21">
+      <c r="S48" s="20">
         <v>1.2223999999999999</v>
       </c>
-      <c r="T48" s="21">
+      <c r="T48" s="20">
         <v>20.140999999999998</v>
       </c>
     </row>
     <row r="51" spans="2:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D51" s="63"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="17" t="s">
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
       <c r="N51" s="16"/>
-      <c r="O51" s="17" t="s">
+      <c r="O51" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17" t="s">
+      <c r="P51" s="59"/>
+      <c r="Q51" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="R51" s="17"/>
-      <c r="S51" s="17"/>
-      <c r="T51" s="17"/>
+      <c r="R51" s="59"/>
+      <c r="S51" s="59"/>
+      <c r="T51" s="59"/>
     </row>
     <row r="52" spans="2:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D52" s="18" t="s">
+      <c r="D52" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E52" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="F52" s="18" t="s">
+      <c r="F52" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="G52" s="18" t="s">
+      <c r="G52" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="H52" s="18" t="s">
+      <c r="H52" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="I52" s="19" t="s">
+      <c r="I52" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="N52" s="18" t="s">
+      <c r="N52" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="O52" s="18" t="s">
+      <c r="O52" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="P52" s="19" t="s">
+      <c r="P52" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="Q52" s="18" t="s">
+      <c r="Q52" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="R52" s="18" t="s">
+      <c r="R52" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="S52" s="18" t="s">
+      <c r="S52" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="T52" s="19" t="s">
+      <c r="T52" s="18" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="53" spans="2:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="25">
+      <c r="B53" s="24">
         <v>1</v>
       </c>
       <c r="D53" s="16" t="str">
         <f>"TRP-S50-R"&amp;B53</f>
         <v>TRP-S50-R1</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E53" s="22">
         <v>12198</v>
       </c>
-      <c r="F53" s="23">
+      <c r="F53" s="22">
         <v>12198</v>
       </c>
-      <c r="G53" s="24">
+      <c r="G53" s="23">
         <v>12198</v>
       </c>
-      <c r="H53" s="21">
+      <c r="H53" s="20">
         <v>0</v>
       </c>
-      <c r="I53" s="21">
+      <c r="I53" s="20">
         <v>0.29870000000000002</v>
       </c>
-      <c r="N53" s="20" t="s">
+      <c r="N53" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="O53" s="24">
+      <c r="O53" s="23">
         <v>1841386</v>
       </c>
-      <c r="P53" s="21">
+      <c r="P53" s="20">
         <v>1738.48</v>
       </c>
-      <c r="Q53" s="59">
+      <c r="Q53" s="55">
         <v>1871090</v>
       </c>
-      <c r="R53" s="59">
+      <c r="R53" s="55">
         <v>1889007.8</v>
       </c>
-      <c r="S53" s="60">
+      <c r="S53" s="56">
         <v>2.5861999999999998</v>
       </c>
-      <c r="T53" s="60">
+      <c r="T53" s="56">
         <v>483.38</v>
       </c>
     </row>
     <row r="54" spans="2:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="25">
+      <c r="B54" s="24">
         <f>B53+1</f>
         <v>2</v>
       </c>
@@ -11685,45 +11688,45 @@
         <f t="shared" ref="D54:D72" si="2">"TRP-S50-R"&amp;B54</f>
         <v>TRP-S50-R2</v>
       </c>
-      <c r="E54" s="23">
+      <c r="E54" s="22">
         <v>11621</v>
       </c>
-      <c r="F54" s="23">
+      <c r="F54" s="22">
         <v>11621</v>
       </c>
-      <c r="G54" s="24">
+      <c r="G54" s="23">
         <v>11621</v>
       </c>
-      <c r="H54" s="21">
+      <c r="H54" s="20">
         <v>0</v>
       </c>
-      <c r="I54" s="21">
+      <c r="I54" s="20">
         <v>0.30330000000000001</v>
       </c>
-      <c r="N54" s="20" t="s">
+      <c r="N54" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="O54" s="24">
+      <c r="O54" s="23">
         <v>1816568</v>
       </c>
-      <c r="P54" s="21">
+      <c r="P54" s="20">
         <v>1476.13</v>
       </c>
-      <c r="Q54" s="59">
+      <c r="Q54" s="55">
         <v>1835543</v>
       </c>
-      <c r="R54" s="59">
+      <c r="R54" s="55">
         <v>1847731.8</v>
       </c>
-      <c r="S54" s="60">
+      <c r="S54" s="56">
         <v>1.7155</v>
       </c>
-      <c r="T54" s="60">
+      <c r="T54" s="56">
         <v>525.37</v>
       </c>
     </row>
     <row r="55" spans="2:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="25">
+      <c r="B55" s="24">
         <f t="shared" ref="B55:B72" si="3">B54+1</f>
         <v>3</v>
       </c>
@@ -11731,45 +11734,45 @@
         <f t="shared" si="2"/>
         <v>TRP-S50-R3</v>
       </c>
-      <c r="E55" s="23">
+      <c r="E55" s="22">
         <v>12139</v>
       </c>
-      <c r="F55" s="23">
+      <c r="F55" s="22">
         <v>12139</v>
       </c>
-      <c r="G55" s="24">
+      <c r="G55" s="23">
         <v>12139</v>
       </c>
-      <c r="H55" s="21">
+      <c r="H55" s="20">
         <v>0</v>
       </c>
-      <c r="I55" s="21">
+      <c r="I55" s="20">
         <v>0.29530000000000001</v>
       </c>
-      <c r="N55" s="20" t="s">
+      <c r="N55" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="O55" s="24">
+      <c r="O55" s="23">
         <v>1833044</v>
       </c>
-      <c r="P55" s="21">
+      <c r="P55" s="20">
         <v>1557.48</v>
       </c>
-      <c r="Q55" s="59">
+      <c r="Q55" s="55">
         <v>1845870</v>
       </c>
-      <c r="R55" s="59">
+      <c r="R55" s="55">
         <v>1866665.9</v>
       </c>
-      <c r="S55" s="60">
+      <c r="S55" s="56">
         <v>1.8342000000000001</v>
       </c>
-      <c r="T55" s="60">
+      <c r="T55" s="56">
         <v>513.5</v>
       </c>
     </row>
     <row r="56" spans="2:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="25">
+      <c r="B56" s="24">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -11777,45 +11780,45 @@
         <f t="shared" si="2"/>
         <v>TRP-S50-R4</v>
       </c>
-      <c r="E56" s="23">
+      <c r="E56" s="22">
         <v>13071</v>
       </c>
-      <c r="F56" s="23">
+      <c r="F56" s="22">
         <v>13071</v>
       </c>
-      <c r="G56" s="24">
+      <c r="G56" s="23">
         <v>13162.8</v>
       </c>
-      <c r="H56" s="21">
+      <c r="H56" s="20">
         <v>0.70232000000000006</v>
       </c>
-      <c r="I56" s="21">
+      <c r="I56" s="20">
         <v>0.29699999999999999</v>
       </c>
-      <c r="N56" s="20" t="s">
+      <c r="N56" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="O56" s="24">
+      <c r="O56" s="23">
         <v>1809266</v>
       </c>
-      <c r="P56" s="21">
+      <c r="P56" s="20">
         <v>1597.06</v>
       </c>
-      <c r="Q56" s="59">
+      <c r="Q56" s="55">
         <v>1821669</v>
       </c>
-      <c r="R56" s="59">
+      <c r="R56" s="55">
         <v>1846249.8</v>
       </c>
-      <c r="S56" s="60">
+      <c r="S56" s="56">
         <v>2.0440999999999998</v>
       </c>
-      <c r="T56" s="60">
+      <c r="T56" s="56">
         <v>489.95</v>
       </c>
     </row>
     <row r="57" spans="2:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="25">
+      <c r="B57" s="24">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
@@ -11823,45 +11826,45 @@
         <f t="shared" si="2"/>
         <v>TRP-S50-R5</v>
       </c>
-      <c r="E57" s="23">
+      <c r="E57" s="22">
         <v>12126</v>
       </c>
-      <c r="F57" s="23">
+      <c r="F57" s="22">
         <v>12126</v>
       </c>
-      <c r="G57" s="24">
+      <c r="G57" s="23">
         <v>12126</v>
       </c>
-      <c r="H57" s="21">
+      <c r="H57" s="20">
         <v>0</v>
       </c>
-      <c r="I57" s="21">
+      <c r="I57" s="20">
         <v>0.29039999999999999</v>
       </c>
-      <c r="N57" s="20" t="s">
+      <c r="N57" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="O57" s="24">
+      <c r="O57" s="23">
         <v>1823975</v>
       </c>
-      <c r="P57" s="21">
+      <c r="P57" s="20">
         <v>1530.94</v>
       </c>
-      <c r="Q57" s="59">
+      <c r="Q57" s="55">
         <v>1842106</v>
       </c>
-      <c r="R57" s="59">
+      <c r="R57" s="55">
         <v>1864734.9</v>
       </c>
-      <c r="S57" s="60">
+      <c r="S57" s="56">
         <v>2.2347000000000001</v>
       </c>
-      <c r="T57" s="60">
+      <c r="T57" s="56">
         <v>463.15</v>
       </c>
     </row>
     <row r="58" spans="2:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="25">
+      <c r="B58" s="24">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
@@ -11869,45 +11872,45 @@
         <f t="shared" si="2"/>
         <v>TRP-S50-R6</v>
       </c>
-      <c r="E58" s="23">
+      <c r="E58" s="22">
         <v>12684</v>
       </c>
-      <c r="F58" s="23">
+      <c r="F58" s="22">
         <v>12684</v>
       </c>
-      <c r="G58" s="24">
+      <c r="G58" s="23">
         <v>12684.9</v>
       </c>
-      <c r="H58" s="21">
+      <c r="H58" s="20">
         <v>7.0955999999999997E-3</v>
       </c>
-      <c r="I58" s="21">
+      <c r="I58" s="20">
         <v>0.30249999999999999</v>
       </c>
-      <c r="N58" s="20" t="s">
+      <c r="N58" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="O58" s="24">
+      <c r="O58" s="23">
         <v>1786620</v>
       </c>
-      <c r="P58" s="21">
+      <c r="P58" s="20">
         <v>1576.91</v>
       </c>
-      <c r="Q58" s="59">
+      <c r="Q58" s="55">
         <v>1812489</v>
       </c>
-      <c r="R58" s="59">
+      <c r="R58" s="55">
         <v>1826810.3</v>
       </c>
-      <c r="S58" s="60">
+      <c r="S58" s="56">
         <v>2.2494999999999998</v>
       </c>
-      <c r="T58" s="60">
+      <c r="T58" s="56">
         <v>510.18</v>
       </c>
     </row>
     <row r="59" spans="2:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="25">
+      <c r="B59" s="24">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -11915,45 +11918,45 @@
         <f t="shared" si="2"/>
         <v>TRP-S50-R7</v>
       </c>
-      <c r="E59" s="23">
+      <c r="E59" s="22">
         <v>11176</v>
       </c>
-      <c r="F59" s="23">
+      <c r="F59" s="22">
         <v>11176</v>
       </c>
-      <c r="G59" s="24">
+      <c r="G59" s="23">
         <v>11176</v>
       </c>
-      <c r="H59" s="21">
+      <c r="H59" s="20">
         <v>0</v>
       </c>
-      <c r="I59" s="21">
+      <c r="I59" s="20">
         <v>0.31230000000000002</v>
       </c>
-      <c r="N59" s="20" t="s">
+      <c r="N59" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="O59" s="24">
+      <c r="O59" s="23">
         <v>1847999</v>
       </c>
-      <c r="P59" s="21">
+      <c r="P59" s="20">
         <v>1584.67</v>
       </c>
-      <c r="Q59" s="59">
+      <c r="Q59" s="55">
         <v>1875923</v>
       </c>
-      <c r="R59" s="59">
+      <c r="R59" s="55">
         <v>1901249.5</v>
       </c>
-      <c r="S59" s="60">
+      <c r="S59" s="56">
         <v>2.8815</v>
       </c>
-      <c r="T59" s="60">
+      <c r="T59" s="56">
         <v>458.71</v>
       </c>
     </row>
     <row r="60" spans="2:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="25">
+      <c r="B60" s="24">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
@@ -11961,45 +11964,45 @@
         <f t="shared" si="2"/>
         <v>TRP-S50-R8</v>
       </c>
-      <c r="E60" s="23">
+      <c r="E60" s="22">
         <v>12910</v>
       </c>
-      <c r="F60" s="23">
+      <c r="F60" s="22">
         <v>12910</v>
       </c>
-      <c r="G60" s="24">
+      <c r="G60" s="23">
         <v>12911.6</v>
       </c>
-      <c r="H60" s="21">
+      <c r="H60" s="20">
         <v>1.2393E-2</v>
       </c>
-      <c r="I60" s="21">
+      <c r="I60" s="20">
         <v>0.30249999999999999</v>
       </c>
-      <c r="N60" s="20" t="s">
+      <c r="N60" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="O60" s="24">
+      <c r="O60" s="23">
         <v>1820846</v>
       </c>
-      <c r="P60" s="21">
+      <c r="P60" s="20">
         <v>1565.01</v>
       </c>
-      <c r="Q60" s="59">
+      <c r="Q60" s="55">
         <v>1844134</v>
       </c>
-      <c r="R60" s="59">
+      <c r="R60" s="55">
         <v>1864047.4</v>
       </c>
-      <c r="S60" s="60">
+      <c r="S60" s="56">
         <v>2.3725999999999998</v>
       </c>
-      <c r="T60" s="60">
+      <c r="T60" s="56">
         <v>477.74</v>
       </c>
     </row>
     <row r="61" spans="2:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="25">
+      <c r="B61" s="24">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
@@ -12007,45 +12010,45 @@
         <f t="shared" si="2"/>
         <v>TRP-S50-R9</v>
       </c>
-      <c r="E61" s="23">
+      <c r="E61" s="22">
         <v>13149</v>
       </c>
-      <c r="F61" s="23">
+      <c r="F61" s="22">
         <v>13149</v>
       </c>
-      <c r="G61" s="24">
+      <c r="G61" s="23">
         <v>13149</v>
       </c>
-      <c r="H61" s="21">
+      <c r="H61" s="20">
         <v>0</v>
       </c>
-      <c r="I61" s="21">
+      <c r="I61" s="20">
         <v>0.28949999999999998</v>
       </c>
-      <c r="N61" s="20" t="s">
+      <c r="N61" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="O61" s="24">
+      <c r="O61" s="23">
         <v>1733819</v>
       </c>
-      <c r="P61" s="21">
+      <c r="P61" s="20">
         <v>1409.23</v>
       </c>
-      <c r="Q61" s="59">
+      <c r="Q61" s="55">
         <v>1751823</v>
       </c>
-      <c r="R61" s="59">
+      <c r="R61" s="55">
         <v>1764178.6</v>
       </c>
-      <c r="S61" s="60">
+      <c r="S61" s="56">
         <v>1.7509999999999999</v>
       </c>
-      <c r="T61" s="60">
+      <c r="T61" s="56">
         <v>478.03</v>
       </c>
     </row>
     <row r="62" spans="2:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="25">
+      <c r="B62" s="24">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -12053,45 +12056,45 @@
         <f t="shared" si="2"/>
         <v>TRP-S50-R10</v>
       </c>
-      <c r="E62" s="23">
+      <c r="E62" s="22">
         <v>12892</v>
       </c>
-      <c r="F62" s="23">
+      <c r="F62" s="22">
         <v>12892</v>
       </c>
-      <c r="G62" s="24">
+      <c r="G62" s="23">
         <v>12892</v>
       </c>
-      <c r="H62" s="21">
+      <c r="H62" s="20">
         <v>0</v>
       </c>
-      <c r="I62" s="21">
+      <c r="I62" s="20">
         <v>0.32379999999999998</v>
       </c>
-      <c r="N62" s="20" t="s">
+      <c r="N62" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="O62" s="24">
+      <c r="O62" s="23">
         <v>1762741</v>
       </c>
-      <c r="P62" s="21">
+      <c r="P62" s="20">
         <v>1621.85</v>
       </c>
-      <c r="Q62" s="59">
+      <c r="Q62" s="55">
         <v>1797515</v>
       </c>
-      <c r="R62" s="59">
+      <c r="R62" s="55">
         <v>1804639.1</v>
       </c>
-      <c r="S62" s="60">
+      <c r="S62" s="56">
         <v>2.3769</v>
       </c>
-      <c r="T62" s="60">
+      <c r="T62" s="56">
         <v>455.73</v>
       </c>
     </row>
     <row r="63" spans="2:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="25">
+      <c r="B63" s="24">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
@@ -12099,45 +12102,45 @@
         <f t="shared" si="2"/>
         <v>TRP-S50-R11</v>
       </c>
-      <c r="E63" s="23">
+      <c r="E63" s="22">
         <v>12103</v>
       </c>
-      <c r="F63" s="23">
+      <c r="F63" s="22">
         <v>12103</v>
       </c>
-      <c r="G63" s="24">
+      <c r="G63" s="23">
         <v>12106.2</v>
       </c>
-      <c r="H63" s="21">
+      <c r="H63" s="20">
         <v>2.6440000000000002E-2</v>
       </c>
-      <c r="I63" s="21">
+      <c r="I63" s="20">
         <v>0.29530000000000001</v>
       </c>
-      <c r="N63" s="20" t="s">
+      <c r="N63" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="O63" s="24">
+      <c r="O63" s="23">
         <v>1797881</v>
       </c>
-      <c r="P63" s="21">
+      <c r="P63" s="20">
         <v>1530.98</v>
       </c>
-      <c r="Q63" s="59">
+      <c r="Q63" s="55">
         <v>1810796</v>
       </c>
-      <c r="R63" s="59">
+      <c r="R63" s="55">
         <v>1830966.2</v>
       </c>
-      <c r="S63" s="60">
+      <c r="S63" s="56">
         <v>1.8402000000000001</v>
       </c>
-      <c r="T63" s="60">
+      <c r="T63" s="56">
         <v>471.39</v>
       </c>
     </row>
     <row r="64" spans="2:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="25">
+      <c r="B64" s="24">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
@@ -12145,45 +12148,45 @@
         <f t="shared" si="2"/>
         <v>TRP-S50-R12</v>
       </c>
-      <c r="E64" s="23">
+      <c r="E64" s="22">
         <v>10633</v>
       </c>
-      <c r="F64" s="23">
+      <c r="F64" s="22">
         <v>10633</v>
       </c>
-      <c r="G64" s="24">
+      <c r="G64" s="23">
         <v>10633</v>
       </c>
-      <c r="H64" s="21">
+      <c r="H64" s="20">
         <v>0</v>
       </c>
-      <c r="I64" s="21">
+      <c r="I64" s="20">
         <v>0.3075</v>
       </c>
-      <c r="N64" s="20" t="s">
+      <c r="N64" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="O64" s="24">
+      <c r="O64" s="23">
         <v>1774452</v>
       </c>
-      <c r="P64" s="21">
+      <c r="P64" s="20">
         <v>1554.75</v>
       </c>
-      <c r="Q64" s="59">
+      <c r="Q64" s="55">
         <v>1795137</v>
       </c>
-      <c r="R64" s="59">
+      <c r="R64" s="55">
         <v>1820156.2</v>
       </c>
-      <c r="S64" s="60">
+      <c r="S64" s="56">
         <v>2.5756999999999999</v>
       </c>
-      <c r="T64" s="60">
+      <c r="T64" s="56">
         <v>489.39</v>
       </c>
     </row>
     <row r="65" spans="2:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="25">
+      <c r="B65" s="24">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
@@ -12191,47 +12194,47 @@
         <f t="shared" si="2"/>
         <v>TRP-S50-R13</v>
       </c>
-      <c r="E65" s="23">
+      <c r="E65" s="22">
         <v>12115</v>
       </c>
-      <c r="F65" s="23">
+      <c r="F65" s="22">
         <v>12115</v>
       </c>
-      <c r="G65" s="24">
+      <c r="G65" s="23">
         <v>12115</v>
       </c>
-      <c r="H65" s="21">
+      <c r="H65" s="20">
         <v>0</v>
       </c>
-      <c r="I65" s="21">
+      <c r="I65" s="20">
         <v>0.29820000000000002</v>
       </c>
-      <c r="N65" s="20" t="s">
+      <c r="N65" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="O65" s="24">
+      <c r="O65" s="23">
         <v>1873699</v>
       </c>
-      <c r="P65" s="21">
+      <c r="P65" s="20">
         <v>1598.46</v>
       </c>
-      <c r="Q65" s="59">
+      <c r="Q65" s="55">
         <v>1900017</v>
       </c>
-      <c r="R65" s="59">
+      <c r="R65" s="55">
         <v>1909468.8</v>
       </c>
-      <c r="S65" s="60">
+      <c r="S65" s="56">
         <v>1.9090472909469476</v>
       </c>
-      <c r="T65" s="60">
+      <c r="T65" s="56">
         <v>457.19</v>
       </c>
-      <c r="V65" s="61"/>
-      <c r="W65" s="61"/>
+      <c r="V65" s="57"/>
+      <c r="W65" s="57"/>
     </row>
     <row r="66" spans="2:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="25">
+      <c r="B66" s="24">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
@@ -12239,47 +12242,47 @@
         <f t="shared" si="2"/>
         <v>TRP-S50-R14</v>
       </c>
-      <c r="E66" s="23">
+      <c r="E66" s="22">
         <v>13117</v>
       </c>
-      <c r="F66" s="23">
+      <c r="F66" s="22">
         <v>13117</v>
       </c>
-      <c r="G66" s="24">
+      <c r="G66" s="23">
         <v>13129</v>
       </c>
-      <c r="H66" s="21">
+      <c r="H66" s="20">
         <v>9.1483999999999996E-2</v>
       </c>
-      <c r="I66" s="21">
+      <c r="I66" s="20">
         <v>0.2893</v>
       </c>
-      <c r="N66" s="20" t="s">
+      <c r="N66" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="O66" s="24">
+      <c r="O66" s="23">
         <v>1799171</v>
       </c>
-      <c r="P66" s="21">
+      <c r="P66" s="20">
         <v>1701.9</v>
       </c>
-      <c r="Q66" s="24">
+      <c r="Q66" s="23">
         <v>1822190</v>
       </c>
-      <c r="R66" s="24">
+      <c r="R66" s="23">
         <v>1829656</v>
       </c>
-      <c r="S66" s="21">
+      <c r="S66" s="20">
         <v>1.6943914725170646</v>
       </c>
-      <c r="T66" s="21">
+      <c r="T66" s="20">
         <v>460.45</v>
       </c>
-      <c r="V66" s="61"/>
-      <c r="W66" s="61"/>
+      <c r="V66" s="57"/>
+      <c r="W66" s="57"/>
     </row>
     <row r="67" spans="2:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="25">
+      <c r="B67" s="24">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
@@ -12287,47 +12290,47 @@
         <f t="shared" si="2"/>
         <v>TRP-S50-R15</v>
       </c>
-      <c r="E67" s="23">
+      <c r="E67" s="22">
         <v>11986</v>
       </c>
-      <c r="F67" s="23">
+      <c r="F67" s="22">
         <v>11986</v>
       </c>
-      <c r="G67" s="24">
+      <c r="G67" s="23">
         <v>11986</v>
       </c>
-      <c r="H67" s="21">
+      <c r="H67" s="20">
         <v>0</v>
       </c>
-      <c r="I67" s="21">
+      <c r="I67" s="20">
         <v>0.32050000000000001</v>
       </c>
-      <c r="N67" s="20" t="s">
+      <c r="N67" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="O67" s="24">
+      <c r="O67" s="23">
         <v>1791145</v>
       </c>
-      <c r="P67" s="21">
+      <c r="P67" s="20">
         <v>1623.79</v>
       </c>
-      <c r="Q67" s="24">
+      <c r="Q67" s="23">
         <v>1801765</v>
       </c>
-      <c r="R67" s="24">
+      <c r="R67" s="23">
         <v>1823544</v>
       </c>
-      <c r="S67" s="21">
+      <c r="S67" s="20">
         <v>1.8088429468301002</v>
       </c>
-      <c r="T67" s="21">
+      <c r="T67" s="20">
         <v>476.89</v>
       </c>
-      <c r="V67" s="61"/>
-      <c r="W67" s="61"/>
+      <c r="V67" s="57"/>
+      <c r="W67" s="57"/>
     </row>
     <row r="68" spans="2:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="25">
+      <c r="B68" s="24">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
@@ -12335,47 +12338,47 @@
         <f t="shared" si="2"/>
         <v>TRP-S50-R16</v>
       </c>
-      <c r="E68" s="23">
+      <c r="E68" s="22">
         <v>12138</v>
       </c>
-      <c r="F68" s="23">
+      <c r="F68" s="22">
         <v>12138</v>
       </c>
-      <c r="G68" s="24">
+      <c r="G68" s="23">
         <v>12138</v>
       </c>
-      <c r="H68" s="21">
+      <c r="H68" s="20">
         <v>0</v>
       </c>
-      <c r="I68" s="21">
+      <c r="I68" s="20">
         <v>0.3095</v>
       </c>
-      <c r="N68" s="20" t="s">
+      <c r="N68" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="O68" s="24">
+      <c r="O68" s="23">
         <v>1810188</v>
       </c>
-      <c r="P68" s="21">
+      <c r="P68" s="20">
         <v>1583.7</v>
       </c>
-      <c r="Q68" s="24">
+      <c r="Q68" s="23">
         <v>1834573</v>
       </c>
-      <c r="R68" s="24">
+      <c r="R68" s="23">
         <v>1840784</v>
       </c>
-      <c r="S68" s="21">
+      <c r="S68" s="20">
         <v>1.6902111824849131</v>
       </c>
-      <c r="T68" s="21">
+      <c r="T68" s="20">
         <v>451.12</v>
       </c>
-      <c r="V68" s="61"/>
-      <c r="W68" s="61"/>
+      <c r="V68" s="57"/>
+      <c r="W68" s="57"/>
     </row>
     <row r="69" spans="2:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="25">
+      <c r="B69" s="24">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
@@ -12383,47 +12386,47 @@
         <f t="shared" si="2"/>
         <v>TRP-S50-R17</v>
       </c>
-      <c r="E69" s="23">
+      <c r="E69" s="22">
         <v>12176</v>
       </c>
-      <c r="F69" s="23">
+      <c r="F69" s="22">
         <v>12176</v>
       </c>
-      <c r="G69" s="24">
+      <c r="G69" s="23">
         <v>12205.4</v>
       </c>
-      <c r="H69" s="21">
+      <c r="H69" s="20">
         <v>0.24146000000000001</v>
       </c>
-      <c r="I69" s="21">
+      <c r="I69" s="20">
         <v>0.32779999999999998</v>
       </c>
-      <c r="N69" s="20" t="s">
+      <c r="N69" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="O69" s="24">
+      <c r="O69" s="23">
         <v>1825748</v>
       </c>
-      <c r="P69" s="21">
+      <c r="P69" s="20">
         <v>1549.8</v>
       </c>
-      <c r="Q69" s="24">
+      <c r="Q69" s="23">
         <v>1857894</v>
       </c>
-      <c r="R69" s="24">
+      <c r="R69" s="23">
         <v>1871635</v>
       </c>
-      <c r="S69" s="21">
+      <c r="S69" s="20">
         <v>2.5133260449963521</v>
       </c>
-      <c r="T69" s="21">
+      <c r="T69" s="20">
         <v>488.32</v>
       </c>
-      <c r="V69" s="61"/>
-      <c r="W69" s="61"/>
+      <c r="V69" s="57"/>
+      <c r="W69" s="57"/>
     </row>
     <row r="70" spans="2:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="25">
+      <c r="B70" s="24">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
@@ -12431,47 +12434,47 @@
         <f t="shared" si="2"/>
         <v>TRP-S50-R18</v>
       </c>
-      <c r="E70" s="23">
+      <c r="E70" s="22">
         <v>13357</v>
       </c>
-      <c r="F70" s="23">
+      <c r="F70" s="22">
         <v>13357</v>
       </c>
-      <c r="G70" s="24">
+      <c r="G70" s="23">
         <v>13420.4</v>
       </c>
-      <c r="H70" s="21">
+      <c r="H70" s="20">
         <v>0.47466000000000003</v>
       </c>
-      <c r="I70" s="21">
+      <c r="I70" s="20">
         <v>0.30780000000000002</v>
       </c>
-      <c r="N70" s="20" t="s">
+      <c r="N70" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="O70" s="24">
+      <c r="O70" s="23">
         <v>1826263</v>
       </c>
-      <c r="P70" s="21">
+      <c r="P70" s="20">
         <v>1620.02</v>
       </c>
-      <c r="Q70" s="24">
+      <c r="Q70" s="23">
         <v>1864287</v>
       </c>
-      <c r="R70" s="24">
+      <c r="R70" s="23">
         <v>1876765</v>
       </c>
-      <c r="S70" s="21">
+      <c r="S70" s="20">
         <v>2.7653191243539399</v>
       </c>
-      <c r="T70" s="21">
+      <c r="T70" s="20">
         <v>497.81</v>
       </c>
-      <c r="V70" s="61"/>
-      <c r="W70" s="61"/>
+      <c r="V70" s="57"/>
+      <c r="W70" s="57"/>
     </row>
     <row r="71" spans="2:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="25">
+      <c r="B71" s="24">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
@@ -12479,47 +12482,47 @@
         <f t="shared" si="2"/>
         <v>TRP-S50-R19</v>
       </c>
-      <c r="E71" s="23">
+      <c r="E71" s="22">
         <v>11430</v>
       </c>
-      <c r="F71" s="23">
+      <c r="F71" s="22">
         <v>11430</v>
       </c>
-      <c r="G71" s="24">
+      <c r="G71" s="23">
         <v>11430</v>
       </c>
-      <c r="H71" s="21">
+      <c r="H71" s="20">
         <v>0</v>
       </c>
-      <c r="I71" s="21">
+      <c r="I71" s="20">
         <v>0.32600000000000001</v>
       </c>
-      <c r="N71" s="20" t="s">
+      <c r="N71" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="O71" s="24">
+      <c r="O71" s="23">
         <v>1779248</v>
       </c>
-      <c r="P71" s="21">
+      <c r="P71" s="20">
         <v>1602.87</v>
       </c>
-      <c r="Q71" s="24">
+      <c r="Q71" s="23">
         <v>1825407</v>
       </c>
-      <c r="R71" s="24">
+      <c r="R71" s="23">
         <v>1828812</v>
       </c>
-      <c r="S71" s="21">
+      <c r="S71" s="20">
         <v>2.7856712498763523</v>
       </c>
-      <c r="T71" s="21">
+      <c r="T71" s="20">
         <v>501.49</v>
       </c>
-      <c r="V71" s="61"/>
-      <c r="W71" s="61"/>
+      <c r="V71" s="57"/>
+      <c r="W71" s="57"/>
     </row>
     <row r="72" spans="2:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="25">
+      <c r="B72" s="24">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
@@ -12527,325 +12530,325 @@
         <f t="shared" si="2"/>
         <v>TRP-S50-R20</v>
       </c>
-      <c r="E72" s="23">
+      <c r="E72" s="22">
         <v>11935</v>
       </c>
-      <c r="F72" s="23">
+      <c r="F72" s="22">
         <v>11935</v>
       </c>
-      <c r="G72" s="24">
+      <c r="G72" s="23">
         <v>11937.7</v>
       </c>
-      <c r="H72" s="21">
+      <c r="H72" s="20">
         <v>2.2623000000000001E-2</v>
       </c>
-      <c r="I72" s="21">
+      <c r="I72" s="20">
         <v>0.30020000000000002</v>
       </c>
-      <c r="N72" s="20" t="s">
+      <c r="N72" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="O72" s="24">
+      <c r="O72" s="23">
         <v>1820813</v>
       </c>
-      <c r="P72" s="21">
+      <c r="P72" s="20">
         <v>1507.96</v>
       </c>
-      <c r="Q72" s="24">
+      <c r="Q72" s="23">
         <v>1847916</v>
       </c>
-      <c r="R72" s="24">
+      <c r="R72" s="23">
         <v>1849547</v>
       </c>
-      <c r="S72" s="21">
+      <c r="S72" s="20">
         <v>1.5780862724508227</v>
       </c>
-      <c r="T72" s="21">
+      <c r="T72" s="20">
         <v>455.57</v>
       </c>
-      <c r="V72" s="61"/>
-      <c r="W72" s="61"/>
+      <c r="V72" s="57"/>
+      <c r="W72" s="57"/>
     </row>
     <row r="73" spans="2:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="S73" s="62"/>
+      <c r="S73" s="58"/>
     </row>
     <row r="89" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D89" s="25" t="s">
+      <c r="D89" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E89" s="25">
+      <c r="E89" s="24">
         <v>1303</v>
       </c>
-      <c r="F89" s="25">
+      <c r="F89" s="24">
         <v>3175</v>
       </c>
-      <c r="G89" s="25">
+      <c r="G89" s="24">
         <v>12.198</v>
       </c>
     </row>
     <row r="90" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D90" s="25" t="s">
+      <c r="D90" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E90" s="25">
+      <c r="E90" s="24">
         <v>1517</v>
       </c>
-      <c r="F90" s="25">
+      <c r="F90" s="24">
         <v>3248</v>
       </c>
-      <c r="G90" s="25">
+      <c r="G90" s="24">
         <v>11.621</v>
       </c>
     </row>
     <row r="91" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D91" s="25" t="s">
+      <c r="D91" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E91" s="25">
+      <c r="E91" s="24">
         <v>1233</v>
       </c>
-      <c r="F91" s="25">
+      <c r="F91" s="24">
         <v>3570</v>
       </c>
-      <c r="G91" s="25">
+      <c r="G91" s="24">
         <v>12.138999999999999</v>
       </c>
     </row>
     <row r="92" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D92" s="25" t="s">
+      <c r="D92" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E92" s="25">
+      <c r="E92" s="24">
         <v>1386</v>
       </c>
-      <c r="F92" s="25">
+      <c r="F92" s="24">
         <v>2983</v>
       </c>
-      <c r="G92" s="25">
+      <c r="G92" s="24">
         <v>13.071</v>
       </c>
     </row>
     <row r="93" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D93" s="25" t="s">
+      <c r="D93" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E93" s="25">
+      <c r="E93" s="24">
         <v>978</v>
       </c>
-      <c r="F93" s="25">
+      <c r="F93" s="24">
         <v>3248</v>
       </c>
-      <c r="G93" s="25">
+      <c r="G93" s="24">
         <v>12.125999999999999</v>
       </c>
     </row>
     <row r="94" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D94" s="25" t="s">
+      <c r="D94" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E94" s="25">
+      <c r="E94" s="24">
         <v>1477</v>
       </c>
-      <c r="F94" s="25">
+      <c r="F94" s="24">
         <v>3328</v>
       </c>
-      <c r="G94" s="25">
+      <c r="G94" s="24">
         <v>12.683999999999999</v>
       </c>
     </row>
     <row r="95" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D95" s="25" t="s">
+      <c r="D95" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E95" s="25">
+      <c r="E95" s="24">
         <v>1163</v>
       </c>
-      <c r="F95" s="25">
+      <c r="F95" s="24">
         <v>2809</v>
       </c>
-      <c r="G95" s="25">
+      <c r="G95" s="24">
         <v>11.176</v>
       </c>
     </row>
     <row r="96" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D96" s="25" t="s">
+      <c r="D96" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E96" s="25">
+      <c r="E96" s="24">
         <v>1234</v>
       </c>
-      <c r="F96" s="25">
+      <c r="F96" s="24">
         <v>3461</v>
       </c>
-      <c r="G96" s="25">
+      <c r="G96" s="24">
         <v>12.91</v>
       </c>
     </row>
     <row r="97" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D97" s="25" t="s">
+      <c r="D97" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E97" s="25">
+      <c r="E97" s="24">
         <v>1402</v>
       </c>
-      <c r="F97" s="25">
+      <c r="F97" s="24">
         <v>3475</v>
       </c>
-      <c r="G97" s="25">
+      <c r="G97" s="24">
         <v>13.148999999999999</v>
       </c>
     </row>
     <row r="98" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D98" s="25" t="s">
+      <c r="D98" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E98" s="25">
+      <c r="E98" s="24">
         <v>1388</v>
       </c>
-      <c r="F98" s="25">
+      <c r="F98" s="24">
         <v>3359</v>
       </c>
-      <c r="G98" s="25">
+      <c r="G98" s="24">
         <v>12.891999999999999</v>
       </c>
     </row>
     <row r="99" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D99" s="25" t="s">
+      <c r="D99" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E99" s="25">
+      <c r="E99" s="24">
         <v>1405</v>
       </c>
-      <c r="F99" s="25">
+      <c r="F99" s="24">
         <v>2916</v>
       </c>
-      <c r="G99" s="25">
+      <c r="G99" s="24">
         <v>12.103</v>
       </c>
     </row>
     <row r="100" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D100" s="25" t="s">
+      <c r="D100" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E100" s="25">
+      <c r="E100" s="24">
         <v>1150</v>
       </c>
-      <c r="F100" s="25">
+      <c r="F100" s="24">
         <v>3314</v>
       </c>
-      <c r="G100" s="25">
+      <c r="G100" s="24">
         <v>10.632999999999999</v>
       </c>
     </row>
     <row r="101" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D101" s="25" t="s">
+      <c r="D101" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E101" s="25">
+      <c r="E101" s="24">
         <v>1531</v>
       </c>
-      <c r="F101" s="25">
+      <c r="F101" s="24">
         <v>3412</v>
       </c>
-      <c r="G101" s="25">
+      <c r="G101" s="24">
         <v>12.115</v>
       </c>
     </row>
     <row r="102" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D102" s="25" t="s">
+      <c r="D102" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E102" s="25">
+      <c r="E102" s="24">
         <v>1219</v>
       </c>
-      <c r="F102" s="25">
+      <c r="F102" s="24">
         <v>3297</v>
       </c>
-      <c r="G102" s="25">
+      <c r="G102" s="24">
         <v>13.117000000000001</v>
       </c>
     </row>
     <row r="103" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D103" s="25" t="s">
+      <c r="D103" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E103" s="25">
+      <c r="E103" s="24">
         <v>1087</v>
       </c>
-      <c r="F103" s="25">
+      <c r="F103" s="24">
         <v>2862</v>
       </c>
-      <c r="G103" s="25">
+      <c r="G103" s="24">
         <v>11.986000000000001</v>
       </c>
     </row>
     <row r="104" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D104" s="25" t="s">
+      <c r="D104" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E104" s="25">
+      <c r="E104" s="24">
         <v>1264</v>
       </c>
-      <c r="F104" s="25">
+      <c r="F104" s="24">
         <v>3433</v>
       </c>
-      <c r="G104" s="25">
+      <c r="G104" s="24">
         <v>12.138</v>
       </c>
     </row>
     <row r="105" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D105" s="25" t="s">
+      <c r="D105" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E105" s="25">
+      <c r="E105" s="24">
         <v>1058</v>
       </c>
-      <c r="F105" s="25">
+      <c r="F105" s="24">
         <v>2913</v>
       </c>
-      <c r="G105" s="25">
+      <c r="G105" s="24">
         <v>12.176</v>
       </c>
     </row>
     <row r="106" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D106" s="25" t="s">
+      <c r="D106" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E106" s="25">
+      <c r="E106" s="24">
         <v>1083</v>
       </c>
-      <c r="F106" s="25">
+      <c r="F106" s="24">
         <v>3124</v>
       </c>
-      <c r="G106" s="25">
+      <c r="G106" s="24">
         <v>13.356999999999999</v>
       </c>
     </row>
     <row r="107" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D107" s="25" t="s">
+      <c r="D107" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E107" s="25">
+      <c r="E107" s="24">
         <v>1394</v>
       </c>
-      <c r="F107" s="25">
+      <c r="F107" s="24">
         <v>3299</v>
       </c>
-      <c r="G107" s="25">
+      <c r="G107" s="24">
         <v>11.43</v>
       </c>
     </row>
     <row r="108" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D108" s="25" t="s">
+      <c r="D108" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E108" s="25">
+      <c r="E108" s="24">
         <v>951</v>
       </c>
-      <c r="F108" s="25">
+      <c r="F108" s="24">
         <v>2796</v>
       </c>
-      <c r="G108" s="25">
+      <c r="G108" s="24">
         <v>11.935</v>
       </c>
     </row>

--- a/tabele/prvaTabela.xlsx
+++ b/tabele/prvaTabela.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="211">
   <si>
     <t>swiss42</t>
   </si>
@@ -679,6 +679,15 @@
   </si>
   <si>
     <t>GVNS-SA</t>
+  </si>
+  <si>
+    <t>најб. реш.</t>
+  </si>
+  <si>
+    <t>пр. време (s)</t>
+  </si>
+  <si>
+    <t>одст. (%)</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1109,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1261,6 +1270,9 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1499,11 +1511,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-646868112"/>
-        <c:axId val="-646878992"/>
+        <c:axId val="-80419168"/>
+        <c:axId val="-80420800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-646868112"/>
+        <c:axId val="-80419168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1602,7 +1614,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-646878992"/>
+        <c:crossAx val="-80420800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1610,7 +1622,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-646878992"/>
+        <c:axId val="-80420800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2500"/>
@@ -1735,7 +1747,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-646868112"/>
+        <c:crossAx val="-80419168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2019,11 +2031,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-646867568"/>
-        <c:axId val="-646881168"/>
+        <c:axId val="-80414816"/>
+        <c:axId val="-80424608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-646867568"/>
+        <c:axId val="-80414816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2122,7 +2134,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-646881168"/>
+        <c:crossAx val="-80424608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2130,7 +2142,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-646881168"/>
+        <c:axId val="-80424608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2500"/>
@@ -2177,7 +2189,7 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>време</a:t>
+                  <a:t>просечно</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="sr-Cyrl-RS" baseline="0">
@@ -2185,7 +2197,15 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t> извршавања</a:t>
+                  <a:t> време извршавања </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>(s)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB">
                   <a:solidFill>
@@ -2255,7 +2275,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-646867568"/>
+        <c:crossAx val="-80414816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3460,16 +3480,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>629337</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>110943</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>214718</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>144560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>135043</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>13002</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>504836</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>46619</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4032,16 +4052,16 @@
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="19"/>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59" t="s">
+      <c r="E2" s="60"/>
+      <c r="F2" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
       <c r="K2" t="s">
         <v>107</v>
       </c>
@@ -4053,20 +4073,20 @@
       <c r="D3" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>143</v>
+      <c r="E3" s="59" t="s">
+        <v>209</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>148</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>143</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4857,7 +4877,7 @@
   <dimension ref="C4:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+      <selection activeCell="C4" sqref="C4:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4871,45 +4891,45 @@
   <sheetData>
     <row r="4" spans="3:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="16"/>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59" t="s">
+      <c r="E4" s="60"/>
+      <c r="F4" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
     </row>
     <row r="5" spans="3:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="17" t="s">
         <v>147</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>143</v>
+        <v>208</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>209</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>148</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>143</v>
+        <v>210</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="3:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <v>19215</v>
       </c>
       <c r="E6" s="20">
@@ -4950,7 +4970,7 @@
       <c r="C7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="22">
         <v>54984</v>
       </c>
       <c r="E7" s="20">
@@ -4991,7 +5011,7 @@
       <c r="C8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="22">
         <v>949594</v>
       </c>
       <c r="E8" s="20">
@@ -5032,7 +5052,7 @@
       <c r="C9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="22">
         <v>585823</v>
       </c>
       <c r="E9" s="20">
@@ -5073,7 +5093,7 @@
       <c r="C10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="22">
         <v>1980767</v>
       </c>
       <c r="E10" s="20">
@@ -5114,7 +5134,7 @@
       <c r="C11" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="22">
         <v>210191</v>
       </c>
       <c r="E11" s="20">
@@ -5155,7 +5175,7 @@
       <c r="C12" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="22">
         <v>7100308</v>
       </c>
       <c r="E12" s="20">
@@ -5196,7 +5216,7 @@
       <c r="C13" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="22">
         <v>5560679</v>
       </c>
       <c r="E13" s="20">
@@ -5237,7 +5257,7 @@
       <c r="C14" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="22">
         <v>17688561</v>
       </c>
       <c r="E14" s="20">
@@ -5278,7 +5298,7 @@
       <c r="C15" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="22">
         <v>5581240</v>
       </c>
       <c r="E15" s="20">
@@ -9379,8 +9399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AC108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y36" sqref="Y36"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S29" sqref="Q18:T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9410,37 +9430,37 @@
   <sheetData>
     <row r="2" spans="4:29" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="4:29" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="59" t="s">
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
       <c r="J3" s="25"/>
       <c r="N3" s="16"/>
-      <c r="O3" s="59" t="s">
+      <c r="O3" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59" t="s">
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
       <c r="W3" s="13"/>
-      <c r="X3" s="63" t="s">
+      <c r="X3" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="61" t="s">
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="61"/>
-      <c r="AC3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="63"/>
     </row>
     <row r="4" spans="4:29" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D4" s="17" t="s">
@@ -9450,38 +9470,41 @@
         <v>146</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>148</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>143</v>
+        <v>210</v>
+      </c>
+      <c r="I4" s="59" t="s">
+        <v>209</v>
       </c>
       <c r="J4" s="25"/>
+      <c r="K4" s="17" t="s">
+        <v>208</v>
+      </c>
       <c r="N4" s="17" t="s">
         <v>147</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="P4" s="18" t="s">
-        <v>143</v>
+        <v>208</v>
+      </c>
+      <c r="P4" s="59" t="s">
+        <v>209</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="R4" s="17" t="s">
         <v>148</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="T4" s="18" t="s">
-        <v>143</v>
+        <v>210</v>
+      </c>
+      <c r="T4" s="59" t="s">
+        <v>209</v>
       </c>
       <c r="W4" s="26" t="s">
         <v>147</v>
@@ -9528,13 +9551,13 @@
       <c r="N5" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="22">
         <v>32779</v>
       </c>
       <c r="P5" s="20">
         <v>7.05</v>
       </c>
-      <c r="Q5" s="23">
+      <c r="Q5" s="22">
         <v>32779</v>
       </c>
       <c r="R5" s="23">
@@ -9577,13 +9600,13 @@
       <c r="N6" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="23">
+      <c r="O6" s="22">
         <v>33435</v>
       </c>
       <c r="P6" s="20">
         <v>7.51</v>
       </c>
-      <c r="Q6" s="23">
+      <c r="Q6" s="22">
         <v>33435</v>
       </c>
       <c r="R6" s="23">
@@ -9626,13 +9649,13 @@
       <c r="N7" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="O7" s="23">
+      <c r="O7" s="22">
         <v>32390</v>
       </c>
       <c r="P7" s="20">
         <v>7.07</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="Q7" s="22">
         <v>32390</v>
       </c>
       <c r="R7" s="23">
@@ -9675,13 +9698,13 @@
       <c r="N8" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="O8" s="23">
+      <c r="O8" s="22">
         <v>34733</v>
       </c>
       <c r="P8" s="20">
         <v>7.27</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="22">
         <v>34733</v>
       </c>
       <c r="R8" s="23">
@@ -9724,13 +9747,13 @@
       <c r="N9" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="O9" s="23">
+      <c r="O9" s="22">
         <v>32598</v>
       </c>
       <c r="P9" s="20">
         <v>8.8699999999999992</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="Q9" s="22">
         <v>32598</v>
       </c>
       <c r="R9" s="23">
@@ -9773,13 +9796,13 @@
       <c r="N10" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="O10" s="23">
+      <c r="O10" s="22">
         <v>34159</v>
       </c>
       <c r="P10" s="20">
         <v>7.82</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="Q10" s="22">
         <v>34159</v>
       </c>
       <c r="R10" s="23">
@@ -9822,13 +9845,13 @@
       <c r="N11" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="O11" s="23">
+      <c r="O11" s="22">
         <v>33375</v>
       </c>
       <c r="P11" s="20">
         <v>8.74</v>
       </c>
-      <c r="Q11" s="23">
+      <c r="Q11" s="22">
         <v>33375</v>
       </c>
       <c r="R11" s="23">
@@ -9871,13 +9894,13 @@
       <c r="N12" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="O12" s="23">
+      <c r="O12" s="22">
         <v>31780</v>
       </c>
       <c r="P12" s="20">
         <v>7.08</v>
       </c>
-      <c r="Q12" s="23">
+      <c r="Q12" s="22">
         <v>31780</v>
       </c>
       <c r="R12" s="23">
@@ -9920,13 +9943,13 @@
       <c r="N13" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="O13" s="23">
+      <c r="O13" s="22">
         <v>34167</v>
       </c>
       <c r="P13" s="20">
         <v>7.47</v>
       </c>
-      <c r="Q13" s="23">
+      <c r="Q13" s="22">
         <v>34167</v>
       </c>
       <c r="R13" s="23">
@@ -9969,13 +9992,13 @@
       <c r="N14" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="O14" s="23">
+      <c r="O14" s="22">
         <v>31605</v>
       </c>
       <c r="P14" s="20">
         <v>6.78</v>
       </c>
-      <c r="Q14" s="23">
+      <c r="Q14" s="22">
         <v>31605</v>
       </c>
       <c r="R14" s="23">
@@ -10018,13 +10041,13 @@
       <c r="N15" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="O15" s="23">
+      <c r="O15" s="22">
         <v>34188</v>
       </c>
       <c r="P15" s="20">
         <v>7.75</v>
       </c>
-      <c r="Q15" s="23">
+      <c r="Q15" s="22">
         <v>34188</v>
       </c>
       <c r="R15" s="23">
@@ -10067,13 +10090,13 @@
       <c r="N16" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="O16" s="23">
+      <c r="O16" s="22">
         <v>32146</v>
       </c>
       <c r="P16" s="20">
         <v>7.2</v>
       </c>
-      <c r="Q16" s="23">
+      <c r="Q16" s="22">
         <v>32146</v>
       </c>
       <c r="R16" s="23">
@@ -10116,13 +10139,13 @@
       <c r="N17" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="O17" s="23">
+      <c r="O17" s="22">
         <v>32604</v>
       </c>
       <c r="P17" s="20">
         <v>7.78</v>
       </c>
-      <c r="Q17" s="23">
+      <c r="Q17" s="22">
         <v>32604</v>
       </c>
       <c r="R17" s="23">
@@ -10165,7 +10188,7 @@
       <c r="N18" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="O18" s="23">
+      <c r="O18" s="22">
         <v>32433</v>
       </c>
       <c r="P18" s="20">
@@ -10214,13 +10237,13 @@
       <c r="N19" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="O19" s="23">
+      <c r="O19" s="22">
         <v>32574</v>
       </c>
       <c r="P19" s="20">
         <v>7.13</v>
       </c>
-      <c r="Q19" s="23">
+      <c r="Q19" s="22">
         <v>32574</v>
       </c>
       <c r="R19" s="23">
@@ -10263,13 +10286,13 @@
       <c r="N20" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="O20" s="23">
+      <c r="O20" s="22">
         <v>33566</v>
       </c>
       <c r="P20" s="20">
         <v>7.97</v>
       </c>
-      <c r="Q20" s="23">
+      <c r="Q20" s="22">
         <v>33566</v>
       </c>
       <c r="R20" s="23">
@@ -10312,13 +10335,13 @@
       <c r="N21" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="O21" s="23">
+      <c r="O21" s="22">
         <v>34198</v>
       </c>
       <c r="P21" s="20">
         <v>9.23</v>
       </c>
-      <c r="Q21" s="23">
+      <c r="Q21" s="22">
         <v>34198</v>
       </c>
       <c r="R21" s="23">
@@ -10361,13 +10384,13 @@
       <c r="N22" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="O22" s="23">
+      <c r="O22" s="22">
         <v>31929</v>
       </c>
       <c r="P22" s="20">
         <v>7.07</v>
       </c>
-      <c r="Q22" s="23">
+      <c r="Q22" s="22">
         <v>31929</v>
       </c>
       <c r="R22" s="23">
@@ -10410,13 +10433,13 @@
       <c r="N23" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="O23" s="23">
+      <c r="O23" s="22">
         <v>33463</v>
       </c>
       <c r="P23" s="20">
         <v>8.08</v>
       </c>
-      <c r="Q23" s="23">
+      <c r="Q23" s="22">
         <v>33463</v>
       </c>
       <c r="R23" s="23">
@@ -10459,13 +10482,13 @@
       <c r="N24" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="O24" s="23">
+      <c r="O24" s="22">
         <v>33632</v>
       </c>
       <c r="P24" s="20">
         <v>8.73</v>
       </c>
-      <c r="Q24" s="23">
+      <c r="Q24" s="22">
         <v>33632</v>
       </c>
       <c r="R24" s="23">
@@ -10532,25 +10555,25 @@
       <c r="AC26" s="47"/>
     </row>
     <row r="27" spans="2:29" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="59" t="s">
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
       <c r="N27" s="16"/>
-      <c r="O27" s="59" t="s">
+      <c r="O27" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59" t="s">
+      <c r="P27" s="60"/>
+      <c r="Q27" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="R27" s="59"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="59"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="60"/>
+      <c r="T27" s="60"/>
     </row>
     <row r="28" spans="2:29" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D28" s="17" t="s">
@@ -10560,37 +10583,37 @@
         <v>146</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>148</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>143</v>
+        <v>210</v>
+      </c>
+      <c r="I28" s="59" t="s">
+        <v>209</v>
       </c>
       <c r="N28" s="17" t="s">
         <v>147</v>
       </c>
       <c r="O28" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="P28" s="18" t="s">
-        <v>143</v>
+        <v>208</v>
+      </c>
+      <c r="P28" s="59" t="s">
+        <v>209</v>
       </c>
       <c r="Q28" s="17" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="R28" s="17" t="s">
         <v>148</v>
       </c>
       <c r="S28" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="T28" s="18" t="s">
-        <v>143</v>
+        <v>210</v>
+      </c>
+      <c r="T28" s="59" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="2:29" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10622,7 +10645,7 @@
       <c r="N29" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="O29" s="23">
+      <c r="O29" s="22">
         <v>88787</v>
       </c>
       <c r="P29" s="20">
@@ -10671,7 +10694,7 @@
       <c r="N30" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="O30" s="23">
+      <c r="O30" s="22">
         <v>91977</v>
       </c>
       <c r="P30" s="20">
@@ -10720,13 +10743,13 @@
       <c r="N31" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="O31" s="23">
+      <c r="O31" s="22">
         <v>92568</v>
       </c>
       <c r="P31" s="20">
         <v>67.11</v>
       </c>
-      <c r="Q31" s="23">
+      <c r="Q31" s="22">
         <v>92568</v>
       </c>
       <c r="R31" s="23">
@@ -10769,13 +10792,13 @@
       <c r="N32" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="O32" s="23">
+      <c r="O32" s="22">
         <v>93174</v>
       </c>
       <c r="P32" s="20">
         <v>72.17</v>
       </c>
-      <c r="Q32" s="23">
+      <c r="Q32" s="22">
         <v>93174</v>
       </c>
       <c r="R32" s="23">
@@ -10818,13 +10841,13 @@
       <c r="N33" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="O33" s="23">
+      <c r="O33" s="22">
         <v>88737</v>
       </c>
       <c r="P33" s="20">
         <v>70.77</v>
       </c>
-      <c r="Q33" s="23">
+      <c r="Q33" s="22">
         <v>88737</v>
       </c>
       <c r="R33" s="23">
@@ -10867,13 +10890,13 @@
       <c r="N34" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="O34" s="23">
+      <c r="O34" s="22">
         <v>91589</v>
       </c>
       <c r="P34" s="20">
         <v>70.52</v>
       </c>
-      <c r="Q34" s="23">
+      <c r="Q34" s="22">
         <v>91589</v>
       </c>
       <c r="R34" s="23">
@@ -10916,7 +10939,7 @@
       <c r="N35" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="O35" s="23">
+      <c r="O35" s="22">
         <v>92754</v>
       </c>
       <c r="P35" s="20">
@@ -10965,7 +10988,7 @@
       <c r="N36" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="O36" s="23">
+      <c r="O36" s="22">
         <v>89048</v>
       </c>
       <c r="P36" s="20">
@@ -11014,13 +11037,13 @@
       <c r="N37" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="O37" s="23">
+      <c r="O37" s="22">
         <v>86326</v>
       </c>
       <c r="P37" s="20">
         <v>65.45</v>
       </c>
-      <c r="Q37" s="23">
+      <c r="Q37" s="22">
         <v>86326</v>
       </c>
       <c r="R37" s="23">
@@ -11063,7 +11086,7 @@
       <c r="N38" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="O38" s="23">
+      <c r="O38" s="22">
         <v>91552</v>
       </c>
       <c r="P38" s="20">
@@ -11112,7 +11135,7 @@
       <c r="N39" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="O39" s="23">
+      <c r="O39" s="22">
         <v>92655</v>
       </c>
       <c r="P39" s="20">
@@ -11161,13 +11184,13 @@
       <c r="N40" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="O40" s="23">
+      <c r="O40" s="22">
         <v>91457</v>
       </c>
       <c r="P40" s="20">
         <v>76.739999999999995</v>
       </c>
-      <c r="Q40" s="23">
+      <c r="Q40" s="22">
         <v>91457</v>
       </c>
       <c r="R40" s="23">
@@ -11210,13 +11233,13 @@
       <c r="N41" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="O41" s="23">
+      <c r="O41" s="22">
         <v>86155</v>
       </c>
       <c r="P41" s="20">
         <v>72.959999999999994</v>
       </c>
-      <c r="Q41" s="23">
+      <c r="Q41" s="22">
         <v>86155</v>
       </c>
       <c r="R41" s="23">
@@ -11259,7 +11282,7 @@
       <c r="N42" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="O42" s="23">
+      <c r="O42" s="22">
         <v>91882</v>
       </c>
       <c r="P42" s="20">
@@ -11308,7 +11331,7 @@
       <c r="N43" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="O43" s="23">
+      <c r="O43" s="22">
         <v>88912</v>
       </c>
       <c r="P43" s="20">
@@ -11357,13 +11380,13 @@
       <c r="N44" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="O44" s="23">
+      <c r="O44" s="22">
         <v>89311</v>
       </c>
       <c r="P44" s="20">
         <v>77.89</v>
       </c>
-      <c r="Q44" s="23">
+      <c r="Q44" s="22">
         <v>89311</v>
       </c>
       <c r="R44" s="23">
@@ -11406,13 +11429,13 @@
       <c r="N45" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="O45" s="23">
+      <c r="O45" s="22">
         <v>89089</v>
       </c>
       <c r="P45" s="20">
         <v>71.17</v>
       </c>
-      <c r="Q45" s="23">
+      <c r="Q45" s="22">
         <v>89089</v>
       </c>
       <c r="R45" s="23">
@@ -11455,7 +11478,7 @@
       <c r="N46" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="O46" s="23">
+      <c r="O46" s="22">
         <v>93619</v>
       </c>
       <c r="P46" s="20">
@@ -11504,7 +11527,7 @@
       <c r="N47" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="O47" s="23">
+      <c r="O47" s="22">
         <v>93369</v>
       </c>
       <c r="P47" s="20">
@@ -11553,7 +11576,7 @@
       <c r="N48" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="O48" s="23">
+      <c r="O48" s="22">
         <v>86292</v>
       </c>
       <c r="P48" s="20">
@@ -11573,25 +11596,25 @@
       </c>
     </row>
     <row r="51" spans="2:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="59" t="s">
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
       <c r="N51" s="16"/>
-      <c r="O51" s="59" t="s">
+      <c r="O51" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="P51" s="59"/>
-      <c r="Q51" s="59" t="s">
+      <c r="P51" s="60"/>
+      <c r="Q51" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="R51" s="59"/>
-      <c r="S51" s="59"/>
-      <c r="T51" s="59"/>
+      <c r="R51" s="60"/>
+      <c r="S51" s="60"/>
+      <c r="T51" s="60"/>
     </row>
     <row r="52" spans="2:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D52" s="17" t="s">
@@ -11601,37 +11624,37 @@
         <v>146</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="G52" s="17" t="s">
         <v>148</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="I52" s="18" t="s">
-        <v>143</v>
+        <v>210</v>
+      </c>
+      <c r="I52" s="59" t="s">
+        <v>209</v>
       </c>
       <c r="N52" s="17" t="s">
         <v>147</v>
       </c>
       <c r="O52" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="P52" s="18" t="s">
-        <v>143</v>
+        <v>208</v>
+      </c>
+      <c r="P52" s="59" t="s">
+        <v>209</v>
       </c>
       <c r="Q52" s="17" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="R52" s="17" t="s">
         <v>148</v>
       </c>
       <c r="S52" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="T52" s="18" t="s">
-        <v>143</v>
+        <v>210</v>
+      </c>
+      <c r="T52" s="59" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="2:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11660,7 +11683,7 @@
       <c r="N53" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="O53" s="23">
+      <c r="O53" s="22">
         <v>1841386</v>
       </c>
       <c r="P53" s="20">
@@ -11706,7 +11729,7 @@
       <c r="N54" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="O54" s="23">
+      <c r="O54" s="22">
         <v>1816568</v>
       </c>
       <c r="P54" s="20">
@@ -11752,7 +11775,7 @@
       <c r="N55" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="O55" s="23">
+      <c r="O55" s="22">
         <v>1833044</v>
       </c>
       <c r="P55" s="20">
@@ -11798,7 +11821,7 @@
       <c r="N56" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="O56" s="23">
+      <c r="O56" s="22">
         <v>1809266</v>
       </c>
       <c r="P56" s="20">
@@ -11844,7 +11867,7 @@
       <c r="N57" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="O57" s="23">
+      <c r="O57" s="22">
         <v>1823975</v>
       </c>
       <c r="P57" s="20">
@@ -11890,7 +11913,7 @@
       <c r="N58" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="O58" s="23">
+      <c r="O58" s="22">
         <v>1786620</v>
       </c>
       <c r="P58" s="20">
@@ -11936,7 +11959,7 @@
       <c r="N59" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="O59" s="23">
+      <c r="O59" s="22">
         <v>1847999</v>
       </c>
       <c r="P59" s="20">
@@ -11982,7 +12005,7 @@
       <c r="N60" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="O60" s="23">
+      <c r="O60" s="22">
         <v>1820846</v>
       </c>
       <c r="P60" s="20">
@@ -12028,7 +12051,7 @@
       <c r="N61" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="O61" s="23">
+      <c r="O61" s="22">
         <v>1733819</v>
       </c>
       <c r="P61" s="20">
@@ -12074,7 +12097,7 @@
       <c r="N62" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="O62" s="23">
+      <c r="O62" s="22">
         <v>1762741</v>
       </c>
       <c r="P62" s="20">
@@ -12120,7 +12143,7 @@
       <c r="N63" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="O63" s="23">
+      <c r="O63" s="22">
         <v>1797881</v>
       </c>
       <c r="P63" s="20">
@@ -12166,7 +12189,7 @@
       <c r="N64" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="O64" s="23">
+      <c r="O64" s="22">
         <v>1774452</v>
       </c>
       <c r="P64" s="20">
@@ -12212,7 +12235,7 @@
       <c r="N65" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="O65" s="23">
+      <c r="O65" s="22">
         <v>1873699</v>
       </c>
       <c r="P65" s="20">
@@ -12260,7 +12283,7 @@
       <c r="N66" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="O66" s="23">
+      <c r="O66" s="22">
         <v>1799171</v>
       </c>
       <c r="P66" s="20">
@@ -12308,7 +12331,7 @@
       <c r="N67" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="O67" s="23">
+      <c r="O67" s="22">
         <v>1791145</v>
       </c>
       <c r="P67" s="20">
@@ -12356,7 +12379,7 @@
       <c r="N68" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="O68" s="23">
+      <c r="O68" s="22">
         <v>1810188</v>
       </c>
       <c r="P68" s="20">
@@ -12404,7 +12427,7 @@
       <c r="N69" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="O69" s="23">
+      <c r="O69" s="22">
         <v>1825748</v>
       </c>
       <c r="P69" s="20">
@@ -12452,7 +12475,7 @@
       <c r="N70" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="O70" s="23">
+      <c r="O70" s="22">
         <v>1826263</v>
       </c>
       <c r="P70" s="20">
@@ -12500,7 +12523,7 @@
       <c r="N71" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="O71" s="23">
+      <c r="O71" s="22">
         <v>1779248</v>
       </c>
       <c r="P71" s="20">
@@ -12548,7 +12571,7 @@
       <c r="N72" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="O72" s="23">
+      <c r="O72" s="22">
         <v>1820813</v>
       </c>
       <c r="P72" s="20">
